--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,6 +754,3254 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5556985</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>['22', '38']</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5556988</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45052.625</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Vitória Futebol Clube (ES)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Resende</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5556929</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45052.64583333334</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ceilândia</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Iporá</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['4', '45+1', '57', '61']</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5557098</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45052.64583333334</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Independiente FSJ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Caxias</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>['42', '90+3']</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5556931</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45052.66666666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Interporto</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>União Rondonópolis</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>['86', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5556932</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45052.66666666666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CEOV Operário</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brasiliense</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>['9', '58']</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5556708</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45052.66666666666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Trem</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tuna Luso</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>13</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5556874</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45052.66666666666</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Falcon</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Retrô</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5557042</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45052.66666666666</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cascavel CR</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CRAC</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>['26', '45+5']</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5556873</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45052.70833333334</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Bahia de Feira</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>['38', '42', '90+5']</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>17</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5556930</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45052.70833333334</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Anápolis</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Real Ariquemes</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5557043</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45052.70833333334</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ferroviária</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Operário MT</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5557041</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45052.70833333334</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>XV de Piracicaba</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5556987</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45052.75</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Portuguesa RJ</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Noroeste</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>['8', '53', '64', '75', '90+5']</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>['42', '57']</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5557044</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45052.75</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Inter de Limeira</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5556820</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45052.79166666666</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pacajus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Campinense</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['83', '87']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>['39', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T13" t="n">
         <v>2.24</v>
@@ -3172,22 +3172,22 @@
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG13" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH13" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BI13" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK13" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -4000,6 +4000,3254 @@
       </c>
       <c r="BK17" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5556763</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45053.625</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Cordino</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['42', '79']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['13', '21']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5557100</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45053.625</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Concórdia AC</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Brasil de Pelotas</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['7', '52']</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>9</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5556705</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Águia de Marabá</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Princesa Solimões</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['24', '45+4', '85']</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5556706</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Nacional AM</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Humaitá</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['18', '47', '62']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>16</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5556817</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Nacional de Patos</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Potiguar Mossoró</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>['90+3', '90+5']</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>12</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5556764</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Maranhão</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Uniclinic</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5556818</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Globo</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sousa</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['52', '87']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['3', '23', '69', '74', '79']</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5557097</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Aimoré</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Hercílio Luz</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5556875</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Jacuipense</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ASA</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['13', '22']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>11</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>14</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5556876</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45053.66666666666</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cruzeiro Arapiraca</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Atlético Alagoinhas</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5556762</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45053.70833333334</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Parnahyba</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5556761</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45053.70833333334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Ferroviário</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Fluminense PI</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['63', '79']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V29" t="n">
+        <v>15</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5556707</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45053.75</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>São Francisco</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>São Raimundo RR</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>9</v>
+      </c>
+      <c r="S30" t="n">
+        <v>11</v>
+      </c>
+      <c r="T30" t="n">
+        <v>7</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5557099</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45053.75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Novo Hamburgo</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Camboriú</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['21', '39', '61']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>7</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5556819</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45054.83333333334</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Iguatu</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5556986</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45054.85416666666</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Democrata GV</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Santo André</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>8</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>11</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7250,6 +7250,6502 @@
         <v>13</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5557103</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45059.625</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hercílio Luz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Novo Hamburgo</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>6</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5556992</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45059.625</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Resende</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Democrata GV</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>13</v>
+      </c>
+      <c r="R35" t="n">
+        <v>11</v>
+      </c>
+      <c r="S35" t="n">
+        <v>24</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5556768</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45059.625</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Uniclinic</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Parnahyba</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6</v>
+      </c>
+      <c r="S36" t="n">
+        <v>13</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5556990</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45059.625</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Santo André</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Vitória Futebol Clube (ES)</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7</v>
+      </c>
+      <c r="S37" t="n">
+        <v>9</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5556989</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45059.64583333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Noroeste</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['36', '86']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>8</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>11</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5556933</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45059.66666666666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>União Rondonópolis</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Ceilândia</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>9</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>12</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5556821</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45059.66666666666</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Iguatu</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Nacional de Patos</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>9</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>11</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5557048</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45059.66666666666</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Inter de Limeira</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Cascavel CR</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5556765</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45059.70833333334</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Cordino</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Ferroviário</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>8</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>13</v>
+      </c>
+      <c r="T42" t="n">
+        <v>6</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5556936</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45059.70833333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Brasiliense</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Anápolis</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['82', '87']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['22', '31']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5557101</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45059.70833333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Camboriú</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Aimoré</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>8</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5556878</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45059.70833333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Retrô</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Cruzeiro Arapiraca</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>9</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>11</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5556709</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45059.70833333334</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>São Raimundo RR</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Águia de Marabá</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['41', '43', '90+3']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>10</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>14</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5556880</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45059.70833333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Atlético Alagoinhas</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Falcon</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5556877</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45059.70833333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ASA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Bahia de Feira</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>8</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6</v>
+      </c>
+      <c r="S48" t="n">
+        <v>14</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5556991</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45059.70833333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Portuguesa RJ</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['84', '90']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>5</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5556710</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Humaitá</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Trem</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['3', '69', '90+4']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>8</v>
+      </c>
+      <c r="S50" t="n">
+        <v>12</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5557046</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>CRAC</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['56', '59']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>8</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7</v>
+      </c>
+      <c r="S51" t="n">
+        <v>15</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5557047</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45059.79166666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Ferroviária</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>7</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5556712</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45060.625</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Tuna Luso</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Nacional AM</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['67', '83']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7</v>
+      </c>
+      <c r="S53" t="n">
+        <v>13</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5557102</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45060.625</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Caxias</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Concórdia AC</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['34', '53']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>8</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V54" t="n">
+        <v>5</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5556935</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45060.64583333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Iporá</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Interporto</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>9</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['5', '47', '52', '58', '63', '72', '89', '90+2']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V55" t="n">
+        <v>6</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5556767</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45060.64583333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Fluminense PI</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['49', '84']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['45+5', '45+23']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5556822</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Sousa</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Pacajus</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['52', '63']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>7</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>12</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5556766</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Maranhão</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>8</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5557104</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Brasil de Pelotas</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Independiente FSJ</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['40', '78']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['51', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>6</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5556934</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Real Ariquemes</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>CEOV Operário</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['19', '38']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>6</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>9</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5556823</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45060.70833333334</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Potiguar Mossoró</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['64', '90+6']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>6</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5557045</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45060.70833333334</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Operário MT</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>XV de Piracicaba</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6</v>
+      </c>
+      <c r="S62" t="n">
+        <v>11</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5556879</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45060.70833333334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Jacuipense</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['32', '42']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>15</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>19</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5556824</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45060.70833333334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Campinense</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Globo</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>4</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['62', '71', '84', '89']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>8</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>9</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5556711</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45060.70833333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Princesa Solimões</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>São Francisco</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['21', '43', '67', '77']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>3</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT40" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>3</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>3</v>
       </c>
       <c r="AT57" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU57" t="n">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU58" t="n">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="AT60" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU60" t="n">
         <v>0</v>
@@ -13744,6 +13744,3660 @@
       </c>
       <c r="BK65" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5556993</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45066.625</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Santo André</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7</v>
+      </c>
+      <c r="S66" t="n">
+        <v>12</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V66" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5556937</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45066.64583333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Ceilândia</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Real Ariquemes</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['36', '58', '90+3']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>15</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>18</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V67" t="n">
+        <v>7</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5556996</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45066.64583333334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Noroeste</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Vitória Futebol Clube (ES)</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['57', '81']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>8</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>11</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>4</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5557107</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45066.64583333334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Independiente FSJ</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Hercílio Luz</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>6</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7</v>
+      </c>
+      <c r="S69" t="n">
+        <v>13</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5557051</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Cascavel CR</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>7</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6</v>
+      </c>
+      <c r="S70" t="n">
+        <v>13</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5556828</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Iguatu</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Pacajus</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['22', '55']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>9</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>11</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V71" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5556883</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Falcon</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>9</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>13</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5556715</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Nacional AM</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Princesa Solimões</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>11</v>
+      </c>
+      <c r="S73" t="n">
+        <v>15</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>4</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5556940</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>União Rondonópolis</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CEOV Operário</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['44', '63']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>6</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5556938</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Interporto</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Brasiliense</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5556772</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45066.70833333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Cordino</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Maranhão</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['18', '58']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>15</v>
+      </c>
+      <c r="S76" t="n">
+        <v>18</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5556884</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45066.70833333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>ASA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Cruzeiro Arapiraca</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['16', '55']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>9</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>12</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>6</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5556881</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45066.70833333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Bahia de Feira</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Retrô</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>7</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6</v>
+      </c>
+      <c r="S78" t="n">
+        <v>13</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5556939</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45066.70833333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Anápolis</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Iporá</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>9</v>
+      </c>
+      <c r="R79" t="n">
+        <v>6</v>
+      </c>
+      <c r="S79" t="n">
+        <v>15</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5557049</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45066.70833333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>XV de Piracicaba</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>CRAC</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['3', '72']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>6</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>8</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V80" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5557050</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45066.70833333334</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Ferroviária</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Inter de Limeira</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['41', '73']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>7</v>
+      </c>
+      <c r="R81" t="n">
+        <v>6</v>
+      </c>
+      <c r="S81" t="n">
+        <v>13</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V81" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5556994</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45066.75</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Portuguesa RJ</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Resende</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['56', '73', '90+3']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['28', '66']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>10</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>13</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5557108</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45066.79166666666</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Camboriú</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Concórdia AC</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>7</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V83" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK83"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
@@ -5978,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT31" t="n">
         <v>3</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="AT51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU51" t="n">
         <v>0</v>
@@ -15838,13 +15838,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
         <v>15</v>
       </c>
       <c r="S76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T76" t="n">
         <v>3.75</v>
@@ -17398,6 +17398,2645 @@
       </c>
       <c r="BK83" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5556826</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Campinense</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>10</v>
+      </c>
+      <c r="S84" t="n">
+        <v>14</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5556882</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Jacuipense</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Atlético Alagoinhas</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['27', '72', '81']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['14', '32', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>6</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>11</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5556825</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Nacional de Patos</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Sousa</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>6</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5556827</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Globo</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Potiguar Mossoró</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>6</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>7</v>
+      </c>
+      <c r="T87" t="n">
+        <v>7</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5556713</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Águia de Marabá</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Humaitá</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['33', '67']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>8</v>
+      </c>
+      <c r="S88" t="n">
+        <v>9</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V88" t="n">
+        <v>10</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5556770</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Uniclinic</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['2', '19', '90']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>8</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>10</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V89" t="n">
+        <v>4</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5557105</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Aimoré</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Caxias</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>7</v>
+      </c>
+      <c r="T90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5557052</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45067.70833333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Operário MT</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5556716</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45067.70833333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>São Raimundo RR</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Trem</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['11', '46', '71']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>7</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>5</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5556769</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45067.70833333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Ferroviário</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>11</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>16</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V93" t="n">
+        <v>11</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5556771</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45067.70833333334</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Parnahyba</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Fluminense PI</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['67', '82']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>7</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5556714</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45067.75</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>São Francisco</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Tuna Luso</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>8</v>
+      </c>
+      <c r="T95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5557106</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45067.75</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Novo Hamburgo</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Brasil de Pelotas</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>6</v>
+      </c>
+      <c r="S96" t="n">
+        <v>10</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>2</v>
@@ -20037,6 +20037,209 @@
       </c>
       <c r="BK96" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5556995</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45068.85416666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Democrata GV</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="n">
+        <v>6</v>
+      </c>
+      <c r="S97" t="n">
+        <v>8</v>
+      </c>
+      <c r="T97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT11" t="n">
         <v>1.5</v>
@@ -3136,7 +3136,7 @@
         <v>0.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT22" t="n">
         <v>0.5</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>0.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>3</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.5</v>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>2</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="AT47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU47" t="n">
         <v>0</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU49" t="n">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT51" t="n">
         <v>2</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11256,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="AT53" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>0.5</v>
@@ -12880,7 +12880,7 @@
         <v>3</v>
       </c>
       <c r="AT61" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU61" t="n">
         <v>0</v>
@@ -13283,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT65" t="n">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT66" t="n">
         <v>2</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU75" t="n">
         <v>0</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -16940,7 +16940,7 @@
         <v>0.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU81" t="n">
         <v>1.48</v>
@@ -17143,7 +17143,7 @@
         <v>3</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU82" t="n">
         <v>1.77</v>
@@ -17549,7 +17549,7 @@
         <v>3</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU84" t="n">
         <v>1.23</v>
@@ -17752,7 +17752,7 @@
         <v>0.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU85" t="n">
         <v>1.8</v>
@@ -17952,7 +17952,7 @@
         <v>3</v>
       </c>
       <c r="AS86" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT86" t="n">
         <v>1.5</v>
@@ -18564,7 +18564,7 @@
         <v>0.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU89" t="n">
         <v>1.92</v>
@@ -19782,7 +19782,7 @@
         <v>1.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.79</v>
@@ -19985,7 +19985,7 @@
         <v>0.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU96" t="n">
         <v>1.88</v>
@@ -20240,6 +20240,6299 @@
       </c>
       <c r="BK97" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5556998</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45073.625</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Santo André</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Resende</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>7</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>12</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>7</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5557000</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45073.625</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Vitória Futebol Clube (ES)</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Democrata GV</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>3</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['16', '84', '90']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>8</v>
+      </c>
+      <c r="R99" t="n">
+        <v>7</v>
+      </c>
+      <c r="S99" t="n">
+        <v>15</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5556997</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45073.625</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Nova Iguaçu</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Portuguesa RJ</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6</v>
+      </c>
+      <c r="S100" t="n">
+        <v>8</v>
+      </c>
+      <c r="T100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5557111</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45073.625</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Hercílio Luz</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Camboriú</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['35', '75']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>8</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>11</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5557110</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45073.625</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Caxias</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Brasil de Pelotas</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['13', '43']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>9</v>
+      </c>
+      <c r="S102" t="n">
+        <v>10</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V102" t="n">
+        <v>5</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5556941</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45073.64583333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Ceilândia</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Interporto</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" t="n">
+        <v>4</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['8', '34', '79', '90+2']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V103" t="n">
+        <v>7</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X103" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5556944</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>CEOV Operário</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Anápolis</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>7</v>
+      </c>
+      <c r="S104" t="n">
+        <v>9</v>
+      </c>
+      <c r="T104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5556887</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>ASA</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['17', '41']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>6</v>
+      </c>
+      <c r="S105" t="n">
+        <v>10</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V105" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5556776</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Maranhão</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Parnahyba</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>4</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['2', '45+2', '51', '85']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>6</v>
+      </c>
+      <c r="S106" t="n">
+        <v>11</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5556720</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Trem</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Nacional AM</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5556999</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Noroeste</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>7</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>11</v>
+      </c>
+      <c r="T108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>5</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5556885</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45073.70833333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Bahia de Feira</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Jacuipense</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['62', '87']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['17', '66']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>8</v>
+      </c>
+      <c r="R109" t="n">
+        <v>6</v>
+      </c>
+      <c r="S109" t="n">
+        <v>14</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2</v>
+      </c>
+      <c r="V109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5556886</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45073.70833333334</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Retrô</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Atlético Alagoinhas</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['27', '64']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>7</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>9</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>6</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5557053</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45073.70833333334</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>XV de Piracicaba</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Ferroviária</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>7</v>
+      </c>
+      <c r="S111" t="n">
+        <v>11</v>
+      </c>
+      <c r="T111" t="n">
+        <v>3</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V111" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5556718</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45073.75</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Humaitá</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Tuna Luso</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>6</v>
+      </c>
+      <c r="R112" t="n">
+        <v>6</v>
+      </c>
+      <c r="S112" t="n">
+        <v>12</v>
+      </c>
+      <c r="T112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5557056</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45073.75</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Cascavel CR</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>7</v>
+      </c>
+      <c r="S113" t="n">
+        <v>11</v>
+      </c>
+      <c r="T113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V113" t="n">
+        <v>4</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X113" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5557054</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45073.75</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>CRAC</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Inter de Limeira</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['66', '76']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['90', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>7</v>
+      </c>
+      <c r="R114" t="n">
+        <v>8</v>
+      </c>
+      <c r="S114" t="n">
+        <v>15</v>
+      </c>
+      <c r="T114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5556832</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45073.79166666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Pacajus</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Globo</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['51', '71', '76']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>13</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>13</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V115" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X115" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5557055</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45073.79166666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Maringá</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Operário MT</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['64', '90']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>8</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>13</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V116" t="n">
+        <v>7</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5557112</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45074.625</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Concórdia AC</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Independiente FSJ</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>4</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2</v>
+      </c>
+      <c r="S117" t="n">
+        <v>6</v>
+      </c>
+      <c r="T117" t="n">
+        <v>3</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5556943</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45074.64583333334</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Iporá</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>União Rondonópolis</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>4</v>
+      </c>
+      <c r="R118" t="n">
+        <v>10</v>
+      </c>
+      <c r="S118" t="n">
+        <v>14</v>
+      </c>
+      <c r="T118" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2</v>
+      </c>
+      <c r="V118" t="n">
+        <v>4</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5556775</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45074.64583333334</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Fluminense PI</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Cordino</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>5</v>
+      </c>
+      <c r="R119" t="n">
+        <v>9</v>
+      </c>
+      <c r="S119" t="n">
+        <v>14</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X119" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5556888</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45074.66666666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Cruzeiro Arapiraca</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Falcon</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>4</v>
+      </c>
+      <c r="R120" t="n">
+        <v>5</v>
+      </c>
+      <c r="S120" t="n">
+        <v>9</v>
+      </c>
+      <c r="T120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5556942</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45074.66666666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Real Ariquemes</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Brasiliense</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>2</v>
+      </c>
+      <c r="R121" t="n">
+        <v>6</v>
+      </c>
+      <c r="S121" t="n">
+        <v>8</v>
+      </c>
+      <c r="T121" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5556774</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45074.66666666666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Tocantinópolis</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Uniclinic</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['66', '90+4']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>6</v>
+      </c>
+      <c r="R122" t="n">
+        <v>4</v>
+      </c>
+      <c r="S122" t="n">
+        <v>10</v>
+      </c>
+      <c r="T122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5556829</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45074.66666666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Nacional de Patos</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['70', '90+5']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['13', '78']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>3</v>
+      </c>
+      <c r="R123" t="n">
+        <v>4</v>
+      </c>
+      <c r="S123" t="n">
+        <v>7</v>
+      </c>
+      <c r="T123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U123" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5556830</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45074.66666666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Sousa</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Campinense</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="n">
+        <v>3</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['17', '78']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>4</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2</v>
+      </c>
+      <c r="S124" t="n">
+        <v>6</v>
+      </c>
+      <c r="T124" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V124" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5557109</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45074.66666666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Aimoré</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Novo Hamburgo</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>7</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2</v>
+      </c>
+      <c r="S125" t="n">
+        <v>9</v>
+      </c>
+      <c r="T125" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V125" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5556719</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45074.70833333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Princesa Solimões</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>São Raimundo RR</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>4</v>
+      </c>
+      <c r="R126" t="n">
+        <v>4</v>
+      </c>
+      <c r="S126" t="n">
+        <v>8</v>
+      </c>
+      <c r="T126" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5556831</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45074.70833333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Potiguar Mossoró</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Iguatu</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>5</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2</v>
+      </c>
+      <c r="S127" t="n">
+        <v>7</v>
+      </c>
+      <c r="T127" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2</v>
+      </c>
+      <c r="V127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5556773</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45074.70833333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Ferroviário</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Caucaia</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>4</v>
+      </c>
+      <c r="R128" t="n">
+        <v>4</v>
+      </c>
+      <c r="S128" t="n">
+        <v>8</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V128" t="n">
+        <v>6</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="340">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -793,6 +793,36 @@
     <t>['24', '35', '59', '64']</t>
   </si>
   <si>
+    <t>['58', '77', '85']</t>
+  </si>
+  <si>
+    <t>['27', '65']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['25', '90+6']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['20', '27', '40', '44', '52', '85', '88']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['12', '69', '73', '90+1']</t>
+  </si>
+  <si>
     <t>['22', '38']</t>
   </si>
   <si>
@@ -821,9 +851,6 @@
   </si>
   <si>
     <t>['13', '21']</t>
-  </si>
-  <si>
-    <t>['78']</t>
   </si>
   <si>
     <t>['3', '23', '69', '74', '79']</t>
@@ -931,9 +958,6 @@
     <t>['90', '90+5']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['7']</t>
   </si>
   <si>
@@ -1000,13 +1024,16 @@
     <t>['4', '81']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['31', '59']</t>
   </si>
   <si>
     <t>['28', '48']</t>
+  </si>
+  <si>
+    <t>['29', '51']</t>
+  </si>
+  <si>
+    <t>['6', '30', '44', '45+4', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1612,7 +1639,7 @@
         <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1890,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
         <v>1.25</v>
@@ -2567,7 +2594,7 @@
         <v>134</v>
       </c>
       <c r="P7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2758,7 +2785,7 @@
         <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -2949,7 +2976,7 @@
         <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -3140,7 +3167,7 @@
         <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3227,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT10">
         <v>1.75</v>
@@ -3421,7 +3448,7 @@
         <v>0.75</v>
       </c>
       <c r="AT11">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3522,7 +3549,7 @@
         <v>136</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3612,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3713,7 +3740,7 @@
         <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3803,7 +3830,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4182,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>1.25</v>
@@ -4286,7 +4313,7 @@
         <v>140</v>
       </c>
       <c r="P16" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4376,7 +4403,7 @@
         <v>3</v>
       </c>
       <c r="AT16">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4477,7 +4504,7 @@
         <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4668,7 +4695,7 @@
         <v>142</v>
       </c>
       <c r="P18" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4859,7 +4886,7 @@
         <v>143</v>
       </c>
       <c r="P19" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5050,7 +5077,7 @@
         <v>144</v>
       </c>
       <c r="P20" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5241,7 +5268,7 @@
         <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5623,7 +5650,7 @@
         <v>147</v>
       </c>
       <c r="P23" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6095,7 +6122,7 @@
         <v>2.5</v>
       </c>
       <c r="AT25">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6387,7 +6414,7 @@
         <v>150</v>
       </c>
       <c r="P27" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6668,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6960,7 +6987,7 @@
         <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7050,7 +7077,7 @@
         <v>0.25</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7533,7 +7560,7 @@
         <v>155</v>
       </c>
       <c r="P33" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7811,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -8193,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT36">
         <v>0.33</v>
@@ -8297,7 +8324,7 @@
         <v>135</v>
       </c>
       <c r="P37" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8957,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT40">
         <v>1.33</v>
@@ -9252,7 +9279,7 @@
         <v>161</v>
       </c>
       <c r="P42" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -9443,7 +9470,7 @@
         <v>135</v>
       </c>
       <c r="P43" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9634,7 +9661,7 @@
         <v>162</v>
       </c>
       <c r="P44" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q44">
         <v>-1</v>
@@ -9721,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT44">
         <v>1.33</v>
@@ -9825,7 +9852,7 @@
         <v>163</v>
       </c>
       <c r="P45" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q45">
         <v>-1</v>
@@ -10589,7 +10616,7 @@
         <v>167</v>
       </c>
       <c r="P49" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10971,7 +10998,7 @@
         <v>169</v>
       </c>
       <c r="P51" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11058,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
         <v>1.67</v>
@@ -11252,7 +11279,7 @@
         <v>1.33</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11353,7 +11380,7 @@
         <v>170</v>
       </c>
       <c r="P53" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11735,7 +11762,7 @@
         <v>172</v>
       </c>
       <c r="P55" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11926,7 +11953,7 @@
         <v>173</v>
       </c>
       <c r="P56" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q56">
         <v>-1</v>
@@ -12117,7 +12144,7 @@
         <v>174</v>
       </c>
       <c r="P57" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12499,7 +12526,7 @@
         <v>175</v>
       </c>
       <c r="P59" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12690,7 +12717,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12971,7 +12998,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -13263,7 +13290,7 @@
         <v>177</v>
       </c>
       <c r="P63" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q63">
         <v>15</v>
@@ -13836,7 +13863,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14218,7 +14245,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q68">
         <v>8</v>
@@ -14600,7 +14627,7 @@
         <v>181</v>
       </c>
       <c r="P70" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14687,10 +14714,10 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU70">
         <v>3.01</v>
@@ -15173,7 +15200,7 @@
         <v>184</v>
       </c>
       <c r="P73" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15555,7 +15582,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -15645,7 +15672,7 @@
         <v>0.33</v>
       </c>
       <c r="AT75">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU75">
         <v>1.76</v>
@@ -15746,7 +15773,7 @@
         <v>186</v>
       </c>
       <c r="P76" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -16319,7 +16346,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16892,7 +16919,7 @@
         <v>190</v>
       </c>
       <c r="P82" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -18038,7 +18065,7 @@
         <v>194</v>
       </c>
       <c r="P88" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18319,7 +18346,7 @@
         <v>1.33</v>
       </c>
       <c r="AT89">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU89">
         <v>1.79</v>
@@ -18420,7 +18447,7 @@
         <v>160</v>
       </c>
       <c r="P90" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18802,7 +18829,7 @@
         <v>195</v>
       </c>
       <c r="P92" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -19083,7 +19110,7 @@
         <v>3</v>
       </c>
       <c r="AT93">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU93">
         <v>1.32</v>
@@ -19948,7 +19975,7 @@
         <v>199</v>
       </c>
       <c r="P98" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20035,7 +20062,7 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT98">
         <v>1.25</v>
@@ -20226,7 +20253,7 @@
         <v>3</v>
       </c>
       <c r="AS99">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT99">
         <v>1.33</v>
@@ -20330,7 +20357,7 @@
         <v>201</v>
       </c>
       <c r="P100" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20521,7 +20548,7 @@
         <v>202</v>
       </c>
       <c r="P101" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20611,7 +20638,7 @@
         <v>2.33</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU101">
         <v>1.58</v>
@@ -20712,7 +20739,7 @@
         <v>203</v>
       </c>
       <c r="P102" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -21184,7 +21211,7 @@
         <v>2</v>
       </c>
       <c r="AT104">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -21667,7 +21694,7 @@
         <v>206</v>
       </c>
       <c r="P107" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22139,7 +22166,7 @@
         <v>1.25</v>
       </c>
       <c r="AT109">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU109">
         <v>1.89</v>
@@ -22240,7 +22267,7 @@
         <v>209</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22431,7 +22458,7 @@
         <v>210</v>
       </c>
       <c r="P111" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22622,7 +22649,7 @@
         <v>211</v>
       </c>
       <c r="P112" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22709,7 +22736,7 @@
         <v>2</v>
       </c>
       <c r="AS112">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT112">
         <v>1.25</v>
@@ -23091,7 +23118,7 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT114">
         <v>1.33</v>
@@ -23476,7 +23503,7 @@
         <v>1.33</v>
       </c>
       <c r="AT116">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU116">
         <v>0.95</v>
@@ -23577,7 +23604,7 @@
         <v>146</v>
       </c>
       <c r="P117" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -24532,7 +24559,7 @@
         <v>218</v>
       </c>
       <c r="P122" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24914,7 +24941,7 @@
         <v>219</v>
       </c>
       <c r="P124" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25105,7 +25132,7 @@
         <v>220</v>
       </c>
       <c r="P125" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25678,7 +25705,7 @@
         <v>223</v>
       </c>
       <c r="P128" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26442,7 +26469,7 @@
         <v>226</v>
       </c>
       <c r="P132" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26529,7 +26556,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT132">
         <v>2</v>
@@ -26633,7 +26660,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26720,7 +26747,7 @@
         <v>3</v>
       </c>
       <c r="AS133">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT133">
         <v>3</v>
@@ -26914,7 +26941,7 @@
         <v>2.33</v>
       </c>
       <c r="AT134">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -27397,7 +27424,7 @@
         <v>135</v>
       </c>
       <c r="P137" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q137">
         <v>12</v>
@@ -27675,10 +27702,10 @@
         <v>0.5</v>
       </c>
       <c r="AS138">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT138">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU138">
         <v>2.22</v>
@@ -27970,7 +27997,7 @@
         <v>229</v>
       </c>
       <c r="P140" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28057,10 +28084,10 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT140">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU140">
         <v>1.79</v>
@@ -28251,7 +28278,7 @@
         <v>2.33</v>
       </c>
       <c r="AT141">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU141">
         <v>2.4</v>
@@ -28543,7 +28570,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28633,7 +28660,7 @@
         <v>1.33</v>
       </c>
       <c r="AT143">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU143">
         <v>1.22</v>
@@ -28821,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="AS144">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT144">
         <v>0.5</v>
@@ -29585,10 +29612,10 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT148">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU148">
         <v>1.55</v>
@@ -29970,7 +29997,7 @@
         <v>2.33</v>
       </c>
       <c r="AT150">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU150">
         <v>2.55</v>
@@ -30835,7 +30862,7 @@
         <v>236</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31026,7 +31053,7 @@
         <v>237</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31116,7 +31143,7 @@
         <v>1.67</v>
       </c>
       <c r="AT156">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU156">
         <v>1.52</v>
@@ -31408,7 +31435,7 @@
         <v>239</v>
       </c>
       <c r="P158" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q158">
         <v>13</v>
@@ -31599,7 +31626,7 @@
         <v>153</v>
       </c>
       <c r="P159" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q159">
         <v>10</v>
@@ -31790,7 +31817,7 @@
         <v>135</v>
       </c>
       <c r="P160" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -33318,7 +33345,7 @@
         <v>135</v>
       </c>
       <c r="P168" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33509,7 +33536,7 @@
         <v>243</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33700,7 +33727,7 @@
         <v>244</v>
       </c>
       <c r="P170" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34273,7 +34300,7 @@
         <v>135</v>
       </c>
       <c r="P173" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q173">
         <v>1</v>
@@ -34655,7 +34682,7 @@
         <v>135</v>
       </c>
       <c r="P175" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34846,7 +34873,7 @@
         <v>248</v>
       </c>
       <c r="P176" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35037,7 +35064,7 @@
         <v>135</v>
       </c>
       <c r="P177" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35228,7 +35255,7 @@
         <v>135</v>
       </c>
       <c r="P178" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q178">
         <v>19</v>
@@ -35419,7 +35446,7 @@
         <v>249</v>
       </c>
       <c r="P179" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q179">
         <v>9</v>
@@ -35801,7 +35828,7 @@
         <v>251</v>
       </c>
       <c r="P181" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36183,7 +36210,7 @@
         <v>253</v>
       </c>
       <c r="P183" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="Q183">
         <v>2</v>
@@ -36374,7 +36401,7 @@
         <v>254</v>
       </c>
       <c r="P184" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36756,7 +36783,7 @@
         <v>255</v>
       </c>
       <c r="P186" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37902,7 +37929,7 @@
         <v>258</v>
       </c>
       <c r="P192" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -38235,6 +38262,2107 @@
       </c>
       <c r="BK193">
         <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>5557009</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45087.625</v>
+      </c>
+      <c r="F194">
+        <v>7</v>
+      </c>
+      <c r="G194" t="s">
+        <v>66</v>
+      </c>
+      <c r="H194" t="s">
+        <v>65</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>3</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>5</v>
+      </c>
+      <c r="O194" t="s">
+        <v>259</v>
+      </c>
+      <c r="P194" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q194">
+        <v>12</v>
+      </c>
+      <c r="R194">
+        <v>5</v>
+      </c>
+      <c r="S194">
+        <v>17</v>
+      </c>
+      <c r="T194">
+        <v>2.3</v>
+      </c>
+      <c r="U194">
+        <v>2.05</v>
+      </c>
+      <c r="V194">
+        <v>5.5</v>
+      </c>
+      <c r="W194">
+        <v>1.44</v>
+      </c>
+      <c r="X194">
+        <v>2.52</v>
+      </c>
+      <c r="Y194">
+        <v>3.08</v>
+      </c>
+      <c r="Z194">
+        <v>1.3</v>
+      </c>
+      <c r="AA194">
+        <v>8.5</v>
+      </c>
+      <c r="AB194">
+        <v>1.04</v>
+      </c>
+      <c r="AC194">
+        <v>1.77</v>
+      </c>
+      <c r="AD194">
+        <v>3.3</v>
+      </c>
+      <c r="AE194">
+        <v>3.95</v>
+      </c>
+      <c r="AF194">
+        <v>1.06</v>
+      </c>
+      <c r="AG194">
+        <v>8.5</v>
+      </c>
+      <c r="AH194">
+        <v>1.37</v>
+      </c>
+      <c r="AI194">
+        <v>2.8</v>
+      </c>
+      <c r="AJ194">
+        <v>2.16</v>
+      </c>
+      <c r="AK194">
+        <v>1.63</v>
+      </c>
+      <c r="AL194">
+        <v>2.07</v>
+      </c>
+      <c r="AM194">
+        <v>1.72</v>
+      </c>
+      <c r="AN194">
+        <v>1.16</v>
+      </c>
+      <c r="AO194">
+        <v>1.32</v>
+      </c>
+      <c r="AP194">
+        <v>1.9</v>
+      </c>
+      <c r="AQ194">
+        <v>1.33</v>
+      </c>
+      <c r="AR194">
+        <v>0</v>
+      </c>
+      <c r="AS194">
+        <v>1.75</v>
+      </c>
+      <c r="AT194">
+        <v>0</v>
+      </c>
+      <c r="AU194">
+        <v>1.87</v>
+      </c>
+      <c r="AV194">
+        <v>1.32</v>
+      </c>
+      <c r="AW194">
+        <v>3.19</v>
+      </c>
+      <c r="AX194">
+        <v>0</v>
+      </c>
+      <c r="AY194">
+        <v>0</v>
+      </c>
+      <c r="AZ194">
+        <v>0</v>
+      </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>2.25</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>11</v>
+      </c>
+      <c r="BG194">
+        <v>3</v>
+      </c>
+      <c r="BH194">
+        <v>11</v>
+      </c>
+      <c r="BI194">
+        <v>8</v>
+      </c>
+      <c r="BJ194">
+        <v>22</v>
+      </c>
+      <c r="BK194">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>5557010</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45087.625</v>
+      </c>
+      <c r="F195">
+        <v>7</v>
+      </c>
+      <c r="G195" t="s">
+        <v>97</v>
+      </c>
+      <c r="H195" t="s">
+        <v>101</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>260</v>
+      </c>
+      <c r="P195" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q195">
+        <v>11</v>
+      </c>
+      <c r="R195">
+        <v>1</v>
+      </c>
+      <c r="S195">
+        <v>12</v>
+      </c>
+      <c r="T195">
+        <v>2.6</v>
+      </c>
+      <c r="U195">
+        <v>1.95</v>
+      </c>
+      <c r="V195">
+        <v>4.5</v>
+      </c>
+      <c r="W195">
+        <v>1.52</v>
+      </c>
+      <c r="X195">
+        <v>2.28</v>
+      </c>
+      <c r="Y195">
+        <v>3.4</v>
+      </c>
+      <c r="Z195">
+        <v>1.28</v>
+      </c>
+      <c r="AA195">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB195">
+        <v>1.03</v>
+      </c>
+      <c r="AC195">
+        <v>1.83</v>
+      </c>
+      <c r="AD195">
+        <v>3.1</v>
+      </c>
+      <c r="AE195">
+        <v>4</v>
+      </c>
+      <c r="AF195">
+        <v>1.08</v>
+      </c>
+      <c r="AG195">
+        <v>7.25</v>
+      </c>
+      <c r="AH195">
+        <v>1.44</v>
+      </c>
+      <c r="AI195">
+        <v>2.55</v>
+      </c>
+      <c r="AJ195">
+        <v>2.4</v>
+      </c>
+      <c r="AK195">
+        <v>1.53</v>
+      </c>
+      <c r="AL195">
+        <v>2.09</v>
+      </c>
+      <c r="AM195">
+        <v>1.71</v>
+      </c>
+      <c r="AN195">
+        <v>1.24</v>
+      </c>
+      <c r="AO195">
+        <v>1.34</v>
+      </c>
+      <c r="AP195">
+        <v>1.69</v>
+      </c>
+      <c r="AQ195">
+        <v>2</v>
+      </c>
+      <c r="AR195">
+        <v>0.33</v>
+      </c>
+      <c r="AS195">
+        <v>2.33</v>
+      </c>
+      <c r="AT195">
+        <v>0.25</v>
+      </c>
+      <c r="AU195">
+        <v>1.08</v>
+      </c>
+      <c r="AV195">
+        <v>1.25</v>
+      </c>
+      <c r="AW195">
+        <v>2.33</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>2.1</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>5</v>
+      </c>
+      <c r="BG195">
+        <v>3</v>
+      </c>
+      <c r="BH195">
+        <v>11</v>
+      </c>
+      <c r="BI195">
+        <v>0</v>
+      </c>
+      <c r="BJ195">
+        <v>16</v>
+      </c>
+      <c r="BK195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>5557122</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45087.625</v>
+      </c>
+      <c r="F196">
+        <v>7</v>
+      </c>
+      <c r="G196" t="s">
+        <v>117</v>
+      </c>
+      <c r="H196" t="s">
+        <v>110</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>261</v>
+      </c>
+      <c r="P196" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q196">
+        <v>9</v>
+      </c>
+      <c r="R196">
+        <v>6</v>
+      </c>
+      <c r="S196">
+        <v>15</v>
+      </c>
+      <c r="T196">
+        <v>2.3</v>
+      </c>
+      <c r="U196">
+        <v>1.95</v>
+      </c>
+      <c r="V196">
+        <v>6</v>
+      </c>
+      <c r="W196">
+        <v>1.54</v>
+      </c>
+      <c r="X196">
+        <v>2.24</v>
+      </c>
+      <c r="Y196">
+        <v>3.4</v>
+      </c>
+      <c r="Z196">
+        <v>1.28</v>
+      </c>
+      <c r="AA196">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB196">
+        <v>1.03</v>
+      </c>
+      <c r="AC196">
+        <v>1.69</v>
+      </c>
+      <c r="AD196">
+        <v>3.15</v>
+      </c>
+      <c r="AE196">
+        <v>4.75</v>
+      </c>
+      <c r="AF196">
+        <v>1.1</v>
+      </c>
+      <c r="AG196">
+        <v>6.75</v>
+      </c>
+      <c r="AH196">
+        <v>1.5</v>
+      </c>
+      <c r="AI196">
+        <v>2.45</v>
+      </c>
+      <c r="AJ196">
+        <v>2.45</v>
+      </c>
+      <c r="AK196">
+        <v>1.48</v>
+      </c>
+      <c r="AL196">
+        <v>2.21</v>
+      </c>
+      <c r="AM196">
+        <v>1.63</v>
+      </c>
+      <c r="AN196">
+        <v>1.16</v>
+      </c>
+      <c r="AO196">
+        <v>1.34</v>
+      </c>
+      <c r="AP196">
+        <v>1.88</v>
+      </c>
+      <c r="AQ196">
+        <v>3</v>
+      </c>
+      <c r="AR196">
+        <v>1</v>
+      </c>
+      <c r="AS196">
+        <v>3</v>
+      </c>
+      <c r="AT196">
+        <v>0.75</v>
+      </c>
+      <c r="AU196">
+        <v>1.84</v>
+      </c>
+      <c r="AV196">
+        <v>1.64</v>
+      </c>
+      <c r="AW196">
+        <v>3.48</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>0</v>
+      </c>
+      <c r="AZ196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>2.1</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>7</v>
+      </c>
+      <c r="BG196">
+        <v>5</v>
+      </c>
+      <c r="BH196">
+        <v>15</v>
+      </c>
+      <c r="BI196">
+        <v>8</v>
+      </c>
+      <c r="BJ196">
+        <v>22</v>
+      </c>
+      <c r="BK196">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>5556788</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45087.625</v>
+      </c>
+      <c r="F197">
+        <v>7</v>
+      </c>
+      <c r="G197" t="s">
+        <v>99</v>
+      </c>
+      <c r="H197" t="s">
+        <v>119</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>262</v>
+      </c>
+      <c r="P197" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q197">
+        <v>8</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>8</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
+        <v>4.75</v>
+      </c>
+      <c r="W197">
+        <v>1.44</v>
+      </c>
+      <c r="X197">
+        <v>2.62</v>
+      </c>
+      <c r="Y197">
+        <v>3.2</v>
+      </c>
+      <c r="Z197">
+        <v>1.3</v>
+      </c>
+      <c r="AA197">
+        <v>8.5</v>
+      </c>
+      <c r="AB197">
+        <v>1.05</v>
+      </c>
+      <c r="AC197">
+        <v>1.75</v>
+      </c>
+      <c r="AD197">
+        <v>3.2</v>
+      </c>
+      <c r="AE197">
+        <v>4.2</v>
+      </c>
+      <c r="AF197">
+        <v>1.05</v>
+      </c>
+      <c r="AG197">
+        <v>7.5</v>
+      </c>
+      <c r="AH197">
+        <v>1.36</v>
+      </c>
+      <c r="AI197">
+        <v>2.88</v>
+      </c>
+      <c r="AJ197">
+        <v>2.25</v>
+      </c>
+      <c r="AK197">
+        <v>1.62</v>
+      </c>
+      <c r="AL197">
+        <v>2.05</v>
+      </c>
+      <c r="AM197">
+        <v>1.73</v>
+      </c>
+      <c r="AN197">
+        <v>1.2</v>
+      </c>
+      <c r="AO197">
+        <v>1.29</v>
+      </c>
+      <c r="AP197">
+        <v>1.73</v>
+      </c>
+      <c r="AQ197">
+        <v>0.5</v>
+      </c>
+      <c r="AR197">
+        <v>0</v>
+      </c>
+      <c r="AS197">
+        <v>0.67</v>
+      </c>
+      <c r="AT197">
+        <v>0.25</v>
+      </c>
+      <c r="AU197">
+        <v>1.57</v>
+      </c>
+      <c r="AV197">
+        <v>0.89</v>
+      </c>
+      <c r="AW197">
+        <v>2.46</v>
+      </c>
+      <c r="AX197">
+        <v>0</v>
+      </c>
+      <c r="AY197">
+        <v>0</v>
+      </c>
+      <c r="AZ197">
+        <v>0</v>
+      </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>1.91</v>
+      </c>
+      <c r="BD197">
+        <v>2</v>
+      </c>
+      <c r="BE197">
+        <v>0</v>
+      </c>
+      <c r="BF197">
+        <v>4</v>
+      </c>
+      <c r="BG197">
+        <v>2</v>
+      </c>
+      <c r="BH197">
+        <v>10</v>
+      </c>
+      <c r="BI197">
+        <v>1</v>
+      </c>
+      <c r="BJ197">
+        <v>14</v>
+      </c>
+      <c r="BK197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>5557067</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45087.66666666666</v>
+      </c>
+      <c r="F198">
+        <v>7</v>
+      </c>
+      <c r="G198" t="s">
+        <v>73</v>
+      </c>
+      <c r="H198" t="s">
+        <v>74</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>4</v>
+      </c>
+      <c r="K198">
+        <v>4</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>5</v>
+      </c>
+      <c r="N198">
+        <v>6</v>
+      </c>
+      <c r="O198" t="s">
+        <v>263</v>
+      </c>
+      <c r="P198" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q198">
+        <v>12</v>
+      </c>
+      <c r="R198">
+        <v>6</v>
+      </c>
+      <c r="S198">
+        <v>18</v>
+      </c>
+      <c r="T198">
+        <v>3.1</v>
+      </c>
+      <c r="U198">
+        <v>1.8</v>
+      </c>
+      <c r="V198">
+        <v>4.33</v>
+      </c>
+      <c r="W198">
+        <v>1.64</v>
+      </c>
+      <c r="X198">
+        <v>2.04</v>
+      </c>
+      <c r="Y198">
+        <v>3.7</v>
+      </c>
+      <c r="Z198">
+        <v>1.23</v>
+      </c>
+      <c r="AA198">
+        <v>11</v>
+      </c>
+      <c r="AB198">
+        <v>1.01</v>
+      </c>
+      <c r="AC198">
+        <v>2.18</v>
+      </c>
+      <c r="AD198">
+        <v>2.63</v>
+      </c>
+      <c r="AE198">
+        <v>3.5</v>
+      </c>
+      <c r="AF198">
+        <v>1.11</v>
+      </c>
+      <c r="AG198">
+        <v>5.6</v>
+      </c>
+      <c r="AH198">
+        <v>1.61</v>
+      </c>
+      <c r="AI198">
+        <v>2.2</v>
+      </c>
+      <c r="AJ198">
+        <v>2.76</v>
+      </c>
+      <c r="AK198">
+        <v>1.34</v>
+      </c>
+      <c r="AL198">
+        <v>2.28</v>
+      </c>
+      <c r="AM198">
+        <v>1.6</v>
+      </c>
+      <c r="AN198">
+        <v>1.32</v>
+      </c>
+      <c r="AO198">
+        <v>1.41</v>
+      </c>
+      <c r="AP198">
+        <v>1.49</v>
+      </c>
+      <c r="AQ198">
+        <v>0.67</v>
+      </c>
+      <c r="AR198">
+        <v>1</v>
+      </c>
+      <c r="AS198">
+        <v>0.5</v>
+      </c>
+      <c r="AT198">
+        <v>1.67</v>
+      </c>
+      <c r="AU198">
+        <v>2.33</v>
+      </c>
+      <c r="AV198">
+        <v>0.92</v>
+      </c>
+      <c r="AW198">
+        <v>3.25</v>
+      </c>
+      <c r="AX198">
+        <v>0</v>
+      </c>
+      <c r="AY198">
+        <v>0</v>
+      </c>
+      <c r="AZ198">
+        <v>0</v>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>0</v>
+      </c>
+      <c r="BD198">
+        <v>0</v>
+      </c>
+      <c r="BE198">
+        <v>0</v>
+      </c>
+      <c r="BF198">
+        <v>9</v>
+      </c>
+      <c r="BG198">
+        <v>7</v>
+      </c>
+      <c r="BH198">
+        <v>7</v>
+      </c>
+      <c r="BI198">
+        <v>5</v>
+      </c>
+      <c r="BJ198">
+        <v>16</v>
+      </c>
+      <c r="BK198">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>5557065</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45087.66666666666</v>
+      </c>
+      <c r="F199">
+        <v>7</v>
+      </c>
+      <c r="G199" t="s">
+        <v>78</v>
+      </c>
+      <c r="H199" t="s">
+        <v>76</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>264</v>
+      </c>
+      <c r="P199" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q199">
+        <v>4</v>
+      </c>
+      <c r="R199">
+        <v>4</v>
+      </c>
+      <c r="S199">
+        <v>8</v>
+      </c>
+      <c r="T199">
+        <v>3.4</v>
+      </c>
+      <c r="U199">
+        <v>1.95</v>
+      </c>
+      <c r="V199">
+        <v>3.25</v>
+      </c>
+      <c r="W199">
+        <v>1.5</v>
+      </c>
+      <c r="X199">
+        <v>2.5</v>
+      </c>
+      <c r="Y199">
+        <v>3.5</v>
+      </c>
+      <c r="Z199">
+        <v>1.25</v>
+      </c>
+      <c r="AA199">
+        <v>9.5</v>
+      </c>
+      <c r="AB199">
+        <v>1.04</v>
+      </c>
+      <c r="AC199">
+        <v>2.67</v>
+      </c>
+      <c r="AD199">
+        <v>3.1</v>
+      </c>
+      <c r="AE199">
+        <v>2.38</v>
+      </c>
+      <c r="AF199">
+        <v>1.07</v>
+      </c>
+      <c r="AG199">
+        <v>7</v>
+      </c>
+      <c r="AH199">
+        <v>1.44</v>
+      </c>
+      <c r="AI199">
+        <v>2.6</v>
+      </c>
+      <c r="AJ199">
+        <v>2.36</v>
+      </c>
+      <c r="AK199">
+        <v>1.53</v>
+      </c>
+      <c r="AL199">
+        <v>1.97</v>
+      </c>
+      <c r="AM199">
+        <v>1.79</v>
+      </c>
+      <c r="AN199">
+        <v>1.44</v>
+      </c>
+      <c r="AO199">
+        <v>1.3</v>
+      </c>
+      <c r="AP199">
+        <v>1.36</v>
+      </c>
+      <c r="AQ199">
+        <v>1.67</v>
+      </c>
+      <c r="AR199">
+        <v>2</v>
+      </c>
+      <c r="AS199">
+        <v>2</v>
+      </c>
+      <c r="AT199">
+        <v>1.33</v>
+      </c>
+      <c r="AU199">
+        <v>1.5</v>
+      </c>
+      <c r="AV199">
+        <v>1.37</v>
+      </c>
+      <c r="AW199">
+        <v>2.87</v>
+      </c>
+      <c r="AX199">
+        <v>0</v>
+      </c>
+      <c r="AY199">
+        <v>0</v>
+      </c>
+      <c r="AZ199">
+        <v>0</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
+      <c r="BC199">
+        <v>0</v>
+      </c>
+      <c r="BD199">
+        <v>0</v>
+      </c>
+      <c r="BE199">
+        <v>0</v>
+      </c>
+      <c r="BF199">
+        <v>7</v>
+      </c>
+      <c r="BG199">
+        <v>2</v>
+      </c>
+      <c r="BH199">
+        <v>9</v>
+      </c>
+      <c r="BI199">
+        <v>5</v>
+      </c>
+      <c r="BJ199">
+        <v>16</v>
+      </c>
+      <c r="BK199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>5556900</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45087.70833333334</v>
+      </c>
+      <c r="F200">
+        <v>7</v>
+      </c>
+      <c r="G200" t="s">
+        <v>107</v>
+      </c>
+      <c r="H200" t="s">
+        <v>126</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>265</v>
+      </c>
+      <c r="P200" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q200">
+        <v>9</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200">
+        <v>10</v>
+      </c>
+      <c r="T200">
+        <v>4</v>
+      </c>
+      <c r="U200">
+        <v>1.95</v>
+      </c>
+      <c r="V200">
+        <v>2.88</v>
+      </c>
+      <c r="W200">
+        <v>1.51</v>
+      </c>
+      <c r="X200">
+        <v>2.38</v>
+      </c>
+      <c r="Y200">
+        <v>3.4</v>
+      </c>
+      <c r="Z200">
+        <v>1.28</v>
+      </c>
+      <c r="AA200">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB200">
+        <v>1.03</v>
+      </c>
+      <c r="AC200">
+        <v>2.91</v>
+      </c>
+      <c r="AD200">
+        <v>3.1</v>
+      </c>
+      <c r="AE200">
+        <v>2.21</v>
+      </c>
+      <c r="AF200">
+        <v>1.08</v>
+      </c>
+      <c r="AG200">
+        <v>6.6</v>
+      </c>
+      <c r="AH200">
+        <v>1.46</v>
+      </c>
+      <c r="AI200">
+        <v>2.55</v>
+      </c>
+      <c r="AJ200">
+        <v>2.35</v>
+      </c>
+      <c r="AK200">
+        <v>1.53</v>
+      </c>
+      <c r="AL200">
+        <v>1.98</v>
+      </c>
+      <c r="AM200">
+        <v>1.79</v>
+      </c>
+      <c r="AN200">
+        <v>1.39</v>
+      </c>
+      <c r="AO200">
+        <v>1.38</v>
+      </c>
+      <c r="AP200">
+        <v>1.42</v>
+      </c>
+      <c r="AQ200">
+        <v>0.5</v>
+      </c>
+      <c r="AR200">
+        <v>2</v>
+      </c>
+      <c r="AS200">
+        <v>0.67</v>
+      </c>
+      <c r="AT200">
+        <v>1.75</v>
+      </c>
+      <c r="AU200">
+        <v>0.77</v>
+      </c>
+      <c r="AV200">
+        <v>1.38</v>
+      </c>
+      <c r="AW200">
+        <v>2.15</v>
+      </c>
+      <c r="AX200">
+        <v>0</v>
+      </c>
+      <c r="AY200">
+        <v>0</v>
+      </c>
+      <c r="AZ200">
+        <v>0</v>
+      </c>
+      <c r="BA200">
+        <v>0</v>
+      </c>
+      <c r="BB200">
+        <v>0</v>
+      </c>
+      <c r="BC200">
+        <v>2</v>
+      </c>
+      <c r="BD200">
+        <v>0</v>
+      </c>
+      <c r="BE200">
+        <v>0</v>
+      </c>
+      <c r="BF200">
+        <v>8</v>
+      </c>
+      <c r="BG200">
+        <v>4</v>
+      </c>
+      <c r="BH200">
+        <v>4</v>
+      </c>
+      <c r="BI200">
+        <v>6</v>
+      </c>
+      <c r="BJ200">
+        <v>12</v>
+      </c>
+      <c r="BK200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>5556955</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45087.70833333334</v>
+      </c>
+      <c r="F201">
+        <v>7</v>
+      </c>
+      <c r="G201" t="s">
+        <v>77</v>
+      </c>
+      <c r="H201" t="s">
+        <v>71</v>
+      </c>
+      <c r="I201">
+        <v>4</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>4</v>
+      </c>
+      <c r="L201">
+        <v>7</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>7</v>
+      </c>
+      <c r="O201" t="s">
+        <v>266</v>
+      </c>
+      <c r="P201" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q201">
+        <v>6</v>
+      </c>
+      <c r="R201">
+        <v>3</v>
+      </c>
+      <c r="S201">
+        <v>9</v>
+      </c>
+      <c r="T201">
+        <v>1.36</v>
+      </c>
+      <c r="U201">
+        <v>3.6</v>
+      </c>
+      <c r="V201">
+        <v>11</v>
+      </c>
+      <c r="W201">
+        <v>1.21</v>
+      </c>
+      <c r="X201">
+        <v>3.9</v>
+      </c>
+      <c r="Y201">
+        <v>2.22</v>
+      </c>
+      <c r="Z201">
+        <v>1.5</v>
+      </c>
+      <c r="AA201">
+        <v>4.2</v>
+      </c>
+      <c r="AB201">
+        <v>1.19</v>
+      </c>
+      <c r="AC201">
+        <v>1.05</v>
+      </c>
+      <c r="AD201">
+        <v>11</v>
+      </c>
+      <c r="AE201">
+        <v>19</v>
+      </c>
+      <c r="AF201">
+        <v>1.01</v>
+      </c>
+      <c r="AG201">
+        <v>17</v>
+      </c>
+      <c r="AH201">
+        <v>1.12</v>
+      </c>
+      <c r="AI201">
+        <v>5.2</v>
+      </c>
+      <c r="AJ201">
+        <v>1.33</v>
+      </c>
+      <c r="AK201">
+        <v>2.93</v>
+      </c>
+      <c r="AL201">
+        <v>2.54</v>
+      </c>
+      <c r="AM201">
+        <v>1.49</v>
+      </c>
+      <c r="AN201">
+        <v>1.03</v>
+      </c>
+      <c r="AO201">
+        <v>1.07</v>
+      </c>
+      <c r="AP201">
+        <v>4</v>
+      </c>
+      <c r="AQ201">
+        <v>3</v>
+      </c>
+      <c r="AR201">
+        <v>0</v>
+      </c>
+      <c r="AS201">
+        <v>3</v>
+      </c>
+      <c r="AT201">
+        <v>0</v>
+      </c>
+      <c r="AU201">
+        <v>1.64</v>
+      </c>
+      <c r="AV201">
+        <v>0.73</v>
+      </c>
+      <c r="AW201">
+        <v>2.37</v>
+      </c>
+      <c r="AX201">
+        <v>0</v>
+      </c>
+      <c r="AY201">
+        <v>0</v>
+      </c>
+      <c r="AZ201">
+        <v>0</v>
+      </c>
+      <c r="BA201">
+        <v>0</v>
+      </c>
+      <c r="BB201">
+        <v>0</v>
+      </c>
+      <c r="BC201">
+        <v>0</v>
+      </c>
+      <c r="BD201">
+        <v>0</v>
+      </c>
+      <c r="BE201">
+        <v>0</v>
+      </c>
+      <c r="BF201">
+        <v>10</v>
+      </c>
+      <c r="BG201">
+        <v>4</v>
+      </c>
+      <c r="BH201">
+        <v>5</v>
+      </c>
+      <c r="BI201">
+        <v>2</v>
+      </c>
+      <c r="BJ201">
+        <v>15</v>
+      </c>
+      <c r="BK201">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>5556844</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45087.70833333334</v>
+      </c>
+      <c r="F202">
+        <v>7</v>
+      </c>
+      <c r="G202" t="s">
+        <v>128</v>
+      </c>
+      <c r="H202" t="s">
+        <v>125</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202" t="s">
+        <v>267</v>
+      </c>
+      <c r="P202" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q202">
+        <v>3</v>
+      </c>
+      <c r="R202">
+        <v>3</v>
+      </c>
+      <c r="S202">
+        <v>6</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
+        <v>2.1</v>
+      </c>
+      <c r="V202">
+        <v>5</v>
+      </c>
+      <c r="W202">
+        <v>1.4</v>
+      </c>
+      <c r="X202">
+        <v>2.65</v>
+      </c>
+      <c r="Y202">
+        <v>2.9</v>
+      </c>
+      <c r="Z202">
+        <v>1.34</v>
+      </c>
+      <c r="AA202">
+        <v>7.2</v>
+      </c>
+      <c r="AB202">
+        <v>1.06</v>
+      </c>
+      <c r="AC202">
+        <v>1.63</v>
+      </c>
+      <c r="AD202">
+        <v>3.4</v>
+      </c>
+      <c r="AE202">
+        <v>4.75</v>
+      </c>
+      <c r="AF202">
+        <v>1.03</v>
+      </c>
+      <c r="AG202">
+        <v>9</v>
+      </c>
+      <c r="AH202">
+        <v>1.32</v>
+      </c>
+      <c r="AI202">
+        <v>3.1</v>
+      </c>
+      <c r="AJ202">
+        <v>2.04</v>
+      </c>
+      <c r="AK202">
+        <v>1.69</v>
+      </c>
+      <c r="AL202">
+        <v>1.98</v>
+      </c>
+      <c r="AM202">
+        <v>1.79</v>
+      </c>
+      <c r="AN202">
+        <v>1.13</v>
+      </c>
+      <c r="AO202">
+        <v>1.26</v>
+      </c>
+      <c r="AP202">
+        <v>2.16</v>
+      </c>
+      <c r="AQ202">
+        <v>3</v>
+      </c>
+      <c r="AR202">
+        <v>0.33</v>
+      </c>
+      <c r="AS202">
+        <v>3</v>
+      </c>
+      <c r="AT202">
+        <v>0.25</v>
+      </c>
+      <c r="AU202">
+        <v>2.34</v>
+      </c>
+      <c r="AV202">
+        <v>1.22</v>
+      </c>
+      <c r="AW202">
+        <v>3.56</v>
+      </c>
+      <c r="AX202">
+        <v>0</v>
+      </c>
+      <c r="AY202">
+        <v>0</v>
+      </c>
+      <c r="AZ202">
+        <v>0</v>
+      </c>
+      <c r="BA202">
+        <v>0</v>
+      </c>
+      <c r="BB202">
+        <v>0</v>
+      </c>
+      <c r="BC202">
+        <v>2.38</v>
+      </c>
+      <c r="BD202">
+        <v>0</v>
+      </c>
+      <c r="BE202">
+        <v>0</v>
+      </c>
+      <c r="BF202">
+        <v>9</v>
+      </c>
+      <c r="BG202">
+        <v>3</v>
+      </c>
+      <c r="BH202">
+        <v>12</v>
+      </c>
+      <c r="BI202">
+        <v>4</v>
+      </c>
+      <c r="BJ202">
+        <v>21</v>
+      </c>
+      <c r="BK202">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>5557068</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45087.70833333334</v>
+      </c>
+      <c r="F203">
+        <v>7</v>
+      </c>
+      <c r="G203" t="s">
+        <v>103</v>
+      </c>
+      <c r="H203" t="s">
+        <v>115</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>222</v>
+      </c>
+      <c r="P203" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q203">
+        <v>3</v>
+      </c>
+      <c r="R203">
+        <v>4</v>
+      </c>
+      <c r="S203">
+        <v>7</v>
+      </c>
+      <c r="T203">
+        <v>3.2</v>
+      </c>
+      <c r="U203">
+        <v>1.95</v>
+      </c>
+      <c r="V203">
+        <v>3.5</v>
+      </c>
+      <c r="W203">
+        <v>1.5</v>
+      </c>
+      <c r="X203">
+        <v>2.5</v>
+      </c>
+      <c r="Y203">
+        <v>3.25</v>
+      </c>
+      <c r="Z203">
+        <v>1.29</v>
+      </c>
+      <c r="AA203">
+        <v>9.5</v>
+      </c>
+      <c r="AB203">
+        <v>1.04</v>
+      </c>
+      <c r="AC203">
+        <v>2.67</v>
+      </c>
+      <c r="AD203">
+        <v>3.1</v>
+      </c>
+      <c r="AE203">
+        <v>2.38</v>
+      </c>
+      <c r="AF203">
+        <v>1.06</v>
+      </c>
+      <c r="AG203">
+        <v>7.5</v>
+      </c>
+      <c r="AH203">
+        <v>1.4</v>
+      </c>
+      <c r="AI203">
+        <v>2.75</v>
+      </c>
+      <c r="AJ203">
+        <v>2.3</v>
+      </c>
+      <c r="AK203">
+        <v>1.56</v>
+      </c>
+      <c r="AL203">
+        <v>1.92</v>
+      </c>
+      <c r="AM203">
+        <v>1.84</v>
+      </c>
+      <c r="AN203">
+        <v>1.44</v>
+      </c>
+      <c r="AO203">
+        <v>1.33</v>
+      </c>
+      <c r="AP203">
+        <v>1.36</v>
+      </c>
+      <c r="AQ203">
+        <v>0.5</v>
+      </c>
+      <c r="AR203">
+        <v>1</v>
+      </c>
+      <c r="AS203">
+        <v>1.33</v>
+      </c>
+      <c r="AT203">
+        <v>0.75</v>
+      </c>
+      <c r="AU203">
+        <v>1.71</v>
+      </c>
+      <c r="AV203">
+        <v>1.76</v>
+      </c>
+      <c r="AW203">
+        <v>3.47</v>
+      </c>
+      <c r="AX203">
+        <v>0</v>
+      </c>
+      <c r="AY203">
+        <v>0</v>
+      </c>
+      <c r="AZ203">
+        <v>0</v>
+      </c>
+      <c r="BA203">
+        <v>0</v>
+      </c>
+      <c r="BB203">
+        <v>0</v>
+      </c>
+      <c r="BC203">
+        <v>1.83</v>
+      </c>
+      <c r="BD203">
+        <v>1.9</v>
+      </c>
+      <c r="BE203">
+        <v>0</v>
+      </c>
+      <c r="BF203">
+        <v>4</v>
+      </c>
+      <c r="BG203">
+        <v>5</v>
+      </c>
+      <c r="BH203">
+        <v>7</v>
+      </c>
+      <c r="BI203">
+        <v>7</v>
+      </c>
+      <c r="BJ203">
+        <v>11</v>
+      </c>
+      <c r="BK203">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>5557066</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45087.75</v>
+      </c>
+      <c r="F204">
+        <v>7</v>
+      </c>
+      <c r="G204" t="s">
+        <v>114</v>
+      </c>
+      <c r="H204" t="s">
+        <v>124</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>4</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204" t="s">
+        <v>268</v>
+      </c>
+      <c r="P204" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q204">
+        <v>4</v>
+      </c>
+      <c r="R204">
+        <v>4</v>
+      </c>
+      <c r="S204">
+        <v>8</v>
+      </c>
+      <c r="T204">
+        <v>2.6</v>
+      </c>
+      <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
+        <v>4.75</v>
+      </c>
+      <c r="W204">
+        <v>1.53</v>
+      </c>
+      <c r="X204">
+        <v>2.38</v>
+      </c>
+      <c r="Y204">
+        <v>3.5</v>
+      </c>
+      <c r="Z204">
+        <v>1.25</v>
+      </c>
+      <c r="AA204">
+        <v>9.5</v>
+      </c>
+      <c r="AB204">
+        <v>1.04</v>
+      </c>
+      <c r="AC204">
+        <v>1.8</v>
+      </c>
+      <c r="AD204">
+        <v>3.1</v>
+      </c>
+      <c r="AE204">
+        <v>4.2</v>
+      </c>
+      <c r="AF204">
+        <v>1.07</v>
+      </c>
+      <c r="AG204">
+        <v>7</v>
+      </c>
+      <c r="AH204">
+        <v>1.45</v>
+      </c>
+      <c r="AI204">
+        <v>2.55</v>
+      </c>
+      <c r="AJ204">
+        <v>2.4</v>
+      </c>
+      <c r="AK204">
+        <v>1.53</v>
+      </c>
+      <c r="AL204">
+        <v>2.07</v>
+      </c>
+      <c r="AM204">
+        <v>1.72</v>
+      </c>
+      <c r="AN204">
+        <v>1.25</v>
+      </c>
+      <c r="AO204">
+        <v>1.3</v>
+      </c>
+      <c r="AP204">
+        <v>1.6</v>
+      </c>
+      <c r="AQ204">
+        <v>0.5</v>
+      </c>
+      <c r="AR204">
+        <v>0.67</v>
+      </c>
+      <c r="AS204">
+        <v>1.33</v>
+      </c>
+      <c r="AT204">
+        <v>0.5</v>
+      </c>
+      <c r="AU204">
+        <v>1.13</v>
+      </c>
+      <c r="AV204">
+        <v>1.05</v>
+      </c>
+      <c r="AW204">
+        <v>2.18</v>
+      </c>
+      <c r="AX204">
+        <v>0</v>
+      </c>
+      <c r="AY204">
+        <v>0</v>
+      </c>
+      <c r="AZ204">
+        <v>0</v>
+      </c>
+      <c r="BA204">
+        <v>0</v>
+      </c>
+      <c r="BB204">
+        <v>0</v>
+      </c>
+      <c r="BC204">
+        <v>0</v>
+      </c>
+      <c r="BD204">
+        <v>1.88</v>
+      </c>
+      <c r="BE204">
+        <v>0</v>
+      </c>
+      <c r="BF204">
+        <v>7</v>
+      </c>
+      <c r="BG204">
+        <v>6</v>
+      </c>
+      <c r="BH204">
+        <v>6</v>
+      </c>
+      <c r="BI204">
+        <v>9</v>
+      </c>
+      <c r="BJ204">
+        <v>13</v>
+      </c>
+      <c r="BK204">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="353">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -823,6 +823,36 @@
     <t>['12', '69', '73', '90+1']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['45+6', '72', '81']</t>
+  </si>
+  <si>
+    <t>['12', '89']</t>
+  </si>
+  <si>
+    <t>['32', '36', '90+7']</t>
+  </si>
+  <si>
+    <t>['16', '90+1']</t>
+  </si>
+  <si>
+    <t>['36', '90']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['9', '90+2']</t>
+  </si>
+  <si>
+    <t>['18', '74']</t>
+  </si>
+  <si>
+    <t>['32', '36', '84']</t>
+  </si>
+  <si>
     <t>['22', '38']</t>
   </si>
   <si>
@@ -887,9 +917,6 @@
   </si>
   <si>
     <t>['56', '59']</t>
-  </si>
-  <si>
-    <t>['48']</t>
   </si>
   <si>
     <t>['66']</t>
@@ -1034,6 +1061,18 @@
   </si>
   <si>
     <t>['6', '30', '44', '45+4', '90+1']</t>
+  </si>
+  <si>
+    <t>['31', '78']</t>
+  </si>
+  <si>
+    <t>['24', '83', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+2', '49']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK204"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +1678,7 @@
         <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1729,7 +1768,7 @@
         <v>0.5</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2111,7 +2150,7 @@
         <v>2.5</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2299,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT5">
         <v>1.25</v>
@@ -2490,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>1.25</v>
@@ -2594,7 +2633,7 @@
         <v>134</v>
       </c>
       <c r="P7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2681,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT7">
         <v>2</v>
@@ -2785,7 +2824,7 @@
         <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -2875,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2976,7 +3015,7 @@
         <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -3063,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT9">
         <v>1.5</v>
@@ -3167,7 +3206,7 @@
         <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3549,7 +3588,7 @@
         <v>136</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3740,7 +3779,7 @@
         <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4313,7 +4352,7 @@
         <v>140</v>
       </c>
       <c r="P16" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4504,7 +4543,7 @@
         <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4591,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT17">
         <v>0.25</v>
@@ -4695,7 +4734,7 @@
         <v>142</v>
       </c>
       <c r="P18" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4785,7 +4824,7 @@
         <v>0.75</v>
       </c>
       <c r="AT18">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4973,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT19">
         <v>1</v>
@@ -5077,7 +5116,7 @@
         <v>144</v>
       </c>
       <c r="P20" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5164,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT20">
         <v>0.75</v>
@@ -5268,7 +5307,7 @@
         <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5358,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="AT21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5546,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5650,7 +5689,7 @@
         <v>147</v>
       </c>
       <c r="P23" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5737,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT23">
         <v>1.25</v>
@@ -5931,7 +5970,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6313,7 +6352,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6414,7 +6453,7 @@
         <v>150</v>
       </c>
       <c r="P27" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6883,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT29">
         <v>0.25</v>
@@ -6987,7 +7026,7 @@
         <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7268,7 +7307,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7560,7 +7599,7 @@
         <v>155</v>
       </c>
       <c r="P33" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7647,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>1</v>
@@ -8032,7 +8071,7 @@
         <v>2.33</v>
       </c>
       <c r="AT35">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8324,7 +8363,7 @@
         <v>135</v>
       </c>
       <c r="P37" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8411,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
         <v>1.33</v>
@@ -9279,7 +9318,7 @@
         <v>161</v>
       </c>
       <c r="P42" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -9366,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT42">
         <v>1.33</v>
@@ -9470,7 +9509,7 @@
         <v>135</v>
       </c>
       <c r="P43" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9560,7 +9599,7 @@
         <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9661,7 +9700,7 @@
         <v>162</v>
       </c>
       <c r="P44" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Q44">
         <v>-1</v>
@@ -9852,7 +9891,7 @@
         <v>163</v>
       </c>
       <c r="P45" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Q45">
         <v>-1</v>
@@ -10133,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="AT46">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10324,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="AT47">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10515,7 +10554,7 @@
         <v>2.33</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10616,7 +10655,7 @@
         <v>167</v>
       </c>
       <c r="P49" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10706,7 +10745,7 @@
         <v>2</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -10894,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT50">
         <v>0</v>
@@ -10998,7 +11037,7 @@
         <v>169</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11380,7 +11419,7 @@
         <v>170</v>
       </c>
       <c r="P53" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11467,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT53">
         <v>1.33</v>
@@ -11762,7 +11801,7 @@
         <v>172</v>
       </c>
       <c r="P55" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11953,7 +11992,7 @@
         <v>173</v>
       </c>
       <c r="P56" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q56">
         <v>-1</v>
@@ -12043,7 +12082,7 @@
         <v>1.67</v>
       </c>
       <c r="AT56">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12144,7 +12183,7 @@
         <v>174</v>
       </c>
       <c r="P57" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12422,7 +12461,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT58">
         <v>0.67</v>
@@ -12526,7 +12565,7 @@
         <v>175</v>
       </c>
       <c r="P59" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12613,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT59">
         <v>0.67</v>
@@ -12717,7 +12756,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13189,7 +13228,7 @@
         <v>3</v>
       </c>
       <c r="AT62">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU62">
         <v>0</v>
@@ -13290,7 +13329,7 @@
         <v>177</v>
       </c>
       <c r="P63" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q63">
         <v>15</v>
@@ -13380,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13863,7 +13902,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -14141,10 +14180,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT67">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU67">
         <v>1.26</v>
@@ -14245,7 +14284,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q68">
         <v>8</v>
@@ -14627,7 +14666,7 @@
         <v>181</v>
       </c>
       <c r="P70" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14908,7 +14947,7 @@
         <v>3</v>
       </c>
       <c r="AT71">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU71">
         <v>2.27</v>
@@ -15200,7 +15239,7 @@
         <v>184</v>
       </c>
       <c r="P73" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15582,7 +15621,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -15669,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT75">
         <v>1.75</v>
@@ -15773,7 +15812,7 @@
         <v>186</v>
       </c>
       <c r="P76" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -16346,7 +16385,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16818,7 +16857,7 @@
         <v>3</v>
       </c>
       <c r="AT81">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU81">
         <v>1.98</v>
@@ -16919,7 +16958,7 @@
         <v>190</v>
       </c>
       <c r="P82" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -18065,7 +18104,7 @@
         <v>194</v>
       </c>
       <c r="P88" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18343,7 +18382,7 @@
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT89">
         <v>0.25</v>
@@ -18447,7 +18486,7 @@
         <v>160</v>
       </c>
       <c r="P90" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18829,7 +18868,7 @@
         <v>195</v>
       </c>
       <c r="P92" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -19107,7 +19146,7 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT93">
         <v>0.25</v>
@@ -19871,10 +19910,10 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU97">
         <v>1.82</v>
@@ -19975,7 +20014,7 @@
         <v>199</v>
       </c>
       <c r="P98" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20357,7 +20396,7 @@
         <v>201</v>
       </c>
       <c r="P100" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20447,7 +20486,7 @@
         <v>0.5</v>
       </c>
       <c r="AT100">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU100">
         <v>1.32</v>
@@ -20548,7 +20587,7 @@
         <v>202</v>
       </c>
       <c r="P101" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20739,7 +20778,7 @@
         <v>203</v>
       </c>
       <c r="P102" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -21399,7 +21438,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT105">
         <v>1</v>
@@ -21590,7 +21629,7 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT106">
         <v>1.33</v>
@@ -21694,7 +21733,7 @@
         <v>206</v>
       </c>
       <c r="P107" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21784,7 +21823,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU107">
         <v>2.25</v>
@@ -21972,7 +22011,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT108">
         <v>0.33</v>
@@ -22267,7 +22306,7 @@
         <v>209</v>
       </c>
       <c r="P110" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22354,7 +22393,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT110">
         <v>1</v>
@@ -22458,7 +22497,7 @@
         <v>210</v>
       </c>
       <c r="P111" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22548,7 +22587,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU111">
         <v>1.11</v>
@@ -22649,7 +22688,7 @@
         <v>211</v>
       </c>
       <c r="P112" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22927,7 +22966,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT113">
         <v>1.25</v>
@@ -23309,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="AS115">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT115">
         <v>0</v>
@@ -23691,7 +23730,7 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT117">
         <v>0.67</v>
@@ -23885,7 +23924,7 @@
         <v>3</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU118">
         <v>2.51</v>
@@ -24076,7 +24115,7 @@
         <v>1.67</v>
       </c>
       <c r="AT119">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU119">
         <v>0</v>
@@ -24264,7 +24303,7 @@
         <v>2</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT120">
         <v>1.25</v>
@@ -24455,7 +24494,7 @@
         <v>3</v>
       </c>
       <c r="AS121">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT121">
         <v>1.33</v>
@@ -24559,7 +24598,7 @@
         <v>218</v>
       </c>
       <c r="P122" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24649,7 +24688,7 @@
         <v>1.5</v>
       </c>
       <c r="AT122">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU122">
         <v>0.88</v>
@@ -24941,7 +24980,7 @@
         <v>219</v>
       </c>
       <c r="P124" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25132,7 +25171,7 @@
         <v>220</v>
       </c>
       <c r="P125" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25222,7 +25261,7 @@
         <v>2.5</v>
       </c>
       <c r="AT125">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -25604,7 +25643,7 @@
         <v>3</v>
       </c>
       <c r="AT127">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU127">
         <v>2.19</v>
@@ -25705,7 +25744,7 @@
         <v>223</v>
       </c>
       <c r="P128" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25795,7 +25834,7 @@
         <v>2.33</v>
       </c>
       <c r="AT128">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU128">
         <v>0</v>
@@ -26365,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT131">
         <v>0</v>
@@ -26469,7 +26508,7 @@
         <v>226</v>
       </c>
       <c r="P132" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26559,7 +26598,7 @@
         <v>1.75</v>
       </c>
       <c r="AT132">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU132">
         <v>1.86</v>
@@ -26660,7 +26699,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26750,7 +26789,7 @@
         <v>0.67</v>
       </c>
       <c r="AT133">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU133">
         <v>1.97</v>
@@ -26938,7 +26977,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT134">
         <v>0.75</v>
@@ -27320,10 +27359,10 @@
         <v>0</v>
       </c>
       <c r="AS136">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT136">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU136">
         <v>1.51</v>
@@ -27424,7 +27463,7 @@
         <v>135</v>
       </c>
       <c r="P137" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q137">
         <v>12</v>
@@ -27511,10 +27550,10 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT137">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU137">
         <v>1.79</v>
@@ -27997,7 +28036,7 @@
         <v>229</v>
       </c>
       <c r="P140" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28275,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="AS141">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT141">
         <v>0.25</v>
@@ -28570,7 +28609,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28657,7 +28696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS143">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT143">
         <v>1.75</v>
@@ -28851,7 +28890,7 @@
         <v>0.67</v>
       </c>
       <c r="AT144">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU144">
         <v>0</v>
@@ -29233,7 +29272,7 @@
         <v>3</v>
       </c>
       <c r="AT146">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU146">
         <v>1.98</v>
@@ -29803,10 +29842,10 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT149">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU149">
         <v>1.4</v>
@@ -29994,7 +30033,7 @@
         <v>0.5</v>
       </c>
       <c r="AS150">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT150">
         <v>0.25</v>
@@ -30185,10 +30224,10 @@
         <v>0</v>
       </c>
       <c r="AS151">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT151">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU151">
         <v>2.38</v>
@@ -30376,10 +30415,10 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT152">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU152">
         <v>1.47</v>
@@ -30567,7 +30606,7 @@
         <v>0</v>
       </c>
       <c r="AS153">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT153">
         <v>0</v>
@@ -30862,7 +30901,7 @@
         <v>236</v>
       </c>
       <c r="P155" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -30949,10 +30988,10 @@
         <v>0</v>
       </c>
       <c r="AS155">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT155">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU155">
         <v>1.82</v>
@@ -31053,7 +31092,7 @@
         <v>237</v>
       </c>
       <c r="P156" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31140,7 +31179,7 @@
         <v>0</v>
       </c>
       <c r="AS156">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT156">
         <v>0.25</v>
@@ -31334,7 +31373,7 @@
         <v>3</v>
       </c>
       <c r="AT157">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU157">
         <v>1.83</v>
@@ -31435,7 +31474,7 @@
         <v>239</v>
       </c>
       <c r="P158" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Q158">
         <v>13</v>
@@ -31626,7 +31665,7 @@
         <v>153</v>
       </c>
       <c r="P159" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Q159">
         <v>10</v>
@@ -31817,7 +31856,7 @@
         <v>135</v>
       </c>
       <c r="P160" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -32095,10 +32134,10 @@
         <v>0</v>
       </c>
       <c r="AS161">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT161">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU161">
         <v>0.79</v>
@@ -33345,7 +33384,7 @@
         <v>135</v>
       </c>
       <c r="P168" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33536,7 +33575,7 @@
         <v>243</v>
       </c>
       <c r="P169" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33727,7 +33766,7 @@
         <v>244</v>
       </c>
       <c r="P170" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34300,7 +34339,7 @@
         <v>135</v>
       </c>
       <c r="P173" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q173">
         <v>1</v>
@@ -34682,7 +34721,7 @@
         <v>135</v>
       </c>
       <c r="P175" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34873,7 +34912,7 @@
         <v>248</v>
       </c>
       <c r="P176" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35064,7 +35103,7 @@
         <v>135</v>
       </c>
       <c r="P177" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35255,7 +35294,7 @@
         <v>135</v>
       </c>
       <c r="P178" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="Q178">
         <v>19</v>
@@ -35446,7 +35485,7 @@
         <v>249</v>
       </c>
       <c r="P179" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="Q179">
         <v>9</v>
@@ -35828,7 +35867,7 @@
         <v>251</v>
       </c>
       <c r="P181" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36401,7 +36440,7 @@
         <v>254</v>
       </c>
       <c r="P184" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36783,7 +36822,7 @@
         <v>255</v>
       </c>
       <c r="P186" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37929,7 +37968,7 @@
         <v>258</v>
       </c>
       <c r="P192" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -38311,7 +38350,7 @@
         <v>259</v>
       </c>
       <c r="P194" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q194">
         <v>12</v>
@@ -39075,7 +39114,7 @@
         <v>263</v>
       </c>
       <c r="P198" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -40363,6 +40402,4017 @@
       </c>
       <c r="BK204">
         <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>5556732</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45088.625</v>
+      </c>
+      <c r="F205">
+        <v>7</v>
+      </c>
+      <c r="G205" t="s">
+        <v>116</v>
+      </c>
+      <c r="H205" t="s">
+        <v>127</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205" t="s">
+        <v>269</v>
+      </c>
+      <c r="P205" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q205">
+        <v>7</v>
+      </c>
+      <c r="R205">
+        <v>1</v>
+      </c>
+      <c r="S205">
+        <v>8</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>2.1</v>
+      </c>
+      <c r="V205">
+        <v>4.33</v>
+      </c>
+      <c r="W205">
+        <v>1.41</v>
+      </c>
+      <c r="X205">
+        <v>2.61</v>
+      </c>
+      <c r="Y205">
+        <v>2.94</v>
+      </c>
+      <c r="Z205">
+        <v>1.33</v>
+      </c>
+      <c r="AA205">
+        <v>7.5</v>
+      </c>
+      <c r="AB205">
+        <v>1.06</v>
+      </c>
+      <c r="AC205">
+        <v>1.85</v>
+      </c>
+      <c r="AD205">
+        <v>3.2</v>
+      </c>
+      <c r="AE205">
+        <v>3.75</v>
+      </c>
+      <c r="AF205">
+        <v>1.05</v>
+      </c>
+      <c r="AG205">
+        <v>9</v>
+      </c>
+      <c r="AH205">
+        <v>1.33</v>
+      </c>
+      <c r="AI205">
+        <v>3</v>
+      </c>
+      <c r="AJ205">
+        <v>2.08</v>
+      </c>
+      <c r="AK205">
+        <v>1.73</v>
+      </c>
+      <c r="AL205">
+        <v>1.8</v>
+      </c>
+      <c r="AM205">
+        <v>1.9</v>
+      </c>
+      <c r="AN205">
+        <v>1.28</v>
+      </c>
+      <c r="AO205">
+        <v>1.35</v>
+      </c>
+      <c r="AP205">
+        <v>1.62</v>
+      </c>
+      <c r="AQ205">
+        <v>2</v>
+      </c>
+      <c r="AR205">
+        <v>0.33</v>
+      </c>
+      <c r="AS205">
+        <v>2.33</v>
+      </c>
+      <c r="AT205">
+        <v>0.25</v>
+      </c>
+      <c r="AU205">
+        <v>1.88</v>
+      </c>
+      <c r="AV205">
+        <v>1.07</v>
+      </c>
+      <c r="AW205">
+        <v>2.95</v>
+      </c>
+      <c r="AX205">
+        <v>0</v>
+      </c>
+      <c r="AY205">
+        <v>0</v>
+      </c>
+      <c r="AZ205">
+        <v>0</v>
+      </c>
+      <c r="BA205">
+        <v>0</v>
+      </c>
+      <c r="BB205">
+        <v>0</v>
+      </c>
+      <c r="BC205">
+        <v>2.38</v>
+      </c>
+      <c r="BD205">
+        <v>0</v>
+      </c>
+      <c r="BE205">
+        <v>0</v>
+      </c>
+      <c r="BF205">
+        <v>6</v>
+      </c>
+      <c r="BG205">
+        <v>0</v>
+      </c>
+      <c r="BH205">
+        <v>10</v>
+      </c>
+      <c r="BI205">
+        <v>5</v>
+      </c>
+      <c r="BJ205">
+        <v>16</v>
+      </c>
+      <c r="BK205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>5557121</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45088.625</v>
+      </c>
+      <c r="F206">
+        <v>7</v>
+      </c>
+      <c r="G206" t="s">
+        <v>82</v>
+      </c>
+      <c r="H206" t="s">
+        <v>87</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206" t="s">
+        <v>270</v>
+      </c>
+      <c r="P206" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q206">
+        <v>3</v>
+      </c>
+      <c r="R206">
+        <v>3</v>
+      </c>
+      <c r="S206">
+        <v>6</v>
+      </c>
+      <c r="T206">
+        <v>2.5</v>
+      </c>
+      <c r="U206">
+        <v>1.95</v>
+      </c>
+      <c r="V206">
+        <v>5</v>
+      </c>
+      <c r="W206">
+        <v>1.52</v>
+      </c>
+      <c r="X206">
+        <v>2.3</v>
+      </c>
+      <c r="Y206">
+        <v>3.48</v>
+      </c>
+      <c r="Z206">
+        <v>1.26</v>
+      </c>
+      <c r="AA206">
+        <v>9.5</v>
+      </c>
+      <c r="AB206">
+        <v>1.02</v>
+      </c>
+      <c r="AC206">
+        <v>1.83</v>
+      </c>
+      <c r="AD206">
+        <v>3</v>
+      </c>
+      <c r="AE206">
+        <v>4.2</v>
+      </c>
+      <c r="AF206">
+        <v>1.08</v>
+      </c>
+      <c r="AG206">
+        <v>7.25</v>
+      </c>
+      <c r="AH206">
+        <v>1.5</v>
+      </c>
+      <c r="AI206">
+        <v>2.45</v>
+      </c>
+      <c r="AJ206">
+        <v>2.55</v>
+      </c>
+      <c r="AK206">
+        <v>1.41</v>
+      </c>
+      <c r="AL206">
+        <v>2.15</v>
+      </c>
+      <c r="AM206">
+        <v>1.62</v>
+      </c>
+      <c r="AN206">
+        <v>1.15</v>
+      </c>
+      <c r="AO206">
+        <v>1.31</v>
+      </c>
+      <c r="AP206">
+        <v>2</v>
+      </c>
+      <c r="AQ206">
+        <v>1.33</v>
+      </c>
+      <c r="AR206">
+        <v>0.5</v>
+      </c>
+      <c r="AS206">
+        <v>1.75</v>
+      </c>
+      <c r="AT206">
+        <v>0.33</v>
+      </c>
+      <c r="AU206">
+        <v>1.4</v>
+      </c>
+      <c r="AV206">
+        <v>1.78</v>
+      </c>
+      <c r="AW206">
+        <v>3.18</v>
+      </c>
+      <c r="AX206">
+        <v>0</v>
+      </c>
+      <c r="AY206">
+        <v>0</v>
+      </c>
+      <c r="AZ206">
+        <v>0</v>
+      </c>
+      <c r="BA206">
+        <v>0</v>
+      </c>
+      <c r="BB206">
+        <v>0</v>
+      </c>
+      <c r="BC206">
+        <v>2.2</v>
+      </c>
+      <c r="BD206">
+        <v>0</v>
+      </c>
+      <c r="BE206">
+        <v>0</v>
+      </c>
+      <c r="BF206">
+        <v>10</v>
+      </c>
+      <c r="BG206">
+        <v>4</v>
+      </c>
+      <c r="BH206">
+        <v>9</v>
+      </c>
+      <c r="BI206">
+        <v>2</v>
+      </c>
+      <c r="BJ206">
+        <v>19</v>
+      </c>
+      <c r="BK206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>5557012</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45088.625</v>
+      </c>
+      <c r="F207">
+        <v>7</v>
+      </c>
+      <c r="G207" t="s">
+        <v>100</v>
+      </c>
+      <c r="H207" t="s">
+        <v>112</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207" t="s">
+        <v>135</v>
+      </c>
+      <c r="P207" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q207">
+        <v>8</v>
+      </c>
+      <c r="R207">
+        <v>4</v>
+      </c>
+      <c r="S207">
+        <v>12</v>
+      </c>
+      <c r="T207">
+        <v>3</v>
+      </c>
+      <c r="U207">
+        <v>2.2</v>
+      </c>
+      <c r="V207">
+        <v>3.2</v>
+      </c>
+      <c r="W207">
+        <v>1.38</v>
+      </c>
+      <c r="X207">
+        <v>2.81</v>
+      </c>
+      <c r="Y207">
+        <v>2.77</v>
+      </c>
+      <c r="Z207">
+        <v>1.39</v>
+      </c>
+      <c r="AA207">
+        <v>6.6</v>
+      </c>
+      <c r="AB207">
+        <v>1.08</v>
+      </c>
+      <c r="AC207">
+        <v>2.52</v>
+      </c>
+      <c r="AD207">
+        <v>3.32</v>
+      </c>
+      <c r="AE207">
+        <v>2.58</v>
+      </c>
+      <c r="AF207">
+        <v>1.04</v>
+      </c>
+      <c r="AG207">
+        <v>10.25</v>
+      </c>
+      <c r="AH207">
+        <v>1.27</v>
+      </c>
+      <c r="AI207">
+        <v>3.35</v>
+      </c>
+      <c r="AJ207">
+        <v>1.92</v>
+      </c>
+      <c r="AK207">
+        <v>1.86</v>
+      </c>
+      <c r="AL207">
+        <v>1.73</v>
+      </c>
+      <c r="AM207">
+        <v>2.03</v>
+      </c>
+      <c r="AN207">
+        <v>1.44</v>
+      </c>
+      <c r="AO207">
+        <v>1.31</v>
+      </c>
+      <c r="AP207">
+        <v>1.5</v>
+      </c>
+      <c r="AQ207">
+        <v>1.5</v>
+      </c>
+      <c r="AR207">
+        <v>2</v>
+      </c>
+      <c r="AS207">
+        <v>1.33</v>
+      </c>
+      <c r="AT207">
+        <v>1.75</v>
+      </c>
+      <c r="AU207">
+        <v>1.66</v>
+      </c>
+      <c r="AV207">
+        <v>1.39</v>
+      </c>
+      <c r="AW207">
+        <v>3.05</v>
+      </c>
+      <c r="AX207">
+        <v>0</v>
+      </c>
+      <c r="AY207">
+        <v>0</v>
+      </c>
+      <c r="AZ207">
+        <v>0</v>
+      </c>
+      <c r="BA207">
+        <v>0</v>
+      </c>
+      <c r="BB207">
+        <v>0</v>
+      </c>
+      <c r="BC207">
+        <v>2</v>
+      </c>
+      <c r="BD207">
+        <v>0</v>
+      </c>
+      <c r="BE207">
+        <v>0</v>
+      </c>
+      <c r="BF207">
+        <v>4</v>
+      </c>
+      <c r="BG207">
+        <v>5</v>
+      </c>
+      <c r="BH207">
+        <v>5</v>
+      </c>
+      <c r="BI207">
+        <v>8</v>
+      </c>
+      <c r="BJ207">
+        <v>9</v>
+      </c>
+      <c r="BK207">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>5557123</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45088.64583333334</v>
+      </c>
+      <c r="F208">
+        <v>7</v>
+      </c>
+      <c r="G208" t="s">
+        <v>68</v>
+      </c>
+      <c r="H208" t="s">
+        <v>93</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>271</v>
+      </c>
+      <c r="P208" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q208">
+        <v>13</v>
+      </c>
+      <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>13</v>
+      </c>
+      <c r="T208">
+        <v>2.38</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
+        <v>5.5</v>
+      </c>
+      <c r="W208">
+        <v>1.49</v>
+      </c>
+      <c r="X208">
+        <v>2.36</v>
+      </c>
+      <c r="Y208">
+        <v>3.2</v>
+      </c>
+      <c r="Z208">
+        <v>1.29</v>
+      </c>
+      <c r="AA208">
+        <v>8.9</v>
+      </c>
+      <c r="AB208">
+        <v>1.03</v>
+      </c>
+      <c r="AC208">
+        <v>1.72</v>
+      </c>
+      <c r="AD208">
+        <v>3.38</v>
+      </c>
+      <c r="AE208">
+        <v>4.95</v>
+      </c>
+      <c r="AF208">
+        <v>1.07</v>
+      </c>
+      <c r="AG208">
+        <v>7.75</v>
+      </c>
+      <c r="AH208">
+        <v>1.42</v>
+      </c>
+      <c r="AI208">
+        <v>2.6</v>
+      </c>
+      <c r="AJ208">
+        <v>2.35</v>
+      </c>
+      <c r="AK208">
+        <v>1.46</v>
+      </c>
+      <c r="AL208">
+        <v>2</v>
+      </c>
+      <c r="AM208">
+        <v>1.68</v>
+      </c>
+      <c r="AN208">
+        <v>1.16</v>
+      </c>
+      <c r="AO208">
+        <v>1.3</v>
+      </c>
+      <c r="AP208">
+        <v>1.95</v>
+      </c>
+      <c r="AQ208">
+        <v>2.33</v>
+      </c>
+      <c r="AR208">
+        <v>0.5</v>
+      </c>
+      <c r="AS208">
+        <v>2.5</v>
+      </c>
+      <c r="AT208">
+        <v>0.33</v>
+      </c>
+      <c r="AU208">
+        <v>1.26</v>
+      </c>
+      <c r="AV208">
+        <v>1.41</v>
+      </c>
+      <c r="AW208">
+        <v>2.67</v>
+      </c>
+      <c r="AX208">
+        <v>0</v>
+      </c>
+      <c r="AY208">
+        <v>0</v>
+      </c>
+      <c r="AZ208">
+        <v>0</v>
+      </c>
+      <c r="BA208">
+        <v>0</v>
+      </c>
+      <c r="BB208">
+        <v>0</v>
+      </c>
+      <c r="BC208">
+        <v>2.1</v>
+      </c>
+      <c r="BD208">
+        <v>0</v>
+      </c>
+      <c r="BE208">
+        <v>0</v>
+      </c>
+      <c r="BF208">
+        <v>7</v>
+      </c>
+      <c r="BG208">
+        <v>2</v>
+      </c>
+      <c r="BH208">
+        <v>14</v>
+      </c>
+      <c r="BI208">
+        <v>4</v>
+      </c>
+      <c r="BJ208">
+        <v>21</v>
+      </c>
+      <c r="BK208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>5556843</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45088.64583333334</v>
+      </c>
+      <c r="F209">
+        <v>7</v>
+      </c>
+      <c r="G209" t="s">
+        <v>83</v>
+      </c>
+      <c r="H209" t="s">
+        <v>95</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" t="s">
+        <v>135</v>
+      </c>
+      <c r="P209" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q209">
+        <v>5</v>
+      </c>
+      <c r="R209">
+        <v>6</v>
+      </c>
+      <c r="S209">
+        <v>11</v>
+      </c>
+      <c r="T209">
+        <v>6</v>
+      </c>
+      <c r="U209">
+        <v>2.25</v>
+      </c>
+      <c r="V209">
+        <v>2</v>
+      </c>
+      <c r="W209">
+        <v>1.44</v>
+      </c>
+      <c r="X209">
+        <v>2.31</v>
+      </c>
+      <c r="Y209">
+        <v>3</v>
+      </c>
+      <c r="Z209">
+        <v>1.18</v>
+      </c>
+      <c r="AA209">
+        <v>7.3</v>
+      </c>
+      <c r="AB209">
+        <v>1.06</v>
+      </c>
+      <c r="AC209">
+        <v>5.65</v>
+      </c>
+      <c r="AD209">
+        <v>3.76</v>
+      </c>
+      <c r="AE209">
+        <v>1.57</v>
+      </c>
+      <c r="AF209">
+        <v>1.05</v>
+      </c>
+      <c r="AG209">
+        <v>10</v>
+      </c>
+      <c r="AH209">
+        <v>1.3</v>
+      </c>
+      <c r="AI209">
+        <v>3.15</v>
+      </c>
+      <c r="AJ209">
+        <v>2.08</v>
+      </c>
+      <c r="AK209">
+        <v>1.73</v>
+      </c>
+      <c r="AL209">
+        <v>2</v>
+      </c>
+      <c r="AM209">
+        <v>1.68</v>
+      </c>
+      <c r="AN209">
+        <v>2.25</v>
+      </c>
+      <c r="AO209">
+        <v>1.25</v>
+      </c>
+      <c r="AP209">
+        <v>1.13</v>
+      </c>
+      <c r="AQ209">
+        <v>1.33</v>
+      </c>
+      <c r="AR209">
+        <v>0.5</v>
+      </c>
+      <c r="AS209">
+        <v>1</v>
+      </c>
+      <c r="AT209">
+        <v>1.33</v>
+      </c>
+      <c r="AU209">
+        <v>1.59</v>
+      </c>
+      <c r="AV209">
+        <v>1.44</v>
+      </c>
+      <c r="AW209">
+        <v>3.03</v>
+      </c>
+      <c r="AX209">
+        <v>0</v>
+      </c>
+      <c r="AY209">
+        <v>0</v>
+      </c>
+      <c r="AZ209">
+        <v>0</v>
+      </c>
+      <c r="BA209">
+        <v>0</v>
+      </c>
+      <c r="BB209">
+        <v>0</v>
+      </c>
+      <c r="BC209">
+        <v>2</v>
+      </c>
+      <c r="BD209">
+        <v>0</v>
+      </c>
+      <c r="BE209">
+        <v>0</v>
+      </c>
+      <c r="BF209">
+        <v>0</v>
+      </c>
+      <c r="BG209">
+        <v>6</v>
+      </c>
+      <c r="BH209">
+        <v>7</v>
+      </c>
+      <c r="BI209">
+        <v>8</v>
+      </c>
+      <c r="BJ209">
+        <v>7</v>
+      </c>
+      <c r="BK209">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>5556956</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F210">
+        <v>7</v>
+      </c>
+      <c r="G210" t="s">
+        <v>108</v>
+      </c>
+      <c r="H210" t="s">
+        <v>118</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>3</v>
+      </c>
+      <c r="L210">
+        <v>3</v>
+      </c>
+      <c r="M210">
+        <v>3</v>
+      </c>
+      <c r="N210">
+        <v>6</v>
+      </c>
+      <c r="O210" t="s">
+        <v>272</v>
+      </c>
+      <c r="P210" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q210">
+        <v>5</v>
+      </c>
+      <c r="R210">
+        <v>7</v>
+      </c>
+      <c r="S210">
+        <v>12</v>
+      </c>
+      <c r="T210">
+        <v>2.3</v>
+      </c>
+      <c r="U210">
+        <v>2.1</v>
+      </c>
+      <c r="V210">
+        <v>5</v>
+      </c>
+      <c r="W210">
+        <v>1.44</v>
+      </c>
+      <c r="X210">
+        <v>2.31</v>
+      </c>
+      <c r="Y210">
+        <v>3.01</v>
+      </c>
+      <c r="Z210">
+        <v>1.18</v>
+      </c>
+      <c r="AA210">
+        <v>7.4</v>
+      </c>
+      <c r="AB210">
+        <v>1.06</v>
+      </c>
+      <c r="AC210">
+        <v>1.64</v>
+      </c>
+      <c r="AD210">
+        <v>3.66</v>
+      </c>
+      <c r="AE210">
+        <v>5.08</v>
+      </c>
+      <c r="AF210">
+        <v>1.05</v>
+      </c>
+      <c r="AG210">
+        <v>10</v>
+      </c>
+      <c r="AH210">
+        <v>1.31</v>
+      </c>
+      <c r="AI210">
+        <v>3.1</v>
+      </c>
+      <c r="AJ210">
+        <v>2.07</v>
+      </c>
+      <c r="AK210">
+        <v>1.74</v>
+      </c>
+      <c r="AL210">
+        <v>1.95</v>
+      </c>
+      <c r="AM210">
+        <v>1.76</v>
+      </c>
+      <c r="AN210">
+        <v>1.15</v>
+      </c>
+      <c r="AO210">
+        <v>1.26</v>
+      </c>
+      <c r="AP210">
+        <v>2.1</v>
+      </c>
+      <c r="AQ210">
+        <v>1</v>
+      </c>
+      <c r="AR210">
+        <v>0</v>
+      </c>
+      <c r="AS210">
+        <v>1</v>
+      </c>
+      <c r="AT210">
+        <v>0.25</v>
+      </c>
+      <c r="AU210">
+        <v>0</v>
+      </c>
+      <c r="AV210">
+        <v>1.57</v>
+      </c>
+      <c r="AW210">
+        <v>1.57</v>
+      </c>
+      <c r="AX210">
+        <v>0</v>
+      </c>
+      <c r="AY210">
+        <v>0</v>
+      </c>
+      <c r="AZ210">
+        <v>0</v>
+      </c>
+      <c r="BA210">
+        <v>0</v>
+      </c>
+      <c r="BB210">
+        <v>0</v>
+      </c>
+      <c r="BC210">
+        <v>2.38</v>
+      </c>
+      <c r="BD210">
+        <v>0</v>
+      </c>
+      <c r="BE210">
+        <v>0</v>
+      </c>
+      <c r="BF210">
+        <v>6</v>
+      </c>
+      <c r="BG210">
+        <v>5</v>
+      </c>
+      <c r="BH210">
+        <v>4</v>
+      </c>
+      <c r="BI210">
+        <v>7</v>
+      </c>
+      <c r="BJ210">
+        <v>10</v>
+      </c>
+      <c r="BK210">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>5556842</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F211">
+        <v>7</v>
+      </c>
+      <c r="G211" t="s">
+        <v>120</v>
+      </c>
+      <c r="H211" t="s">
+        <v>104</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211" t="s">
+        <v>273</v>
+      </c>
+      <c r="P211" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q211">
+        <v>12</v>
+      </c>
+      <c r="R211">
+        <v>1</v>
+      </c>
+      <c r="S211">
+        <v>13</v>
+      </c>
+      <c r="T211">
+        <v>2.1</v>
+      </c>
+      <c r="U211">
+        <v>2.1</v>
+      </c>
+      <c r="V211">
+        <v>6</v>
+      </c>
+      <c r="W211">
+        <v>1.4</v>
+      </c>
+      <c r="X211">
+        <v>2.63</v>
+      </c>
+      <c r="Y211">
+        <v>2.92</v>
+      </c>
+      <c r="Z211">
+        <v>1.33</v>
+      </c>
+      <c r="AA211">
+        <v>7.3</v>
+      </c>
+      <c r="AB211">
+        <v>1.06</v>
+      </c>
+      <c r="AC211">
+        <v>1.66</v>
+      </c>
+      <c r="AD211">
+        <v>3.64</v>
+      </c>
+      <c r="AE211">
+        <v>4.94</v>
+      </c>
+      <c r="AF211">
+        <v>1.04</v>
+      </c>
+      <c r="AG211">
+        <v>10.25</v>
+      </c>
+      <c r="AH211">
+        <v>1.31</v>
+      </c>
+      <c r="AI211">
+        <v>3.05</v>
+      </c>
+      <c r="AJ211">
+        <v>2.04</v>
+      </c>
+      <c r="AK211">
+        <v>1.76</v>
+      </c>
+      <c r="AL211">
+        <v>1.9</v>
+      </c>
+      <c r="AM211">
+        <v>1.8</v>
+      </c>
+      <c r="AN211">
+        <v>1.16</v>
+      </c>
+      <c r="AO211">
+        <v>1.27</v>
+      </c>
+      <c r="AP211">
+        <v>2.05</v>
+      </c>
+      <c r="AQ211">
+        <v>3</v>
+      </c>
+      <c r="AR211">
+        <v>0</v>
+      </c>
+      <c r="AS211">
+        <v>3</v>
+      </c>
+      <c r="AT211">
+        <v>0</v>
+      </c>
+      <c r="AU211">
+        <v>1.58</v>
+      </c>
+      <c r="AV211">
+        <v>1.69</v>
+      </c>
+      <c r="AW211">
+        <v>3.27</v>
+      </c>
+      <c r="AX211">
+        <v>0</v>
+      </c>
+      <c r="AY211">
+        <v>0</v>
+      </c>
+      <c r="AZ211">
+        <v>0</v>
+      </c>
+      <c r="BA211">
+        <v>0</v>
+      </c>
+      <c r="BB211">
+        <v>0</v>
+      </c>
+      <c r="BC211">
+        <v>2.1</v>
+      </c>
+      <c r="BD211">
+        <v>0</v>
+      </c>
+      <c r="BE211">
+        <v>0</v>
+      </c>
+      <c r="BF211">
+        <v>5</v>
+      </c>
+      <c r="BG211">
+        <v>4</v>
+      </c>
+      <c r="BH211">
+        <v>10</v>
+      </c>
+      <c r="BI211">
+        <v>6</v>
+      </c>
+      <c r="BJ211">
+        <v>15</v>
+      </c>
+      <c r="BK211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>5556841</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F212">
+        <v>7</v>
+      </c>
+      <c r="G212" t="s">
+        <v>80</v>
+      </c>
+      <c r="H212" t="s">
+        <v>88</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>254</v>
+      </c>
+      <c r="P212" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q212">
+        <v>5</v>
+      </c>
+      <c r="R212">
+        <v>6</v>
+      </c>
+      <c r="S212">
+        <v>11</v>
+      </c>
+      <c r="T212">
+        <v>2.63</v>
+      </c>
+      <c r="U212">
+        <v>2.05</v>
+      </c>
+      <c r="V212">
+        <v>4</v>
+      </c>
+      <c r="W212">
+        <v>1.44</v>
+      </c>
+      <c r="X212">
+        <v>2.62</v>
+      </c>
+      <c r="Y212">
+        <v>3.2</v>
+      </c>
+      <c r="Z212">
+        <v>1.3</v>
+      </c>
+      <c r="AA212">
+        <v>8.5</v>
+      </c>
+      <c r="AB212">
+        <v>1.05</v>
+      </c>
+      <c r="AC212">
+        <v>2</v>
+      </c>
+      <c r="AD212">
+        <v>3.28</v>
+      </c>
+      <c r="AE212">
+        <v>3.64</v>
+      </c>
+      <c r="AF212">
+        <v>1.05</v>
+      </c>
+      <c r="AG212">
+        <v>8</v>
+      </c>
+      <c r="AH212">
+        <v>1.36</v>
+      </c>
+      <c r="AI212">
+        <v>2.88</v>
+      </c>
+      <c r="AJ212">
+        <v>2.19</v>
+      </c>
+      <c r="AK212">
+        <v>1.66</v>
+      </c>
+      <c r="AL212">
+        <v>1.86</v>
+      </c>
+      <c r="AM212">
+        <v>1.9</v>
+      </c>
+      <c r="AN212">
+        <v>1.22</v>
+      </c>
+      <c r="AO212">
+        <v>1.29</v>
+      </c>
+      <c r="AP212">
+        <v>1.7</v>
+      </c>
+      <c r="AQ212">
+        <v>2.33</v>
+      </c>
+      <c r="AR212">
+        <v>0</v>
+      </c>
+      <c r="AS212">
+        <v>2.5</v>
+      </c>
+      <c r="AT212">
+        <v>0</v>
+      </c>
+      <c r="AU212">
+        <v>2.2</v>
+      </c>
+      <c r="AV212">
+        <v>0.82</v>
+      </c>
+      <c r="AW212">
+        <v>3.02</v>
+      </c>
+      <c r="AX212">
+        <v>0</v>
+      </c>
+      <c r="AY212">
+        <v>0</v>
+      </c>
+      <c r="AZ212">
+        <v>0</v>
+      </c>
+      <c r="BA212">
+        <v>0</v>
+      </c>
+      <c r="BB212">
+        <v>0</v>
+      </c>
+      <c r="BC212">
+        <v>2.1</v>
+      </c>
+      <c r="BD212">
+        <v>0</v>
+      </c>
+      <c r="BE212">
+        <v>0</v>
+      </c>
+      <c r="BF212">
+        <v>5</v>
+      </c>
+      <c r="BG212">
+        <v>0</v>
+      </c>
+      <c r="BH212">
+        <v>2</v>
+      </c>
+      <c r="BI212">
+        <v>9</v>
+      </c>
+      <c r="BJ212">
+        <v>7</v>
+      </c>
+      <c r="BK212">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>5556786</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F213">
+        <v>7</v>
+      </c>
+      <c r="G213" t="s">
+        <v>121</v>
+      </c>
+      <c r="H213" t="s">
+        <v>106</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>274</v>
+      </c>
+      <c r="P213" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q213">
+        <v>3</v>
+      </c>
+      <c r="R213">
+        <v>5</v>
+      </c>
+      <c r="S213">
+        <v>8</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>4.75</v>
+      </c>
+      <c r="W213">
+        <v>1.45</v>
+      </c>
+      <c r="X213">
+        <v>2.5</v>
+      </c>
+      <c r="Y213">
+        <v>3.11</v>
+      </c>
+      <c r="Z213">
+        <v>1.3</v>
+      </c>
+      <c r="AA213">
+        <v>8.1</v>
+      </c>
+      <c r="AB213">
+        <v>1.04</v>
+      </c>
+      <c r="AC213">
+        <v>2.01</v>
+      </c>
+      <c r="AD213">
+        <v>3.25</v>
+      </c>
+      <c r="AE213">
+        <v>3.65</v>
+      </c>
+      <c r="AF213">
+        <v>1.06</v>
+      </c>
+      <c r="AG213">
+        <v>8.5</v>
+      </c>
+      <c r="AH213">
+        <v>1.37</v>
+      </c>
+      <c r="AI213">
+        <v>2.8</v>
+      </c>
+      <c r="AJ213">
+        <v>2.2</v>
+      </c>
+      <c r="AK213">
+        <v>1.6</v>
+      </c>
+      <c r="AL213">
+        <v>1.86</v>
+      </c>
+      <c r="AM213">
+        <v>1.83</v>
+      </c>
+      <c r="AN213">
+        <v>1.25</v>
+      </c>
+      <c r="AO213">
+        <v>1.34</v>
+      </c>
+      <c r="AP213">
+        <v>1.68</v>
+      </c>
+      <c r="AQ213">
+        <v>2</v>
+      </c>
+      <c r="AR213">
+        <v>0.67</v>
+      </c>
+      <c r="AS213">
+        <v>2.33</v>
+      </c>
+      <c r="AT213">
+        <v>0.5</v>
+      </c>
+      <c r="AU213">
+        <v>1.29</v>
+      </c>
+      <c r="AV213">
+        <v>1.24</v>
+      </c>
+      <c r="AW213">
+        <v>2.53</v>
+      </c>
+      <c r="AX213">
+        <v>0</v>
+      </c>
+      <c r="AY213">
+        <v>0</v>
+      </c>
+      <c r="AZ213">
+        <v>0</v>
+      </c>
+      <c r="BA213">
+        <v>0</v>
+      </c>
+      <c r="BB213">
+        <v>0</v>
+      </c>
+      <c r="BC213">
+        <v>0</v>
+      </c>
+      <c r="BD213">
+        <v>0</v>
+      </c>
+      <c r="BE213">
+        <v>0</v>
+      </c>
+      <c r="BF213">
+        <v>3</v>
+      </c>
+      <c r="BG213">
+        <v>0</v>
+      </c>
+      <c r="BH213">
+        <v>5</v>
+      </c>
+      <c r="BI213">
+        <v>8</v>
+      </c>
+      <c r="BJ213">
+        <v>8</v>
+      </c>
+      <c r="BK213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>5556954</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F214">
+        <v>7</v>
+      </c>
+      <c r="G214" t="s">
+        <v>123</v>
+      </c>
+      <c r="H214" t="s">
+        <v>102</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>1</v>
+      </c>
+      <c r="O214" t="s">
+        <v>135</v>
+      </c>
+      <c r="P214" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q214">
+        <v>1</v>
+      </c>
+      <c r="R214">
+        <v>4</v>
+      </c>
+      <c r="S214">
+        <v>5</v>
+      </c>
+      <c r="T214">
+        <v>4.75</v>
+      </c>
+      <c r="U214">
+        <v>2.1</v>
+      </c>
+      <c r="V214">
+        <v>2.38</v>
+      </c>
+      <c r="W214">
+        <v>1.41</v>
+      </c>
+      <c r="X214">
+        <v>2.7</v>
+      </c>
+      <c r="Y214">
+        <v>2.9</v>
+      </c>
+      <c r="Z214">
+        <v>1.36</v>
+      </c>
+      <c r="AA214">
+        <v>7.5</v>
+      </c>
+      <c r="AB214">
+        <v>1.06</v>
+      </c>
+      <c r="AC214">
+        <v>4.4</v>
+      </c>
+      <c r="AD214">
+        <v>3.5</v>
+      </c>
+      <c r="AE214">
+        <v>1.77</v>
+      </c>
+      <c r="AF214">
+        <v>1.05</v>
+      </c>
+      <c r="AG214">
+        <v>9.75</v>
+      </c>
+      <c r="AH214">
+        <v>1.32</v>
+      </c>
+      <c r="AI214">
+        <v>3.05</v>
+      </c>
+      <c r="AJ214">
+        <v>2.08</v>
+      </c>
+      <c r="AK214">
+        <v>1.73</v>
+      </c>
+      <c r="AL214">
+        <v>1.86</v>
+      </c>
+      <c r="AM214">
+        <v>1.83</v>
+      </c>
+      <c r="AN214">
+        <v>1.95</v>
+      </c>
+      <c r="AO214">
+        <v>1.28</v>
+      </c>
+      <c r="AP214">
+        <v>1.18</v>
+      </c>
+      <c r="AQ214">
+        <v>0</v>
+      </c>
+      <c r="AR214">
+        <v>1</v>
+      </c>
+      <c r="AS214">
+        <v>0</v>
+      </c>
+      <c r="AT214">
+        <v>1.5</v>
+      </c>
+      <c r="AU214">
+        <v>0.77</v>
+      </c>
+      <c r="AV214">
+        <v>1.85</v>
+      </c>
+      <c r="AW214">
+        <v>2.62</v>
+      </c>
+      <c r="AX214">
+        <v>0</v>
+      </c>
+      <c r="AY214">
+        <v>0</v>
+      </c>
+      <c r="AZ214">
+        <v>0</v>
+      </c>
+      <c r="BA214">
+        <v>0</v>
+      </c>
+      <c r="BB214">
+        <v>0</v>
+      </c>
+      <c r="BC214">
+        <v>2</v>
+      </c>
+      <c r="BD214">
+        <v>0</v>
+      </c>
+      <c r="BE214">
+        <v>0</v>
+      </c>
+      <c r="BF214">
+        <v>0</v>
+      </c>
+      <c r="BG214">
+        <v>9</v>
+      </c>
+      <c r="BH214">
+        <v>10</v>
+      </c>
+      <c r="BI214">
+        <v>6</v>
+      </c>
+      <c r="BJ214">
+        <v>10</v>
+      </c>
+      <c r="BK214">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>5556785</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F215">
+        <v>7</v>
+      </c>
+      <c r="G215" t="s">
+        <v>86</v>
+      </c>
+      <c r="H215" t="s">
+        <v>91</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>275</v>
+      </c>
+      <c r="P215" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q215">
+        <v>7</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>9</v>
+      </c>
+      <c r="T215">
+        <v>3.4</v>
+      </c>
+      <c r="U215">
+        <v>2.05</v>
+      </c>
+      <c r="V215">
+        <v>3.1</v>
+      </c>
+      <c r="W215">
+        <v>1.46</v>
+      </c>
+      <c r="X215">
+        <v>2.44</v>
+      </c>
+      <c r="Y215">
+        <v>3.14</v>
+      </c>
+      <c r="Z215">
+        <v>1.15</v>
+      </c>
+      <c r="AA215">
+        <v>8</v>
+      </c>
+      <c r="AB215">
+        <v>1.05</v>
+      </c>
+      <c r="AC215">
+        <v>3.08</v>
+      </c>
+      <c r="AD215">
+        <v>3.18</v>
+      </c>
+      <c r="AE215">
+        <v>2.27</v>
+      </c>
+      <c r="AF215">
+        <v>1.06</v>
+      </c>
+      <c r="AG215">
+        <v>8.25</v>
+      </c>
+      <c r="AH215">
+        <v>1.36</v>
+      </c>
+      <c r="AI215">
+        <v>2.85</v>
+      </c>
+      <c r="AJ215">
+        <v>2.19</v>
+      </c>
+      <c r="AK215">
+        <v>1.66</v>
+      </c>
+      <c r="AL215">
+        <v>1.8</v>
+      </c>
+      <c r="AM215">
+        <v>1.9</v>
+      </c>
+      <c r="AN215">
+        <v>1.54</v>
+      </c>
+      <c r="AO215">
+        <v>1.35</v>
+      </c>
+      <c r="AP215">
+        <v>1.32</v>
+      </c>
+      <c r="AQ215">
+        <v>2.33</v>
+      </c>
+      <c r="AR215">
+        <v>3</v>
+      </c>
+      <c r="AS215">
+        <v>2</v>
+      </c>
+      <c r="AT215">
+        <v>2.33</v>
+      </c>
+      <c r="AU215">
+        <v>2.31</v>
+      </c>
+      <c r="AV215">
+        <v>1.58</v>
+      </c>
+      <c r="AW215">
+        <v>3.89</v>
+      </c>
+      <c r="AX215">
+        <v>0</v>
+      </c>
+      <c r="AY215">
+        <v>0</v>
+      </c>
+      <c r="AZ215">
+        <v>0</v>
+      </c>
+      <c r="BA215">
+        <v>0</v>
+      </c>
+      <c r="BB215">
+        <v>0</v>
+      </c>
+      <c r="BC215">
+        <v>0</v>
+      </c>
+      <c r="BD215">
+        <v>0</v>
+      </c>
+      <c r="BE215">
+        <v>0</v>
+      </c>
+      <c r="BF215">
+        <v>6</v>
+      </c>
+      <c r="BG215">
+        <v>6</v>
+      </c>
+      <c r="BH215">
+        <v>11</v>
+      </c>
+      <c r="BI215">
+        <v>3</v>
+      </c>
+      <c r="BJ215">
+        <v>17</v>
+      </c>
+      <c r="BK215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>5557124</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F216">
+        <v>7</v>
+      </c>
+      <c r="G216" t="s">
+        <v>122</v>
+      </c>
+      <c r="H216" t="s">
+        <v>98</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+      <c r="O216" t="s">
+        <v>205</v>
+      </c>
+      <c r="P216" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q216">
+        <v>3</v>
+      </c>
+      <c r="R216">
+        <v>3</v>
+      </c>
+      <c r="S216">
+        <v>6</v>
+      </c>
+      <c r="T216">
+        <v>2.88</v>
+      </c>
+      <c r="U216">
+        <v>1.91</v>
+      </c>
+      <c r="V216">
+        <v>4</v>
+      </c>
+      <c r="W216">
+        <v>1.55</v>
+      </c>
+      <c r="X216">
+        <v>2.22</v>
+      </c>
+      <c r="Y216">
+        <v>3.3</v>
+      </c>
+      <c r="Z216">
+        <v>1.29</v>
+      </c>
+      <c r="AA216">
+        <v>9.1</v>
+      </c>
+      <c r="AB216">
+        <v>1.03</v>
+      </c>
+      <c r="AC216">
+        <v>2.34</v>
+      </c>
+      <c r="AD216">
+        <v>3.02</v>
+      </c>
+      <c r="AE216">
+        <v>3.11</v>
+      </c>
+      <c r="AF216">
+        <v>1.1</v>
+      </c>
+      <c r="AG216">
+        <v>6.75</v>
+      </c>
+      <c r="AH216">
+        <v>1.5</v>
+      </c>
+      <c r="AI216">
+        <v>2.4</v>
+      </c>
+      <c r="AJ216">
+        <v>2.5</v>
+      </c>
+      <c r="AK216">
+        <v>1.41</v>
+      </c>
+      <c r="AL216">
+        <v>2</v>
+      </c>
+      <c r="AM216">
+        <v>1.71</v>
+      </c>
+      <c r="AN216">
+        <v>1.31</v>
+      </c>
+      <c r="AO216">
+        <v>1.37</v>
+      </c>
+      <c r="AP216">
+        <v>1.51</v>
+      </c>
+      <c r="AQ216">
+        <v>1</v>
+      </c>
+      <c r="AR216">
+        <v>1.67</v>
+      </c>
+      <c r="AS216">
+        <v>1.67</v>
+      </c>
+      <c r="AT216">
+        <v>1.25</v>
+      </c>
+      <c r="AU216">
+        <v>1.88</v>
+      </c>
+      <c r="AV216">
+        <v>1.21</v>
+      </c>
+      <c r="AW216">
+        <v>3.09</v>
+      </c>
+      <c r="AX216">
+        <v>0</v>
+      </c>
+      <c r="AY216">
+        <v>0</v>
+      </c>
+      <c r="AZ216">
+        <v>0</v>
+      </c>
+      <c r="BA216">
+        <v>0</v>
+      </c>
+      <c r="BB216">
+        <v>0</v>
+      </c>
+      <c r="BC216">
+        <v>0</v>
+      </c>
+      <c r="BD216">
+        <v>0</v>
+      </c>
+      <c r="BE216">
+        <v>0</v>
+      </c>
+      <c r="BF216">
+        <v>4</v>
+      </c>
+      <c r="BG216">
+        <v>2</v>
+      </c>
+      <c r="BH216">
+        <v>8</v>
+      </c>
+      <c r="BI216">
+        <v>10</v>
+      </c>
+      <c r="BJ216">
+        <v>12</v>
+      </c>
+      <c r="BK216">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>5556731</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F217">
+        <v>7</v>
+      </c>
+      <c r="G217" t="s">
+        <v>90</v>
+      </c>
+      <c r="H217" t="s">
+        <v>94</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>276</v>
+      </c>
+      <c r="P217" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q217">
+        <v>11</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>13</v>
+      </c>
+      <c r="T217">
+        <v>1.4</v>
+      </c>
+      <c r="U217">
+        <v>3.2</v>
+      </c>
+      <c r="V217">
+        <v>12</v>
+      </c>
+      <c r="W217">
+        <v>1.22</v>
+      </c>
+      <c r="X217">
+        <v>3.75</v>
+      </c>
+      <c r="Y217">
+        <v>2.14</v>
+      </c>
+      <c r="Z217">
+        <v>1.59</v>
+      </c>
+      <c r="AA217">
+        <v>5.5</v>
+      </c>
+      <c r="AB217">
+        <v>1.12</v>
+      </c>
+      <c r="AC217">
+        <v>1.17</v>
+      </c>
+      <c r="AD217">
+        <v>6.65</v>
+      </c>
+      <c r="AE217">
+        <v>13.6</v>
+      </c>
+      <c r="AF217">
+        <v>1.02</v>
+      </c>
+      <c r="AG217">
+        <v>15</v>
+      </c>
+      <c r="AH217">
+        <v>1.16</v>
+      </c>
+      <c r="AI217">
+        <v>4.7</v>
+      </c>
+      <c r="AJ217">
+        <v>1.63</v>
+      </c>
+      <c r="AK217">
+        <v>2.09</v>
+      </c>
+      <c r="AL217">
+        <v>2.25</v>
+      </c>
+      <c r="AM217">
+        <v>1.57</v>
+      </c>
+      <c r="AN217">
+        <v>1.03</v>
+      </c>
+      <c r="AO217">
+        <v>1.11</v>
+      </c>
+      <c r="AP217">
+        <v>4.15</v>
+      </c>
+      <c r="AQ217">
+        <v>3</v>
+      </c>
+      <c r="AR217">
+        <v>0</v>
+      </c>
+      <c r="AS217">
+        <v>3</v>
+      </c>
+      <c r="AT217">
+        <v>0</v>
+      </c>
+      <c r="AU217">
+        <v>1.71</v>
+      </c>
+      <c r="AV217">
+        <v>0</v>
+      </c>
+      <c r="AW217">
+        <v>1.71</v>
+      </c>
+      <c r="AX217">
+        <v>0</v>
+      </c>
+      <c r="AY217">
+        <v>0</v>
+      </c>
+      <c r="AZ217">
+        <v>0</v>
+      </c>
+      <c r="BA217">
+        <v>0</v>
+      </c>
+      <c r="BB217">
+        <v>0</v>
+      </c>
+      <c r="BC217">
+        <v>0</v>
+      </c>
+      <c r="BD217">
+        <v>0</v>
+      </c>
+      <c r="BE217">
+        <v>0</v>
+      </c>
+      <c r="BF217">
+        <v>12</v>
+      </c>
+      <c r="BG217">
+        <v>3</v>
+      </c>
+      <c r="BH217">
+        <v>10</v>
+      </c>
+      <c r="BI217">
+        <v>3</v>
+      </c>
+      <c r="BJ217">
+        <v>22</v>
+      </c>
+      <c r="BK217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>5556729</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F218">
+        <v>7</v>
+      </c>
+      <c r="G218" t="s">
+        <v>69</v>
+      </c>
+      <c r="H218" t="s">
+        <v>89</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>135</v>
+      </c>
+      <c r="P218" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q218">
+        <v>10</v>
+      </c>
+      <c r="R218">
+        <v>5</v>
+      </c>
+      <c r="S218">
+        <v>15</v>
+      </c>
+      <c r="T218">
+        <v>5</v>
+      </c>
+      <c r="U218">
+        <v>2.1</v>
+      </c>
+      <c r="V218">
+        <v>2.3</v>
+      </c>
+      <c r="W218">
+        <v>1.4</v>
+      </c>
+      <c r="X218">
+        <v>2.75</v>
+      </c>
+      <c r="Y218">
+        <v>2.85</v>
+      </c>
+      <c r="Z218">
+        <v>1.37</v>
+      </c>
+      <c r="AA218">
+        <v>7.3</v>
+      </c>
+      <c r="AB218">
+        <v>1.06</v>
+      </c>
+      <c r="AC218">
+        <v>4.45</v>
+      </c>
+      <c r="AD218">
+        <v>3.54</v>
+      </c>
+      <c r="AE218">
+        <v>1.75</v>
+      </c>
+      <c r="AF218">
+        <v>1.04</v>
+      </c>
+      <c r="AG218">
+        <v>10.25</v>
+      </c>
+      <c r="AH218">
+        <v>1.33</v>
+      </c>
+      <c r="AI218">
+        <v>3.1</v>
+      </c>
+      <c r="AJ218">
+        <v>2.03</v>
+      </c>
+      <c r="AK218">
+        <v>1.77</v>
+      </c>
+      <c r="AL218">
+        <v>1.92</v>
+      </c>
+      <c r="AM218">
+        <v>1.84</v>
+      </c>
+      <c r="AN218">
+        <v>2.15</v>
+      </c>
+      <c r="AO218">
+        <v>1.25</v>
+      </c>
+      <c r="AP218">
+        <v>1.1</v>
+      </c>
+      <c r="AQ218">
+        <v>1.33</v>
+      </c>
+      <c r="AR218">
+        <v>0.5</v>
+      </c>
+      <c r="AS218">
+        <v>1</v>
+      </c>
+      <c r="AT218">
+        <v>1.33</v>
+      </c>
+      <c r="AU218">
+        <v>0.79</v>
+      </c>
+      <c r="AV218">
+        <v>1.12</v>
+      </c>
+      <c r="AW218">
+        <v>1.91</v>
+      </c>
+      <c r="AX218">
+        <v>0</v>
+      </c>
+      <c r="AY218">
+        <v>0</v>
+      </c>
+      <c r="AZ218">
+        <v>0</v>
+      </c>
+      <c r="BA218">
+        <v>0</v>
+      </c>
+      <c r="BB218">
+        <v>0</v>
+      </c>
+      <c r="BC218">
+        <v>0</v>
+      </c>
+      <c r="BD218">
+        <v>0</v>
+      </c>
+      <c r="BE218">
+        <v>0</v>
+      </c>
+      <c r="BF218">
+        <v>3</v>
+      </c>
+      <c r="BG218">
+        <v>4</v>
+      </c>
+      <c r="BH218">
+        <v>10</v>
+      </c>
+      <c r="BI218">
+        <v>3</v>
+      </c>
+      <c r="BJ218">
+        <v>13</v>
+      </c>
+      <c r="BK218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>5556899</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F219">
+        <v>7</v>
+      </c>
+      <c r="G219" t="s">
+        <v>70</v>
+      </c>
+      <c r="H219" t="s">
+        <v>84</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" t="s">
+        <v>164</v>
+      </c>
+      <c r="P219" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q219">
+        <v>6</v>
+      </c>
+      <c r="R219">
+        <v>4</v>
+      </c>
+      <c r="S219">
+        <v>10</v>
+      </c>
+      <c r="T219">
+        <v>3.1</v>
+      </c>
+      <c r="U219">
+        <v>2.05</v>
+      </c>
+      <c r="V219">
+        <v>3.5</v>
+      </c>
+      <c r="W219">
+        <v>1.48</v>
+      </c>
+      <c r="X219">
+        <v>2.5</v>
+      </c>
+      <c r="Y219">
+        <v>3</v>
+      </c>
+      <c r="Z219">
+        <v>1.33</v>
+      </c>
+      <c r="AA219">
+        <v>7.5</v>
+      </c>
+      <c r="AB219">
+        <v>1.06</v>
+      </c>
+      <c r="AC219">
+        <v>2.27</v>
+      </c>
+      <c r="AD219">
+        <v>3.18</v>
+      </c>
+      <c r="AE219">
+        <v>3.08</v>
+      </c>
+      <c r="AF219">
+        <v>1.07</v>
+      </c>
+      <c r="AG219">
+        <v>7</v>
+      </c>
+      <c r="AH219">
+        <v>1.37</v>
+      </c>
+      <c r="AI219">
+        <v>2.8</v>
+      </c>
+      <c r="AJ219">
+        <v>2.18</v>
+      </c>
+      <c r="AK219">
+        <v>1.67</v>
+      </c>
+      <c r="AL219">
+        <v>1.83</v>
+      </c>
+      <c r="AM219">
+        <v>1.88</v>
+      </c>
+      <c r="AN219">
+        <v>1.25</v>
+      </c>
+      <c r="AO219">
+        <v>1.37</v>
+      </c>
+      <c r="AP219">
+        <v>1.45</v>
+      </c>
+      <c r="AQ219">
+        <v>0.33</v>
+      </c>
+      <c r="AR219">
+        <v>2</v>
+      </c>
+      <c r="AS219">
+        <v>0.5</v>
+      </c>
+      <c r="AT219">
+        <v>1.67</v>
+      </c>
+      <c r="AU219">
+        <v>1.96</v>
+      </c>
+      <c r="AV219">
+        <v>1.22</v>
+      </c>
+      <c r="AW219">
+        <v>3.18</v>
+      </c>
+      <c r="AX219">
+        <v>0</v>
+      </c>
+      <c r="AY219">
+        <v>0</v>
+      </c>
+      <c r="AZ219">
+        <v>0</v>
+      </c>
+      <c r="BA219">
+        <v>0</v>
+      </c>
+      <c r="BB219">
+        <v>0</v>
+      </c>
+      <c r="BC219">
+        <v>2.1</v>
+      </c>
+      <c r="BD219">
+        <v>0</v>
+      </c>
+      <c r="BE219">
+        <v>0</v>
+      </c>
+      <c r="BF219">
+        <v>7</v>
+      </c>
+      <c r="BG219">
+        <v>4</v>
+      </c>
+      <c r="BH219">
+        <v>7</v>
+      </c>
+      <c r="BI219">
+        <v>6</v>
+      </c>
+      <c r="BJ219">
+        <v>14</v>
+      </c>
+      <c r="BK219">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>5556953</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F220">
+        <v>7</v>
+      </c>
+      <c r="G220" t="s">
+        <v>72</v>
+      </c>
+      <c r="H220" t="s">
+        <v>67</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220" t="s">
+        <v>277</v>
+      </c>
+      <c r="P220" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q220">
+        <v>9</v>
+      </c>
+      <c r="R220">
+        <v>6</v>
+      </c>
+      <c r="S220">
+        <v>15</v>
+      </c>
+      <c r="T220">
+        <v>3.4</v>
+      </c>
+      <c r="U220">
+        <v>1.95</v>
+      </c>
+      <c r="V220">
+        <v>3.25</v>
+      </c>
+      <c r="W220">
+        <v>1.5</v>
+      </c>
+      <c r="X220">
+        <v>2.33</v>
+      </c>
+      <c r="Y220">
+        <v>3.19</v>
+      </c>
+      <c r="Z220">
+        <v>1.14</v>
+      </c>
+      <c r="AA220">
+        <v>9.4</v>
+      </c>
+      <c r="AB220">
+        <v>1.03</v>
+      </c>
+      <c r="AC220">
+        <v>2.72</v>
+      </c>
+      <c r="AD220">
+        <v>3.02</v>
+      </c>
+      <c r="AE220">
+        <v>2.59</v>
+      </c>
+      <c r="AF220">
+        <v>1.08</v>
+      </c>
+      <c r="AG220">
+        <v>7.25</v>
+      </c>
+      <c r="AH220">
+        <v>1.49</v>
+      </c>
+      <c r="AI220">
+        <v>2.48</v>
+      </c>
+      <c r="AJ220">
+        <v>2.65</v>
+      </c>
+      <c r="AK220">
+        <v>1.36</v>
+      </c>
+      <c r="AL220">
+        <v>1.95</v>
+      </c>
+      <c r="AM220">
+        <v>1.76</v>
+      </c>
+      <c r="AN220">
+        <v>1.42</v>
+      </c>
+      <c r="AO220">
+        <v>1.38</v>
+      </c>
+      <c r="AP220">
+        <v>1.39</v>
+      </c>
+      <c r="AQ220">
+        <v>1.33</v>
+      </c>
+      <c r="AR220">
+        <v>1</v>
+      </c>
+      <c r="AS220">
+        <v>1.25</v>
+      </c>
+      <c r="AT220">
+        <v>1</v>
+      </c>
+      <c r="AU220">
+        <v>1.64</v>
+      </c>
+      <c r="AV220">
+        <v>1.29</v>
+      </c>
+      <c r="AW220">
+        <v>2.93</v>
+      </c>
+      <c r="AX220">
+        <v>0</v>
+      </c>
+      <c r="AY220">
+        <v>0</v>
+      </c>
+      <c r="AZ220">
+        <v>0</v>
+      </c>
+      <c r="BA220">
+        <v>0</v>
+      </c>
+      <c r="BB220">
+        <v>0</v>
+      </c>
+      <c r="BC220">
+        <v>2.1</v>
+      </c>
+      <c r="BD220">
+        <v>0</v>
+      </c>
+      <c r="BE220">
+        <v>0</v>
+      </c>
+      <c r="BF220">
+        <v>7</v>
+      </c>
+      <c r="BG220">
+        <v>6</v>
+      </c>
+      <c r="BH220">
+        <v>4</v>
+      </c>
+      <c r="BI220">
+        <v>4</v>
+      </c>
+      <c r="BJ220">
+        <v>11</v>
+      </c>
+      <c r="BK220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>5557011</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F221">
+        <v>7</v>
+      </c>
+      <c r="G221" t="s">
+        <v>96</v>
+      </c>
+      <c r="H221" t="s">
+        <v>79</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
+        <v>177</v>
+      </c>
+      <c r="P221" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q221">
+        <v>2</v>
+      </c>
+      <c r="R221">
+        <v>3</v>
+      </c>
+      <c r="S221">
+        <v>5</v>
+      </c>
+      <c r="T221">
+        <v>3.6</v>
+      </c>
+      <c r="U221">
+        <v>2.1</v>
+      </c>
+      <c r="V221">
+        <v>2.75</v>
+      </c>
+      <c r="W221">
+        <v>1.36</v>
+      </c>
+      <c r="X221">
+        <v>2.88</v>
+      </c>
+      <c r="Y221">
+        <v>2.88</v>
+      </c>
+      <c r="Z221">
+        <v>1.36</v>
+      </c>
+      <c r="AA221">
+        <v>7</v>
+      </c>
+      <c r="AB221">
+        <v>1.07</v>
+      </c>
+      <c r="AC221">
+        <v>2.66</v>
+      </c>
+      <c r="AD221">
+        <v>3.22</v>
+      </c>
+      <c r="AE221">
+        <v>2.5</v>
+      </c>
+      <c r="AF221">
+        <v>1.03</v>
+      </c>
+      <c r="AG221">
+        <v>9</v>
+      </c>
+      <c r="AH221">
+        <v>1.29</v>
+      </c>
+      <c r="AI221">
+        <v>3.3</v>
+      </c>
+      <c r="AJ221">
+        <v>2.08</v>
+      </c>
+      <c r="AK221">
+        <v>1.73</v>
+      </c>
+      <c r="AL221">
+        <v>1.76</v>
+      </c>
+      <c r="AM221">
+        <v>2.01</v>
+      </c>
+      <c r="AN221">
+        <v>1.44</v>
+      </c>
+      <c r="AO221">
+        <v>1.29</v>
+      </c>
+      <c r="AP221">
+        <v>1.4</v>
+      </c>
+      <c r="AQ221">
+        <v>1.67</v>
+      </c>
+      <c r="AR221">
+        <v>2</v>
+      </c>
+      <c r="AS221">
+        <v>2</v>
+      </c>
+      <c r="AT221">
+        <v>1.33</v>
+      </c>
+      <c r="AU221">
+        <v>1.8</v>
+      </c>
+      <c r="AV221">
+        <v>1.6</v>
+      </c>
+      <c r="AW221">
+        <v>3.4</v>
+      </c>
+      <c r="AX221">
+        <v>0</v>
+      </c>
+      <c r="AY221">
+        <v>0</v>
+      </c>
+      <c r="AZ221">
+        <v>0</v>
+      </c>
+      <c r="BA221">
+        <v>0</v>
+      </c>
+      <c r="BB221">
+        <v>0</v>
+      </c>
+      <c r="BC221">
+        <v>2</v>
+      </c>
+      <c r="BD221">
+        <v>0</v>
+      </c>
+      <c r="BE221">
+        <v>0</v>
+      </c>
+      <c r="BF221">
+        <v>5</v>
+      </c>
+      <c r="BG221">
+        <v>4</v>
+      </c>
+      <c r="BH221">
+        <v>6</v>
+      </c>
+      <c r="BI221">
+        <v>11</v>
+      </c>
+      <c r="BJ221">
+        <v>11</v>
+      </c>
+      <c r="BK221">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>5556787</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45088.70833333334</v>
+      </c>
+      <c r="F222">
+        <v>7</v>
+      </c>
+      <c r="G222" t="s">
+        <v>92</v>
+      </c>
+      <c r="H222" t="s">
+        <v>81</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>267</v>
+      </c>
+      <c r="P222" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q222">
+        <v>-1</v>
+      </c>
+      <c r="R222">
+        <v>-1</v>
+      </c>
+      <c r="S222">
+        <v>-1</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0</v>
+      </c>
+      <c r="AK222">
+        <v>0</v>
+      </c>
+      <c r="AL222">
+        <v>0</v>
+      </c>
+      <c r="AM222">
+        <v>0</v>
+      </c>
+      <c r="AN222">
+        <v>0</v>
+      </c>
+      <c r="AO222">
+        <v>0</v>
+      </c>
+      <c r="AP222">
+        <v>0</v>
+      </c>
+      <c r="AQ222">
+        <v>3</v>
+      </c>
+      <c r="AR222">
+        <v>0.5</v>
+      </c>
+      <c r="AS222">
+        <v>2.5</v>
+      </c>
+      <c r="AT222">
+        <v>0.67</v>
+      </c>
+      <c r="AU222">
+        <v>1.32</v>
+      </c>
+      <c r="AV222">
+        <v>1.45</v>
+      </c>
+      <c r="AW222">
+        <v>2.77</v>
+      </c>
+      <c r="AX222">
+        <v>0</v>
+      </c>
+      <c r="AY222">
+        <v>0</v>
+      </c>
+      <c r="AZ222">
+        <v>0</v>
+      </c>
+      <c r="BA222">
+        <v>0</v>
+      </c>
+      <c r="BB222">
+        <v>0</v>
+      </c>
+      <c r="BC222">
+        <v>0</v>
+      </c>
+      <c r="BD222">
+        <v>0</v>
+      </c>
+      <c r="BE222">
+        <v>0</v>
+      </c>
+      <c r="BF222">
+        <v>-1</v>
+      </c>
+      <c r="BG222">
+        <v>-1</v>
+      </c>
+      <c r="BH222">
+        <v>-1</v>
+      </c>
+      <c r="BI222">
+        <v>-1</v>
+      </c>
+      <c r="BJ222">
+        <v>-1</v>
+      </c>
+      <c r="BK222">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>5556898</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45088.70833333334</v>
+      </c>
+      <c r="F223">
+        <v>7</v>
+      </c>
+      <c r="G223" t="s">
+        <v>105</v>
+      </c>
+      <c r="H223" t="s">
+        <v>109</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>2</v>
+      </c>
+      <c r="L223">
+        <v>3</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>4</v>
+      </c>
+      <c r="O223" t="s">
+        <v>278</v>
+      </c>
+      <c r="P223" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q223">
+        <v>4</v>
+      </c>
+      <c r="R223">
+        <v>3</v>
+      </c>
+      <c r="S223">
+        <v>7</v>
+      </c>
+      <c r="T223">
+        <v>2.2</v>
+      </c>
+      <c r="U223">
+        <v>2.2</v>
+      </c>
+      <c r="V223">
+        <v>5</v>
+      </c>
+      <c r="W223">
+        <v>1.39</v>
+      </c>
+      <c r="X223">
+        <v>2.69</v>
+      </c>
+      <c r="Y223">
+        <v>2.84</v>
+      </c>
+      <c r="Z223">
+        <v>1.35</v>
+      </c>
+      <c r="AA223">
+        <v>7.3</v>
+      </c>
+      <c r="AB223">
+        <v>1.06</v>
+      </c>
+      <c r="AC223">
+        <v>1.59</v>
+      </c>
+      <c r="AD223">
+        <v>3.78</v>
+      </c>
+      <c r="AE223">
+        <v>5.36</v>
+      </c>
+      <c r="AF223">
+        <v>1.03</v>
+      </c>
+      <c r="AG223">
+        <v>9</v>
+      </c>
+      <c r="AH223">
+        <v>1.32</v>
+      </c>
+      <c r="AI223">
+        <v>3.1</v>
+      </c>
+      <c r="AJ223">
+        <v>2</v>
+      </c>
+      <c r="AK223">
+        <v>1.79</v>
+      </c>
+      <c r="AL223">
+        <v>1.97</v>
+      </c>
+      <c r="AM223">
+        <v>1.79</v>
+      </c>
+      <c r="AN223">
+        <v>1.15</v>
+      </c>
+      <c r="AO223">
+        <v>1.29</v>
+      </c>
+      <c r="AP223">
+        <v>2</v>
+      </c>
+      <c r="AQ223">
+        <v>2</v>
+      </c>
+      <c r="AR223">
+        <v>2</v>
+      </c>
+      <c r="AS223">
+        <v>2.33</v>
+      </c>
+      <c r="AT223">
+        <v>1.5</v>
+      </c>
+      <c r="AU223">
+        <v>1.97</v>
+      </c>
+      <c r="AV223">
+        <v>1.28</v>
+      </c>
+      <c r="AW223">
+        <v>3.25</v>
+      </c>
+      <c r="AX223">
+        <v>0</v>
+      </c>
+      <c r="AY223">
+        <v>0</v>
+      </c>
+      <c r="AZ223">
+        <v>0</v>
+      </c>
+      <c r="BA223">
+        <v>0</v>
+      </c>
+      <c r="BB223">
+        <v>0</v>
+      </c>
+      <c r="BC223">
+        <v>0</v>
+      </c>
+      <c r="BD223">
+        <v>1.9</v>
+      </c>
+      <c r="BE223">
+        <v>0</v>
+      </c>
+      <c r="BF223">
+        <v>10</v>
+      </c>
+      <c r="BG223">
+        <v>9</v>
+      </c>
+      <c r="BH223">
+        <v>9</v>
+      </c>
+      <c r="BI223">
+        <v>8</v>
+      </c>
+      <c r="BJ223">
+        <v>19</v>
+      </c>
+      <c r="BK223">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>5556730</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45088.75</v>
+      </c>
+      <c r="F224">
+        <v>7</v>
+      </c>
+      <c r="G224" t="s">
+        <v>113</v>
+      </c>
+      <c r="H224" t="s">
+        <v>111</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>186</v>
+      </c>
+      <c r="P224" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q224">
+        <v>1</v>
+      </c>
+      <c r="R224">
+        <v>4</v>
+      </c>
+      <c r="S224">
+        <v>5</v>
+      </c>
+      <c r="T224">
+        <v>3.6</v>
+      </c>
+      <c r="U224">
+        <v>2.2</v>
+      </c>
+      <c r="V224">
+        <v>2.6</v>
+      </c>
+      <c r="W224">
+        <v>1.4</v>
+      </c>
+      <c r="X224">
+        <v>2.75</v>
+      </c>
+      <c r="Y224">
+        <v>3</v>
+      </c>
+      <c r="Z224">
+        <v>1.33</v>
+      </c>
+      <c r="AA224">
+        <v>7.5</v>
+      </c>
+      <c r="AB224">
+        <v>1.06</v>
+      </c>
+      <c r="AC224">
+        <v>3.4</v>
+      </c>
+      <c r="AD224">
+        <v>3.38</v>
+      </c>
+      <c r="AE224">
+        <v>2.05</v>
+      </c>
+      <c r="AF224">
+        <v>1.05</v>
+      </c>
+      <c r="AG224">
+        <v>8</v>
+      </c>
+      <c r="AH224">
+        <v>1.3</v>
+      </c>
+      <c r="AI224">
+        <v>3.2</v>
+      </c>
+      <c r="AJ224">
+        <v>1.99</v>
+      </c>
+      <c r="AK224">
+        <v>1.8</v>
+      </c>
+      <c r="AL224">
+        <v>1.65</v>
+      </c>
+      <c r="AM224">
+        <v>2.18</v>
+      </c>
+      <c r="AN224">
+        <v>1.67</v>
+      </c>
+      <c r="AO224">
+        <v>1.29</v>
+      </c>
+      <c r="AP224">
+        <v>1.25</v>
+      </c>
+      <c r="AQ224">
+        <v>2</v>
+      </c>
+      <c r="AR224">
+        <v>0.33</v>
+      </c>
+      <c r="AS224">
+        <v>2.33</v>
+      </c>
+      <c r="AT224">
+        <v>0.25</v>
+      </c>
+      <c r="AU224">
+        <v>1.8</v>
+      </c>
+      <c r="AV224">
+        <v>1.54</v>
+      </c>
+      <c r="AW224">
+        <v>3.34</v>
+      </c>
+      <c r="AX224">
+        <v>0</v>
+      </c>
+      <c r="AY224">
+        <v>0</v>
+      </c>
+      <c r="AZ224">
+        <v>0</v>
+      </c>
+      <c r="BA224">
+        <v>0</v>
+      </c>
+      <c r="BB224">
+        <v>0</v>
+      </c>
+      <c r="BC224">
+        <v>0</v>
+      </c>
+      <c r="BD224">
+        <v>0</v>
+      </c>
+      <c r="BE224">
+        <v>0</v>
+      </c>
+      <c r="BF224">
+        <v>5</v>
+      </c>
+      <c r="BG224">
+        <v>5</v>
+      </c>
+      <c r="BH224">
+        <v>9</v>
+      </c>
+      <c r="BI224">
+        <v>8</v>
+      </c>
+      <c r="BJ224">
+        <v>14</v>
+      </c>
+      <c r="BK224">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>5556897</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45088.79166666666</v>
+      </c>
+      <c r="F225">
+        <v>7</v>
+      </c>
+      <c r="G225" t="s">
+        <v>85</v>
+      </c>
+      <c r="H225" t="s">
+        <v>75</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225" t="s">
+        <v>135</v>
+      </c>
+      <c r="P225" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q225">
+        <v>1</v>
+      </c>
+      <c r="R225">
+        <v>4</v>
+      </c>
+      <c r="S225">
+        <v>5</v>
+      </c>
+      <c r="T225">
+        <v>3.4</v>
+      </c>
+      <c r="U225">
+        <v>2.05</v>
+      </c>
+      <c r="V225">
+        <v>3.1</v>
+      </c>
+      <c r="W225">
+        <v>1.48</v>
+      </c>
+      <c r="X225">
+        <v>2.26</v>
+      </c>
+      <c r="Y225">
+        <v>3.17</v>
+      </c>
+      <c r="Z225">
+        <v>1.14</v>
+      </c>
+      <c r="AA225">
+        <v>8.1</v>
+      </c>
+      <c r="AB225">
+        <v>1.04</v>
+      </c>
+      <c r="AC225">
+        <v>2.88</v>
+      </c>
+      <c r="AD225">
+        <v>2.8</v>
+      </c>
+      <c r="AE225">
+        <v>2.45</v>
+      </c>
+      <c r="AF225">
+        <v>1.05</v>
+      </c>
+      <c r="AG225">
+        <v>8</v>
+      </c>
+      <c r="AH225">
+        <v>1.38</v>
+      </c>
+      <c r="AI225">
+        <v>2.8</v>
+      </c>
+      <c r="AJ225">
+        <v>2.15</v>
+      </c>
+      <c r="AK225">
+        <v>1.67</v>
+      </c>
+      <c r="AL225">
+        <v>1.93</v>
+      </c>
+      <c r="AM225">
+        <v>1.82</v>
+      </c>
+      <c r="AN225">
+        <v>1.49</v>
+      </c>
+      <c r="AO225">
+        <v>1.36</v>
+      </c>
+      <c r="AP225">
+        <v>1.36</v>
+      </c>
+      <c r="AQ225">
+        <v>1.33</v>
+      </c>
+      <c r="AR225">
+        <v>0.5</v>
+      </c>
+      <c r="AS225">
+        <v>1.25</v>
+      </c>
+      <c r="AT225">
+        <v>0.67</v>
+      </c>
+      <c r="AU225">
+        <v>1.18</v>
+      </c>
+      <c r="AV225">
+        <v>1.44</v>
+      </c>
+      <c r="AW225">
+        <v>2.62</v>
+      </c>
+      <c r="AX225">
+        <v>0</v>
+      </c>
+      <c r="AY225">
+        <v>0</v>
+      </c>
+      <c r="AZ225">
+        <v>0</v>
+      </c>
+      <c r="BA225">
+        <v>0</v>
+      </c>
+      <c r="BB225">
+        <v>0</v>
+      </c>
+      <c r="BC225">
+        <v>2</v>
+      </c>
+      <c r="BD225">
+        <v>0</v>
+      </c>
+      <c r="BE225">
+        <v>0</v>
+      </c>
+      <c r="BF225">
+        <v>3</v>
+      </c>
+      <c r="BG225">
+        <v>5</v>
+      </c>
+      <c r="BH225">
+        <v>8</v>
+      </c>
+      <c r="BI225">
+        <v>5</v>
+      </c>
+      <c r="BJ225">
+        <v>11</v>
+      </c>
+      <c r="BK225">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="404">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -949,6 +949,27 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['18', '24', '43']</t>
+  </si>
+  <si>
+    <t>['65', '88']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['2', '4', '83']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['16', '63']</t>
+  </si>
+  <si>
+    <t>['86', '90+8']</t>
+  </si>
+  <si>
     <t>['22', '38']</t>
   </si>
   <si>
@@ -1007,9 +1028,6 @@
   </si>
   <si>
     <t>['56', '59']</t>
-  </si>
-  <si>
-    <t>['66']</t>
   </si>
   <si>
     <t>['45+5', '45+23']</t>
@@ -1193,6 +1211,21 @@
   </si>
   <si>
     <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['80', '90']</t>
+  </si>
+  <si>
+    <t>['17', '32', '44']</t>
+  </si>
+  <si>
+    <t>['23', '37', '49']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['45+1', '80']</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK289"/>
+  <dimension ref="A1:BK310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1798,7 +1831,7 @@
         <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1885,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -2079,7 +2112,7 @@
         <v>1.4</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2267,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0.2</v>
@@ -2652,7 +2685,7 @@
         <v>1.4</v>
       </c>
       <c r="AT6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2944,7 +2977,7 @@
         <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -3135,7 +3168,7 @@
         <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -3225,7 +3258,7 @@
         <v>1.6</v>
       </c>
       <c r="AT9">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3326,7 +3359,7 @@
         <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3708,7 +3741,7 @@
         <v>136</v>
       </c>
       <c r="P12" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3899,7 +3932,7 @@
         <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3986,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT13">
         <v>0.8</v>
@@ -4371,7 +4404,7 @@
         <v>2.2</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4472,7 +4505,7 @@
         <v>140</v>
       </c>
       <c r="P16" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4663,7 +4696,7 @@
         <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4854,7 +4887,7 @@
         <v>142</v>
       </c>
       <c r="P18" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5135,7 +5168,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5236,7 +5269,7 @@
         <v>144</v>
       </c>
       <c r="P20" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5427,7 +5460,7 @@
         <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -6087,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT24">
         <v>1.6</v>
@@ -6469,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT26">
         <v>0.4</v>
@@ -6573,7 +6606,7 @@
         <v>150</v>
       </c>
       <c r="P27" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -7146,7 +7179,7 @@
         <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7719,7 +7752,7 @@
         <v>155</v>
       </c>
       <c r="P33" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7997,10 +8030,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT34">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8188,10 +8221,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8483,7 +8516,7 @@
         <v>135</v>
       </c>
       <c r="P37" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8573,7 +8606,7 @@
         <v>1.25</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8761,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -8952,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT39">
         <v>1.5</v>
@@ -9438,7 +9471,7 @@
         <v>161</v>
       </c>
       <c r="P42" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -9629,7 +9662,7 @@
         <v>135</v>
       </c>
       <c r="P43" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9820,7 +9853,7 @@
         <v>162</v>
       </c>
       <c r="P44" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q44">
         <v>-1</v>
@@ -10011,7 +10044,7 @@
         <v>163</v>
       </c>
       <c r="P45" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q45">
         <v>-1</v>
@@ -10480,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>0.5</v>
@@ -10671,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>1.25</v>
@@ -10775,7 +10808,7 @@
         <v>167</v>
       </c>
       <c r="P49" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10862,10 +10895,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT49">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -11053,10 +11086,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT50">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -11157,7 +11190,7 @@
         <v>169</v>
       </c>
       <c r="P51" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11244,10 +11277,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11435,10 +11468,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11629,7 +11662,7 @@
         <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11817,10 +11850,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11921,7 +11954,7 @@
         <v>172</v>
       </c>
       <c r="P55" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12008,10 +12041,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT55">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12112,7 +12145,7 @@
         <v>173</v>
       </c>
       <c r="P56" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q56">
         <v>-1</v>
@@ -12202,7 +12235,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12303,7 +12336,7 @@
         <v>174</v>
       </c>
       <c r="P57" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12581,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT58">
         <v>0.5</v>
@@ -12685,7 +12718,7 @@
         <v>175</v>
       </c>
       <c r="P59" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12775,7 +12808,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12876,7 +12909,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12963,10 +12996,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT60">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -13154,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -13449,7 +13482,7 @@
         <v>177</v>
       </c>
       <c r="P63" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q63">
         <v>15</v>
@@ -13727,10 +13760,10 @@
         <v>0</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT64">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -14109,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT66">
         <v>1.4</v>
@@ -14404,7 +14437,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q68">
         <v>8</v>
@@ -14491,10 +14524,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT68">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU68">
         <v>1.45</v>
@@ -14682,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT69">
         <v>0.2</v>
@@ -15258,7 +15291,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -15359,7 +15392,7 @@
         <v>184</v>
       </c>
       <c r="P73" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15637,10 +15670,10 @@
         <v>3</v>
       </c>
       <c r="AS74">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU74">
         <v>1.15</v>
@@ -15741,7 +15774,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -15932,7 +15965,7 @@
         <v>186</v>
       </c>
       <c r="P76" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -16022,7 +16055,7 @@
         <v>1.2</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU76">
         <v>1.48</v>
@@ -16210,7 +16243,7 @@
         <v>3</v>
       </c>
       <c r="AS77">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT77">
         <v>2</v>
@@ -16505,7 +16538,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -17078,7 +17111,7 @@
         <v>190</v>
       </c>
       <c r="P82" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -17168,7 +17201,7 @@
         <v>3</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU82">
         <v>1.77</v>
@@ -17356,10 +17389,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU83">
         <v>1.73</v>
@@ -17547,7 +17580,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT84">
         <v>1</v>
@@ -17738,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="AS85">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT85">
         <v>1.2</v>
@@ -18224,7 +18257,7 @@
         <v>194</v>
       </c>
       <c r="P88" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18606,7 +18639,7 @@
         <v>160</v>
       </c>
       <c r="P90" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18988,7 +19021,7 @@
         <v>195</v>
       </c>
       <c r="P92" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -19075,10 +19108,10 @@
         <v>3</v>
       </c>
       <c r="AS92">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT92">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU92">
         <v>1.36</v>
@@ -19457,10 +19490,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT94">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU94">
         <v>2.32</v>
@@ -19651,7 +19684,7 @@
         <v>0.2</v>
       </c>
       <c r="AT95">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU95">
         <v>1.88</v>
@@ -19842,7 +19875,7 @@
         <v>1.2</v>
       </c>
       <c r="AT96">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU96">
         <v>1.79</v>
@@ -20134,7 +20167,7 @@
         <v>199</v>
       </c>
       <c r="P98" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20221,10 +20254,10 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU98">
         <v>0.95</v>
@@ -20415,7 +20448,7 @@
         <v>1.4</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU99">
         <v>1.79</v>
@@ -20516,7 +20549,7 @@
         <v>201</v>
       </c>
       <c r="P100" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20603,10 +20636,10 @@
         <v>3</v>
       </c>
       <c r="AS100">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU100">
         <v>1.32</v>
@@ -20707,7 +20740,7 @@
         <v>202</v>
       </c>
       <c r="P101" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20794,7 +20827,7 @@
         <v>3</v>
       </c>
       <c r="AS101">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT101">
         <v>0.8</v>
@@ -20898,7 +20931,7 @@
         <v>203</v>
       </c>
       <c r="P102" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -20985,10 +21018,10 @@
         <v>0.5</v>
       </c>
       <c r="AS102">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT102">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU102">
         <v>1.72</v>
@@ -21176,10 +21209,10 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT103">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU103">
         <v>1.93</v>
@@ -21367,7 +21400,7 @@
         <v>0</v>
       </c>
       <c r="AS104">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT104">
         <v>0.4</v>
@@ -21752,7 +21785,7 @@
         <v>1.4</v>
       </c>
       <c r="AT106">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU106">
         <v>0.79</v>
@@ -21853,7 +21886,7 @@
         <v>206</v>
       </c>
       <c r="P107" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22322,10 +22355,10 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT109">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU109">
         <v>1.89</v>
@@ -22617,7 +22650,7 @@
         <v>210</v>
       </c>
       <c r="P111" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22808,7 +22841,7 @@
         <v>211</v>
       </c>
       <c r="P112" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22895,10 +22928,10 @@
         <v>2</v>
       </c>
       <c r="AS112">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT112">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU112">
         <v>0.96</v>
@@ -23086,10 +23119,10 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT113">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU113">
         <v>1.94</v>
@@ -23659,7 +23692,7 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>0.4</v>
@@ -23853,7 +23886,7 @@
         <v>1.6</v>
       </c>
       <c r="AT117">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU117">
         <v>1.09</v>
@@ -24041,7 +24074,7 @@
         <v>3</v>
       </c>
       <c r="AS118">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT118">
         <v>1.2</v>
@@ -24423,7 +24456,7 @@
         <v>2</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT120">
         <v>1.6</v>
@@ -24718,7 +24751,7 @@
         <v>218</v>
       </c>
       <c r="P122" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24805,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="AS122">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT122">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU122">
         <v>0.88</v>
@@ -24996,10 +25029,10 @@
         <v>1.5</v>
       </c>
       <c r="AS123">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT123">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU123">
         <v>0.83</v>
@@ -25100,7 +25133,7 @@
         <v>219</v>
       </c>
       <c r="P124" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25291,7 +25324,7 @@
         <v>220</v>
       </c>
       <c r="P125" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25763,7 +25796,7 @@
         <v>3</v>
       </c>
       <c r="AT127">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU127">
         <v>2.19</v>
@@ -25951,7 +25984,7 @@
         <v>0</v>
       </c>
       <c r="AS128">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT128">
         <v>0.2</v>
@@ -26142,10 +26175,10 @@
         <v>0</v>
       </c>
       <c r="AS129">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT129">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU129">
         <v>1.02</v>
@@ -26628,7 +26661,7 @@
         <v>226</v>
       </c>
       <c r="P132" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26819,7 +26852,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -27583,7 +27616,7 @@
         <v>135</v>
       </c>
       <c r="P137" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q137">
         <v>12</v>
@@ -28156,7 +28189,7 @@
         <v>229</v>
       </c>
       <c r="P140" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28729,7 +28762,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -31021,7 +31054,7 @@
         <v>236</v>
       </c>
       <c r="P155" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31212,7 +31245,7 @@
         <v>237</v>
       </c>
       <c r="P156" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31594,7 +31627,7 @@
         <v>239</v>
       </c>
       <c r="P158" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q158">
         <v>13</v>
@@ -31785,7 +31818,7 @@
         <v>153</v>
       </c>
       <c r="P159" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q159">
         <v>10</v>
@@ -31976,7 +32009,7 @@
         <v>135</v>
       </c>
       <c r="P160" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -32636,10 +32669,10 @@
         <v>1.5</v>
       </c>
       <c r="AS163">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT163">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU163">
         <v>1.26</v>
@@ -32827,7 +32860,7 @@
         <v>0.33</v>
       </c>
       <c r="AS164">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT164">
         <v>0.2</v>
@@ -33209,7 +33242,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT166">
         <v>1</v>
@@ -33400,10 +33433,10 @@
         <v>2</v>
       </c>
       <c r="AS167">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT167">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU167">
         <v>1.35</v>
@@ -33504,7 +33537,7 @@
         <v>135</v>
       </c>
       <c r="P168" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33594,7 +33627,7 @@
         <v>1</v>
       </c>
       <c r="AT168">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU168">
         <v>1.22</v>
@@ -33695,7 +33728,7 @@
         <v>243</v>
       </c>
       <c r="P169" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33782,7 +33815,7 @@
         <v>1.33</v>
       </c>
       <c r="AS169">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT169">
         <v>1</v>
@@ -33886,7 +33919,7 @@
         <v>244</v>
       </c>
       <c r="P170" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34358,7 +34391,7 @@
         <v>1.2</v>
       </c>
       <c r="AT172">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU172">
         <v>2.07</v>
@@ -34459,7 +34492,7 @@
         <v>135</v>
       </c>
       <c r="P173" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q173">
         <v>1</v>
@@ -34546,10 +34579,10 @@
         <v>0.67</v>
       </c>
       <c r="AS173">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT173">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU173">
         <v>1.59</v>
@@ -34841,7 +34874,7 @@
         <v>135</v>
       </c>
       <c r="P175" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34928,10 +34961,10 @@
         <v>0.33</v>
       </c>
       <c r="AS175">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT175">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU175">
         <v>1.44</v>
@@ -35032,7 +35065,7 @@
         <v>248</v>
       </c>
       <c r="P176" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35119,7 +35152,7 @@
         <v>1.33</v>
       </c>
       <c r="AS176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT176">
         <v>1.4</v>
@@ -35223,7 +35256,7 @@
         <v>135</v>
       </c>
       <c r="P177" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35414,7 +35447,7 @@
         <v>135</v>
       </c>
       <c r="P178" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q178">
         <v>19</v>
@@ -35605,7 +35638,7 @@
         <v>249</v>
       </c>
       <c r="P179" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q179">
         <v>9</v>
@@ -35695,7 +35728,7 @@
         <v>0.2</v>
       </c>
       <c r="AT179">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU179">
         <v>1.54</v>
@@ -35987,7 +36020,7 @@
         <v>251</v>
       </c>
       <c r="P181" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36077,7 +36110,7 @@
         <v>3</v>
       </c>
       <c r="AT181">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU181">
         <v>1.97</v>
@@ -36456,10 +36489,10 @@
         <v>1.5</v>
       </c>
       <c r="AS183">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT183">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU183">
         <v>1.02</v>
@@ -36560,7 +36593,7 @@
         <v>254</v>
       </c>
       <c r="P184" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36647,7 +36680,7 @@
         <v>0.5</v>
       </c>
       <c r="AS184">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT184">
         <v>1</v>
@@ -36838,7 +36871,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT185">
         <v>2</v>
@@ -36942,7 +36975,7 @@
         <v>255</v>
       </c>
       <c r="P186" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37029,10 +37062,10 @@
         <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT186">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU186">
         <v>1.81</v>
@@ -37220,10 +37253,10 @@
         <v>1</v>
       </c>
       <c r="AS187">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT187">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU187">
         <v>1.19</v>
@@ -37411,10 +37444,10 @@
         <v>1.67</v>
       </c>
       <c r="AS188">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT188">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU188">
         <v>1.26</v>
@@ -37796,7 +37829,7 @@
         <v>1.2</v>
       </c>
       <c r="AT190">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU190">
         <v>2.14</v>
@@ -37984,7 +38017,7 @@
         <v>1</v>
       </c>
       <c r="AS191">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT191">
         <v>1.2</v>
@@ -38088,7 +38121,7 @@
         <v>258</v>
       </c>
       <c r="P192" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -38470,7 +38503,7 @@
         <v>259</v>
       </c>
       <c r="P194" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q194">
         <v>12</v>
@@ -38748,7 +38781,7 @@
         <v>0.33</v>
       </c>
       <c r="AS195">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT195">
         <v>0.4</v>
@@ -38939,7 +38972,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT196">
         <v>0.8</v>
@@ -39234,7 +39267,7 @@
         <v>263</v>
       </c>
       <c r="P198" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39324,7 +39357,7 @@
         <v>1</v>
       </c>
       <c r="AT198">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU198">
         <v>2.33</v>
@@ -39897,7 +39930,7 @@
         <v>2.4</v>
       </c>
       <c r="AT201">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU201">
         <v>1.64</v>
@@ -40467,7 +40500,7 @@
         <v>0.67</v>
       </c>
       <c r="AS204">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT204">
         <v>0.4</v>
@@ -41144,7 +41177,7 @@
         <v>271</v>
       </c>
       <c r="P208" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q208">
         <v>13</v>
@@ -41234,7 +41267,7 @@
         <v>2.2</v>
       </c>
       <c r="AT208">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU208">
         <v>1.26</v>
@@ -41335,7 +41368,7 @@
         <v>135</v>
       </c>
       <c r="P209" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41526,7 +41559,7 @@
         <v>272</v>
       </c>
       <c r="P210" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -42186,7 +42219,7 @@
         <v>0.67</v>
       </c>
       <c r="AS213">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT213">
         <v>0.4</v>
@@ -42377,7 +42410,7 @@
         <v>1</v>
       </c>
       <c r="AS214">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT214">
         <v>1.2</v>
@@ -42953,7 +42986,7 @@
         <v>2.6</v>
       </c>
       <c r="AT217">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU217">
         <v>1.71</v>
@@ -43054,7 +43087,7 @@
         <v>135</v>
       </c>
       <c r="P218" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43436,7 +43469,7 @@
         <v>277</v>
       </c>
       <c r="P220" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -43717,7 +43750,7 @@
         <v>2.2</v>
       </c>
       <c r="AT221">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU221">
         <v>1.8</v>
@@ -43908,7 +43941,7 @@
         <v>2</v>
       </c>
       <c r="AT222">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU222">
         <v>1.32</v>
@@ -44287,7 +44320,7 @@
         <v>0.33</v>
       </c>
       <c r="AS224">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT224">
         <v>0.2</v>
@@ -44773,7 +44806,7 @@
         <v>280</v>
       </c>
       <c r="P227" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44860,10 +44893,10 @@
         <v>1</v>
       </c>
       <c r="AS227">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT227">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU227">
         <v>1.34</v>
@@ -45051,10 +45084,10 @@
         <v>2</v>
       </c>
       <c r="AS228">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT228">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU228">
         <v>1.78</v>
@@ -45155,7 +45188,7 @@
         <v>135</v>
       </c>
       <c r="P229" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -45433,10 +45466,10 @@
         <v>1.5</v>
       </c>
       <c r="AS230">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT230">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU230">
         <v>2.44</v>
@@ -45815,7 +45848,7 @@
         <v>0.25</v>
       </c>
       <c r="AS232">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT232">
         <v>0.2</v>
@@ -45919,7 +45952,7 @@
         <v>135</v>
       </c>
       <c r="P233" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q233">
         <v>16</v>
@@ -46197,10 +46230,10 @@
         <v>1</v>
       </c>
       <c r="AS234">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT234">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU234">
         <v>1.27</v>
@@ -46301,7 +46334,7 @@
         <v>135</v>
       </c>
       <c r="P235" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46388,7 +46421,7 @@
         <v>1</v>
       </c>
       <c r="AS235">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT235">
         <v>1.4</v>
@@ -46579,10 +46612,10 @@
         <v>1</v>
       </c>
       <c r="AS236">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT236">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU236">
         <v>1.69</v>
@@ -46770,10 +46803,10 @@
         <v>1.25</v>
       </c>
       <c r="AS237">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT237">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU237">
         <v>1.93</v>
@@ -47343,7 +47376,7 @@
         <v>1.25</v>
       </c>
       <c r="AS240">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT240">
         <v>1</v>
@@ -47447,7 +47480,7 @@
         <v>287</v>
       </c>
       <c r="P241" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -47537,7 +47570,7 @@
         <v>3</v>
       </c>
       <c r="AT241">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AU241">
         <v>1.86</v>
@@ -47829,7 +47862,7 @@
         <v>289</v>
       </c>
       <c r="P243" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -48020,7 +48053,7 @@
         <v>135</v>
       </c>
       <c r="P244" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q244">
         <v>7</v>
@@ -48107,7 +48140,7 @@
         <v>1.75</v>
       </c>
       <c r="AS244">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT244">
         <v>2</v>
@@ -48298,10 +48331,10 @@
         <v>1.25</v>
       </c>
       <c r="AS245">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT245">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU245">
         <v>1.69</v>
@@ -48871,10 +48904,10 @@
         <v>1.25</v>
       </c>
       <c r="AS248">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT248">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU248">
         <v>1.38</v>
@@ -48975,7 +49008,7 @@
         <v>135</v>
       </c>
       <c r="P249" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q249">
         <v>1</v>
@@ -49065,7 +49098,7 @@
         <v>1.2</v>
       </c>
       <c r="AT249">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU249">
         <v>1.92</v>
@@ -49166,7 +49199,7 @@
         <v>291</v>
       </c>
       <c r="P250" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q250">
         <v>9</v>
@@ -49253,7 +49286,7 @@
         <v>0.75</v>
       </c>
       <c r="AS250">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT250">
         <v>1.2</v>
@@ -49444,10 +49477,10 @@
         <v>0</v>
       </c>
       <c r="AS251">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT251">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU251">
         <v>0.99</v>
@@ -49548,7 +49581,7 @@
         <v>269</v>
       </c>
       <c r="P252" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q252">
         <v>7</v>
@@ -49930,7 +49963,7 @@
         <v>135</v>
       </c>
       <c r="P254" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q254">
         <v>6</v>
@@ -50020,7 +50053,7 @@
         <v>0.2</v>
       </c>
       <c r="AT254">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU254">
         <v>1.72</v>
@@ -50208,10 +50241,10 @@
         <v>1.67</v>
       </c>
       <c r="AS255">
+        <v>1</v>
+      </c>
+      <c r="AT255">
         <v>1.2</v>
-      </c>
-      <c r="AT255">
-        <v>1.5</v>
       </c>
       <c r="AU255">
         <v>1.93</v>
@@ -50781,7 +50814,7 @@
         <v>1.75</v>
       </c>
       <c r="AS258">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT258">
         <v>2</v>
@@ -50885,7 +50918,7 @@
         <v>296</v>
       </c>
       <c r="P259" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51076,7 +51109,7 @@
         <v>135</v>
       </c>
       <c r="P260" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q260">
         <v>3</v>
@@ -51166,7 +51199,7 @@
         <v>1.4</v>
       </c>
       <c r="AT260">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU260">
         <v>2.01</v>
@@ -51739,7 +51772,7 @@
         <v>2.2</v>
       </c>
       <c r="AT263">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU263">
         <v>2.27</v>
@@ -51927,7 +51960,7 @@
         <v>0.25</v>
       </c>
       <c r="AS264">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT264">
         <v>0.4</v>
@@ -52309,7 +52342,7 @@
         <v>0.75</v>
       </c>
       <c r="AS266">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT266">
         <v>0.8</v>
@@ -52413,7 +52446,7 @@
         <v>300</v>
       </c>
       <c r="P267" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52500,7 +52533,7 @@
         <v>0.25</v>
       </c>
       <c r="AS267">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT267">
         <v>0.4</v>
@@ -53076,7 +53109,7 @@
         <v>2.2</v>
       </c>
       <c r="AT270">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU270">
         <v>1.58</v>
@@ -53177,7 +53210,7 @@
         <v>301</v>
       </c>
       <c r="P271" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -53267,7 +53300,7 @@
         <v>1.6</v>
       </c>
       <c r="AT271">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU271">
         <v>1.61</v>
@@ -53750,7 +53783,7 @@
         <v>135</v>
       </c>
       <c r="P274" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54413,7 +54446,7 @@
         <v>1.4</v>
       </c>
       <c r="AT277">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU277">
         <v>1.12</v>
@@ -54514,7 +54547,7 @@
         <v>213</v>
       </c>
       <c r="P278" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q278">
         <v>11</v>
@@ -54795,7 +54828,7 @@
         <v>1.6</v>
       </c>
       <c r="AT279">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU279">
         <v>1.65</v>
@@ -55278,7 +55311,7 @@
         <v>135</v>
       </c>
       <c r="P282" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q282">
         <v>2</v>
@@ -55556,7 +55589,7 @@
         <v>0.25</v>
       </c>
       <c r="AS283">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT283">
         <v>0.2</v>
@@ -56320,7 +56353,7 @@
         <v>1.25</v>
       </c>
       <c r="AS287">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT287">
         <v>1.6</v>
@@ -56757,6 +56790,4017 @@
       </c>
       <c r="BK289">
         <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:63">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>5557021</v>
+      </c>
+      <c r="C290" t="s">
+        <v>63</v>
+      </c>
+      <c r="D290" t="s">
+        <v>64</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45101.45833333334</v>
+      </c>
+      <c r="F290">
+        <v>10</v>
+      </c>
+      <c r="G290" t="s">
+        <v>65</v>
+      </c>
+      <c r="H290" t="s">
+        <v>100</v>
+      </c>
+      <c r="I290">
+        <v>3</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>3</v>
+      </c>
+      <c r="L290">
+        <v>3</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>3</v>
+      </c>
+      <c r="O290" t="s">
+        <v>311</v>
+      </c>
+      <c r="P290" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q290">
+        <v>6</v>
+      </c>
+      <c r="R290">
+        <v>6</v>
+      </c>
+      <c r="S290">
+        <v>12</v>
+      </c>
+      <c r="T290">
+        <v>3.6</v>
+      </c>
+      <c r="U290">
+        <v>1.95</v>
+      </c>
+      <c r="V290">
+        <v>3.1</v>
+      </c>
+      <c r="W290">
+        <v>1.51</v>
+      </c>
+      <c r="X290">
+        <v>2.39</v>
+      </c>
+      <c r="Y290">
+        <v>3.42</v>
+      </c>
+      <c r="Z290">
+        <v>1.27</v>
+      </c>
+      <c r="AA290">
+        <v>9.1</v>
+      </c>
+      <c r="AB290">
+        <v>1.03</v>
+      </c>
+      <c r="AC290">
+        <v>3.05</v>
+      </c>
+      <c r="AD290">
+        <v>3.05</v>
+      </c>
+      <c r="AE290">
+        <v>2.34</v>
+      </c>
+      <c r="AF290">
+        <v>1.08</v>
+      </c>
+      <c r="AG290">
+        <v>7.8</v>
+      </c>
+      <c r="AH290">
+        <v>1.43</v>
+      </c>
+      <c r="AI290">
+        <v>2.54</v>
+      </c>
+      <c r="AJ290">
+        <v>2.37</v>
+      </c>
+      <c r="AK290">
+        <v>1.53</v>
+      </c>
+      <c r="AL290">
+        <v>2</v>
+      </c>
+      <c r="AM290">
+        <v>1.69</v>
+      </c>
+      <c r="AN290">
+        <v>1.53</v>
+      </c>
+      <c r="AO290">
+        <v>1.32</v>
+      </c>
+      <c r="AP290">
+        <v>1.32</v>
+      </c>
+      <c r="AQ290">
+        <v>1</v>
+      </c>
+      <c r="AR290">
+        <v>1</v>
+      </c>
+      <c r="AS290">
+        <v>1.33</v>
+      </c>
+      <c r="AT290">
+        <v>0.83</v>
+      </c>
+      <c r="AU290">
+        <v>1.42</v>
+      </c>
+      <c r="AV290">
+        <v>1.43</v>
+      </c>
+      <c r="AW290">
+        <v>2.85</v>
+      </c>
+      <c r="AX290">
+        <v>0</v>
+      </c>
+      <c r="AY290">
+        <v>0</v>
+      </c>
+      <c r="AZ290">
+        <v>0</v>
+      </c>
+      <c r="BA290">
+        <v>0</v>
+      </c>
+      <c r="BB290">
+        <v>0</v>
+      </c>
+      <c r="BC290">
+        <v>1.91</v>
+      </c>
+      <c r="BD290">
+        <v>2</v>
+      </c>
+      <c r="BE290">
+        <v>0</v>
+      </c>
+      <c r="BF290">
+        <v>6</v>
+      </c>
+      <c r="BG290">
+        <v>2</v>
+      </c>
+      <c r="BH290">
+        <v>6</v>
+      </c>
+      <c r="BI290">
+        <v>4</v>
+      </c>
+      <c r="BJ290">
+        <v>12</v>
+      </c>
+      <c r="BK290">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:63">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>5557022</v>
+      </c>
+      <c r="C291" t="s">
+        <v>63</v>
+      </c>
+      <c r="D291" t="s">
+        <v>64</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45101.625</v>
+      </c>
+      <c r="F291">
+        <v>10</v>
+      </c>
+      <c r="G291" t="s">
+        <v>97</v>
+      </c>
+      <c r="H291" t="s">
+        <v>79</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+      <c r="O291" t="s">
+        <v>135</v>
+      </c>
+      <c r="P291" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q291">
+        <v>3</v>
+      </c>
+      <c r="R291">
+        <v>2</v>
+      </c>
+      <c r="S291">
+        <v>5</v>
+      </c>
+      <c r="T291">
+        <v>3</v>
+      </c>
+      <c r="U291">
+        <v>1.91</v>
+      </c>
+      <c r="V291">
+        <v>4</v>
+      </c>
+      <c r="W291">
+        <v>1.57</v>
+      </c>
+      <c r="X291">
+        <v>2.12</v>
+      </c>
+      <c r="Y291">
+        <v>3.3</v>
+      </c>
+      <c r="Z291">
+        <v>1.29</v>
+      </c>
+      <c r="AA291">
+        <v>9.1</v>
+      </c>
+      <c r="AB291">
+        <v>1.03</v>
+      </c>
+      <c r="AC291">
+        <v>2.2</v>
+      </c>
+      <c r="AD291">
+        <v>2.8</v>
+      </c>
+      <c r="AE291">
+        <v>3.25</v>
+      </c>
+      <c r="AF291">
+        <v>1.08</v>
+      </c>
+      <c r="AG291">
+        <v>6.6</v>
+      </c>
+      <c r="AH291">
+        <v>1.5</v>
+      </c>
+      <c r="AI291">
+        <v>2.37</v>
+      </c>
+      <c r="AJ291">
+        <v>2.39</v>
+      </c>
+      <c r="AK291">
+        <v>1.51</v>
+      </c>
+      <c r="AL291">
+        <v>2.1</v>
+      </c>
+      <c r="AM291">
+        <v>1.7</v>
+      </c>
+      <c r="AN291">
+        <v>1.42</v>
+      </c>
+      <c r="AO291">
+        <v>1.38</v>
+      </c>
+      <c r="AP291">
+        <v>1.39</v>
+      </c>
+      <c r="AQ291">
+        <v>1.75</v>
+      </c>
+      <c r="AR291">
+        <v>1.75</v>
+      </c>
+      <c r="AS291">
+        <v>1.6</v>
+      </c>
+      <c r="AT291">
+        <v>1.6</v>
+      </c>
+      <c r="AU291">
+        <v>1.26</v>
+      </c>
+      <c r="AV291">
+        <v>1.49</v>
+      </c>
+      <c r="AW291">
+        <v>2.75</v>
+      </c>
+      <c r="AX291">
+        <v>0</v>
+      </c>
+      <c r="AY291">
+        <v>0</v>
+      </c>
+      <c r="AZ291">
+        <v>0</v>
+      </c>
+      <c r="BA291">
+        <v>0</v>
+      </c>
+      <c r="BB291">
+        <v>0</v>
+      </c>
+      <c r="BC291">
+        <v>2.1</v>
+      </c>
+      <c r="BD291">
+        <v>0</v>
+      </c>
+      <c r="BE291">
+        <v>0</v>
+      </c>
+      <c r="BF291">
+        <v>4</v>
+      </c>
+      <c r="BG291">
+        <v>2</v>
+      </c>
+      <c r="BH291">
+        <v>8</v>
+      </c>
+      <c r="BI291">
+        <v>6</v>
+      </c>
+      <c r="BJ291">
+        <v>12</v>
+      </c>
+      <c r="BK291">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:63">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>5557023</v>
+      </c>
+      <c r="C292" t="s">
+        <v>63</v>
+      </c>
+      <c r="D292" t="s">
+        <v>64</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45101.625</v>
+      </c>
+      <c r="F292">
+        <v>10</v>
+      </c>
+      <c r="G292" t="s">
+        <v>112</v>
+      </c>
+      <c r="H292" t="s">
+        <v>66</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+      <c r="O292" t="s">
+        <v>135</v>
+      </c>
+      <c r="P292" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q292">
+        <v>8</v>
+      </c>
+      <c r="R292">
+        <v>4</v>
+      </c>
+      <c r="S292">
+        <v>12</v>
+      </c>
+      <c r="T292">
+        <v>2.1</v>
+      </c>
+      <c r="U292">
+        <v>2.2</v>
+      </c>
+      <c r="V292">
+        <v>5.5</v>
+      </c>
+      <c r="W292">
+        <v>1.41</v>
+      </c>
+      <c r="X292">
+        <v>2.7</v>
+      </c>
+      <c r="Y292">
+        <v>2.81</v>
+      </c>
+      <c r="Z292">
+        <v>1.38</v>
+      </c>
+      <c r="AA292">
+        <v>7.2</v>
+      </c>
+      <c r="AB292">
+        <v>1.06</v>
+      </c>
+      <c r="AC292">
+        <v>1.58</v>
+      </c>
+      <c r="AD292">
+        <v>3.55</v>
+      </c>
+      <c r="AE292">
+        <v>5.05</v>
+      </c>
+      <c r="AF292">
+        <v>1.04</v>
+      </c>
+      <c r="AG292">
+        <v>10.5</v>
+      </c>
+      <c r="AH292">
+        <v>1.27</v>
+      </c>
+      <c r="AI292">
+        <v>3.35</v>
+      </c>
+      <c r="AJ292">
+        <v>1.94</v>
+      </c>
+      <c r="AK292">
+        <v>1.68</v>
+      </c>
+      <c r="AL292">
+        <v>1.85</v>
+      </c>
+      <c r="AM292">
+        <v>1.85</v>
+      </c>
+      <c r="AN292">
+        <v>1.1</v>
+      </c>
+      <c r="AO292">
+        <v>1.2</v>
+      </c>
+      <c r="AP292">
+        <v>2.1</v>
+      </c>
+      <c r="AQ292">
+        <v>2.25</v>
+      </c>
+      <c r="AR292">
+        <v>0.75</v>
+      </c>
+      <c r="AS292">
+        <v>2</v>
+      </c>
+      <c r="AT292">
+        <v>0.8</v>
+      </c>
+      <c r="AU292">
+        <v>1.81</v>
+      </c>
+      <c r="AV292">
+        <v>1.54</v>
+      </c>
+      <c r="AW292">
+        <v>3.35</v>
+      </c>
+      <c r="AX292">
+        <v>0</v>
+      </c>
+      <c r="AY292">
+        <v>0</v>
+      </c>
+      <c r="AZ292">
+        <v>0</v>
+      </c>
+      <c r="BA292">
+        <v>0</v>
+      </c>
+      <c r="BB292">
+        <v>0</v>
+      </c>
+      <c r="BC292">
+        <v>2.25</v>
+      </c>
+      <c r="BD292">
+        <v>0</v>
+      </c>
+      <c r="BE292">
+        <v>0</v>
+      </c>
+      <c r="BF292">
+        <v>3</v>
+      </c>
+      <c r="BG292">
+        <v>6</v>
+      </c>
+      <c r="BH292">
+        <v>6</v>
+      </c>
+      <c r="BI292">
+        <v>5</v>
+      </c>
+      <c r="BJ292">
+        <v>9</v>
+      </c>
+      <c r="BK292">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:63">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>5557135</v>
+      </c>
+      <c r="C293" t="s">
+        <v>63</v>
+      </c>
+      <c r="D293" t="s">
+        <v>64</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45101.625</v>
+      </c>
+      <c r="F293">
+        <v>10</v>
+      </c>
+      <c r="G293" t="s">
+        <v>98</v>
+      </c>
+      <c r="H293" t="s">
+        <v>82</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293" t="s">
+        <v>312</v>
+      </c>
+      <c r="P293" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q293">
+        <v>14</v>
+      </c>
+      <c r="R293">
+        <v>5</v>
+      </c>
+      <c r="S293">
+        <v>19</v>
+      </c>
+      <c r="T293">
+        <v>2.6</v>
+      </c>
+      <c r="U293">
+        <v>1.91</v>
+      </c>
+      <c r="V293">
+        <v>5</v>
+      </c>
+      <c r="W293">
+        <v>1.61</v>
+      </c>
+      <c r="X293">
+        <v>2.2</v>
+      </c>
+      <c r="Y293">
+        <v>3.74</v>
+      </c>
+      <c r="Z293">
+        <v>1.23</v>
+      </c>
+      <c r="AA293">
+        <v>10</v>
+      </c>
+      <c r="AB293">
+        <v>1.02</v>
+      </c>
+      <c r="AC293">
+        <v>1.7</v>
+      </c>
+      <c r="AD293">
+        <v>3.05</v>
+      </c>
+      <c r="AE293">
+        <v>5.05</v>
+      </c>
+      <c r="AF293">
+        <v>1.1</v>
+      </c>
+      <c r="AG293">
+        <v>6.5</v>
+      </c>
+      <c r="AH293">
+        <v>1.56</v>
+      </c>
+      <c r="AI293">
+        <v>2.27</v>
+      </c>
+      <c r="AJ293">
+        <v>2.44</v>
+      </c>
+      <c r="AK293">
+        <v>1.43</v>
+      </c>
+      <c r="AL293">
+        <v>2.35</v>
+      </c>
+      <c r="AM293">
+        <v>1.53</v>
+      </c>
+      <c r="AN293">
+        <v>1.15</v>
+      </c>
+      <c r="AO293">
+        <v>1.28</v>
+      </c>
+      <c r="AP293">
+        <v>1.8</v>
+      </c>
+      <c r="AQ293">
+        <v>2.5</v>
+      </c>
+      <c r="AR293">
+        <v>1</v>
+      </c>
+      <c r="AS293">
+        <v>2.6</v>
+      </c>
+      <c r="AT293">
+        <v>0.8</v>
+      </c>
+      <c r="AU293">
+        <v>1.61</v>
+      </c>
+      <c r="AV293">
+        <v>1.41</v>
+      </c>
+      <c r="AW293">
+        <v>3.02</v>
+      </c>
+      <c r="AX293">
+        <v>0</v>
+      </c>
+      <c r="AY293">
+        <v>0</v>
+      </c>
+      <c r="AZ293">
+        <v>0</v>
+      </c>
+      <c r="BA293">
+        <v>0</v>
+      </c>
+      <c r="BB293">
+        <v>0</v>
+      </c>
+      <c r="BC293">
+        <v>2.2</v>
+      </c>
+      <c r="BD293">
+        <v>0</v>
+      </c>
+      <c r="BE293">
+        <v>0</v>
+      </c>
+      <c r="BF293">
+        <v>6</v>
+      </c>
+      <c r="BG293">
+        <v>0</v>
+      </c>
+      <c r="BH293">
+        <v>5</v>
+      </c>
+      <c r="BI293">
+        <v>7</v>
+      </c>
+      <c r="BJ293">
+        <v>11</v>
+      </c>
+      <c r="BK293">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:63">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>5556965</v>
+      </c>
+      <c r="C294" t="s">
+        <v>63</v>
+      </c>
+      <c r="D294" t="s">
+        <v>64</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45101.64583333334</v>
+      </c>
+      <c r="F294">
+        <v>10</v>
+      </c>
+      <c r="G294" t="s">
+        <v>67</v>
+      </c>
+      <c r="H294" t="s">
+        <v>108</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>2</v>
+      </c>
+      <c r="O294" t="s">
+        <v>313</v>
+      </c>
+      <c r="P294" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q294">
+        <v>7</v>
+      </c>
+      <c r="R294">
+        <v>2</v>
+      </c>
+      <c r="S294">
+        <v>9</v>
+      </c>
+      <c r="T294">
+        <v>2.88</v>
+      </c>
+      <c r="U294">
+        <v>2</v>
+      </c>
+      <c r="V294">
+        <v>3.75</v>
+      </c>
+      <c r="W294">
+        <v>1.47</v>
+      </c>
+      <c r="X294">
+        <v>2.26</v>
+      </c>
+      <c r="Y294">
+        <v>3.17</v>
+      </c>
+      <c r="Z294">
+        <v>1.14</v>
+      </c>
+      <c r="AA294">
+        <v>7.8</v>
+      </c>
+      <c r="AB294">
+        <v>1.05</v>
+      </c>
+      <c r="AC294">
+        <v>2.1</v>
+      </c>
+      <c r="AD294">
+        <v>2.9</v>
+      </c>
+      <c r="AE294">
+        <v>3.25</v>
+      </c>
+      <c r="AF294">
+        <v>1.05</v>
+      </c>
+      <c r="AG294">
+        <v>8</v>
+      </c>
+      <c r="AH294">
+        <v>1.36</v>
+      </c>
+      <c r="AI294">
+        <v>2.9</v>
+      </c>
+      <c r="AJ294">
+        <v>2.25</v>
+      </c>
+      <c r="AK294">
+        <v>1.57</v>
+      </c>
+      <c r="AL294">
+        <v>1.9</v>
+      </c>
+      <c r="AM294">
+        <v>1.86</v>
+      </c>
+      <c r="AN294">
+        <v>1.24</v>
+      </c>
+      <c r="AO294">
+        <v>1.32</v>
+      </c>
+      <c r="AP294">
+        <v>1.72</v>
+      </c>
+      <c r="AQ294">
+        <v>2.2</v>
+      </c>
+      <c r="AR294">
+        <v>1.4</v>
+      </c>
+      <c r="AS294">
+        <v>2</v>
+      </c>
+      <c r="AT294">
+        <v>1.33</v>
+      </c>
+      <c r="AU294">
+        <v>1.9</v>
+      </c>
+      <c r="AV294">
+        <v>1.78</v>
+      </c>
+      <c r="AW294">
+        <v>3.68</v>
+      </c>
+      <c r="AX294">
+        <v>0</v>
+      </c>
+      <c r="AY294">
+        <v>0</v>
+      </c>
+      <c r="AZ294">
+        <v>0</v>
+      </c>
+      <c r="BA294">
+        <v>0</v>
+      </c>
+      <c r="BB294">
+        <v>0</v>
+      </c>
+      <c r="BC294">
+        <v>2</v>
+      </c>
+      <c r="BD294">
+        <v>0</v>
+      </c>
+      <c r="BE294">
+        <v>0</v>
+      </c>
+      <c r="BF294">
+        <v>3</v>
+      </c>
+      <c r="BG294">
+        <v>6</v>
+      </c>
+      <c r="BH294">
+        <v>5</v>
+      </c>
+      <c r="BI294">
+        <v>5</v>
+      </c>
+      <c r="BJ294">
+        <v>8</v>
+      </c>
+      <c r="BK294">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:63">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>5557024</v>
+      </c>
+      <c r="C295" t="s">
+        <v>63</v>
+      </c>
+      <c r="D295" t="s">
+        <v>64</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45101.64583333334</v>
+      </c>
+      <c r="F295">
+        <v>10</v>
+      </c>
+      <c r="G295" t="s">
+        <v>101</v>
+      </c>
+      <c r="H295" t="s">
+        <v>96</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295">
+        <v>2</v>
+      </c>
+      <c r="N295">
+        <v>3</v>
+      </c>
+      <c r="O295" t="s">
+        <v>301</v>
+      </c>
+      <c r="P295" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q295">
+        <v>7</v>
+      </c>
+      <c r="R295">
+        <v>5</v>
+      </c>
+      <c r="S295">
+        <v>12</v>
+      </c>
+      <c r="T295">
+        <v>3.75</v>
+      </c>
+      <c r="U295">
+        <v>2</v>
+      </c>
+      <c r="V295">
+        <v>2.88</v>
+      </c>
+      <c r="W295">
+        <v>1.48</v>
+      </c>
+      <c r="X295">
+        <v>2.25</v>
+      </c>
+      <c r="Y295">
+        <v>3.1</v>
+      </c>
+      <c r="Z295">
+        <v>1.33</v>
+      </c>
+      <c r="AA295">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB295">
+        <v>1.04</v>
+      </c>
+      <c r="AC295">
+        <v>3.05</v>
+      </c>
+      <c r="AD295">
+        <v>3</v>
+      </c>
+      <c r="AE295">
+        <v>2.2</v>
+      </c>
+      <c r="AF295">
+        <v>1.05</v>
+      </c>
+      <c r="AG295">
+        <v>8</v>
+      </c>
+      <c r="AH295">
+        <v>1.39</v>
+      </c>
+      <c r="AI295">
+        <v>2.8</v>
+      </c>
+      <c r="AJ295">
+        <v>2.2</v>
+      </c>
+      <c r="AK295">
+        <v>1.61</v>
+      </c>
+      <c r="AL295">
+        <v>1.88</v>
+      </c>
+      <c r="AM295">
+        <v>1.88</v>
+      </c>
+      <c r="AN295">
+        <v>1.47</v>
+      </c>
+      <c r="AO295">
+        <v>1.34</v>
+      </c>
+      <c r="AP295">
+        <v>1.39</v>
+      </c>
+      <c r="AQ295">
+        <v>0.75</v>
+      </c>
+      <c r="AR295">
+        <v>1</v>
+      </c>
+      <c r="AS295">
+        <v>0.6</v>
+      </c>
+      <c r="AT295">
+        <v>1.4</v>
+      </c>
+      <c r="AU295">
+        <v>1.54</v>
+      </c>
+      <c r="AV295">
+        <v>1.18</v>
+      </c>
+      <c r="AW295">
+        <v>2.72</v>
+      </c>
+      <c r="AX295">
+        <v>0</v>
+      </c>
+      <c r="AY295">
+        <v>0</v>
+      </c>
+      <c r="AZ295">
+        <v>0</v>
+      </c>
+      <c r="BA295">
+        <v>0</v>
+      </c>
+      <c r="BB295">
+        <v>0</v>
+      </c>
+      <c r="BC295">
+        <v>0</v>
+      </c>
+      <c r="BD295">
+        <v>0</v>
+      </c>
+      <c r="BE295">
+        <v>0</v>
+      </c>
+      <c r="BF295">
+        <v>6</v>
+      </c>
+      <c r="BG295">
+        <v>6</v>
+      </c>
+      <c r="BH295">
+        <v>9</v>
+      </c>
+      <c r="BI295">
+        <v>7</v>
+      </c>
+      <c r="BJ295">
+        <v>15</v>
+      </c>
+      <c r="BK295">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:63">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>5556798</v>
+      </c>
+      <c r="C296" t="s">
+        <v>63</v>
+      </c>
+      <c r="D296" t="s">
+        <v>64</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45101.66666666666</v>
+      </c>
+      <c r="F296">
+        <v>10</v>
+      </c>
+      <c r="G296" t="s">
+        <v>121</v>
+      </c>
+      <c r="H296" t="s">
+        <v>81</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296" t="s">
+        <v>153</v>
+      </c>
+      <c r="P296" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q296">
+        <v>-1</v>
+      </c>
+      <c r="R296">
+        <v>-1</v>
+      </c>
+      <c r="S296">
+        <v>-1</v>
+      </c>
+      <c r="T296">
+        <v>2.63</v>
+      </c>
+      <c r="U296">
+        <v>2.05</v>
+      </c>
+      <c r="V296">
+        <v>4.33</v>
+      </c>
+      <c r="W296">
+        <v>1.47</v>
+      </c>
+      <c r="X296">
+        <v>2.43</v>
+      </c>
+      <c r="Y296">
+        <v>3.14</v>
+      </c>
+      <c r="Z296">
+        <v>1.15</v>
+      </c>
+      <c r="AA296">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB296">
+        <v>1.04</v>
+      </c>
+      <c r="AC296">
+        <v>1.93</v>
+      </c>
+      <c r="AD296">
+        <v>3.13</v>
+      </c>
+      <c r="AE296">
+        <v>3.7</v>
+      </c>
+      <c r="AF296">
+        <v>1.05</v>
+      </c>
+      <c r="AG296">
+        <v>8</v>
+      </c>
+      <c r="AH296">
+        <v>1.39</v>
+      </c>
+      <c r="AI296">
+        <v>2.8</v>
+      </c>
+      <c r="AJ296">
+        <v>2.1</v>
+      </c>
+      <c r="AK296">
+        <v>1.65</v>
+      </c>
+      <c r="AL296">
+        <v>2</v>
+      </c>
+      <c r="AM296">
+        <v>1.77</v>
+      </c>
+      <c r="AN296">
+        <v>1.24</v>
+      </c>
+      <c r="AO296">
+        <v>1.32</v>
+      </c>
+      <c r="AP296">
+        <v>1.71</v>
+      </c>
+      <c r="AQ296">
+        <v>2</v>
+      </c>
+      <c r="AR296">
+        <v>0.5</v>
+      </c>
+      <c r="AS296">
+        <v>1.8</v>
+      </c>
+      <c r="AT296">
+        <v>0.6</v>
+      </c>
+      <c r="AU296">
+        <v>1.24</v>
+      </c>
+      <c r="AV296">
+        <v>1.21</v>
+      </c>
+      <c r="AW296">
+        <v>2.45</v>
+      </c>
+      <c r="AX296">
+        <v>0</v>
+      </c>
+      <c r="AY296">
+        <v>0</v>
+      </c>
+      <c r="AZ296">
+        <v>0</v>
+      </c>
+      <c r="BA296">
+        <v>0</v>
+      </c>
+      <c r="BB296">
+        <v>0</v>
+      </c>
+      <c r="BC296">
+        <v>0</v>
+      </c>
+      <c r="BD296">
+        <v>0</v>
+      </c>
+      <c r="BE296">
+        <v>0</v>
+      </c>
+      <c r="BF296">
+        <v>-1</v>
+      </c>
+      <c r="BG296">
+        <v>-1</v>
+      </c>
+      <c r="BH296">
+        <v>-1</v>
+      </c>
+      <c r="BI296">
+        <v>-1</v>
+      </c>
+      <c r="BJ296">
+        <v>-1</v>
+      </c>
+      <c r="BK296">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:63">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>5556744</v>
+      </c>
+      <c r="C297" t="s">
+        <v>63</v>
+      </c>
+      <c r="D297" t="s">
+        <v>64</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45101.70833333334</v>
+      </c>
+      <c r="F297">
+        <v>10</v>
+      </c>
+      <c r="G297" t="s">
+        <v>111</v>
+      </c>
+      <c r="H297" t="s">
+        <v>90</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>1</v>
+      </c>
+      <c r="O297" t="s">
+        <v>222</v>
+      </c>
+      <c r="P297" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q297">
+        <v>3</v>
+      </c>
+      <c r="R297">
+        <v>9</v>
+      </c>
+      <c r="S297">
+        <v>12</v>
+      </c>
+      <c r="T297">
+        <v>3.1</v>
+      </c>
+      <c r="U297">
+        <v>2.1</v>
+      </c>
+      <c r="V297">
+        <v>3.25</v>
+      </c>
+      <c r="W297">
+        <v>1.39</v>
+      </c>
+      <c r="X297">
+        <v>2.68</v>
+      </c>
+      <c r="Y297">
+        <v>2.84</v>
+      </c>
+      <c r="Z297">
+        <v>1.35</v>
+      </c>
+      <c r="AA297">
+        <v>7.2</v>
+      </c>
+      <c r="AB297">
+        <v>1.06</v>
+      </c>
+      <c r="AC297">
+        <v>2.3</v>
+      </c>
+      <c r="AD297">
+        <v>3</v>
+      </c>
+      <c r="AE297">
+        <v>2.8</v>
+      </c>
+      <c r="AF297">
+        <v>1.03</v>
+      </c>
+      <c r="AG297">
+        <v>9</v>
+      </c>
+      <c r="AH297">
+        <v>1.31</v>
+      </c>
+      <c r="AI297">
+        <v>3.1</v>
+      </c>
+      <c r="AJ297">
+        <v>2</v>
+      </c>
+      <c r="AK297">
+        <v>1.75</v>
+      </c>
+      <c r="AL297">
+        <v>1.77</v>
+      </c>
+      <c r="AM297">
+        <v>2</v>
+      </c>
+      <c r="AN297">
+        <v>1.51</v>
+      </c>
+      <c r="AO297">
+        <v>1.34</v>
+      </c>
+      <c r="AP297">
+        <v>1.37</v>
+      </c>
+      <c r="AQ297">
+        <v>1.75</v>
+      </c>
+      <c r="AR297">
+        <v>1.75</v>
+      </c>
+      <c r="AS297">
+        <v>2</v>
+      </c>
+      <c r="AT297">
+        <v>1.4</v>
+      </c>
+      <c r="AU297">
+        <v>2.02</v>
+      </c>
+      <c r="AV297">
+        <v>1.35</v>
+      </c>
+      <c r="AW297">
+        <v>3.37</v>
+      </c>
+      <c r="AX297">
+        <v>0</v>
+      </c>
+      <c r="AY297">
+        <v>0</v>
+      </c>
+      <c r="AZ297">
+        <v>0</v>
+      </c>
+      <c r="BA297">
+        <v>0</v>
+      </c>
+      <c r="BB297">
+        <v>0</v>
+      </c>
+      <c r="BC297">
+        <v>0</v>
+      </c>
+      <c r="BD297">
+        <v>1.85</v>
+      </c>
+      <c r="BE297">
+        <v>0</v>
+      </c>
+      <c r="BF297">
+        <v>4</v>
+      </c>
+      <c r="BG297">
+        <v>4</v>
+      </c>
+      <c r="BH297">
+        <v>7</v>
+      </c>
+      <c r="BI297">
+        <v>6</v>
+      </c>
+      <c r="BJ297">
+        <v>11</v>
+      </c>
+      <c r="BK297">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:63">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>5557080</v>
+      </c>
+      <c r="C298" t="s">
+        <v>63</v>
+      </c>
+      <c r="D298" t="s">
+        <v>64</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45101.70833333334</v>
+      </c>
+      <c r="F298">
+        <v>10</v>
+      </c>
+      <c r="G298" t="s">
+        <v>124</v>
+      </c>
+      <c r="H298" t="s">
+        <v>73</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="N298">
+        <v>2</v>
+      </c>
+      <c r="O298" t="s">
+        <v>134</v>
+      </c>
+      <c r="P298" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q298">
+        <v>4</v>
+      </c>
+      <c r="R298">
+        <v>7</v>
+      </c>
+      <c r="S298">
+        <v>11</v>
+      </c>
+      <c r="T298">
+        <v>3.4</v>
+      </c>
+      <c r="U298">
+        <v>1.91</v>
+      </c>
+      <c r="V298">
+        <v>3.4</v>
+      </c>
+      <c r="W298">
+        <v>1.49</v>
+      </c>
+      <c r="X298">
+        <v>2.44</v>
+      </c>
+      <c r="Y298">
+        <v>3.3</v>
+      </c>
+      <c r="Z298">
+        <v>1.29</v>
+      </c>
+      <c r="AA298">
+        <v>9.1</v>
+      </c>
+      <c r="AB298">
+        <v>1.03</v>
+      </c>
+      <c r="AC298">
+        <v>2.78</v>
+      </c>
+      <c r="AD298">
+        <v>2.82</v>
+      </c>
+      <c r="AE298">
+        <v>2.53</v>
+      </c>
+      <c r="AF298">
+        <v>1.07</v>
+      </c>
+      <c r="AG298">
+        <v>6.7</v>
+      </c>
+      <c r="AH298">
+        <v>1.5</v>
+      </c>
+      <c r="AI298">
+        <v>2.45</v>
+      </c>
+      <c r="AJ298">
+        <v>2.31</v>
+      </c>
+      <c r="AK298">
+        <v>1.48</v>
+      </c>
+      <c r="AL298">
+        <v>1.95</v>
+      </c>
+      <c r="AM298">
+        <v>1.74</v>
+      </c>
+      <c r="AN298">
+        <v>1.39</v>
+      </c>
+      <c r="AO298">
+        <v>1.42</v>
+      </c>
+      <c r="AP298">
+        <v>1.37</v>
+      </c>
+      <c r="AQ298">
+        <v>1.25</v>
+      </c>
+      <c r="AR298">
+        <v>1</v>
+      </c>
+      <c r="AS298">
+        <v>1.2</v>
+      </c>
+      <c r="AT298">
+        <v>1</v>
+      </c>
+      <c r="AU298">
+        <v>1.44</v>
+      </c>
+      <c r="AV298">
+        <v>1.41</v>
+      </c>
+      <c r="AW298">
+        <v>2.85</v>
+      </c>
+      <c r="AX298">
+        <v>0</v>
+      </c>
+      <c r="AY298">
+        <v>0</v>
+      </c>
+      <c r="AZ298">
+        <v>0</v>
+      </c>
+      <c r="BA298">
+        <v>0</v>
+      </c>
+      <c r="BB298">
+        <v>0</v>
+      </c>
+      <c r="BC298">
+        <v>0</v>
+      </c>
+      <c r="BD298">
+        <v>0</v>
+      </c>
+      <c r="BE298">
+        <v>0</v>
+      </c>
+      <c r="BF298">
+        <v>5</v>
+      </c>
+      <c r="BG298">
+        <v>5</v>
+      </c>
+      <c r="BH298">
+        <v>6</v>
+      </c>
+      <c r="BI298">
+        <v>7</v>
+      </c>
+      <c r="BJ298">
+        <v>11</v>
+      </c>
+      <c r="BK298">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="1:63">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>5557136</v>
+      </c>
+      <c r="C299" t="s">
+        <v>63</v>
+      </c>
+      <c r="D299" t="s">
+        <v>64</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45101.70833333334</v>
+      </c>
+      <c r="F299">
+        <v>10</v>
+      </c>
+      <c r="G299" t="s">
+        <v>110</v>
+      </c>
+      <c r="H299" t="s">
+        <v>68</v>
+      </c>
+      <c r="I299">
+        <v>2</v>
+      </c>
+      <c r="J299">
+        <v>3</v>
+      </c>
+      <c r="K299">
+        <v>5</v>
+      </c>
+      <c r="L299">
+        <v>3</v>
+      </c>
+      <c r="M299">
+        <v>3</v>
+      </c>
+      <c r="N299">
+        <v>6</v>
+      </c>
+      <c r="O299" t="s">
+        <v>314</v>
+      </c>
+      <c r="P299" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q299">
+        <v>5</v>
+      </c>
+      <c r="R299">
+        <v>5</v>
+      </c>
+      <c r="S299">
+        <v>10</v>
+      </c>
+      <c r="T299">
+        <v>3.25</v>
+      </c>
+      <c r="U299">
+        <v>1.91</v>
+      </c>
+      <c r="V299">
+        <v>3.6</v>
+      </c>
+      <c r="W299">
+        <v>1.56</v>
+      </c>
+      <c r="X299">
+        <v>2.2</v>
+      </c>
+      <c r="Y299">
+        <v>3.5</v>
+      </c>
+      <c r="Z299">
+        <v>1.26</v>
+      </c>
+      <c r="AA299">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB299">
+        <v>1.02</v>
+      </c>
+      <c r="AC299">
+        <v>2.53</v>
+      </c>
+      <c r="AD299">
+        <v>2.78</v>
+      </c>
+      <c r="AE299">
+        <v>2.82</v>
+      </c>
+      <c r="AF299">
+        <v>1.09</v>
+      </c>
+      <c r="AG299">
+        <v>6.2</v>
+      </c>
+      <c r="AH299">
+        <v>1.5</v>
+      </c>
+      <c r="AI299">
+        <v>2.45</v>
+      </c>
+      <c r="AJ299">
+        <v>2.56</v>
+      </c>
+      <c r="AK299">
+        <v>1.39</v>
+      </c>
+      <c r="AL299">
+        <v>2.12</v>
+      </c>
+      <c r="AM299">
+        <v>1.69</v>
+      </c>
+      <c r="AN299">
+        <v>1.37</v>
+      </c>
+      <c r="AO299">
+        <v>1.38</v>
+      </c>
+      <c r="AP299">
+        <v>1.45</v>
+      </c>
+      <c r="AQ299">
+        <v>2.25</v>
+      </c>
+      <c r="AR299">
+        <v>1.25</v>
+      </c>
+      <c r="AS299">
+        <v>2</v>
+      </c>
+      <c r="AT299">
+        <v>1.2</v>
+      </c>
+      <c r="AU299">
+        <v>1.54</v>
+      </c>
+      <c r="AV299">
+        <v>1.42</v>
+      </c>
+      <c r="AW299">
+        <v>2.96</v>
+      </c>
+      <c r="AX299">
+        <v>0</v>
+      </c>
+      <c r="AY299">
+        <v>0</v>
+      </c>
+      <c r="AZ299">
+        <v>0</v>
+      </c>
+      <c r="BA299">
+        <v>0</v>
+      </c>
+      <c r="BB299">
+        <v>0</v>
+      </c>
+      <c r="BC299">
+        <v>2.38</v>
+      </c>
+      <c r="BD299">
+        <v>0</v>
+      </c>
+      <c r="BE299">
+        <v>0</v>
+      </c>
+      <c r="BF299">
+        <v>10</v>
+      </c>
+      <c r="BG299">
+        <v>11</v>
+      </c>
+      <c r="BH299">
+        <v>12</v>
+      </c>
+      <c r="BI299">
+        <v>6</v>
+      </c>
+      <c r="BJ299">
+        <v>22</v>
+      </c>
+      <c r="BK299">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:63">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>5557077</v>
+      </c>
+      <c r="C300" t="s">
+        <v>63</v>
+      </c>
+      <c r="D300" t="s">
+        <v>64</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45101.71875</v>
+      </c>
+      <c r="F300">
+        <v>10</v>
+      </c>
+      <c r="G300" t="s">
+        <v>76</v>
+      </c>
+      <c r="H300" t="s">
+        <v>103</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="N300">
+        <v>1</v>
+      </c>
+      <c r="O300" t="s">
+        <v>135</v>
+      </c>
+      <c r="P300" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q300">
+        <v>5</v>
+      </c>
+      <c r="R300">
+        <v>3</v>
+      </c>
+      <c r="S300">
+        <v>8</v>
+      </c>
+      <c r="T300">
+        <v>2.5</v>
+      </c>
+      <c r="U300">
+        <v>2.05</v>
+      </c>
+      <c r="V300">
+        <v>4.33</v>
+      </c>
+      <c r="W300">
+        <v>1.43</v>
+      </c>
+      <c r="X300">
+        <v>2.53</v>
+      </c>
+      <c r="Y300">
+        <v>2.99</v>
+      </c>
+      <c r="Z300">
+        <v>1.32</v>
+      </c>
+      <c r="AA300">
+        <v>6.5</v>
+      </c>
+      <c r="AB300">
+        <v>1.08</v>
+      </c>
+      <c r="AC300">
+        <v>2.13</v>
+      </c>
+      <c r="AD300">
+        <v>3.25</v>
+      </c>
+      <c r="AE300">
+        <v>2.98</v>
+      </c>
+      <c r="AF300">
+        <v>1.05</v>
+      </c>
+      <c r="AG300">
+        <v>8</v>
+      </c>
+      <c r="AH300">
+        <v>1.34</v>
+      </c>
+      <c r="AI300">
+        <v>2.95</v>
+      </c>
+      <c r="AJ300">
+        <v>1.81</v>
+      </c>
+      <c r="AK300">
+        <v>1.8</v>
+      </c>
+      <c r="AL300">
+        <v>1.85</v>
+      </c>
+      <c r="AM300">
+        <v>1.91</v>
+      </c>
+      <c r="AN300">
+        <v>1.32</v>
+      </c>
+      <c r="AO300">
+        <v>1.29</v>
+      </c>
+      <c r="AP300">
+        <v>1.64</v>
+      </c>
+      <c r="AQ300">
+        <v>1.2</v>
+      </c>
+      <c r="AR300">
+        <v>1</v>
+      </c>
+      <c r="AS300">
+        <v>1</v>
+      </c>
+      <c r="AT300">
+        <v>1.33</v>
+      </c>
+      <c r="AU300">
+        <v>1.83</v>
+      </c>
+      <c r="AV300">
+        <v>1.36</v>
+      </c>
+      <c r="AW300">
+        <v>3.19</v>
+      </c>
+      <c r="AX300">
+        <v>0</v>
+      </c>
+      <c r="AY300">
+        <v>0</v>
+      </c>
+      <c r="AZ300">
+        <v>0</v>
+      </c>
+      <c r="BA300">
+        <v>0</v>
+      </c>
+      <c r="BB300">
+        <v>0</v>
+      </c>
+      <c r="BC300">
+        <v>2.1</v>
+      </c>
+      <c r="BD300">
+        <v>0</v>
+      </c>
+      <c r="BE300">
+        <v>0</v>
+      </c>
+      <c r="BF300">
+        <v>4</v>
+      </c>
+      <c r="BG300">
+        <v>5</v>
+      </c>
+      <c r="BH300">
+        <v>16</v>
+      </c>
+      <c r="BI300">
+        <v>5</v>
+      </c>
+      <c r="BJ300">
+        <v>20</v>
+      </c>
+      <c r="BK300">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:63">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>5556741</v>
+      </c>
+      <c r="C301" t="s">
+        <v>63</v>
+      </c>
+      <c r="D301" t="s">
+        <v>64</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45101.75</v>
+      </c>
+      <c r="F301">
+        <v>10</v>
+      </c>
+      <c r="G301" t="s">
+        <v>89</v>
+      </c>
+      <c r="H301" t="s">
+        <v>116</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>2</v>
+      </c>
+      <c r="K301">
+        <v>3</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301">
+        <v>3</v>
+      </c>
+      <c r="N301">
+        <v>4</v>
+      </c>
+      <c r="O301" t="s">
+        <v>315</v>
+      </c>
+      <c r="P301" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q301">
+        <v>9</v>
+      </c>
+      <c r="R301">
+        <v>1</v>
+      </c>
+      <c r="S301">
+        <v>10</v>
+      </c>
+      <c r="T301">
+        <v>2.88</v>
+      </c>
+      <c r="U301">
+        <v>2</v>
+      </c>
+      <c r="V301">
+        <v>3.75</v>
+      </c>
+      <c r="W301">
+        <v>1.47</v>
+      </c>
+      <c r="X301">
+        <v>2.49</v>
+      </c>
+      <c r="Y301">
+        <v>3.1</v>
+      </c>
+      <c r="Z301">
+        <v>1.31</v>
+      </c>
+      <c r="AA301">
+        <v>8.5</v>
+      </c>
+      <c r="AB301">
+        <v>1.04</v>
+      </c>
+      <c r="AC301">
+        <v>2.09</v>
+      </c>
+      <c r="AD301">
+        <v>2.98</v>
+      </c>
+      <c r="AE301">
+        <v>3.4</v>
+      </c>
+      <c r="AF301">
+        <v>1.05</v>
+      </c>
+      <c r="AG301">
+        <v>7.5</v>
+      </c>
+      <c r="AH301">
+        <v>1.39</v>
+      </c>
+      <c r="AI301">
+        <v>2.7</v>
+      </c>
+      <c r="AJ301">
+        <v>2.16</v>
+      </c>
+      <c r="AK301">
+        <v>1.54</v>
+      </c>
+      <c r="AL301">
+        <v>1.93</v>
+      </c>
+      <c r="AM301">
+        <v>1.83</v>
+      </c>
+      <c r="AN301">
+        <v>1.32</v>
+      </c>
+      <c r="AO301">
+        <v>1.32</v>
+      </c>
+      <c r="AP301">
+        <v>1.61</v>
+      </c>
+      <c r="AQ301">
+        <v>2.2</v>
+      </c>
+      <c r="AR301">
+        <v>1.2</v>
+      </c>
+      <c r="AS301">
+        <v>1.83</v>
+      </c>
+      <c r="AT301">
+        <v>1.5</v>
+      </c>
+      <c r="AU301">
+        <v>1.26</v>
+      </c>
+      <c r="AV301">
+        <v>1.47</v>
+      </c>
+      <c r="AW301">
+        <v>2.73</v>
+      </c>
+      <c r="AX301">
+        <v>0</v>
+      </c>
+      <c r="AY301">
+        <v>0</v>
+      </c>
+      <c r="AZ301">
+        <v>0</v>
+      </c>
+      <c r="BA301">
+        <v>0</v>
+      </c>
+      <c r="BB301">
+        <v>0</v>
+      </c>
+      <c r="BC301">
+        <v>0</v>
+      </c>
+      <c r="BD301">
+        <v>0</v>
+      </c>
+      <c r="BE301">
+        <v>0</v>
+      </c>
+      <c r="BF301">
+        <v>6</v>
+      </c>
+      <c r="BG301">
+        <v>5</v>
+      </c>
+      <c r="BH301">
+        <v>7</v>
+      </c>
+      <c r="BI301">
+        <v>0</v>
+      </c>
+      <c r="BJ301">
+        <v>13</v>
+      </c>
+      <c r="BK301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:63">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>5556742</v>
+      </c>
+      <c r="C302" t="s">
+        <v>63</v>
+      </c>
+      <c r="D302" t="s">
+        <v>64</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45101.75</v>
+      </c>
+      <c r="F302">
+        <v>10</v>
+      </c>
+      <c r="G302" t="s">
+        <v>113</v>
+      </c>
+      <c r="H302" t="s">
+        <v>94</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>1</v>
+      </c>
+      <c r="N302">
+        <v>1</v>
+      </c>
+      <c r="O302" t="s">
+        <v>135</v>
+      </c>
+      <c r="P302" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q302">
+        <v>-1</v>
+      </c>
+      <c r="R302">
+        <v>-1</v>
+      </c>
+      <c r="S302">
+        <v>-1</v>
+      </c>
+      <c r="T302">
+        <v>1.73</v>
+      </c>
+      <c r="U302">
+        <v>2.6</v>
+      </c>
+      <c r="V302">
+        <v>7.5</v>
+      </c>
+      <c r="W302">
+        <v>1.14</v>
+      </c>
+      <c r="X302">
+        <v>5</v>
+      </c>
+      <c r="Y302">
+        <v>1.83</v>
+      </c>
+      <c r="Z302">
+        <v>1.8</v>
+      </c>
+      <c r="AA302">
+        <v>3.75</v>
+      </c>
+      <c r="AB302">
+        <v>1.22</v>
+      </c>
+      <c r="AC302">
+        <v>1.09</v>
+      </c>
+      <c r="AD302">
+        <v>9</v>
+      </c>
+      <c r="AE302">
+        <v>23</v>
+      </c>
+      <c r="AF302">
+        <v>1.01</v>
+      </c>
+      <c r="AG302">
+        <v>23</v>
+      </c>
+      <c r="AH302">
+        <v>1.05</v>
+      </c>
+      <c r="AI302">
+        <v>6.5</v>
+      </c>
+      <c r="AJ302">
+        <v>1.58</v>
+      </c>
+      <c r="AK302">
+        <v>2.1</v>
+      </c>
+      <c r="AL302">
+        <v>1.23</v>
+      </c>
+      <c r="AM302">
+        <v>3.97</v>
+      </c>
+      <c r="AN302">
+        <v>1.02</v>
+      </c>
+      <c r="AO302">
+        <v>1.1</v>
+      </c>
+      <c r="AP302">
+        <v>4.6</v>
+      </c>
+      <c r="AQ302">
+        <v>2</v>
+      </c>
+      <c r="AR302">
+        <v>0</v>
+      </c>
+      <c r="AS302">
+        <v>1.6</v>
+      </c>
+      <c r="AT302">
+        <v>0.6</v>
+      </c>
+      <c r="AU302">
+        <v>1.74</v>
+      </c>
+      <c r="AV302">
+        <v>0.79</v>
+      </c>
+      <c r="AW302">
+        <v>2.53</v>
+      </c>
+      <c r="AX302">
+        <v>0</v>
+      </c>
+      <c r="AY302">
+        <v>0</v>
+      </c>
+      <c r="AZ302">
+        <v>0</v>
+      </c>
+      <c r="BA302">
+        <v>0</v>
+      </c>
+      <c r="BB302">
+        <v>0</v>
+      </c>
+      <c r="BC302">
+        <v>0</v>
+      </c>
+      <c r="BD302">
+        <v>0</v>
+      </c>
+      <c r="BE302">
+        <v>0</v>
+      </c>
+      <c r="BF302">
+        <v>-1</v>
+      </c>
+      <c r="BG302">
+        <v>-1</v>
+      </c>
+      <c r="BH302">
+        <v>-1</v>
+      </c>
+      <c r="BI302">
+        <v>-1</v>
+      </c>
+      <c r="BJ302">
+        <v>-1</v>
+      </c>
+      <c r="BK302">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:63">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>5557078</v>
+      </c>
+      <c r="C303" t="s">
+        <v>63</v>
+      </c>
+      <c r="D303" t="s">
+        <v>64</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45101.75</v>
+      </c>
+      <c r="F303">
+        <v>10</v>
+      </c>
+      <c r="G303" t="s">
+        <v>114</v>
+      </c>
+      <c r="H303" t="s">
+        <v>74</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303" t="s">
+        <v>135</v>
+      </c>
+      <c r="P303" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q303">
+        <v>3</v>
+      </c>
+      <c r="R303">
+        <v>2</v>
+      </c>
+      <c r="S303">
+        <v>5</v>
+      </c>
+      <c r="T303">
+        <v>3.2</v>
+      </c>
+      <c r="U303">
+        <v>2</v>
+      </c>
+      <c r="V303">
+        <v>3.4</v>
+      </c>
+      <c r="W303">
+        <v>1.45</v>
+      </c>
+      <c r="X303">
+        <v>2.55</v>
+      </c>
+      <c r="Y303">
+        <v>3.1</v>
+      </c>
+      <c r="Z303">
+        <v>1.32</v>
+      </c>
+      <c r="AA303">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB303">
+        <v>1.04</v>
+      </c>
+      <c r="AC303">
+        <v>2.53</v>
+      </c>
+      <c r="AD303">
+        <v>2.98</v>
+      </c>
+      <c r="AE303">
+        <v>2.63</v>
+      </c>
+      <c r="AF303">
+        <v>1.05</v>
+      </c>
+      <c r="AG303">
+        <v>8</v>
+      </c>
+      <c r="AH303">
+        <v>1.4</v>
+      </c>
+      <c r="AI303">
+        <v>2.75</v>
+      </c>
+      <c r="AJ303">
+        <v>2.16</v>
+      </c>
+      <c r="AK303">
+        <v>1.55</v>
+      </c>
+      <c r="AL303">
+        <v>1.88</v>
+      </c>
+      <c r="AM303">
+        <v>1.88</v>
+      </c>
+      <c r="AN303">
+        <v>1.4</v>
+      </c>
+      <c r="AO303">
+        <v>1.3</v>
+      </c>
+      <c r="AP303">
+        <v>1.44</v>
+      </c>
+      <c r="AQ303">
+        <v>1.25</v>
+      </c>
+      <c r="AR303">
+        <v>1.25</v>
+      </c>
+      <c r="AS303">
+        <v>1</v>
+      </c>
+      <c r="AT303">
+        <v>1.6</v>
+      </c>
+      <c r="AU303">
+        <v>1.64</v>
+      </c>
+      <c r="AV303">
+        <v>1.26</v>
+      </c>
+      <c r="AW303">
+        <v>2.9</v>
+      </c>
+      <c r="AX303">
+        <v>0</v>
+      </c>
+      <c r="AY303">
+        <v>0</v>
+      </c>
+      <c r="AZ303">
+        <v>0</v>
+      </c>
+      <c r="BA303">
+        <v>0</v>
+      </c>
+      <c r="BB303">
+        <v>0</v>
+      </c>
+      <c r="BC303">
+        <v>1.91</v>
+      </c>
+      <c r="BD303">
+        <v>2</v>
+      </c>
+      <c r="BE303">
+        <v>0</v>
+      </c>
+      <c r="BF303">
+        <v>2</v>
+      </c>
+      <c r="BG303">
+        <v>5</v>
+      </c>
+      <c r="BH303">
+        <v>9</v>
+      </c>
+      <c r="BI303">
+        <v>7</v>
+      </c>
+      <c r="BJ303">
+        <v>11</v>
+      </c>
+      <c r="BK303">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:63">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>5557079</v>
+      </c>
+      <c r="C304" t="s">
+        <v>63</v>
+      </c>
+      <c r="D304" t="s">
+        <v>64</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45101.79166666666</v>
+      </c>
+      <c r="F304">
+        <v>10</v>
+      </c>
+      <c r="G304" t="s">
+        <v>115</v>
+      </c>
+      <c r="H304" t="s">
+        <v>78</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>1</v>
+      </c>
+      <c r="O304" t="s">
+        <v>156</v>
+      </c>
+      <c r="P304" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q304">
+        <v>7</v>
+      </c>
+      <c r="R304">
+        <v>2</v>
+      </c>
+      <c r="S304">
+        <v>9</v>
+      </c>
+      <c r="T304">
+        <v>2.38</v>
+      </c>
+      <c r="U304">
+        <v>1.91</v>
+      </c>
+      <c r="V304">
+        <v>6</v>
+      </c>
+      <c r="W304">
+        <v>1.53</v>
+      </c>
+      <c r="X304">
+        <v>2.34</v>
+      </c>
+      <c r="Y304">
+        <v>3.1</v>
+      </c>
+      <c r="Z304">
+        <v>1.31</v>
+      </c>
+      <c r="AA304">
+        <v>8.5</v>
+      </c>
+      <c r="AB304">
+        <v>1.04</v>
+      </c>
+      <c r="AC304">
+        <v>1.65</v>
+      </c>
+      <c r="AD304">
+        <v>3.1</v>
+      </c>
+      <c r="AE304">
+        <v>6</v>
+      </c>
+      <c r="AF304">
+        <v>1.06</v>
+      </c>
+      <c r="AG304">
+        <v>7.5</v>
+      </c>
+      <c r="AH304">
+        <v>1.57</v>
+      </c>
+      <c r="AI304">
+        <v>2.25</v>
+      </c>
+      <c r="AJ304">
+        <v>2.7</v>
+      </c>
+      <c r="AK304">
+        <v>1.44</v>
+      </c>
+      <c r="AL304">
+        <v>2.42</v>
+      </c>
+      <c r="AM304">
+        <v>1.53</v>
+      </c>
+      <c r="AN304">
+        <v>1.22</v>
+      </c>
+      <c r="AO304">
+        <v>1.34</v>
+      </c>
+      <c r="AP304">
+        <v>1.74</v>
+      </c>
+      <c r="AQ304">
+        <v>1.75</v>
+      </c>
+      <c r="AR304">
+        <v>1.5</v>
+      </c>
+      <c r="AS304">
+        <v>2</v>
+      </c>
+      <c r="AT304">
+        <v>1.2</v>
+      </c>
+      <c r="AU304">
+        <v>1.54</v>
+      </c>
+      <c r="AV304">
+        <v>1.27</v>
+      </c>
+      <c r="AW304">
+        <v>2.81</v>
+      </c>
+      <c r="AX304">
+        <v>0</v>
+      </c>
+      <c r="AY304">
+        <v>0</v>
+      </c>
+      <c r="AZ304">
+        <v>0</v>
+      </c>
+      <c r="BA304">
+        <v>0</v>
+      </c>
+      <c r="BB304">
+        <v>0</v>
+      </c>
+      <c r="BC304">
+        <v>2</v>
+      </c>
+      <c r="BD304">
+        <v>0</v>
+      </c>
+      <c r="BE304">
+        <v>0</v>
+      </c>
+      <c r="BF304">
+        <v>5</v>
+      </c>
+      <c r="BG304">
+        <v>3</v>
+      </c>
+      <c r="BH304">
+        <v>7</v>
+      </c>
+      <c r="BI304">
+        <v>3</v>
+      </c>
+      <c r="BJ304">
+        <v>12</v>
+      </c>
+      <c r="BK304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:63">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>5556968</v>
+      </c>
+      <c r="C305" t="s">
+        <v>63</v>
+      </c>
+      <c r="D305" t="s">
+        <v>64</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45101.79166666666</v>
+      </c>
+      <c r="F305">
+        <v>10</v>
+      </c>
+      <c r="G305" t="s">
+        <v>102</v>
+      </c>
+      <c r="H305" t="s">
+        <v>77</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="O305" t="s">
+        <v>135</v>
+      </c>
+      <c r="P305" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q305">
+        <v>5</v>
+      </c>
+      <c r="R305">
+        <v>3</v>
+      </c>
+      <c r="S305">
+        <v>8</v>
+      </c>
+      <c r="T305">
+        <v>3.1</v>
+      </c>
+      <c r="U305">
+        <v>1.95</v>
+      </c>
+      <c r="V305">
+        <v>3.75</v>
+      </c>
+      <c r="W305">
+        <v>1.53</v>
+      </c>
+      <c r="X305">
+        <v>2.18</v>
+      </c>
+      <c r="Y305">
+        <v>3.42</v>
+      </c>
+      <c r="Z305">
+        <v>1.27</v>
+      </c>
+      <c r="AA305">
+        <v>9.1</v>
+      </c>
+      <c r="AB305">
+        <v>1.03</v>
+      </c>
+      <c r="AC305">
+        <v>2.3</v>
+      </c>
+      <c r="AD305">
+        <v>2.88</v>
+      </c>
+      <c r="AE305">
+        <v>3</v>
+      </c>
+      <c r="AF305">
+        <v>1.09</v>
+      </c>
+      <c r="AG305">
+        <v>7.75</v>
+      </c>
+      <c r="AH305">
+        <v>1.42</v>
+      </c>
+      <c r="AI305">
+        <v>2.67</v>
+      </c>
+      <c r="AJ305">
+        <v>2.4</v>
+      </c>
+      <c r="AK305">
+        <v>1.53</v>
+      </c>
+      <c r="AL305">
+        <v>2.05</v>
+      </c>
+      <c r="AM305">
+        <v>1.68</v>
+      </c>
+      <c r="AN305">
+        <v>1.3</v>
+      </c>
+      <c r="AO305">
+        <v>1.33</v>
+      </c>
+      <c r="AP305">
+        <v>1.5</v>
+      </c>
+      <c r="AQ305">
+        <v>2.5</v>
+      </c>
+      <c r="AR305">
+        <v>1</v>
+      </c>
+      <c r="AS305">
+        <v>2.2</v>
+      </c>
+      <c r="AT305">
+        <v>1</v>
+      </c>
+      <c r="AU305">
+        <v>1.87</v>
+      </c>
+      <c r="AV305">
+        <v>1.22</v>
+      </c>
+      <c r="AW305">
+        <v>3.09</v>
+      </c>
+      <c r="AX305">
+        <v>0</v>
+      </c>
+      <c r="AY305">
+        <v>0</v>
+      </c>
+      <c r="AZ305">
+        <v>0</v>
+      </c>
+      <c r="BA305">
+        <v>0</v>
+      </c>
+      <c r="BB305">
+        <v>0</v>
+      </c>
+      <c r="BC305">
+        <v>0</v>
+      </c>
+      <c r="BD305">
+        <v>0</v>
+      </c>
+      <c r="BE305">
+        <v>0</v>
+      </c>
+      <c r="BF305">
+        <v>11</v>
+      </c>
+      <c r="BG305">
+        <v>4</v>
+      </c>
+      <c r="BH305">
+        <v>15</v>
+      </c>
+      <c r="BI305">
+        <v>7</v>
+      </c>
+      <c r="BJ305">
+        <v>26</v>
+      </c>
+      <c r="BK305">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:63">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>5557134</v>
+      </c>
+      <c r="C306" t="s">
+        <v>63</v>
+      </c>
+      <c r="D306" t="s">
+        <v>64</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45102.625</v>
+      </c>
+      <c r="F306">
+        <v>10</v>
+      </c>
+      <c r="G306" t="s">
+        <v>117</v>
+      </c>
+      <c r="H306" t="s">
+        <v>93</v>
+      </c>
+      <c r="I306">
+        <v>1</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>2</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>2</v>
+      </c>
+      <c r="O306" t="s">
+        <v>316</v>
+      </c>
+      <c r="P306" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q306">
+        <v>7</v>
+      </c>
+      <c r="R306">
+        <v>2</v>
+      </c>
+      <c r="S306">
+        <v>9</v>
+      </c>
+      <c r="T306">
+        <v>2.05</v>
+      </c>
+      <c r="U306">
+        <v>2.1</v>
+      </c>
+      <c r="V306">
+        <v>7</v>
+      </c>
+      <c r="W306">
+        <v>1.47</v>
+      </c>
+      <c r="X306">
+        <v>2.27</v>
+      </c>
+      <c r="Y306">
+        <v>3.13</v>
+      </c>
+      <c r="Z306">
+        <v>1.15</v>
+      </c>
+      <c r="AA306">
+        <v>8.5</v>
+      </c>
+      <c r="AB306">
+        <v>1.05</v>
+      </c>
+      <c r="AC306">
+        <v>1.44</v>
+      </c>
+      <c r="AD306">
+        <v>3.75</v>
+      </c>
+      <c r="AE306">
+        <v>7</v>
+      </c>
+      <c r="AF306">
+        <v>1.05</v>
+      </c>
+      <c r="AG306">
+        <v>8</v>
+      </c>
+      <c r="AH306">
+        <v>1.36</v>
+      </c>
+      <c r="AI306">
+        <v>2.88</v>
+      </c>
+      <c r="AJ306">
+        <v>2.15</v>
+      </c>
+      <c r="AK306">
+        <v>1.62</v>
+      </c>
+      <c r="AL306">
+        <v>2.48</v>
+      </c>
+      <c r="AM306">
+        <v>1.51</v>
+      </c>
+      <c r="AN306">
+        <v>1.06</v>
+      </c>
+      <c r="AO306">
+        <v>1.2</v>
+      </c>
+      <c r="AP306">
+        <v>2.62</v>
+      </c>
+      <c r="AQ306">
+        <v>2.25</v>
+      </c>
+      <c r="AR306">
+        <v>0.5</v>
+      </c>
+      <c r="AS306">
+        <v>2.4</v>
+      </c>
+      <c r="AT306">
+        <v>0.4</v>
+      </c>
+      <c r="AU306">
+        <v>2.15</v>
+      </c>
+      <c r="AV306">
+        <v>1.23</v>
+      </c>
+      <c r="AW306">
+        <v>3.38</v>
+      </c>
+      <c r="AX306">
+        <v>0</v>
+      </c>
+      <c r="AY306">
+        <v>0</v>
+      </c>
+      <c r="AZ306">
+        <v>0</v>
+      </c>
+      <c r="BA306">
+        <v>0</v>
+      </c>
+      <c r="BB306">
+        <v>0</v>
+      </c>
+      <c r="BC306">
+        <v>2.25</v>
+      </c>
+      <c r="BD306">
+        <v>0</v>
+      </c>
+      <c r="BE306">
+        <v>0</v>
+      </c>
+      <c r="BF306">
+        <v>6</v>
+      </c>
+      <c r="BG306">
+        <v>3</v>
+      </c>
+      <c r="BH306">
+        <v>14</v>
+      </c>
+      <c r="BI306">
+        <v>3</v>
+      </c>
+      <c r="BJ306">
+        <v>20</v>
+      </c>
+      <c r="BK306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:63">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>5556967</v>
+      </c>
+      <c r="C307" t="s">
+        <v>63</v>
+      </c>
+      <c r="D307" t="s">
+        <v>64</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45102.64583333334</v>
+      </c>
+      <c r="F307">
+        <v>10</v>
+      </c>
+      <c r="G307" t="s">
+        <v>118</v>
+      </c>
+      <c r="H307" t="s">
+        <v>72</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307">
+        <v>2</v>
+      </c>
+      <c r="N307">
+        <v>2</v>
+      </c>
+      <c r="O307" t="s">
+        <v>135</v>
+      </c>
+      <c r="P307" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q307">
+        <v>5</v>
+      </c>
+      <c r="R307">
+        <v>2</v>
+      </c>
+      <c r="S307">
+        <v>7</v>
+      </c>
+      <c r="T307">
+        <v>2.75</v>
+      </c>
+      <c r="U307">
+        <v>2</v>
+      </c>
+      <c r="V307">
+        <v>4</v>
+      </c>
+      <c r="W307">
+        <v>1.5</v>
+      </c>
+      <c r="X307">
+        <v>2.23</v>
+      </c>
+      <c r="Y307">
+        <v>3.1</v>
+      </c>
+      <c r="Z307">
+        <v>1.33</v>
+      </c>
+      <c r="AA307">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB307">
+        <v>1.04</v>
+      </c>
+      <c r="AC307">
+        <v>2.15</v>
+      </c>
+      <c r="AD307">
+        <v>3</v>
+      </c>
+      <c r="AE307">
+        <v>3.2</v>
+      </c>
+      <c r="AF307">
+        <v>1.05</v>
+      </c>
+      <c r="AG307">
+        <v>8</v>
+      </c>
+      <c r="AH307">
+        <v>1.39</v>
+      </c>
+      <c r="AI307">
+        <v>2.8</v>
+      </c>
+      <c r="AJ307">
+        <v>2.15</v>
+      </c>
+      <c r="AK307">
+        <v>1.55</v>
+      </c>
+      <c r="AL307">
+        <v>1.93</v>
+      </c>
+      <c r="AM307">
+        <v>1.83</v>
+      </c>
+      <c r="AN307">
+        <v>1.29</v>
+      </c>
+      <c r="AO307">
+        <v>1.34</v>
+      </c>
+      <c r="AP307">
+        <v>1.62</v>
+      </c>
+      <c r="AQ307">
+        <v>2.5</v>
+      </c>
+      <c r="AR307">
+        <v>1.75</v>
+      </c>
+      <c r="AS307">
+        <v>2</v>
+      </c>
+      <c r="AT307">
+        <v>2</v>
+      </c>
+      <c r="AU307">
+        <v>2.1</v>
+      </c>
+      <c r="AV307">
+        <v>1.34</v>
+      </c>
+      <c r="AW307">
+        <v>3.44</v>
+      </c>
+      <c r="AX307">
+        <v>0</v>
+      </c>
+      <c r="AY307">
+        <v>0</v>
+      </c>
+      <c r="AZ307">
+        <v>0</v>
+      </c>
+      <c r="BA307">
+        <v>0</v>
+      </c>
+      <c r="BB307">
+        <v>0</v>
+      </c>
+      <c r="BC307">
+        <v>0</v>
+      </c>
+      <c r="BD307">
+        <v>0</v>
+      </c>
+      <c r="BE307">
+        <v>0</v>
+      </c>
+      <c r="BF307">
+        <v>8</v>
+      </c>
+      <c r="BG307">
+        <v>4</v>
+      </c>
+      <c r="BH307">
+        <v>16</v>
+      </c>
+      <c r="BI307">
+        <v>6</v>
+      </c>
+      <c r="BJ307">
+        <v>24</v>
+      </c>
+      <c r="BK307">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:63">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>5557133</v>
+      </c>
+      <c r="C308" t="s">
+        <v>63</v>
+      </c>
+      <c r="D308" t="s">
+        <v>64</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45102.66666666666</v>
+      </c>
+      <c r="F308">
+        <v>10</v>
+      </c>
+      <c r="G308" t="s">
+        <v>87</v>
+      </c>
+      <c r="H308" t="s">
+        <v>122</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>1</v>
+      </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="N308">
+        <v>2</v>
+      </c>
+      <c r="O308" t="s">
+        <v>275</v>
+      </c>
+      <c r="P308" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q308">
+        <v>10</v>
+      </c>
+      <c r="R308">
+        <v>6</v>
+      </c>
+      <c r="S308">
+        <v>16</v>
+      </c>
+      <c r="T308">
+        <v>3.5</v>
+      </c>
+      <c r="U308">
+        <v>1.83</v>
+      </c>
+      <c r="V308">
+        <v>3.5</v>
+      </c>
+      <c r="W308">
+        <v>1.58</v>
+      </c>
+      <c r="X308">
+        <v>2.17</v>
+      </c>
+      <c r="Y308">
+        <v>3.5</v>
+      </c>
+      <c r="Z308">
+        <v>1.26</v>
+      </c>
+      <c r="AA308">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB308">
+        <v>1.02</v>
+      </c>
+      <c r="AC308">
+        <v>2.63</v>
+      </c>
+      <c r="AD308">
+        <v>2.75</v>
+      </c>
+      <c r="AE308">
+        <v>2.75</v>
+      </c>
+      <c r="AF308">
+        <v>1.11</v>
+      </c>
+      <c r="AG308">
+        <v>6.25</v>
+      </c>
+      <c r="AH308">
+        <v>1.53</v>
+      </c>
+      <c r="AI308">
+        <v>2.38</v>
+      </c>
+      <c r="AJ308">
+        <v>2.58</v>
+      </c>
+      <c r="AK308">
+        <v>1.39</v>
+      </c>
+      <c r="AL308">
+        <v>2</v>
+      </c>
+      <c r="AM308">
+        <v>1.71</v>
+      </c>
+      <c r="AN308">
+        <v>1.38</v>
+      </c>
+      <c r="AO308">
+        <v>1.4</v>
+      </c>
+      <c r="AP308">
+        <v>1.4</v>
+      </c>
+      <c r="AQ308">
+        <v>1.4</v>
+      </c>
+      <c r="AR308">
+        <v>0.8</v>
+      </c>
+      <c r="AS308">
+        <v>1.33</v>
+      </c>
+      <c r="AT308">
+        <v>0.83</v>
+      </c>
+      <c r="AU308">
+        <v>1.38</v>
+      </c>
+      <c r="AV308">
+        <v>1.5</v>
+      </c>
+      <c r="AW308">
+        <v>2.88</v>
+      </c>
+      <c r="AX308">
+        <v>0</v>
+      </c>
+      <c r="AY308">
+        <v>0</v>
+      </c>
+      <c r="AZ308">
+        <v>0</v>
+      </c>
+      <c r="BA308">
+        <v>0</v>
+      </c>
+      <c r="BB308">
+        <v>0</v>
+      </c>
+      <c r="BC308">
+        <v>2.2</v>
+      </c>
+      <c r="BD308">
+        <v>0</v>
+      </c>
+      <c r="BE308">
+        <v>0</v>
+      </c>
+      <c r="BF308">
+        <v>6</v>
+      </c>
+      <c r="BG308">
+        <v>5</v>
+      </c>
+      <c r="BH308">
+        <v>13</v>
+      </c>
+      <c r="BI308">
+        <v>7</v>
+      </c>
+      <c r="BJ308">
+        <v>19</v>
+      </c>
+      <c r="BK308">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="1:63">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>5556966</v>
+      </c>
+      <c r="C309" t="s">
+        <v>63</v>
+      </c>
+      <c r="D309" t="s">
+        <v>64</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45102.66666666666</v>
+      </c>
+      <c r="F309">
+        <v>10</v>
+      </c>
+      <c r="G309" t="s">
+        <v>123</v>
+      </c>
+      <c r="H309" t="s">
+        <v>71</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+      <c r="O309" t="s">
+        <v>135</v>
+      </c>
+      <c r="P309" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q309">
+        <v>-1</v>
+      </c>
+      <c r="R309">
+        <v>-1</v>
+      </c>
+      <c r="S309">
+        <v>-1</v>
+      </c>
+      <c r="T309">
+        <v>1.57</v>
+      </c>
+      <c r="U309">
+        <v>3</v>
+      </c>
+      <c r="V309">
+        <v>6.5</v>
+      </c>
+      <c r="W309">
+        <v>1.24</v>
+      </c>
+      <c r="X309">
+        <v>3.6</v>
+      </c>
+      <c r="Y309">
+        <v>1.92</v>
+      </c>
+      <c r="Z309">
+        <v>1.74</v>
+      </c>
+      <c r="AA309">
+        <v>4.7</v>
+      </c>
+      <c r="AB309">
+        <v>1.15</v>
+      </c>
+      <c r="AC309">
+        <v>1.33</v>
+      </c>
+      <c r="AD309">
+        <v>5</v>
+      </c>
+      <c r="AE309">
+        <v>7</v>
+      </c>
+      <c r="AF309">
+        <v>1.02</v>
+      </c>
+      <c r="AG309">
+        <v>17</v>
+      </c>
+      <c r="AH309">
+        <v>1.12</v>
+      </c>
+      <c r="AI309">
+        <v>5.75</v>
+      </c>
+      <c r="AJ309">
+        <v>1.53</v>
+      </c>
+      <c r="AK309">
+        <v>2.2</v>
+      </c>
+      <c r="AL309">
+        <v>1.57</v>
+      </c>
+      <c r="AM309">
+        <v>2.25</v>
+      </c>
+      <c r="AN309">
+        <v>1.12</v>
+      </c>
+      <c r="AO309">
+        <v>1.18</v>
+      </c>
+      <c r="AP309">
+        <v>2.55</v>
+      </c>
+      <c r="AQ309">
+        <v>0.75</v>
+      </c>
+      <c r="AR309">
+        <v>0</v>
+      </c>
+      <c r="AS309">
+        <v>0.8</v>
+      </c>
+      <c r="AT309">
+        <v>0.2</v>
+      </c>
+      <c r="AU309">
+        <v>0.92</v>
+      </c>
+      <c r="AV309">
+        <v>0.98</v>
+      </c>
+      <c r="AW309">
+        <v>1.9</v>
+      </c>
+      <c r="AX309">
+        <v>0</v>
+      </c>
+      <c r="AY309">
+        <v>0</v>
+      </c>
+      <c r="AZ309">
+        <v>0</v>
+      </c>
+      <c r="BA309">
+        <v>0</v>
+      </c>
+      <c r="BB309">
+        <v>0</v>
+      </c>
+      <c r="BC309">
+        <v>0</v>
+      </c>
+      <c r="BD309">
+        <v>0</v>
+      </c>
+      <c r="BE309">
+        <v>0</v>
+      </c>
+      <c r="BF309">
+        <v>-1</v>
+      </c>
+      <c r="BG309">
+        <v>-1</v>
+      </c>
+      <c r="BH309">
+        <v>-1</v>
+      </c>
+      <c r="BI309">
+        <v>-1</v>
+      </c>
+      <c r="BJ309">
+        <v>-1</v>
+      </c>
+      <c r="BK309">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:63">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>5556743</v>
+      </c>
+      <c r="C310" t="s">
+        <v>63</v>
+      </c>
+      <c r="D310" t="s">
+        <v>64</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45102.70833333334</v>
+      </c>
+      <c r="F310">
+        <v>10</v>
+      </c>
+      <c r="G310" t="s">
+        <v>127</v>
+      </c>
+      <c r="H310" t="s">
+        <v>69</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>2</v>
+      </c>
+      <c r="M310">
+        <v>1</v>
+      </c>
+      <c r="N310">
+        <v>3</v>
+      </c>
+      <c r="O310" t="s">
+        <v>317</v>
+      </c>
+      <c r="P310" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q310">
+        <v>5</v>
+      </c>
+      <c r="R310">
+        <v>3</v>
+      </c>
+      <c r="S310">
+        <v>8</v>
+      </c>
+      <c r="T310">
+        <v>2.05</v>
+      </c>
+      <c r="U310">
+        <v>2.2</v>
+      </c>
+      <c r="V310">
+        <v>6</v>
+      </c>
+      <c r="W310">
+        <v>1.37</v>
+      </c>
+      <c r="X310">
+        <v>2.44</v>
+      </c>
+      <c r="Y310">
+        <v>2.63</v>
+      </c>
+      <c r="Z310">
+        <v>1.29</v>
+      </c>
+      <c r="AA310">
+        <v>6.3</v>
+      </c>
+      <c r="AB310">
+        <v>1.09</v>
+      </c>
+      <c r="AC310">
+        <v>1.45</v>
+      </c>
+      <c r="AD310">
+        <v>3.9</v>
+      </c>
+      <c r="AE310">
+        <v>6</v>
+      </c>
+      <c r="AF310">
+        <v>1.03</v>
+      </c>
+      <c r="AG310">
+        <v>13</v>
+      </c>
+      <c r="AH310">
+        <v>1.22</v>
+      </c>
+      <c r="AI310">
+        <v>3.8</v>
+      </c>
+      <c r="AJ310">
+        <v>1.78</v>
+      </c>
+      <c r="AK310">
+        <v>1.95</v>
+      </c>
+      <c r="AL310">
+        <v>2.05</v>
+      </c>
+      <c r="AM310">
+        <v>1.68</v>
+      </c>
+      <c r="AN310">
+        <v>1.12</v>
+      </c>
+      <c r="AO310">
+        <v>1.21</v>
+      </c>
+      <c r="AP310">
+        <v>2.45</v>
+      </c>
+      <c r="AQ310">
+        <v>2</v>
+      </c>
+      <c r="AR310">
+        <v>0.25</v>
+      </c>
+      <c r="AS310">
+        <v>2.2</v>
+      </c>
+      <c r="AT310">
+        <v>0.2</v>
+      </c>
+      <c r="AU310">
+        <v>1.85</v>
+      </c>
+      <c r="AV310">
+        <v>1.58</v>
+      </c>
+      <c r="AW310">
+        <v>3.43</v>
+      </c>
+      <c r="AX310">
+        <v>0</v>
+      </c>
+      <c r="AY310">
+        <v>0</v>
+      </c>
+      <c r="AZ310">
+        <v>0</v>
+      </c>
+      <c r="BA310">
+        <v>0</v>
+      </c>
+      <c r="BB310">
+        <v>0</v>
+      </c>
+      <c r="BC310">
+        <v>2</v>
+      </c>
+      <c r="BD310">
+        <v>0</v>
+      </c>
+      <c r="BE310">
+        <v>0</v>
+      </c>
+      <c r="BF310">
+        <v>5</v>
+      </c>
+      <c r="BG310">
+        <v>3</v>
+      </c>
+      <c r="BH310">
+        <v>7</v>
+      </c>
+      <c r="BI310">
+        <v>5</v>
+      </c>
+      <c r="BJ310">
+        <v>12</v>
+      </c>
+      <c r="BK310">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="406">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -970,6 +970,12 @@
     <t>['86', '90+8']</t>
   </si>
   <si>
+    <t>['14', '27', '45+2', '84', '87']</t>
+  </si>
+  <si>
+    <t>['46', '81']</t>
+  </si>
+  <si>
     <t>['22', '38']</t>
   </si>
   <si>
@@ -1587,7 +1593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK310"/>
+  <dimension ref="A1:BK312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1831,7 +1837,7 @@
         <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2977,7 +2983,7 @@
         <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -3168,7 +3174,7 @@
         <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -3359,7 +3365,7 @@
         <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3741,7 +3747,7 @@
         <v>136</v>
       </c>
       <c r="P12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3932,7 +3938,7 @@
         <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4505,7 +4511,7 @@
         <v>140</v>
       </c>
       <c r="P16" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4696,7 +4702,7 @@
         <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4887,7 +4893,7 @@
         <v>142</v>
       </c>
       <c r="P18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5269,7 +5275,7 @@
         <v>144</v>
       </c>
       <c r="P20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5460,7 +5466,7 @@
         <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -6606,7 +6612,7 @@
         <v>150</v>
       </c>
       <c r="P27" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -7179,7 +7185,7 @@
         <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7752,7 +7758,7 @@
         <v>155</v>
       </c>
       <c r="P33" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -8516,7 +8522,7 @@
         <v>135</v>
       </c>
       <c r="P37" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -9471,7 +9477,7 @@
         <v>161</v>
       </c>
       <c r="P42" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -9561,7 +9567,7 @@
         <v>2</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9662,7 +9668,7 @@
         <v>135</v>
       </c>
       <c r="P43" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9853,7 +9859,7 @@
         <v>162</v>
       </c>
       <c r="P44" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q44">
         <v>-1</v>
@@ -10044,7 +10050,7 @@
         <v>163</v>
       </c>
       <c r="P45" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q45">
         <v>-1</v>
@@ -10808,7 +10814,7 @@
         <v>167</v>
       </c>
       <c r="P49" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11190,7 +11196,7 @@
         <v>169</v>
       </c>
       <c r="P51" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -12145,7 +12151,7 @@
         <v>173</v>
       </c>
       <c r="P56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q56">
         <v>-1</v>
@@ -12336,7 +12342,7 @@
         <v>174</v>
       </c>
       <c r="P57" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12426,7 +12432,7 @@
         <v>2.5</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12718,7 +12724,7 @@
         <v>175</v>
       </c>
       <c r="P59" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12909,7 +12915,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13378,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT62">
         <v>1.25</v>
@@ -13482,7 +13488,7 @@
         <v>177</v>
       </c>
       <c r="P63" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q63">
         <v>15</v>
@@ -13569,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT63">
         <v>1.25</v>
@@ -14437,7 +14443,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q68">
         <v>8</v>
@@ -15392,7 +15398,7 @@
         <v>184</v>
       </c>
       <c r="P73" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15482,7 +15488,7 @@
         <v>2.25</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU73">
         <v>1.86</v>
@@ -15774,7 +15780,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -15965,7 +15971,7 @@
         <v>186</v>
       </c>
       <c r="P76" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -16538,7 +16544,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16628,7 +16634,7 @@
         <v>0.75</v>
       </c>
       <c r="AT79">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU79">
         <v>0.9399999999999999</v>
@@ -17111,7 +17117,7 @@
         <v>190</v>
       </c>
       <c r="P82" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -18257,7 +18263,7 @@
         <v>194</v>
       </c>
       <c r="P88" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18639,7 +18645,7 @@
         <v>160</v>
       </c>
       <c r="P90" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19021,7 +19027,7 @@
         <v>195</v>
       </c>
       <c r="P92" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -20167,7 +20173,7 @@
         <v>199</v>
       </c>
       <c r="P98" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20740,7 +20746,7 @@
         <v>202</v>
       </c>
       <c r="P101" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20931,7 +20937,7 @@
         <v>203</v>
       </c>
       <c r="P102" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -21886,7 +21892,7 @@
         <v>206</v>
       </c>
       <c r="P107" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21973,7 +21979,7 @@
         <v>3</v>
       </c>
       <c r="AS107">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT107">
         <v>1.2</v>
@@ -22650,7 +22656,7 @@
         <v>210</v>
       </c>
       <c r="P111" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22841,7 +22847,7 @@
         <v>211</v>
       </c>
       <c r="P112" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -24751,7 +24757,7 @@
         <v>218</v>
       </c>
       <c r="P122" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -25133,7 +25139,7 @@
         <v>219</v>
       </c>
       <c r="P124" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25324,7 +25330,7 @@
         <v>220</v>
       </c>
       <c r="P125" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25602,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="AS126">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT126">
         <v>0.2</v>
@@ -26661,7 +26667,7 @@
         <v>226</v>
       </c>
       <c r="P132" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26852,7 +26858,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -27616,7 +27622,7 @@
         <v>135</v>
       </c>
       <c r="P137" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q137">
         <v>12</v>
@@ -28189,7 +28195,7 @@
         <v>229</v>
       </c>
       <c r="P140" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28762,7 +28768,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -31054,7 +31060,7 @@
         <v>236</v>
       </c>
       <c r="P155" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31245,7 +31251,7 @@
         <v>237</v>
       </c>
       <c r="P156" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31627,7 +31633,7 @@
         <v>239</v>
       </c>
       <c r="P158" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q158">
         <v>13</v>
@@ -31818,7 +31824,7 @@
         <v>153</v>
       </c>
       <c r="P159" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q159">
         <v>10</v>
@@ -32009,7 +32015,7 @@
         <v>135</v>
       </c>
       <c r="P160" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -32478,7 +32484,7 @@
         <v>1</v>
       </c>
       <c r="AS162">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT162">
         <v>0.6</v>
@@ -33537,7 +33543,7 @@
         <v>135</v>
       </c>
       <c r="P168" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33728,7 +33734,7 @@
         <v>243</v>
       </c>
       <c r="P169" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33919,7 +33925,7 @@
         <v>244</v>
       </c>
       <c r="P170" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34492,7 +34498,7 @@
         <v>135</v>
       </c>
       <c r="P173" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q173">
         <v>1</v>
@@ -34874,7 +34880,7 @@
         <v>135</v>
       </c>
       <c r="P175" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35065,7 +35071,7 @@
         <v>248</v>
       </c>
       <c r="P176" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35256,7 +35262,7 @@
         <v>135</v>
       </c>
       <c r="P177" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35447,7 +35453,7 @@
         <v>135</v>
       </c>
       <c r="P178" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q178">
         <v>19</v>
@@ -35534,7 +35540,7 @@
         <v>1.67</v>
       </c>
       <c r="AS178">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT178">
         <v>2.2</v>
@@ -35638,7 +35644,7 @@
         <v>249</v>
       </c>
       <c r="P179" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q179">
         <v>9</v>
@@ -36020,7 +36026,7 @@
         <v>251</v>
       </c>
       <c r="P181" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36593,7 +36599,7 @@
         <v>254</v>
       </c>
       <c r="P184" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36975,7 +36981,7 @@
         <v>255</v>
       </c>
       <c r="P186" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -38121,7 +38127,7 @@
         <v>258</v>
       </c>
       <c r="P192" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -38211,7 +38217,7 @@
         <v>1.4</v>
       </c>
       <c r="AT192">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU192">
         <v>1.54</v>
@@ -38402,7 +38408,7 @@
         <v>2.6</v>
       </c>
       <c r="AT193">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU193">
         <v>1.42</v>
@@ -38503,7 +38509,7 @@
         <v>259</v>
       </c>
       <c r="P194" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q194">
         <v>12</v>
@@ -39267,7 +39273,7 @@
         <v>263</v>
       </c>
       <c r="P198" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -41177,7 +41183,7 @@
         <v>271</v>
       </c>
       <c r="P208" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q208">
         <v>13</v>
@@ -41368,7 +41374,7 @@
         <v>135</v>
       </c>
       <c r="P209" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41559,7 +41565,7 @@
         <v>272</v>
       </c>
       <c r="P210" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -43087,7 +43093,7 @@
         <v>135</v>
       </c>
       <c r="P218" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43469,7 +43475,7 @@
         <v>277</v>
       </c>
       <c r="P220" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -44806,7 +44812,7 @@
         <v>280</v>
       </c>
       <c r="P227" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -45188,7 +45194,7 @@
         <v>135</v>
       </c>
       <c r="P229" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -45952,7 +45958,7 @@
         <v>135</v>
       </c>
       <c r="P233" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q233">
         <v>16</v>
@@ -46334,7 +46340,7 @@
         <v>135</v>
       </c>
       <c r="P235" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -47188,7 +47194,7 @@
         <v>2.2</v>
       </c>
       <c r="AT239">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU239">
         <v>1.38</v>
@@ -47480,7 +47486,7 @@
         <v>287</v>
       </c>
       <c r="P241" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -47862,7 +47868,7 @@
         <v>289</v>
       </c>
       <c r="P243" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -47949,7 +47955,7 @@
         <v>1</v>
       </c>
       <c r="AS243">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT243">
         <v>1.4</v>
@@ -48053,7 +48059,7 @@
         <v>135</v>
       </c>
       <c r="P244" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q244">
         <v>7</v>
@@ -48522,7 +48528,7 @@
         <v>0.25</v>
       </c>
       <c r="AS246">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT246">
         <v>0.4</v>
@@ -49008,7 +49014,7 @@
         <v>135</v>
       </c>
       <c r="P249" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q249">
         <v>1</v>
@@ -49199,7 +49205,7 @@
         <v>291</v>
       </c>
       <c r="P250" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q250">
         <v>9</v>
@@ -49581,7 +49587,7 @@
         <v>269</v>
       </c>
       <c r="P252" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q252">
         <v>7</v>
@@ -49862,7 +49868,7 @@
         <v>2.6</v>
       </c>
       <c r="AT253">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU253">
         <v>1.76</v>
@@ -49963,7 +49969,7 @@
         <v>135</v>
       </c>
       <c r="P254" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q254">
         <v>6</v>
@@ -50918,7 +50924,7 @@
         <v>296</v>
       </c>
       <c r="P259" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51109,7 +51115,7 @@
         <v>135</v>
       </c>
       <c r="P260" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q260">
         <v>3</v>
@@ -52446,7 +52452,7 @@
         <v>300</v>
       </c>
       <c r="P267" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -53210,7 +53216,7 @@
         <v>301</v>
       </c>
       <c r="P271" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -53783,7 +53789,7 @@
         <v>135</v>
       </c>
       <c r="P274" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54547,7 +54553,7 @@
         <v>213</v>
       </c>
       <c r="P278" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q278">
         <v>11</v>
@@ -55311,7 +55317,7 @@
         <v>135</v>
       </c>
       <c r="P282" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q282">
         <v>2</v>
@@ -57794,7 +57800,7 @@
         <v>301</v>
       </c>
       <c r="P295" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q295">
         <v>7</v>
@@ -58558,7 +58564,7 @@
         <v>314</v>
       </c>
       <c r="P299" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58749,7 +58755,7 @@
         <v>135</v>
       </c>
       <c r="P300" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q300">
         <v>5</v>
@@ -58940,7 +58946,7 @@
         <v>315</v>
       </c>
       <c r="P301" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q301">
         <v>9</v>
@@ -59322,7 +59328,7 @@
         <v>135</v>
       </c>
       <c r="P303" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -60086,7 +60092,7 @@
         <v>135</v>
       </c>
       <c r="P307" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60277,7 +60283,7 @@
         <v>275</v>
       </c>
       <c r="P308" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q308">
         <v>10</v>
@@ -60800,6 +60806,388 @@
         <v>12</v>
       </c>
       <c r="BK310">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:63">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>5556855</v>
+      </c>
+      <c r="C311" t="s">
+        <v>63</v>
+      </c>
+      <c r="D311" t="s">
+        <v>64</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45104.83333333334</v>
+      </c>
+      <c r="F311">
+        <v>10</v>
+      </c>
+      <c r="G311" t="s">
+        <v>125</v>
+      </c>
+      <c r="H311" t="s">
+        <v>80</v>
+      </c>
+      <c r="I311">
+        <v>3</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>3</v>
+      </c>
+      <c r="L311">
+        <v>5</v>
+      </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
+      <c r="N311">
+        <v>6</v>
+      </c>
+      <c r="O311" t="s">
+        <v>318</v>
+      </c>
+      <c r="P311" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q311">
+        <v>0</v>
+      </c>
+      <c r="R311">
+        <v>3</v>
+      </c>
+      <c r="S311">
+        <v>3</v>
+      </c>
+      <c r="T311">
+        <v>2.63</v>
+      </c>
+      <c r="U311">
+        <v>1.91</v>
+      </c>
+      <c r="V311">
+        <v>4.75</v>
+      </c>
+      <c r="W311">
+        <v>1.51</v>
+      </c>
+      <c r="X311">
+        <v>2.39</v>
+      </c>
+      <c r="Y311">
+        <v>3.42</v>
+      </c>
+      <c r="Z311">
+        <v>1.27</v>
+      </c>
+      <c r="AA311">
+        <v>9.5</v>
+      </c>
+      <c r="AB311">
+        <v>1.04</v>
+      </c>
+      <c r="AC311">
+        <v>1.85</v>
+      </c>
+      <c r="AD311">
+        <v>3.4</v>
+      </c>
+      <c r="AE311">
+        <v>3.5</v>
+      </c>
+      <c r="AF311">
+        <v>1.09</v>
+      </c>
+      <c r="AG311">
+        <v>7.35</v>
+      </c>
+      <c r="AH311">
+        <v>1.51</v>
+      </c>
+      <c r="AI311">
+        <v>2.4</v>
+      </c>
+      <c r="AJ311">
+        <v>2.5</v>
+      </c>
+      <c r="AK311">
+        <v>1.5</v>
+      </c>
+      <c r="AL311">
+        <v>2.09</v>
+      </c>
+      <c r="AM311">
+        <v>1.71</v>
+      </c>
+      <c r="AN311">
+        <v>1.22</v>
+      </c>
+      <c r="AO311">
+        <v>1.3</v>
+      </c>
+      <c r="AP311">
+        <v>1.74</v>
+      </c>
+      <c r="AQ311">
+        <v>2.5</v>
+      </c>
+      <c r="AR311">
+        <v>1</v>
+      </c>
+      <c r="AS311">
+        <v>2.6</v>
+      </c>
+      <c r="AT311">
+        <v>0.8</v>
+      </c>
+      <c r="AU311">
+        <v>1.43</v>
+      </c>
+      <c r="AV311">
+        <v>1.55</v>
+      </c>
+      <c r="AW311">
+        <v>2.98</v>
+      </c>
+      <c r="AX311">
+        <v>0</v>
+      </c>
+      <c r="AY311">
+        <v>0</v>
+      </c>
+      <c r="AZ311">
+        <v>0</v>
+      </c>
+      <c r="BA311">
+        <v>0</v>
+      </c>
+      <c r="BB311">
+        <v>0</v>
+      </c>
+      <c r="BC311">
+        <v>2.38</v>
+      </c>
+      <c r="BD311">
+        <v>0</v>
+      </c>
+      <c r="BE311">
+        <v>0</v>
+      </c>
+      <c r="BF311">
+        <v>10</v>
+      </c>
+      <c r="BG311">
+        <v>6</v>
+      </c>
+      <c r="BH311">
+        <v>7</v>
+      </c>
+      <c r="BI311">
+        <v>11</v>
+      </c>
+      <c r="BJ311">
+        <v>17</v>
+      </c>
+      <c r="BK311">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="312" spans="1:63">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>5556911</v>
+      </c>
+      <c r="C312" t="s">
+        <v>63</v>
+      </c>
+      <c r="D312" t="s">
+        <v>64</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45104.83333333334</v>
+      </c>
+      <c r="F312">
+        <v>10</v>
+      </c>
+      <c r="G312" t="s">
+        <v>126</v>
+      </c>
+      <c r="H312" t="s">
+        <v>85</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>2</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+      <c r="N312">
+        <v>3</v>
+      </c>
+      <c r="O312" t="s">
+        <v>319</v>
+      </c>
+      <c r="P312" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q312">
+        <v>6</v>
+      </c>
+      <c r="R312">
+        <v>0</v>
+      </c>
+      <c r="S312">
+        <v>6</v>
+      </c>
+      <c r="T312">
+        <v>2</v>
+      </c>
+      <c r="U312">
+        <v>2.2</v>
+      </c>
+      <c r="V312">
+        <v>6.5</v>
+      </c>
+      <c r="W312">
+        <v>1.38</v>
+      </c>
+      <c r="X312">
+        <v>2.74</v>
+      </c>
+      <c r="Y312">
+        <v>2.79</v>
+      </c>
+      <c r="Z312">
+        <v>1.36</v>
+      </c>
+      <c r="AA312">
+        <v>7.5</v>
+      </c>
+      <c r="AB312">
+        <v>1.06</v>
+      </c>
+      <c r="AC312">
+        <v>1.44</v>
+      </c>
+      <c r="AD312">
+        <v>3.6</v>
+      </c>
+      <c r="AE312">
+        <v>7</v>
+      </c>
+      <c r="AF312">
+        <v>1.05</v>
+      </c>
+      <c r="AG312">
+        <v>11.5</v>
+      </c>
+      <c r="AH312">
+        <v>1.29</v>
+      </c>
+      <c r="AI312">
+        <v>3.18</v>
+      </c>
+      <c r="AJ312">
+        <v>1.95</v>
+      </c>
+      <c r="AK312">
+        <v>1.85</v>
+      </c>
+      <c r="AL312">
+        <v>2.02</v>
+      </c>
+      <c r="AM312">
+        <v>1.75</v>
+      </c>
+      <c r="AN312">
+        <v>1.07</v>
+      </c>
+      <c r="AO312">
+        <v>1.19</v>
+      </c>
+      <c r="AP312">
+        <v>2.56</v>
+      </c>
+      <c r="AQ312">
+        <v>0.75</v>
+      </c>
+      <c r="AR312">
+        <v>1</v>
+      </c>
+      <c r="AS312">
+        <v>1.2</v>
+      </c>
+      <c r="AT312">
+        <v>0.8</v>
+      </c>
+      <c r="AU312">
+        <v>2.33</v>
+      </c>
+      <c r="AV312">
+        <v>1.17</v>
+      </c>
+      <c r="AW312">
+        <v>3.5</v>
+      </c>
+      <c r="AX312">
+        <v>0</v>
+      </c>
+      <c r="AY312">
+        <v>0</v>
+      </c>
+      <c r="AZ312">
+        <v>0</v>
+      </c>
+      <c r="BA312">
+        <v>0</v>
+      </c>
+      <c r="BB312">
+        <v>0</v>
+      </c>
+      <c r="BC312">
+        <v>2</v>
+      </c>
+      <c r="BD312">
+        <v>0</v>
+      </c>
+      <c r="BE312">
+        <v>0</v>
+      </c>
+      <c r="BF312">
+        <v>7</v>
+      </c>
+      <c r="BG312">
+        <v>4</v>
+      </c>
+      <c r="BH312">
+        <v>9</v>
+      </c>
+      <c r="BI312">
+        <v>4</v>
+      </c>
+      <c r="BJ312">
+        <v>16</v>
+      </c>
+      <c r="BK312">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="412">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -976,6 +976,21 @@
     <t>['46', '81']</t>
   </si>
   <si>
+    <t>['69', '82']</t>
+  </si>
+  <si>
+    <t>['23', '67']</t>
+  </si>
+  <si>
+    <t>['39', '73', '78']</t>
+  </si>
+  <si>
+    <t>['62', '65']</t>
+  </si>
+  <si>
+    <t>['30', '70']</t>
+  </si>
+  <si>
     <t>['22', '38']</t>
   </si>
   <si>
@@ -1232,6 +1247,9 @@
   </si>
   <si>
     <t>['45+1', '80']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK312"/>
+  <dimension ref="A1:BK321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1837,7 +1855,7 @@
         <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2983,7 +3001,7 @@
         <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -3174,7 +3192,7 @@
         <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -3365,7 +3383,7 @@
         <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3747,7 +3765,7 @@
         <v>136</v>
       </c>
       <c r="P12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3834,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT12">
         <v>1.6</v>
@@ -3938,7 +3956,7 @@
         <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4511,7 +4529,7 @@
         <v>140</v>
       </c>
       <c r="P16" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4702,7 +4720,7 @@
         <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4792,7 +4810,7 @@
         <v>2.2</v>
       </c>
       <c r="AT17">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4893,7 +4911,7 @@
         <v>142</v>
       </c>
       <c r="P18" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5275,7 +5293,7 @@
         <v>144</v>
       </c>
       <c r="P20" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5466,7 +5484,7 @@
         <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5747,7 +5765,7 @@
         <v>1.6</v>
       </c>
       <c r="AT22">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5938,7 +5956,7 @@
         <v>2.2</v>
       </c>
       <c r="AT23">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6317,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT25">
         <v>0.4</v>
@@ -6612,7 +6630,7 @@
         <v>150</v>
       </c>
       <c r="P27" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -7185,7 +7203,7 @@
         <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7758,7 +7776,7 @@
         <v>155</v>
       </c>
       <c r="P33" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -8421,7 +8439,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8522,7 +8540,7 @@
         <v>135</v>
       </c>
       <c r="P37" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -9373,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT41">
         <v>0.75</v>
@@ -9477,7 +9495,7 @@
         <v>161</v>
       </c>
       <c r="P42" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -9564,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT42">
         <v>0.8</v>
@@ -9668,7 +9686,7 @@
         <v>135</v>
       </c>
       <c r="P43" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9859,7 +9877,7 @@
         <v>162</v>
       </c>
       <c r="P44" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q44">
         <v>-1</v>
@@ -9949,7 +9967,7 @@
         <v>1.25</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -10050,7 +10068,7 @@
         <v>163</v>
       </c>
       <c r="P45" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q45">
         <v>-1</v>
@@ -10328,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT46">
         <v>0.75</v>
@@ -10814,7 +10832,7 @@
         <v>167</v>
       </c>
       <c r="P49" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11196,7 +11214,7 @@
         <v>169</v>
       </c>
       <c r="P51" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -12151,7 +12169,7 @@
         <v>173</v>
       </c>
       <c r="P56" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q56">
         <v>-1</v>
@@ -12238,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT56">
         <v>0.6</v>
@@ -12342,7 +12360,7 @@
         <v>174</v>
       </c>
       <c r="P57" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12429,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT57">
         <v>0.8</v>
@@ -12623,7 +12641,7 @@
         <v>1.8</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -12724,7 +12742,7 @@
         <v>175</v>
       </c>
       <c r="P59" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12915,7 +12933,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13387,7 +13405,7 @@
         <v>2.6</v>
       </c>
       <c r="AT62">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>0</v>
@@ -13488,7 +13506,7 @@
         <v>177</v>
       </c>
       <c r="P63" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q63">
         <v>15</v>
@@ -13578,7 +13596,7 @@
         <v>1.2</v>
       </c>
       <c r="AT63">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -14443,7 +14461,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q68">
         <v>8</v>
@@ -15398,7 +15416,7 @@
         <v>184</v>
       </c>
       <c r="P73" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15485,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT73">
         <v>0.8</v>
@@ -15780,7 +15798,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -15971,7 +15989,7 @@
         <v>186</v>
       </c>
       <c r="P76" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -16440,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT78">
         <v>2.2</v>
@@ -16544,7 +16562,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16631,7 +16649,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT79">
         <v>0.8</v>
@@ -16825,7 +16843,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU80">
         <v>2.04</v>
@@ -17117,7 +17135,7 @@
         <v>190</v>
       </c>
       <c r="P82" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -17971,7 +17989,7 @@
         <v>2.6</v>
       </c>
       <c r="AT86">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU86">
         <v>1.23</v>
@@ -18159,7 +18177,7 @@
         <v>3</v>
       </c>
       <c r="AS87">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT87">
         <v>0.6</v>
@@ -18263,7 +18281,7 @@
         <v>194</v>
       </c>
       <c r="P88" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18353,7 +18371,7 @@
         <v>1.4</v>
       </c>
       <c r="AT88">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU88">
         <v>1.8</v>
@@ -18645,7 +18663,7 @@
         <v>160</v>
       </c>
       <c r="P90" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18735,7 +18753,7 @@
         <v>1.2</v>
       </c>
       <c r="AT90">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU90">
         <v>1.92</v>
@@ -19027,7 +19045,7 @@
         <v>195</v>
       </c>
       <c r="P92" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -20173,7 +20191,7 @@
         <v>199</v>
       </c>
       <c r="P98" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20746,7 +20764,7 @@
         <v>202</v>
       </c>
       <c r="P101" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20937,7 +20955,7 @@
         <v>203</v>
       </c>
       <c r="P102" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -21892,7 +21910,7 @@
         <v>206</v>
       </c>
       <c r="P107" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22173,7 +22191,7 @@
         <v>2.2</v>
       </c>
       <c r="AT108">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU108">
         <v>2.32</v>
@@ -22552,10 +22570,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT110">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU110">
         <v>2.35</v>
@@ -22656,7 +22674,7 @@
         <v>210</v>
       </c>
       <c r="P111" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22743,10 +22761,10 @@
         <v>3</v>
       </c>
       <c r="AS111">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT111">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU111">
         <v>1.11</v>
@@ -22847,7 +22865,7 @@
         <v>211</v>
       </c>
       <c r="P112" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -24271,7 +24289,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT119">
         <v>0.4</v>
@@ -24465,7 +24483,7 @@
         <v>1.8</v>
       </c>
       <c r="AT120">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>0.83</v>
@@ -24656,7 +24674,7 @@
         <v>1.6</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU121">
         <v>1.23</v>
@@ -24757,7 +24775,7 @@
         <v>218</v>
       </c>
       <c r="P122" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -25139,7 +25157,7 @@
         <v>219</v>
       </c>
       <c r="P124" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25226,10 +25244,10 @@
         <v>0.5</v>
       </c>
       <c r="AS124">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT124">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU124">
         <v>1.74</v>
@@ -25330,7 +25348,7 @@
         <v>220</v>
       </c>
       <c r="P125" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25417,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="AS125">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT125">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -26667,7 +26685,7 @@
         <v>226</v>
       </c>
       <c r="P132" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26858,7 +26876,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -27622,7 +27640,7 @@
         <v>135</v>
       </c>
       <c r="P137" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q137">
         <v>12</v>
@@ -28195,7 +28213,7 @@
         <v>229</v>
       </c>
       <c r="P140" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28768,7 +28786,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -31060,7 +31078,7 @@
         <v>236</v>
       </c>
       <c r="P155" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31251,7 +31269,7 @@
         <v>237</v>
       </c>
       <c r="P156" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31633,7 +31651,7 @@
         <v>239</v>
       </c>
       <c r="P158" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q158">
         <v>13</v>
@@ -31824,7 +31842,7 @@
         <v>153</v>
       </c>
       <c r="P159" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q159">
         <v>10</v>
@@ -32015,7 +32033,7 @@
         <v>135</v>
       </c>
       <c r="P160" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -33057,7 +33075,7 @@
         <v>0.33</v>
       </c>
       <c r="AS165">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT165">
         <v>0.8</v>
@@ -33543,7 +33561,7 @@
         <v>135</v>
       </c>
       <c r="P168" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33734,7 +33752,7 @@
         <v>243</v>
       </c>
       <c r="P169" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33925,7 +33943,7 @@
         <v>244</v>
       </c>
       <c r="P170" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34015,7 +34033,7 @@
         <v>1</v>
       </c>
       <c r="AT170">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU170">
         <v>1.66</v>
@@ -34203,10 +34221,10 @@
         <v>2</v>
       </c>
       <c r="AS171">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT171">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU171">
         <v>1.36</v>
@@ -34498,7 +34516,7 @@
         <v>135</v>
       </c>
       <c r="P173" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q173">
         <v>1</v>
@@ -34776,10 +34794,10 @@
         <v>0.33</v>
       </c>
       <c r="AS174">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT174">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU174">
         <v>2.33</v>
@@ -34880,7 +34898,7 @@
         <v>135</v>
       </c>
       <c r="P175" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35071,7 +35089,7 @@
         <v>248</v>
       </c>
       <c r="P176" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35262,7 +35280,7 @@
         <v>135</v>
       </c>
       <c r="P177" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35349,10 +35367,10 @@
         <v>0.33</v>
       </c>
       <c r="AS177">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT177">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU177">
         <v>1.77</v>
@@ -35453,7 +35471,7 @@
         <v>135</v>
       </c>
       <c r="P178" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q178">
         <v>19</v>
@@ -35644,7 +35662,7 @@
         <v>249</v>
       </c>
       <c r="P179" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q179">
         <v>9</v>
@@ -35922,7 +35940,7 @@
         <v>0</v>
       </c>
       <c r="AS180">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT180">
         <v>0</v>
@@ -36026,7 +36044,7 @@
         <v>251</v>
       </c>
       <c r="P181" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36307,7 +36325,7 @@
         <v>3</v>
       </c>
       <c r="AT182">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU182">
         <v>2.01</v>
@@ -36599,7 +36617,7 @@
         <v>254</v>
       </c>
       <c r="P184" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36981,7 +36999,7 @@
         <v>255</v>
       </c>
       <c r="P186" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37644,7 +37662,7 @@
         <v>1.2</v>
       </c>
       <c r="AT189">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU189">
         <v>1.93</v>
@@ -38127,7 +38145,7 @@
         <v>258</v>
       </c>
       <c r="P192" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -38509,7 +38527,7 @@
         <v>259</v>
       </c>
       <c r="P194" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q194">
         <v>12</v>
@@ -39273,7 +39291,7 @@
         <v>263</v>
       </c>
       <c r="P198" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -41183,7 +41201,7 @@
         <v>271</v>
       </c>
       <c r="P208" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q208">
         <v>13</v>
@@ -41374,7 +41392,7 @@
         <v>135</v>
       </c>
       <c r="P209" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41464,7 +41482,7 @@
         <v>0.8</v>
       </c>
       <c r="AT209">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU209">
         <v>1.59</v>
@@ -41565,7 +41583,7 @@
         <v>272</v>
       </c>
       <c r="P210" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41843,7 +41861,7 @@
         <v>0</v>
       </c>
       <c r="AS211">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT211">
         <v>0.2</v>
@@ -43093,7 +43111,7 @@
         <v>135</v>
       </c>
       <c r="P218" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43374,7 +43392,7 @@
         <v>0.6</v>
       </c>
       <c r="AT219">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU219">
         <v>1.96</v>
@@ -43475,7 +43493,7 @@
         <v>277</v>
       </c>
       <c r="P220" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -44135,7 +44153,7 @@
         <v>2</v>
       </c>
       <c r="AS223">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT223">
         <v>1.2</v>
@@ -44711,7 +44729,7 @@
         <v>1.2</v>
       </c>
       <c r="AT226">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU226">
         <v>1.75</v>
@@ -44812,7 +44830,7 @@
         <v>280</v>
       </c>
       <c r="P227" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -45194,7 +45212,7 @@
         <v>135</v>
       </c>
       <c r="P229" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -45281,10 +45299,10 @@
         <v>1.25</v>
       </c>
       <c r="AS229">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT229">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU229">
         <v>1.85</v>
@@ -45958,7 +45976,7 @@
         <v>135</v>
       </c>
       <c r="P233" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q233">
         <v>16</v>
@@ -46340,7 +46358,7 @@
         <v>135</v>
       </c>
       <c r="P235" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -47191,7 +47209,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT239">
         <v>0.8</v>
@@ -47486,7 +47504,7 @@
         <v>287</v>
       </c>
       <c r="P241" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -47767,7 +47785,7 @@
         <v>3</v>
       </c>
       <c r="AT242">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU242">
         <v>2.1</v>
@@ -47868,7 +47886,7 @@
         <v>289</v>
       </c>
       <c r="P243" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -47958,7 +47976,7 @@
         <v>1.2</v>
       </c>
       <c r="AT243">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU243">
         <v>2.13</v>
@@ -48059,7 +48077,7 @@
         <v>135</v>
       </c>
       <c r="P244" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q244">
         <v>7</v>
@@ -48531,7 +48549,7 @@
         <v>2.6</v>
       </c>
       <c r="AT246">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU246">
         <v>1.49</v>
@@ -49014,7 +49032,7 @@
         <v>135</v>
       </c>
       <c r="P249" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q249">
         <v>1</v>
@@ -49205,7 +49223,7 @@
         <v>291</v>
       </c>
       <c r="P250" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q250">
         <v>9</v>
@@ -49587,7 +49605,7 @@
         <v>269</v>
       </c>
       <c r="P252" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q252">
         <v>7</v>
@@ -49674,7 +49692,7 @@
         <v>2</v>
       </c>
       <c r="AS252">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT252">
         <v>2.2</v>
@@ -49865,7 +49883,7 @@
         <v>1.33</v>
       </c>
       <c r="AS253">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT253">
         <v>0.8</v>
@@ -49969,7 +49987,7 @@
         <v>135</v>
       </c>
       <c r="P254" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q254">
         <v>6</v>
@@ -50441,7 +50459,7 @@
         <v>1.4</v>
       </c>
       <c r="AT256">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU256">
         <v>1.56</v>
@@ -50629,7 +50647,7 @@
         <v>0.75</v>
       </c>
       <c r="AS257">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT257">
         <v>0.6</v>
@@ -50924,7 +50942,7 @@
         <v>296</v>
       </c>
       <c r="P259" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51115,7 +51133,7 @@
         <v>135</v>
       </c>
       <c r="P260" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q260">
         <v>3</v>
@@ -52452,7 +52470,7 @@
         <v>300</v>
       </c>
       <c r="P267" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52733,7 +52751,7 @@
         <v>2.2</v>
       </c>
       <c r="AT268">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU268">
         <v>1.95</v>
@@ -53216,7 +53234,7 @@
         <v>301</v>
       </c>
       <c r="P271" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -53789,7 +53807,7 @@
         <v>135</v>
       </c>
       <c r="P274" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -54553,7 +54571,7 @@
         <v>213</v>
       </c>
       <c r="P278" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q278">
         <v>11</v>
@@ -54640,7 +54658,7 @@
         <v>0.25</v>
       </c>
       <c r="AS278">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT278">
         <v>0.4</v>
@@ -55025,7 +55043,7 @@
         <v>1.6</v>
       </c>
       <c r="AT280">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU280">
         <v>1.2</v>
@@ -55317,7 +55335,7 @@
         <v>135</v>
       </c>
       <c r="P282" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q282">
         <v>2</v>
@@ -55977,7 +55995,7 @@
         <v>1.75</v>
       </c>
       <c r="AS285">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT285">
         <v>1.6</v>
@@ -57800,7 +57818,7 @@
         <v>301</v>
       </c>
       <c r="P295" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q295">
         <v>7</v>
@@ -58564,7 +58582,7 @@
         <v>314</v>
       </c>
       <c r="P299" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58755,7 +58773,7 @@
         <v>135</v>
       </c>
       <c r="P300" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q300">
         <v>5</v>
@@ -58946,7 +58964,7 @@
         <v>315</v>
       </c>
       <c r="P301" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q301">
         <v>9</v>
@@ -59328,7 +59346,7 @@
         <v>135</v>
       </c>
       <c r="P303" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -60092,7 +60110,7 @@
         <v>135</v>
       </c>
       <c r="P307" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60283,7 +60301,7 @@
         <v>275</v>
       </c>
       <c r="P308" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q308">
         <v>10</v>
@@ -60856,7 +60874,7 @@
         <v>318</v>
       </c>
       <c r="P311" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q311">
         <v>0</v>
@@ -61189,6 +61207,1725 @@
       </c>
       <c r="BK312">
         <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:63">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>5556800</v>
+      </c>
+      <c r="C313" t="s">
+        <v>63</v>
+      </c>
+      <c r="D313" t="s">
+        <v>64</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45105.625</v>
+      </c>
+      <c r="F313">
+        <v>10</v>
+      </c>
+      <c r="G313" t="s">
+        <v>106</v>
+      </c>
+      <c r="H313" t="s">
+        <v>92</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+      <c r="M313">
+        <v>1</v>
+      </c>
+      <c r="N313">
+        <v>2</v>
+      </c>
+      <c r="O313" t="s">
+        <v>129</v>
+      </c>
+      <c r="P313" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q313">
+        <v>5</v>
+      </c>
+      <c r="R313">
+        <v>8</v>
+      </c>
+      <c r="S313">
+        <v>13</v>
+      </c>
+      <c r="T313">
+        <v>2.6</v>
+      </c>
+      <c r="U313">
+        <v>2.05</v>
+      </c>
+      <c r="V313">
+        <v>4.33</v>
+      </c>
+      <c r="W313">
+        <v>1.43</v>
+      </c>
+      <c r="X313">
+        <v>2.55</v>
+      </c>
+      <c r="Y313">
+        <v>3.03</v>
+      </c>
+      <c r="Z313">
+        <v>1.31</v>
+      </c>
+      <c r="AA313">
+        <v>7.7</v>
+      </c>
+      <c r="AB313">
+        <v>1.05</v>
+      </c>
+      <c r="AC313">
+        <v>1.96</v>
+      </c>
+      <c r="AD313">
+        <v>2.88</v>
+      </c>
+      <c r="AE313">
+        <v>3.3</v>
+      </c>
+      <c r="AF313">
+        <v>1.02</v>
+      </c>
+      <c r="AG313">
+        <v>8.25</v>
+      </c>
+      <c r="AH313">
+        <v>1.3</v>
+      </c>
+      <c r="AI313">
+        <v>2.9</v>
+      </c>
+      <c r="AJ313">
+        <v>2.1</v>
+      </c>
+      <c r="AK313">
+        <v>1.65</v>
+      </c>
+      <c r="AL313">
+        <v>1.8</v>
+      </c>
+      <c r="AM313">
+        <v>1.8</v>
+      </c>
+      <c r="AN313">
+        <v>1.19</v>
+      </c>
+      <c r="AO313">
+        <v>1.28</v>
+      </c>
+      <c r="AP313">
+        <v>1.66</v>
+      </c>
+      <c r="AQ313">
+        <v>1</v>
+      </c>
+      <c r="AR313">
+        <v>0.25</v>
+      </c>
+      <c r="AS313">
+        <v>1</v>
+      </c>
+      <c r="AT313">
+        <v>0.4</v>
+      </c>
+      <c r="AU313">
+        <v>2.27</v>
+      </c>
+      <c r="AV313">
+        <v>1.38</v>
+      </c>
+      <c r="AW313">
+        <v>3.65</v>
+      </c>
+      <c r="AX313">
+        <v>0</v>
+      </c>
+      <c r="AY313">
+        <v>0</v>
+      </c>
+      <c r="AZ313">
+        <v>0</v>
+      </c>
+      <c r="BA313">
+        <v>0</v>
+      </c>
+      <c r="BB313">
+        <v>0</v>
+      </c>
+      <c r="BC313">
+        <v>0</v>
+      </c>
+      <c r="BD313">
+        <v>1.95</v>
+      </c>
+      <c r="BE313">
+        <v>0</v>
+      </c>
+      <c r="BF313">
+        <v>7</v>
+      </c>
+      <c r="BG313">
+        <v>4</v>
+      </c>
+      <c r="BH313">
+        <v>9</v>
+      </c>
+      <c r="BI313">
+        <v>5</v>
+      </c>
+      <c r="BJ313">
+        <v>16</v>
+      </c>
+      <c r="BK313">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:63">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>5556799</v>
+      </c>
+      <c r="C314" t="s">
+        <v>63</v>
+      </c>
+      <c r="D314" t="s">
+        <v>64</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45105.64583333334</v>
+      </c>
+      <c r="F314">
+        <v>10</v>
+      </c>
+      <c r="G314" t="s">
+        <v>119</v>
+      </c>
+      <c r="H314" t="s">
+        <v>86</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>1</v>
+      </c>
+      <c r="K314">
+        <v>2</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314">
+        <v>1</v>
+      </c>
+      <c r="N314">
+        <v>2</v>
+      </c>
+      <c r="O314" t="s">
+        <v>198</v>
+      </c>
+      <c r="P314" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q314">
+        <v>1</v>
+      </c>
+      <c r="R314">
+        <v>9</v>
+      </c>
+      <c r="S314">
+        <v>10</v>
+      </c>
+      <c r="T314">
+        <v>4</v>
+      </c>
+      <c r="U314">
+        <v>1.95</v>
+      </c>
+      <c r="V314">
+        <v>2.75</v>
+      </c>
+      <c r="W314">
+        <v>1.51</v>
+      </c>
+      <c r="X314">
+        <v>2.38</v>
+      </c>
+      <c r="Y314">
+        <v>3.5</v>
+      </c>
+      <c r="Z314">
+        <v>1.25</v>
+      </c>
+      <c r="AA314">
+        <v>10.5</v>
+      </c>
+      <c r="AB314">
+        <v>1.04</v>
+      </c>
+      <c r="AC314">
+        <v>3.68</v>
+      </c>
+      <c r="AD314">
+        <v>2.89</v>
+      </c>
+      <c r="AE314">
+        <v>1.99</v>
+      </c>
+      <c r="AF314">
+        <v>1.08</v>
+      </c>
+      <c r="AG314">
+        <v>7.5</v>
+      </c>
+      <c r="AH314">
+        <v>1.42</v>
+      </c>
+      <c r="AI314">
+        <v>2.7</v>
+      </c>
+      <c r="AJ314">
+        <v>2.38</v>
+      </c>
+      <c r="AK314">
+        <v>1.53</v>
+      </c>
+      <c r="AL314">
+        <v>2</v>
+      </c>
+      <c r="AM314">
+        <v>1.73</v>
+      </c>
+      <c r="AN314">
+        <v>1.68</v>
+      </c>
+      <c r="AO314">
+        <v>1.34</v>
+      </c>
+      <c r="AP314">
+        <v>1.22</v>
+      </c>
+      <c r="AQ314">
+        <v>1.25</v>
+      </c>
+      <c r="AR314">
+        <v>0.5</v>
+      </c>
+      <c r="AS314">
+        <v>1.2</v>
+      </c>
+      <c r="AT314">
+        <v>0.6</v>
+      </c>
+      <c r="AU314">
+        <v>1.84</v>
+      </c>
+      <c r="AV314">
+        <v>2.21</v>
+      </c>
+      <c r="AW314">
+        <v>4.05</v>
+      </c>
+      <c r="AX314">
+        <v>0</v>
+      </c>
+      <c r="AY314">
+        <v>0</v>
+      </c>
+      <c r="AZ314">
+        <v>0</v>
+      </c>
+      <c r="BA314">
+        <v>0</v>
+      </c>
+      <c r="BB314">
+        <v>0</v>
+      </c>
+      <c r="BC314">
+        <v>0</v>
+      </c>
+      <c r="BD314">
+        <v>0</v>
+      </c>
+      <c r="BE314">
+        <v>0</v>
+      </c>
+      <c r="BF314">
+        <v>7</v>
+      </c>
+      <c r="BG314">
+        <v>7</v>
+      </c>
+      <c r="BH314">
+        <v>4</v>
+      </c>
+      <c r="BI314">
+        <v>13</v>
+      </c>
+      <c r="BJ314">
+        <v>11</v>
+      </c>
+      <c r="BK314">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:63">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>5556909</v>
+      </c>
+      <c r="C315" t="s">
+        <v>63</v>
+      </c>
+      <c r="D315" t="s">
+        <v>64</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45105.79166666666</v>
+      </c>
+      <c r="F315">
+        <v>10</v>
+      </c>
+      <c r="G315" t="s">
+        <v>75</v>
+      </c>
+      <c r="H315" t="s">
+        <v>107</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315">
+        <v>1</v>
+      </c>
+      <c r="L315">
+        <v>2</v>
+      </c>
+      <c r="M315">
+        <v>1</v>
+      </c>
+      <c r="N315">
+        <v>3</v>
+      </c>
+      <c r="O315" t="s">
+        <v>320</v>
+      </c>
+      <c r="P315" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q315">
+        <v>3</v>
+      </c>
+      <c r="R315">
+        <v>2</v>
+      </c>
+      <c r="S315">
+        <v>5</v>
+      </c>
+      <c r="T315">
+        <v>2.3</v>
+      </c>
+      <c r="U315">
+        <v>2.1</v>
+      </c>
+      <c r="V315">
+        <v>5</v>
+      </c>
+      <c r="W315">
+        <v>1.46</v>
+      </c>
+      <c r="X315">
+        <v>2.53</v>
+      </c>
+      <c r="Y315">
+        <v>3.15</v>
+      </c>
+      <c r="Z315">
+        <v>1.31</v>
+      </c>
+      <c r="AA315">
+        <v>0</v>
+      </c>
+      <c r="AB315">
+        <v>1.04</v>
+      </c>
+      <c r="AC315">
+        <v>1.65</v>
+      </c>
+      <c r="AD315">
+        <v>3.5</v>
+      </c>
+      <c r="AE315">
+        <v>4.5</v>
+      </c>
+      <c r="AF315">
+        <v>1.08</v>
+      </c>
+      <c r="AG315">
+        <v>8.35</v>
+      </c>
+      <c r="AH315">
+        <v>1.39</v>
+      </c>
+      <c r="AI315">
+        <v>2.67</v>
+      </c>
+      <c r="AJ315">
+        <v>2.15</v>
+      </c>
+      <c r="AK315">
+        <v>1.67</v>
+      </c>
+      <c r="AL315">
+        <v>2.05</v>
+      </c>
+      <c r="AM315">
+        <v>1.73</v>
+      </c>
+      <c r="AN315">
+        <v>1.14</v>
+      </c>
+      <c r="AO315">
+        <v>1.26</v>
+      </c>
+      <c r="AP315">
+        <v>2.02</v>
+      </c>
+      <c r="AQ315">
+        <v>2.2</v>
+      </c>
+      <c r="AR315">
+        <v>1.4</v>
+      </c>
+      <c r="AS315">
+        <v>2.33</v>
+      </c>
+      <c r="AT315">
+        <v>1.17</v>
+      </c>
+      <c r="AU315">
+        <v>1.48</v>
+      </c>
+      <c r="AV315">
+        <v>1.39</v>
+      </c>
+      <c r="AW315">
+        <v>2.87</v>
+      </c>
+      <c r="AX315">
+        <v>0</v>
+      </c>
+      <c r="AY315">
+        <v>0</v>
+      </c>
+      <c r="AZ315">
+        <v>0</v>
+      </c>
+      <c r="BA315">
+        <v>0</v>
+      </c>
+      <c r="BB315">
+        <v>0</v>
+      </c>
+      <c r="BC315">
+        <v>2</v>
+      </c>
+      <c r="BD315">
+        <v>0</v>
+      </c>
+      <c r="BE315">
+        <v>0</v>
+      </c>
+      <c r="BF315">
+        <v>6</v>
+      </c>
+      <c r="BG315">
+        <v>3</v>
+      </c>
+      <c r="BH315">
+        <v>7</v>
+      </c>
+      <c r="BI315">
+        <v>0</v>
+      </c>
+      <c r="BJ315">
+        <v>13</v>
+      </c>
+      <c r="BK315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:63">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>5556797</v>
+      </c>
+      <c r="C316" t="s">
+        <v>63</v>
+      </c>
+      <c r="D316" t="s">
+        <v>64</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45105.79166666666</v>
+      </c>
+      <c r="F316">
+        <v>10</v>
+      </c>
+      <c r="G316" t="s">
+        <v>91</v>
+      </c>
+      <c r="H316" t="s">
+        <v>99</v>
+      </c>
+      <c r="I316">
+        <v>1</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316">
+        <v>2</v>
+      </c>
+      <c r="L316">
+        <v>2</v>
+      </c>
+      <c r="M316">
+        <v>1</v>
+      </c>
+      <c r="N316">
+        <v>3</v>
+      </c>
+      <c r="O316" t="s">
+        <v>321</v>
+      </c>
+      <c r="P316" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q316">
+        <v>6</v>
+      </c>
+      <c r="R316">
+        <v>4</v>
+      </c>
+      <c r="S316">
+        <v>10</v>
+      </c>
+      <c r="T316">
+        <v>2</v>
+      </c>
+      <c r="U316">
+        <v>2.2</v>
+      </c>
+      <c r="V316">
+        <v>6.5</v>
+      </c>
+      <c r="W316">
+        <v>1.41</v>
+      </c>
+      <c r="X316">
+        <v>2.7</v>
+      </c>
+      <c r="Y316">
+        <v>2.8</v>
+      </c>
+      <c r="Z316">
+        <v>1.39</v>
+      </c>
+      <c r="AA316">
+        <v>6.8</v>
+      </c>
+      <c r="AB316">
+        <v>0</v>
+      </c>
+      <c r="AC316">
+        <v>1.44</v>
+      </c>
+      <c r="AD316">
+        <v>4</v>
+      </c>
+      <c r="AE316">
+        <v>6</v>
+      </c>
+      <c r="AF316">
+        <v>1.04</v>
+      </c>
+      <c r="AG316">
+        <v>11.5</v>
+      </c>
+      <c r="AH316">
+        <v>1.29</v>
+      </c>
+      <c r="AI316">
+        <v>3.25</v>
+      </c>
+      <c r="AJ316">
+        <v>1.95</v>
+      </c>
+      <c r="AK316">
+        <v>1.85</v>
+      </c>
+      <c r="AL316">
+        <v>2.25</v>
+      </c>
+      <c r="AM316">
+        <v>1.58</v>
+      </c>
+      <c r="AN316">
+        <v>1.09</v>
+      </c>
+      <c r="AO316">
+        <v>1.18</v>
+      </c>
+      <c r="AP316">
+        <v>2.9</v>
+      </c>
+      <c r="AQ316">
+        <v>3</v>
+      </c>
+      <c r="AR316">
+        <v>1.6</v>
+      </c>
+      <c r="AS316">
+        <v>3</v>
+      </c>
+      <c r="AT316">
+        <v>1.33</v>
+      </c>
+      <c r="AU316">
+        <v>2.08</v>
+      </c>
+      <c r="AV316">
+        <v>1.54</v>
+      </c>
+      <c r="AW316">
+        <v>3.62</v>
+      </c>
+      <c r="AX316">
+        <v>0</v>
+      </c>
+      <c r="AY316">
+        <v>0</v>
+      </c>
+      <c r="AZ316">
+        <v>0</v>
+      </c>
+      <c r="BA316">
+        <v>0</v>
+      </c>
+      <c r="BB316">
+        <v>0</v>
+      </c>
+      <c r="BC316">
+        <v>0</v>
+      </c>
+      <c r="BD316">
+        <v>1.9</v>
+      </c>
+      <c r="BE316">
+        <v>0</v>
+      </c>
+      <c r="BF316">
+        <v>4</v>
+      </c>
+      <c r="BG316">
+        <v>5</v>
+      </c>
+      <c r="BH316">
+        <v>7</v>
+      </c>
+      <c r="BI316">
+        <v>2</v>
+      </c>
+      <c r="BJ316">
+        <v>11</v>
+      </c>
+      <c r="BK316">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:63">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>5556856</v>
+      </c>
+      <c r="C317" t="s">
+        <v>63</v>
+      </c>
+      <c r="D317" t="s">
+        <v>64</v>
+      </c>
+      <c r="E317" s="2">
+        <v>45105.79166666666</v>
+      </c>
+      <c r="F317">
+        <v>10</v>
+      </c>
+      <c r="G317" t="s">
+        <v>104</v>
+      </c>
+      <c r="H317" t="s">
+        <v>83</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>1</v>
+      </c>
+      <c r="L317">
+        <v>3</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317">
+        <v>3</v>
+      </c>
+      <c r="O317" t="s">
+        <v>322</v>
+      </c>
+      <c r="P317" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q317">
+        <v>4</v>
+      </c>
+      <c r="R317">
+        <v>8</v>
+      </c>
+      <c r="S317">
+        <v>12</v>
+      </c>
+      <c r="T317">
+        <v>1.67</v>
+      </c>
+      <c r="U317">
+        <v>2.6</v>
+      </c>
+      <c r="V317">
+        <v>8</v>
+      </c>
+      <c r="W317">
+        <v>1.28</v>
+      </c>
+      <c r="X317">
+        <v>3.34</v>
+      </c>
+      <c r="Y317">
+        <v>2.36</v>
+      </c>
+      <c r="Z317">
+        <v>1.54</v>
+      </c>
+      <c r="AA317">
+        <v>5.5</v>
+      </c>
+      <c r="AB317">
+        <v>1.11</v>
+      </c>
+      <c r="AC317">
+        <v>1.22</v>
+      </c>
+      <c r="AD317">
+        <v>5.25</v>
+      </c>
+      <c r="AE317">
+        <v>9</v>
+      </c>
+      <c r="AF317">
+        <v>1.02</v>
+      </c>
+      <c r="AG317">
+        <v>16</v>
+      </c>
+      <c r="AH317">
+        <v>1.18</v>
+      </c>
+      <c r="AI317">
+        <v>4.3</v>
+      </c>
+      <c r="AJ317">
+        <v>1.6</v>
+      </c>
+      <c r="AK317">
+        <v>2.3</v>
+      </c>
+      <c r="AL317">
+        <v>1.95</v>
+      </c>
+      <c r="AM317">
+        <v>1.75</v>
+      </c>
+      <c r="AN317">
+        <v>1.01</v>
+      </c>
+      <c r="AO317">
+        <v>1.11</v>
+      </c>
+      <c r="AP317">
+        <v>3.1</v>
+      </c>
+      <c r="AQ317">
+        <v>2.25</v>
+      </c>
+      <c r="AR317">
+        <v>0</v>
+      </c>
+      <c r="AS317">
+        <v>2.4</v>
+      </c>
+      <c r="AT317">
+        <v>0</v>
+      </c>
+      <c r="AU317">
+        <v>2.03</v>
+      </c>
+      <c r="AV317">
+        <v>0.98</v>
+      </c>
+      <c r="AW317">
+        <v>3.01</v>
+      </c>
+      <c r="AX317">
+        <v>0</v>
+      </c>
+      <c r="AY317">
+        <v>0</v>
+      </c>
+      <c r="AZ317">
+        <v>0</v>
+      </c>
+      <c r="BA317">
+        <v>0</v>
+      </c>
+      <c r="BB317">
+        <v>0</v>
+      </c>
+      <c r="BC317">
+        <v>0</v>
+      </c>
+      <c r="BD317">
+        <v>0</v>
+      </c>
+      <c r="BE317">
+        <v>0</v>
+      </c>
+      <c r="BF317">
+        <v>16</v>
+      </c>
+      <c r="BG317">
+        <v>4</v>
+      </c>
+      <c r="BH317">
+        <v>12</v>
+      </c>
+      <c r="BI317">
+        <v>6</v>
+      </c>
+      <c r="BJ317">
+        <v>28</v>
+      </c>
+      <c r="BK317">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:63">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>5556854</v>
+      </c>
+      <c r="C318" t="s">
+        <v>63</v>
+      </c>
+      <c r="D318" t="s">
+        <v>64</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45105.83333333334</v>
+      </c>
+      <c r="F318">
+        <v>10</v>
+      </c>
+      <c r="G318" t="s">
+        <v>120</v>
+      </c>
+      <c r="H318" t="s">
+        <v>95</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>2</v>
+      </c>
+      <c r="M318">
+        <v>1</v>
+      </c>
+      <c r="N318">
+        <v>3</v>
+      </c>
+      <c r="O318" t="s">
+        <v>323</v>
+      </c>
+      <c r="P318" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q318">
+        <v>10</v>
+      </c>
+      <c r="R318">
+        <v>4</v>
+      </c>
+      <c r="S318">
+        <v>14</v>
+      </c>
+      <c r="T318">
+        <v>2.75</v>
+      </c>
+      <c r="U318">
+        <v>1.95</v>
+      </c>
+      <c r="V318">
+        <v>4</v>
+      </c>
+      <c r="W318">
+        <v>1.51</v>
+      </c>
+      <c r="X318">
+        <v>2.37</v>
+      </c>
+      <c r="Y318">
+        <v>3.48</v>
+      </c>
+      <c r="Z318">
+        <v>1.26</v>
+      </c>
+      <c r="AA318">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB318">
+        <v>1.03</v>
+      </c>
+      <c r="AC318">
+        <v>2.05</v>
+      </c>
+      <c r="AD318">
+        <v>3.1</v>
+      </c>
+      <c r="AE318">
+        <v>3.4</v>
+      </c>
+      <c r="AF318">
+        <v>1.09</v>
+      </c>
+      <c r="AG318">
+        <v>7.6</v>
+      </c>
+      <c r="AH318">
+        <v>1.45</v>
+      </c>
+      <c r="AI318">
+        <v>2.48</v>
+      </c>
+      <c r="AJ318">
+        <v>2.4</v>
+      </c>
+      <c r="AK318">
+        <v>1.53</v>
+      </c>
+      <c r="AL318">
+        <v>2.02</v>
+      </c>
+      <c r="AM318">
+        <v>1.75</v>
+      </c>
+      <c r="AN318">
+        <v>1.34</v>
+      </c>
+      <c r="AO318">
+        <v>1.29</v>
+      </c>
+      <c r="AP318">
+        <v>1.62</v>
+      </c>
+      <c r="AQ318">
+        <v>2.5</v>
+      </c>
+      <c r="AR318">
+        <v>1.25</v>
+      </c>
+      <c r="AS318">
+        <v>2.6</v>
+      </c>
+      <c r="AT318">
+        <v>1</v>
+      </c>
+      <c r="AU318">
+        <v>1.94</v>
+      </c>
+      <c r="AV318">
+        <v>1.59</v>
+      </c>
+      <c r="AW318">
+        <v>3.53</v>
+      </c>
+      <c r="AX318">
+        <v>0</v>
+      </c>
+      <c r="AY318">
+        <v>0</v>
+      </c>
+      <c r="AZ318">
+        <v>0</v>
+      </c>
+      <c r="BA318">
+        <v>0</v>
+      </c>
+      <c r="BB318">
+        <v>0</v>
+      </c>
+      <c r="BC318">
+        <v>0</v>
+      </c>
+      <c r="BD318">
+        <v>0</v>
+      </c>
+      <c r="BE318">
+        <v>0</v>
+      </c>
+      <c r="BF318">
+        <v>4</v>
+      </c>
+      <c r="BG318">
+        <v>4</v>
+      </c>
+      <c r="BH318">
+        <v>12</v>
+      </c>
+      <c r="BI318">
+        <v>4</v>
+      </c>
+      <c r="BJ318">
+        <v>16</v>
+      </c>
+      <c r="BK318">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:63">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>5556910</v>
+      </c>
+      <c r="C319" t="s">
+        <v>63</v>
+      </c>
+      <c r="D319" t="s">
+        <v>64</v>
+      </c>
+      <c r="E319" s="2">
+        <v>45105.83333333334</v>
+      </c>
+      <c r="F319">
+        <v>10</v>
+      </c>
+      <c r="G319" t="s">
+        <v>105</v>
+      </c>
+      <c r="H319" t="s">
+        <v>84</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>1</v>
+      </c>
+      <c r="L319">
+        <v>1</v>
+      </c>
+      <c r="M319">
+        <v>1</v>
+      </c>
+      <c r="N319">
+        <v>2</v>
+      </c>
+      <c r="O319" t="s">
+        <v>155</v>
+      </c>
+      <c r="P319" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q319">
+        <v>5</v>
+      </c>
+      <c r="R319">
+        <v>7</v>
+      </c>
+      <c r="S319">
+        <v>12</v>
+      </c>
+      <c r="T319">
+        <v>2.1</v>
+      </c>
+      <c r="U319">
+        <v>2.1</v>
+      </c>
+      <c r="V319">
+        <v>6</v>
+      </c>
+      <c r="W319">
+        <v>1.42</v>
+      </c>
+      <c r="X319">
+        <v>2.66</v>
+      </c>
+      <c r="Y319">
+        <v>2.94</v>
+      </c>
+      <c r="Z319">
+        <v>1.35</v>
+      </c>
+      <c r="AA319">
+        <v>7.3</v>
+      </c>
+      <c r="AB319">
+        <v>0</v>
+      </c>
+      <c r="AC319">
+        <v>1.5</v>
+      </c>
+      <c r="AD319">
+        <v>3.6</v>
+      </c>
+      <c r="AE319">
+        <v>6</v>
+      </c>
+      <c r="AF319">
+        <v>1.06</v>
+      </c>
+      <c r="AG319">
+        <v>9.9</v>
+      </c>
+      <c r="AH319">
+        <v>1.33</v>
+      </c>
+      <c r="AI319">
+        <v>3.07</v>
+      </c>
+      <c r="AJ319">
+        <v>2.05</v>
+      </c>
+      <c r="AK319">
+        <v>1.75</v>
+      </c>
+      <c r="AL319">
+        <v>1.92</v>
+      </c>
+      <c r="AM319">
+        <v>1.84</v>
+      </c>
+      <c r="AN319">
+        <v>1.14</v>
+      </c>
+      <c r="AO319">
+        <v>1.27</v>
+      </c>
+      <c r="AP319">
+        <v>1.91</v>
+      </c>
+      <c r="AQ319">
+        <v>2</v>
+      </c>
+      <c r="AR319">
+        <v>1.25</v>
+      </c>
+      <c r="AS319">
+        <v>1.8</v>
+      </c>
+      <c r="AT319">
+        <v>1.2</v>
+      </c>
+      <c r="AU319">
+        <v>2.09</v>
+      </c>
+      <c r="AV319">
+        <v>1.3</v>
+      </c>
+      <c r="AW319">
+        <v>3.39</v>
+      </c>
+      <c r="AX319">
+        <v>0</v>
+      </c>
+      <c r="AY319">
+        <v>0</v>
+      </c>
+      <c r="AZ319">
+        <v>0</v>
+      </c>
+      <c r="BA319">
+        <v>0</v>
+      </c>
+      <c r="BB319">
+        <v>0</v>
+      </c>
+      <c r="BC319">
+        <v>0</v>
+      </c>
+      <c r="BD319">
+        <v>0</v>
+      </c>
+      <c r="BE319">
+        <v>0</v>
+      </c>
+      <c r="BF319">
+        <v>7</v>
+      </c>
+      <c r="BG319">
+        <v>7</v>
+      </c>
+      <c r="BH319">
+        <v>13</v>
+      </c>
+      <c r="BI319">
+        <v>6</v>
+      </c>
+      <c r="BJ319">
+        <v>20</v>
+      </c>
+      <c r="BK319">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:63">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>5556853</v>
+      </c>
+      <c r="C320" t="s">
+        <v>63</v>
+      </c>
+      <c r="D320" t="s">
+        <v>64</v>
+      </c>
+      <c r="E320" s="2">
+        <v>45105.83333333334</v>
+      </c>
+      <c r="F320">
+        <v>10</v>
+      </c>
+      <c r="G320" t="s">
+        <v>88</v>
+      </c>
+      <c r="H320" t="s">
+        <v>128</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320">
+        <v>1</v>
+      </c>
+      <c r="K320">
+        <v>2</v>
+      </c>
+      <c r="L320">
+        <v>2</v>
+      </c>
+      <c r="M320">
+        <v>1</v>
+      </c>
+      <c r="N320">
+        <v>3</v>
+      </c>
+      <c r="O320" t="s">
+        <v>324</v>
+      </c>
+      <c r="P320" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q320">
+        <v>5</v>
+      </c>
+      <c r="R320">
+        <v>3</v>
+      </c>
+      <c r="S320">
+        <v>8</v>
+      </c>
+      <c r="T320">
+        <v>2.75</v>
+      </c>
+      <c r="U320">
+        <v>1.95</v>
+      </c>
+      <c r="V320">
+        <v>4.33</v>
+      </c>
+      <c r="W320">
+        <v>1.56</v>
+      </c>
+      <c r="X320">
+        <v>2.3</v>
+      </c>
+      <c r="Y320">
+        <v>3.34</v>
+      </c>
+      <c r="Z320">
+        <v>1.28</v>
+      </c>
+      <c r="AA320">
+        <v>8.9</v>
+      </c>
+      <c r="AB320">
+        <v>1.03</v>
+      </c>
+      <c r="AC320">
+        <v>1.95</v>
+      </c>
+      <c r="AD320">
+        <v>3</v>
+      </c>
+      <c r="AE320">
+        <v>3.8</v>
+      </c>
+      <c r="AF320">
+        <v>1.09</v>
+      </c>
+      <c r="AG320">
+        <v>7</v>
+      </c>
+      <c r="AH320">
+        <v>1.49</v>
+      </c>
+      <c r="AI320">
+        <v>2.45</v>
+      </c>
+      <c r="AJ320">
+        <v>2.4</v>
+      </c>
+      <c r="AK320">
+        <v>1.53</v>
+      </c>
+      <c r="AL320">
+        <v>2</v>
+      </c>
+      <c r="AM320">
+        <v>1.72</v>
+      </c>
+      <c r="AN320">
+        <v>1.31</v>
+      </c>
+      <c r="AO320">
+        <v>1.37</v>
+      </c>
+      <c r="AP320">
+        <v>1.51</v>
+      </c>
+      <c r="AQ320">
+        <v>2.6</v>
+      </c>
+      <c r="AR320">
+        <v>0.4</v>
+      </c>
+      <c r="AS320">
+        <v>2.67</v>
+      </c>
+      <c r="AT320">
+        <v>0.33</v>
+      </c>
+      <c r="AU320">
+        <v>1.71</v>
+      </c>
+      <c r="AV320">
+        <v>1.82</v>
+      </c>
+      <c r="AW320">
+        <v>3.53</v>
+      </c>
+      <c r="AX320">
+        <v>0</v>
+      </c>
+      <c r="AY320">
+        <v>0</v>
+      </c>
+      <c r="AZ320">
+        <v>0</v>
+      </c>
+      <c r="BA320">
+        <v>0</v>
+      </c>
+      <c r="BB320">
+        <v>0</v>
+      </c>
+      <c r="BC320">
+        <v>0</v>
+      </c>
+      <c r="BD320">
+        <v>0</v>
+      </c>
+      <c r="BE320">
+        <v>0</v>
+      </c>
+      <c r="BF320">
+        <v>4</v>
+      </c>
+      <c r="BG320">
+        <v>9</v>
+      </c>
+      <c r="BH320">
+        <v>6</v>
+      </c>
+      <c r="BI320">
+        <v>9</v>
+      </c>
+      <c r="BJ320">
+        <v>10</v>
+      </c>
+      <c r="BK320">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="321" spans="1:63">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>5556912</v>
+      </c>
+      <c r="C321" t="s">
+        <v>63</v>
+      </c>
+      <c r="D321" t="s">
+        <v>64</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45105.83333333334</v>
+      </c>
+      <c r="F321">
+        <v>10</v>
+      </c>
+      <c r="G321" t="s">
+        <v>109</v>
+      </c>
+      <c r="H321" t="s">
+        <v>70</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>1</v>
+      </c>
+      <c r="O321" t="s">
+        <v>292</v>
+      </c>
+      <c r="P321" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q321">
+        <v>4</v>
+      </c>
+      <c r="R321">
+        <v>5</v>
+      </c>
+      <c r="S321">
+        <v>9</v>
+      </c>
+      <c r="T321">
+        <v>2.4</v>
+      </c>
+      <c r="U321">
+        <v>2</v>
+      </c>
+      <c r="V321">
+        <v>5</v>
+      </c>
+      <c r="W321">
+        <v>0</v>
+      </c>
+      <c r="X321">
+        <v>0</v>
+      </c>
+      <c r="Y321">
+        <v>0</v>
+      </c>
+      <c r="Z321">
+        <v>0</v>
+      </c>
+      <c r="AA321">
+        <v>0</v>
+      </c>
+      <c r="AB321">
+        <v>0</v>
+      </c>
+      <c r="AC321">
+        <v>1.7</v>
+      </c>
+      <c r="AD321">
+        <v>3.4</v>
+      </c>
+      <c r="AE321">
+        <v>4.33</v>
+      </c>
+      <c r="AF321">
+        <v>0</v>
+      </c>
+      <c r="AG321">
+        <v>0</v>
+      </c>
+      <c r="AH321">
+        <v>0</v>
+      </c>
+      <c r="AI321">
+        <v>0</v>
+      </c>
+      <c r="AJ321">
+        <v>2.3</v>
+      </c>
+      <c r="AK321">
+        <v>1.6</v>
+      </c>
+      <c r="AL321">
+        <v>0</v>
+      </c>
+      <c r="AM321">
+        <v>0</v>
+      </c>
+      <c r="AN321">
+        <v>0</v>
+      </c>
+      <c r="AO321">
+        <v>0</v>
+      </c>
+      <c r="AP321">
+        <v>0</v>
+      </c>
+      <c r="AQ321">
+        <v>0.75</v>
+      </c>
+      <c r="AR321">
+        <v>1</v>
+      </c>
+      <c r="AS321">
+        <v>1.2</v>
+      </c>
+      <c r="AT321">
+        <v>0.8</v>
+      </c>
+      <c r="AU321">
+        <v>1.96</v>
+      </c>
+      <c r="AV321">
+        <v>1.47</v>
+      </c>
+      <c r="AW321">
+        <v>3.43</v>
+      </c>
+      <c r="AX321">
+        <v>0</v>
+      </c>
+      <c r="AY321">
+        <v>0</v>
+      </c>
+      <c r="AZ321">
+        <v>0</v>
+      </c>
+      <c r="BA321">
+        <v>0</v>
+      </c>
+      <c r="BB321">
+        <v>0</v>
+      </c>
+      <c r="BC321">
+        <v>0</v>
+      </c>
+      <c r="BD321">
+        <v>0</v>
+      </c>
+      <c r="BE321">
+        <v>0</v>
+      </c>
+      <c r="BF321">
+        <v>6</v>
+      </c>
+      <c r="BG321">
+        <v>7</v>
+      </c>
+      <c r="BH321">
+        <v>6</v>
+      </c>
+      <c r="BI321">
+        <v>4</v>
+      </c>
+      <c r="BJ321">
+        <v>12</v>
+      </c>
+      <c r="BK321">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Brazil Serie D_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="436">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -991,6 +991,54 @@
     <t>['30', '70']</t>
   </si>
   <si>
+    <t>['59', '87']</t>
+  </si>
+  <si>
+    <t>['35', '48']</t>
+  </si>
+  <si>
+    <t>['25', '34']</t>
+  </si>
+  <si>
+    <t>['17', '45+2', '64']</t>
+  </si>
+  <si>
+    <t>['24', '79']</t>
+  </si>
+  <si>
+    <t>['16', '17', '20']</t>
+  </si>
+  <si>
+    <t>['35', '45+3', '74']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['38', '42', '63', '70']</t>
+  </si>
+  <si>
+    <t>['9', '90+4']</t>
+  </si>
+  <si>
+    <t>['14', '32']</t>
+  </si>
+  <si>
+    <t>['16', '55']</t>
+  </si>
+  <si>
+    <t>['18', '38', '61', '66']</t>
+  </si>
+  <si>
+    <t>['12', '41', '61', '69', '90+3']</t>
+  </si>
+  <si>
+    <t>['5', '26', '53', '71']</t>
+  </si>
+  <si>
+    <t>['49', '65', '79', '90']</t>
+  </si>
+  <si>
     <t>['22', '38']</t>
   </si>
   <si>
@@ -1076,9 +1124,6 @@
   </si>
   <si>
     <t>['41', '73']</t>
-  </si>
-  <si>
-    <t>['16', '55']</t>
   </si>
   <si>
     <t>['28', '66']</t>
@@ -1250,6 +1295,33 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['50', '88']</t>
+  </si>
+  <si>
+    <t>['42', '54']</t>
+  </si>
+  <si>
+    <t>['60', '88']</t>
+  </si>
+  <si>
+    <t>['21', '58']</t>
+  </si>
+  <si>
+    <t>['6', '63']</t>
+  </si>
+  <si>
+    <t>['45', '80']</t>
+  </si>
+  <si>
+    <t>['21', '58', '72']</t>
+  </si>
+  <si>
+    <t>['29', '55']</t>
+  </si>
+  <si>
+    <t>['18', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK321"/>
+  <dimension ref="A1:BK353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1855,7 +1927,7 @@
         <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1945,7 +2017,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2327,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2515,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2897,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3001,7 +3073,7 @@
         <v>135</v>
       </c>
       <c r="P8" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="Q8">
         <v>-1</v>
@@ -3088,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT8">
         <v>1.2</v>
@@ -3192,7 +3264,7 @@
         <v>135</v>
       </c>
       <c r="P9" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -3383,7 +3455,7 @@
         <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -3473,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3661,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
         <v>0.4</v>
@@ -3765,7 +3837,7 @@
         <v>136</v>
       </c>
       <c r="P12" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3855,7 +3927,7 @@
         <v>2.33</v>
       </c>
       <c r="AT12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3956,7 +4028,7 @@
         <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -4046,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="AT13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4234,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4529,7 +4601,7 @@
         <v>140</v>
       </c>
       <c r="P16" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4616,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT16">
         <v>0.4</v>
@@ -4720,7 +4792,7 @@
         <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="Q17">
         <v>6</v>
@@ -4911,7 +4983,7 @@
         <v>142</v>
       </c>
       <c r="P18" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4998,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT18">
         <v>0.4</v>
@@ -5293,7 +5365,7 @@
         <v>144</v>
       </c>
       <c r="P20" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5380,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT20">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5484,7 +5556,7 @@
         <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5571,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
         <v>1.2</v>
@@ -6147,7 +6219,7 @@
         <v>1.33</v>
       </c>
       <c r="AT24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6338,7 +6410,7 @@
         <v>2.67</v>
       </c>
       <c r="AT25">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6529,7 +6601,7 @@
         <v>1.83</v>
       </c>
       <c r="AT26">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6630,7 +6702,7 @@
         <v>150</v>
       </c>
       <c r="P27" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6717,10 +6789,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT27">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6911,7 +6983,7 @@
         <v>3</v>
       </c>
       <c r="AT28">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7099,10 +7171,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT29">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7203,7 +7275,7 @@
         <v>135</v>
       </c>
       <c r="P30" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7290,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AT30">
         <v>0.8</v>
@@ -7481,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT31">
         <v>0.2</v>
@@ -7672,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT32">
         <v>0.2</v>
@@ -7776,7 +7848,7 @@
         <v>155</v>
       </c>
       <c r="P33" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7863,10 +7935,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT33">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -8057,7 +8129,7 @@
         <v>1.6</v>
       </c>
       <c r="AT34">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8436,7 +8508,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT36">
         <v>0.4</v>
@@ -8540,7 +8612,7 @@
         <v>135</v>
       </c>
       <c r="P37" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8627,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT37">
         <v>1.4</v>
@@ -8818,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT38">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -9009,10 +9081,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9200,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -9391,10 +9463,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT41">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9495,7 +9567,7 @@
         <v>161</v>
       </c>
       <c r="P42" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="Q42">
         <v>9</v>
@@ -9585,7 +9657,7 @@
         <v>1.8</v>
       </c>
       <c r="AT42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9686,7 +9758,7 @@
         <v>135</v>
       </c>
       <c r="P43" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9773,10 +9845,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9877,7 +9949,7 @@
         <v>162</v>
       </c>
       <c r="P44" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="Q44">
         <v>-1</v>
@@ -9964,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT44">
         <v>0.8</v>
@@ -10068,7 +10140,7 @@
         <v>163</v>
       </c>
       <c r="P45" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="Q45">
         <v>-1</v>
@@ -10155,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -10346,10 +10418,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT46">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10537,10 +10609,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT47">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10728,10 +10800,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT48">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10832,7 +10904,7 @@
         <v>167</v>
       </c>
       <c r="P49" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11113,7 +11185,7 @@
         <v>1.6</v>
       </c>
       <c r="AT50">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -11214,7 +11286,7 @@
         <v>169</v>
       </c>
       <c r="P51" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11304,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11683,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT53">
         <v>1.4</v>
@@ -11877,7 +11949,7 @@
         <v>2.4</v>
       </c>
       <c r="AT54">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -12169,7 +12241,7 @@
         <v>173</v>
       </c>
       <c r="P56" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="Q56">
         <v>-1</v>
@@ -12360,7 +12432,7 @@
         <v>174</v>
       </c>
       <c r="P57" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12450,7 +12522,7 @@
         <v>2.6</v>
       </c>
       <c r="AT57">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12641,7 +12713,7 @@
         <v>1.8</v>
       </c>
       <c r="AT58">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -12742,7 +12814,7 @@
         <v>175</v>
       </c>
       <c r="P59" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12829,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT59">
         <v>1.2</v>
@@ -12933,7 +13005,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13023,7 +13095,7 @@
         <v>0.8</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -13211,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -13506,7 +13578,7 @@
         <v>177</v>
       </c>
       <c r="P63" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="Q63">
         <v>15</v>
@@ -13975,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT65">
         <v>0</v>
@@ -14169,7 +14241,7 @@
         <v>1.33</v>
       </c>
       <c r="AT66">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU66">
         <v>1.4</v>
@@ -14357,10 +14429,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT67">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU67">
         <v>1.26</v>
@@ -14461,7 +14533,7 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="Q68">
         <v>8</v>
@@ -14548,10 +14620,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT68">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU68">
         <v>1.45</v>
@@ -14742,7 +14814,7 @@
         <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU69">
         <v>2.15</v>
@@ -14933,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU70">
         <v>3.01</v>
@@ -15121,10 +15193,10 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT71">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU71">
         <v>2.27</v>
@@ -15312,7 +15384,7 @@
         <v>3</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT72">
         <v>1.33</v>
@@ -15416,7 +15488,7 @@
         <v>184</v>
       </c>
       <c r="P73" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15503,10 +15575,10 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT73">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU73">
         <v>1.86</v>
@@ -15694,10 +15766,10 @@
         <v>3</v>
       </c>
       <c r="AS74">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT74">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU74">
         <v>1.15</v>
@@ -15798,7 +15870,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="Q75">
         <v>9</v>
@@ -15885,10 +15957,10 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT75">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU75">
         <v>1.76</v>
@@ -15989,7 +16061,7 @@
         <v>186</v>
       </c>
       <c r="P76" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -16076,7 +16148,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
         <v>1.33</v>
@@ -16270,7 +16342,7 @@
         <v>1</v>
       </c>
       <c r="AT77">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU77">
         <v>1.73</v>
@@ -16461,7 +16533,7 @@
         <v>2.33</v>
       </c>
       <c r="AT78">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU78">
         <v>1</v>
@@ -16562,7 +16634,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="Q79">
         <v>9</v>
@@ -16649,10 +16721,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT79">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU79">
         <v>0.9399999999999999</v>
@@ -16840,10 +16912,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT80">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>2.04</v>
@@ -17031,10 +17103,10 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT81">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU81">
         <v>1.98</v>
@@ -17135,7 +17207,7 @@
         <v>190</v>
       </c>
       <c r="P82" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="Q82">
         <v>10</v>
@@ -17222,7 +17294,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT82">
         <v>0.83</v>
@@ -17413,10 +17485,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT83">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU83">
         <v>1.73</v>
@@ -17607,7 +17679,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU84">
         <v>0.89</v>
@@ -17798,7 +17870,7 @@
         <v>1.83</v>
       </c>
       <c r="AT85">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>0</v>
@@ -17986,7 +18058,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT86">
         <v>0.33</v>
@@ -18180,7 +18252,7 @@
         <v>2.67</v>
       </c>
       <c r="AT87">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>1.62</v>
@@ -18281,7 +18353,7 @@
         <v>194</v>
       </c>
       <c r="P88" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18368,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT88">
         <v>1.17</v>
@@ -18559,10 +18631,10 @@
         <v>0</v>
       </c>
       <c r="AS89">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT89">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU89">
         <v>1.79</v>
@@ -18663,7 +18735,7 @@
         <v>160</v>
       </c>
       <c r="P90" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18750,7 +18822,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT90">
         <v>1.33</v>
@@ -18944,7 +19016,7 @@
         <v>3</v>
       </c>
       <c r="AT91">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU91">
         <v>1.66</v>
@@ -19045,7 +19117,7 @@
         <v>195</v>
       </c>
       <c r="P92" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -19132,10 +19204,10 @@
         <v>3</v>
       </c>
       <c r="AS92">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT92">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU92">
         <v>1.36</v>
@@ -19323,10 +19395,10 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT93">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU93">
         <v>1.32</v>
@@ -19514,10 +19586,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT94">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU94">
         <v>2.32</v>
@@ -19705,7 +19777,7 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AT95">
         <v>0.83</v>
@@ -19896,7 +19968,7 @@
         <v>0</v>
       </c>
       <c r="AS96">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT96">
         <v>1.5</v>
@@ -20087,10 +20159,10 @@
         <v>3</v>
       </c>
       <c r="AS97">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT97">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU97">
         <v>1.82</v>
@@ -20191,7 +20263,7 @@
         <v>199</v>
       </c>
       <c r="P98" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20764,7 +20836,7 @@
         <v>202</v>
       </c>
       <c r="P101" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20955,7 +21027,7 @@
         <v>203</v>
       </c>
       <c r="P102" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -21910,7 +21982,7 @@
         <v>206</v>
       </c>
       <c r="P107" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22674,7 +22746,7 @@
         <v>210</v>
       </c>
       <c r="P111" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22865,7 +22937,7 @@
         <v>211</v>
       </c>
       <c r="P112" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -24775,7 +24847,7 @@
         <v>218</v>
       </c>
       <c r="P122" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -25157,7 +25229,7 @@
         <v>219</v>
       </c>
       <c r="P124" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25348,7 +25420,7 @@
         <v>220</v>
       </c>
       <c r="P125" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26390,10 +26462,10 @@
         <v>0</v>
       </c>
       <c r="AS130">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT130">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU130">
         <v>2.97</v>
@@ -26581,10 +26653,10 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT131">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU131">
         <v>1.08</v>
@@ -26685,7 +26757,7 @@
         <v>226</v>
       </c>
       <c r="P132" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26775,7 +26847,7 @@
         <v>1.4</v>
       </c>
       <c r="AT132">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU132">
         <v>1.86</v>
@@ -26876,7 +26948,7 @@
         <v>135</v>
       </c>
       <c r="P133" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26963,10 +27035,10 @@
         <v>3</v>
       </c>
       <c r="AS133">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT133">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU133">
         <v>1.97</v>
@@ -27154,7 +27226,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT134">
         <v>0.8</v>
@@ -27345,10 +27417,10 @@
         <v>0</v>
       </c>
       <c r="AS135">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT135">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU135">
         <v>1.22</v>
@@ -27539,7 +27611,7 @@
         <v>1.6</v>
       </c>
       <c r="AT136">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU136">
         <v>1.51</v>
@@ -27640,7 +27712,7 @@
         <v>135</v>
       </c>
       <c r="P137" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="Q137">
         <v>12</v>
@@ -27727,7 +27799,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT137">
         <v>1.2</v>
@@ -28109,10 +28181,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT139">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU139">
         <v>0</v>
@@ -28213,7 +28285,7 @@
         <v>229</v>
       </c>
       <c r="P140" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -28300,10 +28372,10 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT140">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU140">
         <v>1.79</v>
@@ -28494,7 +28566,7 @@
         <v>2.2</v>
       </c>
       <c r="AT141">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU141">
         <v>2.4</v>
@@ -28682,10 +28754,10 @@
         <v>1.5</v>
       </c>
       <c r="AS142">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT142">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU142">
         <v>1.45</v>
@@ -28786,7 +28858,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28876,7 +28948,7 @@
         <v>1.6</v>
       </c>
       <c r="AT143">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU143">
         <v>1.22</v>
@@ -29064,10 +29136,10 @@
         <v>0</v>
       </c>
       <c r="AS144">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT144">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU144">
         <v>0</v>
@@ -29255,10 +29327,10 @@
         <v>1.5</v>
       </c>
       <c r="AS145">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT145">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU145">
         <v>1.68</v>
@@ -29446,7 +29518,7 @@
         <v>1.5</v>
       </c>
       <c r="AS146">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT146">
         <v>1.2</v>
@@ -29637,10 +29709,10 @@
         <v>2</v>
       </c>
       <c r="AS147">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT147">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU147">
         <v>2.08</v>
@@ -29831,7 +29903,7 @@
         <v>2.2</v>
       </c>
       <c r="AT148">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU148">
         <v>1.55</v>
@@ -30019,7 +30091,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT149">
         <v>0.4</v>
@@ -30213,7 +30285,7 @@
         <v>2.2</v>
       </c>
       <c r="AT150">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU150">
         <v>2.55</v>
@@ -30401,10 +30473,10 @@
         <v>0</v>
       </c>
       <c r="AS151">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT151">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU151">
         <v>2.38</v>
@@ -30595,7 +30667,7 @@
         <v>1.6</v>
       </c>
       <c r="AT152">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU152">
         <v>1.47</v>
@@ -30783,7 +30855,7 @@
         <v>0</v>
       </c>
       <c r="AS153">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT153">
         <v>0.2</v>
@@ -30974,10 +31046,10 @@
         <v>1</v>
       </c>
       <c r="AS154">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT154">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU154">
         <v>1.54</v>
@@ -31078,7 +31150,7 @@
         <v>236</v>
       </c>
       <c r="P155" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -31165,10 +31237,10 @@
         <v>0</v>
       </c>
       <c r="AS155">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT155">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU155">
         <v>1.82</v>
@@ -31269,7 +31341,7 @@
         <v>237</v>
       </c>
       <c r="P156" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31356,7 +31428,7 @@
         <v>0</v>
       </c>
       <c r="AS156">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT156">
         <v>0.4</v>
@@ -31547,7 +31619,7 @@
         <v>0.5</v>
       </c>
       <c r="AS157">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT157">
         <v>0.2</v>
@@ -31651,7 +31723,7 @@
         <v>239</v>
       </c>
       <c r="P158" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="Q158">
         <v>13</v>
@@ -31738,10 +31810,10 @@
         <v>0</v>
       </c>
       <c r="AS158">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT158">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU158">
         <v>1.6</v>
@@ -31842,7 +31914,7 @@
         <v>153</v>
       </c>
       <c r="P159" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="Q159">
         <v>10</v>
@@ -31929,10 +32001,10 @@
         <v>0</v>
       </c>
       <c r="AS159">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT159">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU159">
         <v>1.65</v>
@@ -32033,7 +32105,7 @@
         <v>135</v>
       </c>
       <c r="P160" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -32120,10 +32192,10 @@
         <v>0.5</v>
       </c>
       <c r="AS160">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AT160">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU160">
         <v>1.57</v>
@@ -32314,7 +32386,7 @@
         <v>1.4</v>
       </c>
       <c r="AT161">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU161">
         <v>0.79</v>
@@ -32505,7 +32577,7 @@
         <v>2.6</v>
       </c>
       <c r="AT162">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>1.62</v>
@@ -32887,7 +32959,7 @@
         <v>2</v>
       </c>
       <c r="AT164">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU164">
         <v>2.27</v>
@@ -33078,7 +33150,7 @@
         <v>1.2</v>
       </c>
       <c r="AT165">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU165">
         <v>1.5</v>
@@ -33457,7 +33529,7 @@
         <v>2</v>
       </c>
       <c r="AS167">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT167">
         <v>1.33</v>
@@ -33561,7 +33633,7 @@
         <v>135</v>
       </c>
       <c r="P168" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33648,10 +33720,10 @@
         <v>1.5</v>
       </c>
       <c r="AS168">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT168">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU168">
         <v>1.22</v>
@@ -33752,7 +33824,7 @@
         <v>243</v>
       </c>
       <c r="P169" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33842,7 +33914,7 @@
         <v>2.6</v>
       </c>
       <c r="AT169">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU169">
         <v>1.77</v>
@@ -33943,7 +34015,7 @@
         <v>244</v>
       </c>
       <c r="P170" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="Q170">
         <v>8</v>
@@ -34030,7 +34102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS170">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
         <v>1.33</v>
@@ -34412,10 +34484,10 @@
         <v>2</v>
       </c>
       <c r="AS172">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT172">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU172">
         <v>2.07</v>
@@ -34516,7 +34588,7 @@
         <v>135</v>
       </c>
       <c r="P173" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="Q173">
         <v>1</v>
@@ -34603,7 +34675,7 @@
         <v>0.67</v>
       </c>
       <c r="AS173">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT173">
         <v>0.83</v>
@@ -34794,7 +34866,7 @@
         <v>0.33</v>
       </c>
       <c r="AS174">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT174">
         <v>0.33</v>
@@ -34898,7 +34970,7 @@
         <v>135</v>
       </c>
       <c r="P175" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -34985,7 +35057,7 @@
         <v>0.33</v>
       </c>
       <c r="AS175">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT175">
         <v>0.83</v>
@@ -35089,7 +35161,7 @@
         <v>248</v>
       </c>
       <c r="P176" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -35179,7 +35251,7 @@
         <v>2</v>
       </c>
       <c r="AT176">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU176">
         <v>2.25</v>
@@ -35280,7 +35352,7 @@
         <v>135</v>
       </c>
       <c r="P177" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35367,7 +35439,7 @@
         <v>0.33</v>
       </c>
       <c r="AS177">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT177">
         <v>1.17</v>
@@ -35471,7 +35543,7 @@
         <v>135</v>
       </c>
       <c r="P178" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="Q178">
         <v>19</v>
@@ -35561,7 +35633,7 @@
         <v>1.2</v>
       </c>
       <c r="AT178">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU178">
         <v>1.74</v>
@@ -35662,7 +35734,7 @@
         <v>249</v>
       </c>
       <c r="P179" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="Q179">
         <v>9</v>
@@ -35749,10 +35821,10 @@
         <v>0</v>
       </c>
       <c r="AS179">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AT179">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU179">
         <v>1.54</v>
@@ -36044,7 +36116,7 @@
         <v>251</v>
       </c>
       <c r="P181" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -36131,10 +36203,10 @@
         <v>1.5</v>
       </c>
       <c r="AS181">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT181">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU181">
         <v>1.97</v>
@@ -36617,7 +36689,7 @@
         <v>254</v>
       </c>
       <c r="P184" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36898,7 +36970,7 @@
         <v>2</v>
       </c>
       <c r="AT185">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU185">
         <v>1.55</v>
@@ -36999,7 +37071,7 @@
         <v>255</v>
       </c>
       <c r="P186" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37086,7 +37158,7 @@
         <v>1.33</v>
       </c>
       <c r="AS186">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT186">
         <v>1.5</v>
@@ -37468,7 +37540,7 @@
         <v>1.67</v>
       </c>
       <c r="AS188">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT188">
         <v>1.33</v>
@@ -37659,10 +37731,10 @@
         <v>0.5</v>
       </c>
       <c r="AS189">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT189">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU189">
         <v>1.93</v>
@@ -37850,10 +37922,10 @@
         <v>0</v>
       </c>
       <c r="AS190">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT190">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU190">
         <v>2.14</v>
@@ -38044,7 +38116,7 @@
         <v>2.2</v>
       </c>
       <c r="AT191">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU191">
         <v>1.21</v>
@@ -38145,7 +38217,7 @@
         <v>258</v>
       </c>
       <c r="P192" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="Q192">
         <v>2</v>
@@ -38232,10 +38304,10 @@
         <v>2</v>
       </c>
       <c r="AS192">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT192">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU192">
         <v>1.54</v>
@@ -38423,10 +38495,10 @@
         <v>1.5</v>
       </c>
       <c r="AS193">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT193">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU193">
         <v>1.42</v>
@@ -38527,7 +38599,7 @@
         <v>259</v>
       </c>
       <c r="P194" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="Q194">
         <v>12</v>
@@ -38617,7 +38689,7 @@
         <v>1.4</v>
       </c>
       <c r="AT194">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU194">
         <v>1.87</v>
@@ -39187,10 +39259,10 @@
         <v>0</v>
       </c>
       <c r="AS197">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT197">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU197">
         <v>1.57</v>
@@ -39291,7 +39363,7 @@
         <v>263</v>
       </c>
       <c r="P198" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="Q198">
         <v>12</v>
@@ -39572,7 +39644,7 @@
         <v>2.2</v>
       </c>
       <c r="AT199">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU199">
         <v>1.5</v>
@@ -39760,10 +39832,10 @@
         <v>2</v>
       </c>
       <c r="AS200">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT200">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU200">
         <v>0.77</v>
@@ -39951,7 +40023,7 @@
         <v>0</v>
       </c>
       <c r="AS201">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT201">
         <v>0.2</v>
@@ -40142,10 +40214,10 @@
         <v>0.33</v>
       </c>
       <c r="AS202">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT202">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU202">
         <v>2.34</v>
@@ -40333,10 +40405,10 @@
         <v>1</v>
       </c>
       <c r="AS203">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT203">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU203">
         <v>1.71</v>
@@ -40715,10 +40787,10 @@
         <v>0.33</v>
       </c>
       <c r="AS205">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT205">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU205">
         <v>1.88</v>
@@ -40909,7 +40981,7 @@
         <v>1.6</v>
       </c>
       <c r="AT206">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU206">
         <v>1.4</v>
@@ -41097,10 +41169,10 @@
         <v>2</v>
       </c>
       <c r="AS207">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT207">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU207">
         <v>1.66</v>
@@ -41201,7 +41273,7 @@
         <v>271</v>
       </c>
       <c r="P208" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="Q208">
         <v>13</v>
@@ -41288,7 +41360,7 @@
         <v>0.5</v>
       </c>
       <c r="AS208">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT208">
         <v>0.4</v>
@@ -41392,7 +41464,7 @@
         <v>135</v>
       </c>
       <c r="P209" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41479,7 +41551,7 @@
         <v>0.5</v>
       </c>
       <c r="AS209">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT209">
         <v>1</v>
@@ -41583,7 +41655,7 @@
         <v>272</v>
       </c>
       <c r="P210" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="Q210">
         <v>5</v>
@@ -41670,10 +41742,10 @@
         <v>0</v>
       </c>
       <c r="AS210">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT210">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU210">
         <v>0</v>
@@ -42055,7 +42127,7 @@
         <v>2.2</v>
       </c>
       <c r="AT212">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU212">
         <v>2.2</v>
@@ -42628,7 +42700,7 @@
         <v>2.2</v>
       </c>
       <c r="AT215">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU215">
         <v>2.31</v>
@@ -42816,10 +42888,10 @@
         <v>1.67</v>
       </c>
       <c r="AS216">
+        <v>1.8</v>
+      </c>
+      <c r="AT216">
         <v>1.5</v>
-      </c>
-      <c r="AT216">
-        <v>1.6</v>
       </c>
       <c r="AU216">
         <v>1.88</v>
@@ -43007,7 +43079,7 @@
         <v>0</v>
       </c>
       <c r="AS217">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT217">
         <v>0.6</v>
@@ -43111,7 +43183,7 @@
         <v>135</v>
       </c>
       <c r="P218" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -43201,7 +43273,7 @@
         <v>1.4</v>
       </c>
       <c r="AT218">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU218">
         <v>0.79</v>
@@ -43389,7 +43461,7 @@
         <v>2</v>
       </c>
       <c r="AS219">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT219">
         <v>1.2</v>
@@ -43493,7 +43565,7 @@
         <v>277</v>
       </c>
       <c r="P220" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="Q220">
         <v>9</v>
@@ -43583,7 +43655,7 @@
         <v>1.6</v>
       </c>
       <c r="AT220">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU220">
         <v>1.64</v>
@@ -43771,7 +43843,7 @@
         <v>2</v>
       </c>
       <c r="AS221">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT221">
         <v>1.6</v>
@@ -43962,7 +44034,7 @@
         <v>0.5</v>
       </c>
       <c r="AS222">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT222">
         <v>0.6</v>
@@ -44538,7 +44610,7 @@
         <v>1.6</v>
       </c>
       <c r="AT225">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU225">
         <v>1.18</v>
@@ -44726,7 +44798,7 @@
         <v>0.33</v>
       </c>
       <c r="AS226">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT226">
         <v>0.4</v>
@@ -44830,7 +44902,7 @@
         <v>280</v>
       </c>
       <c r="P227" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="Q227">
         <v>2</v>
@@ -44920,7 +44992,7 @@
         <v>1.33</v>
       </c>
       <c r="AT227">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU227">
         <v>1.34</v>
@@ -45111,7 +45183,7 @@
         <v>2</v>
       </c>
       <c r="AT228">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU228">
         <v>1.78</v>
@@ -45212,7 +45284,7 @@
         <v>135</v>
       </c>
       <c r="P229" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="Q229">
         <v>6</v>
@@ -45681,7 +45753,7 @@
         <v>1</v>
       </c>
       <c r="AS231">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT231">
         <v>1</v>
@@ -45872,10 +45944,10 @@
         <v>0.25</v>
       </c>
       <c r="AS232">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT232">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU232">
         <v>1.69</v>
@@ -45976,7 +46048,7 @@
         <v>135</v>
       </c>
       <c r="P233" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="Q233">
         <v>16</v>
@@ -46063,10 +46135,10 @@
         <v>0.25</v>
       </c>
       <c r="AS233">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT233">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU233">
         <v>2.1</v>
@@ -46257,7 +46329,7 @@
         <v>1.33</v>
       </c>
       <c r="AT234">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU234">
         <v>1.27</v>
@@ -46358,7 +46430,7 @@
         <v>135</v>
       </c>
       <c r="P235" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="Q235">
         <v>8</v>
@@ -46445,10 +46517,10 @@
         <v>1</v>
       </c>
       <c r="AS235">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT235">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU235">
         <v>1.4</v>
@@ -47018,7 +47090,7 @@
         <v>1.33</v>
       </c>
       <c r="AS238">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT238">
         <v>1</v>
@@ -47212,7 +47284,7 @@
         <v>2.33</v>
       </c>
       <c r="AT239">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU239">
         <v>1.38</v>
@@ -47400,10 +47472,10 @@
         <v>1.25</v>
       </c>
       <c r="AS240">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT240">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU240">
         <v>1.55</v>
@@ -47504,7 +47576,7 @@
         <v>287</v>
       </c>
       <c r="P241" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -47591,7 +47663,7 @@
         <v>1.33</v>
       </c>
       <c r="AS241">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT241">
         <v>1.4</v>
@@ -47785,7 +47857,7 @@
         <v>3</v>
       </c>
       <c r="AT242">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU242">
         <v>2.1</v>
@@ -47886,7 +47958,7 @@
         <v>289</v>
       </c>
       <c r="P243" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -48077,7 +48149,7 @@
         <v>135</v>
       </c>
       <c r="P244" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="Q244">
         <v>7</v>
@@ -48164,10 +48236,10 @@
         <v>1.75</v>
       </c>
       <c r="AS244">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT244">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU244">
         <v>1.31</v>
@@ -48737,7 +48809,7 @@
         <v>0</v>
       </c>
       <c r="AS247">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT247">
         <v>0</v>
@@ -49032,7 +49104,7 @@
         <v>135</v>
       </c>
       <c r="P249" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="Q249">
         <v>1</v>
@@ -49119,7 +49191,7 @@
         <v>1.33</v>
       </c>
       <c r="AS249">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT249">
         <v>1.4</v>
@@ -49223,7 +49295,7 @@
         <v>291</v>
       </c>
       <c r="P250" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="Q250">
         <v>9</v>
@@ -49310,10 +49382,10 @@
         <v>0.75</v>
       </c>
       <c r="AS250">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT250">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU250">
         <v>1.79</v>
@@ -49504,7 +49576,7 @@
         <v>1.83</v>
       </c>
       <c r="AT251">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU251">
         <v>0.99</v>
@@ -49605,7 +49677,7 @@
         <v>269</v>
       </c>
       <c r="P252" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="Q252">
         <v>7</v>
@@ -49692,10 +49764,10 @@
         <v>2</v>
       </c>
       <c r="AS252">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT252">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU252">
         <v>1.76</v>
@@ -49886,7 +49958,7 @@
         <v>2.67</v>
       </c>
       <c r="AT253">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU253">
         <v>1.76</v>
@@ -49987,7 +50059,7 @@
         <v>135</v>
       </c>
       <c r="P254" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="Q254">
         <v>6</v>
@@ -50074,7 +50146,7 @@
         <v>0.67</v>
       </c>
       <c r="AS254">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AT254">
         <v>1.2</v>
@@ -50268,7 +50340,7 @@
         <v>1</v>
       </c>
       <c r="AT255">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU255">
         <v>1.93</v>
@@ -50456,7 +50528,7 @@
         <v>1.33</v>
       </c>
       <c r="AS256">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT256">
         <v>0.8</v>
@@ -50647,10 +50719,10 @@
         <v>0.75</v>
       </c>
       <c r="AS257">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT257">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU257">
         <v>1.95</v>
@@ -50841,7 +50913,7 @@
         <v>1.6</v>
       </c>
       <c r="AT258">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU258">
         <v>1.33</v>
@@ -50942,7 +51014,7 @@
         <v>296</v>
       </c>
       <c r="P259" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51029,7 +51101,7 @@
         <v>0.25</v>
       </c>
       <c r="AS259">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT259">
         <v>0.4</v>
@@ -51133,7 +51205,7 @@
         <v>135</v>
       </c>
       <c r="P260" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="Q260">
         <v>3</v>
@@ -51411,7 +51483,7 @@
         <v>0.5</v>
       </c>
       <c r="AS261">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT261">
         <v>0.4</v>
@@ -51602,10 +51674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS262">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT262">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU262">
         <v>1.96</v>
@@ -51987,7 +52059,7 @@
         <v>1.8</v>
       </c>
       <c r="AT264">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU264">
         <v>1.19</v>
@@ -52175,7 +52247,7 @@
         <v>1.5</v>
       </c>
       <c r="AS265">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT265">
         <v>1.2</v>
@@ -52369,7 +52441,7 @@
         <v>1</v>
       </c>
       <c r="AT266">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU266">
         <v>1.39</v>
@@ -52470,7 +52542,7 @@
         <v>300</v>
       </c>
       <c r="P267" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52560,7 +52632,7 @@
         <v>1.6</v>
       </c>
       <c r="AT267">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU267">
         <v>1.77</v>
@@ -52939,10 +53011,10 @@
         <v>2.33</v>
       </c>
       <c r="AS269">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT269">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU269">
         <v>1.32</v>
@@ -53234,7 +53306,7 @@
         <v>301</v>
       </c>
       <c r="P271" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="Q271">
         <v>5</v>
@@ -53512,7 +53584,7 @@
         <v>0.25</v>
       </c>
       <c r="AS272">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT272">
         <v>0.2</v>
@@ -53703,7 +53775,7 @@
         <v>0.5</v>
       </c>
       <c r="AS273">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AT273">
         <v>0.4</v>
@@ -53807,7 +53879,7 @@
         <v>135</v>
       </c>
       <c r="P274" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="Q274">
         <v>4</v>
@@ -53894,10 +53966,10 @@
         <v>0</v>
       </c>
       <c r="AS274">
+        <v>0.67</v>
+      </c>
+      <c r="AT274">
         <v>0.8</v>
-      </c>
-      <c r="AT274">
-        <v>0.75</v>
       </c>
       <c r="AU274">
         <v>1.4</v>
@@ -54085,7 +54157,7 @@
         <v>0.75</v>
       </c>
       <c r="AS275">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT275">
         <v>0.8</v>
@@ -54279,7 +54351,7 @@
         <v>1</v>
       </c>
       <c r="AT276">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU276">
         <v>2.26</v>
@@ -54571,7 +54643,7 @@
         <v>213</v>
       </c>
       <c r="P278" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="Q278">
         <v>11</v>
@@ -54661,7 +54733,7 @@
         <v>2.6</v>
       </c>
       <c r="AT278">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU278">
         <v>1.77</v>
@@ -55231,10 +55303,10 @@
         <v>0.67</v>
       </c>
       <c r="AS281">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT281">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU281">
         <v>1.95</v>
@@ -55335,7 +55407,7 @@
         <v>135</v>
       </c>
       <c r="P282" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="Q282">
         <v>2</v>
@@ -55422,10 +55494,10 @@
         <v>1</v>
       </c>
       <c r="AS282">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT282">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU282">
         <v>1.77</v>
@@ -55616,7 +55688,7 @@
         <v>0.8</v>
       </c>
       <c r="AT283">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU283">
         <v>0.79</v>
@@ -55804,7 +55876,7 @@
         <v>1.5</v>
       </c>
       <c r="AS284">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT284">
         <v>1.2</v>
@@ -55998,7 +56070,7 @@
         <v>1.8</v>
       </c>
       <c r="AT285">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU285">
         <v>2.07</v>
@@ -56186,10 +56258,10 @@
         <v>0.33</v>
       </c>
       <c r="AS286">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT286">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU286">
         <v>1.49</v>
@@ -56380,7 +56452,7 @@
         <v>2.4</v>
       </c>
       <c r="AT287">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU287">
         <v>2.09</v>
@@ -56568,10 +56640,10 @@
         <v>0</v>
       </c>
       <c r="AS288">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT288">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU288">
         <v>1.67</v>
@@ -56759,7 +56831,7 @@
         <v>0</v>
       </c>
       <c r="AS289">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AT289">
         <v>0.2</v>
@@ -57335,7 +57407,7 @@
         <v>2</v>
       </c>
       <c r="AT292">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU292">
         <v>1.81</v>
@@ -57526,7 +57598,7 @@
         <v>2.6</v>
       </c>
       <c r="AT293">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU293">
         <v>1.61</v>
@@ -57818,7 +57890,7 @@
         <v>301</v>
       </c>
       <c r="P295" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="Q295">
         <v>7</v>
@@ -57905,7 +57977,7 @@
         <v>1</v>
       </c>
       <c r="AS295">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT295">
         <v>1.4</v>
@@ -58287,7 +58359,7 @@
         <v>1.75</v>
       </c>
       <c r="AS297">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT297">
         <v>1.4</v>
@@ -58478,7 +58550,7 @@
         <v>1</v>
       </c>
       <c r="AS298">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT298">
         <v>1</v>
@@ -58582,7 +58654,7 @@
         <v>314</v>
       </c>
       <c r="P299" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58669,7 +58741,7 @@
         <v>1.25</v>
       </c>
       <c r="AS299">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT299">
         <v>1.2</v>
@@ -58773,7 +58845,7 @@
         <v>135</v>
       </c>
       <c r="P300" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="Q300">
         <v>5</v>
@@ -58964,7 +59036,7 @@
         <v>315</v>
       </c>
       <c r="P301" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="Q301">
         <v>9</v>
@@ -59346,7 +59418,7 @@
         <v>135</v>
       </c>
       <c r="P303" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59627,7 +59699,7 @@
         <v>2</v>
       </c>
       <c r="AT304">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU304">
         <v>1.54</v>
@@ -59815,7 +59887,7 @@
         <v>1</v>
       </c>
       <c r="AS305">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT305">
         <v>1</v>
@@ -60110,7 +60182,7 @@
         <v>135</v>
       </c>
       <c r="P307" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="Q307">
         <v>5</v>
@@ -60200,7 +60272,7 @@
         <v>2</v>
       </c>
       <c r="AT307">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU307">
         <v>2.1</v>
@@ -60301,7 +60373,7 @@
         <v>275</v>
       </c>
       <c r="P308" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="Q308">
         <v>10</v>
@@ -60773,7 +60845,7 @@
         <v>2.2</v>
       </c>
       <c r="AT310">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU310">
         <v>1.85</v>
@@ -60874,7 +60946,7 @@
         <v>318</v>
       </c>
       <c r="P311" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q311">
         <v>0</v>
@@ -60964,7 +61036,7 @@
         <v>2.6</v>
       </c>
       <c r="AT311">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU311">
         <v>1.43</v>
@@ -61155,7 +61227,7 @@
         <v>1.2</v>
       </c>
       <c r="AT312">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU312">
         <v>2.33</v>
@@ -61343,7 +61415,7 @@
         <v>0.25</v>
       </c>
       <c r="AS313">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT313">
         <v>0.4</v>
@@ -61447,7 +61519,7 @@
         <v>198</v>
       </c>
       <c r="P314" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="Q314">
         <v>1</v>
@@ -61537,7 +61609,7 @@
         <v>1.2</v>
       </c>
       <c r="AT314">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU314">
         <v>1.84</v>
@@ -61638,7 +61710,7 @@
         <v>320</v>
       </c>
       <c r="P315" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="Q315">
         <v>3</v>
@@ -61829,7 +61901,7 @@
         <v>321</v>
       </c>
       <c r="P316" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="Q316">
         <v>6</v>
@@ -62107,7 +62179,7 @@
         <v>0</v>
       </c>
       <c r="AS317">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT317">
         <v>0</v>
@@ -62593,7 +62665,7 @@
         <v>324</v>
       </c>
       <c r="P320" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="Q320">
         <v>5</v>
@@ -62871,7 +62943,7 @@
         <v>1</v>
       </c>
       <c r="AS321">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT321">
         <v>0.8</v>
@@ -62926,6 +62998,6118 @@
       </c>
       <c r="BK321">
         <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:63">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>5557140</v>
+      </c>
+      <c r="C322" t="s">
+        <v>63</v>
+      </c>
+      <c r="D322" t="s">
+        <v>64</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45108.625</v>
+      </c>
+      <c r="F322">
+        <v>11</v>
+      </c>
+      <c r="G322" t="s">
+        <v>68</v>
+      </c>
+      <c r="H322" t="s">
+        <v>82</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+      <c r="M322">
+        <v>1</v>
+      </c>
+      <c r="N322">
+        <v>1</v>
+      </c>
+      <c r="O322" t="s">
+        <v>135</v>
+      </c>
+      <c r="P322" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q322">
+        <v>2</v>
+      </c>
+      <c r="R322">
+        <v>2</v>
+      </c>
+      <c r="S322">
+        <v>4</v>
+      </c>
+      <c r="T322">
+        <v>2.75</v>
+      </c>
+      <c r="U322">
+        <v>1.91</v>
+      </c>
+      <c r="V322">
+        <v>4.5</v>
+      </c>
+      <c r="W322">
+        <v>0</v>
+      </c>
+      <c r="X322">
+        <v>0</v>
+      </c>
+      <c r="Y322">
+        <v>0</v>
+      </c>
+      <c r="Z322">
+        <v>0</v>
+      </c>
+      <c r="AA322">
+        <v>0</v>
+      </c>
+      <c r="AB322">
+        <v>0</v>
+      </c>
+      <c r="AC322">
+        <v>1.18</v>
+      </c>
+      <c r="AD322">
+        <v>6.9</v>
+      </c>
+      <c r="AE322">
+        <v>8.24</v>
+      </c>
+      <c r="AF322">
+        <v>0</v>
+      </c>
+      <c r="AG322">
+        <v>0</v>
+      </c>
+      <c r="AH322">
+        <v>1.51</v>
+      </c>
+      <c r="AI322">
+        <v>2.35</v>
+      </c>
+      <c r="AJ322">
+        <v>2.31</v>
+      </c>
+      <c r="AK322">
+        <v>1.48</v>
+      </c>
+      <c r="AL322">
+        <v>0</v>
+      </c>
+      <c r="AM322">
+        <v>0</v>
+      </c>
+      <c r="AN322">
+        <v>0</v>
+      </c>
+      <c r="AO322">
+        <v>0</v>
+      </c>
+      <c r="AP322">
+        <v>0</v>
+      </c>
+      <c r="AQ322">
+        <v>2.2</v>
+      </c>
+      <c r="AR322">
+        <v>0.8</v>
+      </c>
+      <c r="AS322">
+        <v>1.83</v>
+      </c>
+      <c r="AT322">
+        <v>1.17</v>
+      </c>
+      <c r="AU322">
+        <v>1.62</v>
+      </c>
+      <c r="AV322">
+        <v>1.27</v>
+      </c>
+      <c r="AW322">
+        <v>2.89</v>
+      </c>
+      <c r="AX322">
+        <v>0</v>
+      </c>
+      <c r="AY322">
+        <v>0</v>
+      </c>
+      <c r="AZ322">
+        <v>0</v>
+      </c>
+      <c r="BA322">
+        <v>0</v>
+      </c>
+      <c r="BB322">
+        <v>0</v>
+      </c>
+      <c r="BC322">
+        <v>2.38</v>
+      </c>
+      <c r="BD322">
+        <v>0</v>
+      </c>
+      <c r="BE322">
+        <v>0</v>
+      </c>
+      <c r="BF322">
+        <v>5</v>
+      </c>
+      <c r="BG322">
+        <v>5</v>
+      </c>
+      <c r="BH322">
+        <v>7</v>
+      </c>
+      <c r="BI322">
+        <v>4</v>
+      </c>
+      <c r="BJ322">
+        <v>12</v>
+      </c>
+      <c r="BK322">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:63">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>5556803</v>
+      </c>
+      <c r="C323" t="s">
+        <v>63</v>
+      </c>
+      <c r="D323" t="s">
+        <v>64</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45108.625</v>
+      </c>
+      <c r="F323">
+        <v>11</v>
+      </c>
+      <c r="G323" t="s">
+        <v>106</v>
+      </c>
+      <c r="H323" t="s">
+        <v>119</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>2</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>2</v>
+      </c>
+      <c r="O323" t="s">
+        <v>325</v>
+      </c>
+      <c r="P323" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q323">
+        <v>9</v>
+      </c>
+      <c r="R323">
+        <v>5</v>
+      </c>
+      <c r="S323">
+        <v>14</v>
+      </c>
+      <c r="T323">
+        <v>2.75</v>
+      </c>
+      <c r="U323">
+        <v>2.05</v>
+      </c>
+      <c r="V323">
+        <v>4</v>
+      </c>
+      <c r="W323">
+        <v>0</v>
+      </c>
+      <c r="X323">
+        <v>0</v>
+      </c>
+      <c r="Y323">
+        <v>0</v>
+      </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
+      <c r="AA323">
+        <v>0</v>
+      </c>
+      <c r="AB323">
+        <v>0</v>
+      </c>
+      <c r="AC323">
+        <v>1.95</v>
+      </c>
+      <c r="AD323">
+        <v>3.1</v>
+      </c>
+      <c r="AE323">
+        <v>3.5</v>
+      </c>
+      <c r="AF323">
+        <v>0</v>
+      </c>
+      <c r="AG323">
+        <v>0</v>
+      </c>
+      <c r="AH323">
+        <v>0</v>
+      </c>
+      <c r="AI323">
+        <v>0</v>
+      </c>
+      <c r="AJ323">
+        <v>2.18</v>
+      </c>
+      <c r="AK323">
+        <v>1.63</v>
+      </c>
+      <c r="AL323">
+        <v>0</v>
+      </c>
+      <c r="AM323">
+        <v>0</v>
+      </c>
+      <c r="AN323">
+        <v>0</v>
+      </c>
+      <c r="AO323">
+        <v>0</v>
+      </c>
+      <c r="AP323">
+        <v>0</v>
+      </c>
+      <c r="AQ323">
+        <v>1</v>
+      </c>
+      <c r="AR323">
+        <v>0.4</v>
+      </c>
+      <c r="AS323">
+        <v>1.33</v>
+      </c>
+      <c r="AT323">
+        <v>0.33</v>
+      </c>
+      <c r="AU323">
+        <v>2.26</v>
+      </c>
+      <c r="AV323">
+        <v>0.92</v>
+      </c>
+      <c r="AW323">
+        <v>3.18</v>
+      </c>
+      <c r="AX323">
+        <v>0</v>
+      </c>
+      <c r="AY323">
+        <v>0</v>
+      </c>
+      <c r="AZ323">
+        <v>0</v>
+      </c>
+      <c r="BA323">
+        <v>0</v>
+      </c>
+      <c r="BB323">
+        <v>0</v>
+      </c>
+      <c r="BC323">
+        <v>0</v>
+      </c>
+      <c r="BD323">
+        <v>0</v>
+      </c>
+      <c r="BE323">
+        <v>0</v>
+      </c>
+      <c r="BF323">
+        <v>6</v>
+      </c>
+      <c r="BG323">
+        <v>3</v>
+      </c>
+      <c r="BH323">
+        <v>9</v>
+      </c>
+      <c r="BI323">
+        <v>3</v>
+      </c>
+      <c r="BJ323">
+        <v>15</v>
+      </c>
+      <c r="BK323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:63">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>5557026</v>
+      </c>
+      <c r="C324" t="s">
+        <v>63</v>
+      </c>
+      <c r="D324" t="s">
+        <v>64</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45108.625</v>
+      </c>
+      <c r="F324">
+        <v>11</v>
+      </c>
+      <c r="G324" t="s">
+        <v>100</v>
+      </c>
+      <c r="H324" t="s">
+        <v>97</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>1</v>
+      </c>
+      <c r="L324">
+        <v>2</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>2</v>
+      </c>
+      <c r="O324" t="s">
+        <v>326</v>
+      </c>
+      <c r="P324" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q324">
+        <v>2</v>
+      </c>
+      <c r="R324">
+        <v>5</v>
+      </c>
+      <c r="S324">
+        <v>7</v>
+      </c>
+      <c r="T324">
+        <v>3</v>
+      </c>
+      <c r="U324">
+        <v>1.95</v>
+      </c>
+      <c r="V324">
+        <v>4</v>
+      </c>
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
+        <v>0</v>
+      </c>
+      <c r="AB324">
+        <v>0</v>
+      </c>
+      <c r="AC324">
+        <v>1.74</v>
+      </c>
+      <c r="AD324">
+        <v>3.7</v>
+      </c>
+      <c r="AE324">
+        <v>3.78</v>
+      </c>
+      <c r="AF324">
+        <v>0</v>
+      </c>
+      <c r="AG324">
+        <v>0</v>
+      </c>
+      <c r="AH324">
+        <v>0</v>
+      </c>
+      <c r="AI324">
+        <v>0</v>
+      </c>
+      <c r="AJ324">
+        <v>2.4</v>
+      </c>
+      <c r="AK324">
+        <v>1.52</v>
+      </c>
+      <c r="AL324">
+        <v>0</v>
+      </c>
+      <c r="AM324">
+        <v>0</v>
+      </c>
+      <c r="AN324">
+        <v>0</v>
+      </c>
+      <c r="AO324">
+        <v>0</v>
+      </c>
+      <c r="AP324">
+        <v>0</v>
+      </c>
+      <c r="AQ324">
+        <v>1.25</v>
+      </c>
+      <c r="AR324">
+        <v>1.4</v>
+      </c>
+      <c r="AS324">
+        <v>1.6</v>
+      </c>
+      <c r="AT324">
+        <v>1.17</v>
+      </c>
+      <c r="AU324">
+        <v>1.54</v>
+      </c>
+      <c r="AV324">
+        <v>1.35</v>
+      </c>
+      <c r="AW324">
+        <v>2.89</v>
+      </c>
+      <c r="AX324">
+        <v>0</v>
+      </c>
+      <c r="AY324">
+        <v>0</v>
+      </c>
+      <c r="AZ324">
+        <v>0</v>
+      </c>
+      <c r="BA324">
+        <v>0</v>
+      </c>
+      <c r="BB324">
+        <v>0</v>
+      </c>
+      <c r="BC324">
+        <v>0</v>
+      </c>
+      <c r="BD324">
+        <v>0</v>
+      </c>
+      <c r="BE324">
+        <v>0</v>
+      </c>
+      <c r="BF324">
+        <v>5</v>
+      </c>
+      <c r="BG324">
+        <v>2</v>
+      </c>
+      <c r="BH324">
+        <v>8</v>
+      </c>
+      <c r="BI324">
+        <v>6</v>
+      </c>
+      <c r="BJ324">
+        <v>13</v>
+      </c>
+      <c r="BK324">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:63">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>5556746</v>
+      </c>
+      <c r="C325" t="s">
+        <v>63</v>
+      </c>
+      <c r="D325" t="s">
+        <v>64</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45108.625</v>
+      </c>
+      <c r="F325">
+        <v>11</v>
+      </c>
+      <c r="G325" t="s">
+        <v>116</v>
+      </c>
+      <c r="H325" t="s">
+        <v>113</v>
+      </c>
+      <c r="I325">
+        <v>2</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>2</v>
+      </c>
+      <c r="L325">
+        <v>2</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>2</v>
+      </c>
+      <c r="O325" t="s">
+        <v>327</v>
+      </c>
+      <c r="P325" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q325">
+        <v>13</v>
+      </c>
+      <c r="R325">
+        <v>0</v>
+      </c>
+      <c r="S325">
+        <v>13</v>
+      </c>
+      <c r="T325">
+        <v>1.73</v>
+      </c>
+      <c r="U325">
+        <v>2.6</v>
+      </c>
+      <c r="V325">
+        <v>7.5</v>
+      </c>
+      <c r="W325">
+        <v>0</v>
+      </c>
+      <c r="X325">
+        <v>0</v>
+      </c>
+      <c r="Y325">
+        <v>0</v>
+      </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
+        <v>0</v>
+      </c>
+      <c r="AB325">
+        <v>0</v>
+      </c>
+      <c r="AC325">
+        <v>1.44</v>
+      </c>
+      <c r="AD325">
+        <v>3.24</v>
+      </c>
+      <c r="AE325">
+        <v>8.99</v>
+      </c>
+      <c r="AF325">
+        <v>0</v>
+      </c>
+      <c r="AG325">
+        <v>0</v>
+      </c>
+      <c r="AH325">
+        <v>0</v>
+      </c>
+      <c r="AI325">
+        <v>0</v>
+      </c>
+      <c r="AJ325">
+        <v>1.6</v>
+      </c>
+      <c r="AK325">
+        <v>2.05</v>
+      </c>
+      <c r="AL325">
+        <v>0</v>
+      </c>
+      <c r="AM325">
+        <v>0</v>
+      </c>
+      <c r="AN325">
+        <v>0</v>
+      </c>
+      <c r="AO325">
+        <v>0</v>
+      </c>
+      <c r="AP325">
+        <v>0</v>
+      </c>
+      <c r="AQ325">
+        <v>2.5</v>
+      </c>
+      <c r="AR325">
+        <v>1.2</v>
+      </c>
+      <c r="AS325">
+        <v>2.6</v>
+      </c>
+      <c r="AT325">
+        <v>1</v>
+      </c>
+      <c r="AU325">
+        <v>2.11</v>
+      </c>
+      <c r="AV325">
+        <v>1.32</v>
+      </c>
+      <c r="AW325">
+        <v>3.43</v>
+      </c>
+      <c r="AX325">
+        <v>0</v>
+      </c>
+      <c r="AY325">
+        <v>0</v>
+      </c>
+      <c r="AZ325">
+        <v>0</v>
+      </c>
+      <c r="BA325">
+        <v>0</v>
+      </c>
+      <c r="BB325">
+        <v>0</v>
+      </c>
+      <c r="BC325">
+        <v>0</v>
+      </c>
+      <c r="BD325">
+        <v>0</v>
+      </c>
+      <c r="BE325">
+        <v>0</v>
+      </c>
+      <c r="BF325">
+        <v>10</v>
+      </c>
+      <c r="BG325">
+        <v>7</v>
+      </c>
+      <c r="BH325">
+        <v>24</v>
+      </c>
+      <c r="BI325">
+        <v>2</v>
+      </c>
+      <c r="BJ325">
+        <v>34</v>
+      </c>
+      <c r="BK325">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:63">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>5556914</v>
+      </c>
+      <c r="C326" t="s">
+        <v>63</v>
+      </c>
+      <c r="D326" t="s">
+        <v>64</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45108.625</v>
+      </c>
+      <c r="F326">
+        <v>11</v>
+      </c>
+      <c r="G326" t="s">
+        <v>107</v>
+      </c>
+      <c r="H326" t="s">
+        <v>105</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+      <c r="M326">
+        <v>2</v>
+      </c>
+      <c r="N326">
+        <v>3</v>
+      </c>
+      <c r="O326" t="s">
+        <v>161</v>
+      </c>
+      <c r="P326" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q326">
+        <v>10</v>
+      </c>
+      <c r="R326">
+        <v>7</v>
+      </c>
+      <c r="S326">
+        <v>17</v>
+      </c>
+      <c r="T326">
+        <v>4.33</v>
+      </c>
+      <c r="U326">
+        <v>2.05</v>
+      </c>
+      <c r="V326">
+        <v>2.6</v>
+      </c>
+      <c r="W326">
+        <v>0</v>
+      </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <v>0</v>
+      </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
+      <c r="AB326">
+        <v>0</v>
+      </c>
+      <c r="AC326">
+        <v>4</v>
+      </c>
+      <c r="AD326">
+        <v>3.4</v>
+      </c>
+      <c r="AE326">
+        <v>1.75</v>
+      </c>
+      <c r="AF326">
+        <v>0</v>
+      </c>
+      <c r="AG326">
+        <v>0</v>
+      </c>
+      <c r="AH326">
+        <v>0</v>
+      </c>
+      <c r="AI326">
+        <v>0</v>
+      </c>
+      <c r="AJ326">
+        <v>2.08</v>
+      </c>
+      <c r="AK326">
+        <v>1.68</v>
+      </c>
+      <c r="AL326">
+        <v>0</v>
+      </c>
+      <c r="AM326">
+        <v>0</v>
+      </c>
+      <c r="AN326">
+        <v>0</v>
+      </c>
+      <c r="AO326">
+        <v>0</v>
+      </c>
+      <c r="AP326">
+        <v>0</v>
+      </c>
+      <c r="AQ326">
+        <v>1.25</v>
+      </c>
+      <c r="AR326">
+        <v>2.2</v>
+      </c>
+      <c r="AS326">
+        <v>1</v>
+      </c>
+      <c r="AT326">
+        <v>2.33</v>
+      </c>
+      <c r="AU326">
+        <v>1.26</v>
+      </c>
+      <c r="AV326">
+        <v>1.31</v>
+      </c>
+      <c r="AW326">
+        <v>2.57</v>
+      </c>
+      <c r="AX326">
+        <v>0</v>
+      </c>
+      <c r="AY326">
+        <v>0</v>
+      </c>
+      <c r="AZ326">
+        <v>0</v>
+      </c>
+      <c r="BA326">
+        <v>0</v>
+      </c>
+      <c r="BB326">
+        <v>0</v>
+      </c>
+      <c r="BC326">
+        <v>2</v>
+      </c>
+      <c r="BD326">
+        <v>0</v>
+      </c>
+      <c r="BE326">
+        <v>0</v>
+      </c>
+      <c r="BF326">
+        <v>6</v>
+      </c>
+      <c r="BG326">
+        <v>9</v>
+      </c>
+      <c r="BH326">
+        <v>7</v>
+      </c>
+      <c r="BI326">
+        <v>3</v>
+      </c>
+      <c r="BJ326">
+        <v>13</v>
+      </c>
+      <c r="BK326">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:63">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>5556802</v>
+      </c>
+      <c r="C327" t="s">
+        <v>63</v>
+      </c>
+      <c r="D327" t="s">
+        <v>64</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45108.625</v>
+      </c>
+      <c r="F327">
+        <v>11</v>
+      </c>
+      <c r="G327" t="s">
+        <v>99</v>
+      </c>
+      <c r="H327" t="s">
+        <v>121</v>
+      </c>
+      <c r="I327">
+        <v>2</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>2</v>
+      </c>
+      <c r="L327">
+        <v>3</v>
+      </c>
+      <c r="M327">
+        <v>1</v>
+      </c>
+      <c r="N327">
+        <v>4</v>
+      </c>
+      <c r="O327" t="s">
+        <v>328</v>
+      </c>
+      <c r="P327" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q327">
+        <v>1</v>
+      </c>
+      <c r="R327">
+        <v>1</v>
+      </c>
+      <c r="S327">
+        <v>2</v>
+      </c>
+      <c r="T327">
+        <v>2.6</v>
+      </c>
+      <c r="U327">
+        <v>2.05</v>
+      </c>
+      <c r="V327">
+        <v>4.5</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+      <c r="AB327">
+        <v>0</v>
+      </c>
+      <c r="AC327">
+        <v>1.83</v>
+      </c>
+      <c r="AD327">
+        <v>3.1</v>
+      </c>
+      <c r="AE327">
+        <v>4</v>
+      </c>
+      <c r="AF327">
+        <v>0</v>
+      </c>
+      <c r="AG327">
+        <v>0</v>
+      </c>
+      <c r="AH327">
+        <v>0</v>
+      </c>
+      <c r="AI327">
+        <v>0</v>
+      </c>
+      <c r="AJ327">
+        <v>2.2</v>
+      </c>
+      <c r="AK327">
+        <v>1.65</v>
+      </c>
+      <c r="AL327">
+        <v>0</v>
+      </c>
+      <c r="AM327">
+        <v>0</v>
+      </c>
+      <c r="AN327">
+        <v>0</v>
+      </c>
+      <c r="AO327">
+        <v>0</v>
+      </c>
+      <c r="AP327">
+        <v>0</v>
+      </c>
+      <c r="AQ327">
+        <v>1.25</v>
+      </c>
+      <c r="AR327">
+        <v>0.8</v>
+      </c>
+      <c r="AS327">
+        <v>1.6</v>
+      </c>
+      <c r="AT327">
+        <v>0.67</v>
+      </c>
+      <c r="AU327">
+        <v>1.67</v>
+      </c>
+      <c r="AV327">
+        <v>1.5</v>
+      </c>
+      <c r="AW327">
+        <v>3.17</v>
+      </c>
+      <c r="AX327">
+        <v>0</v>
+      </c>
+      <c r="AY327">
+        <v>0</v>
+      </c>
+      <c r="AZ327">
+        <v>0</v>
+      </c>
+      <c r="BA327">
+        <v>0</v>
+      </c>
+      <c r="BB327">
+        <v>0</v>
+      </c>
+      <c r="BC327">
+        <v>0</v>
+      </c>
+      <c r="BD327">
+        <v>0</v>
+      </c>
+      <c r="BE327">
+        <v>0</v>
+      </c>
+      <c r="BF327">
+        <v>4</v>
+      </c>
+      <c r="BG327">
+        <v>2</v>
+      </c>
+      <c r="BH327">
+        <v>5</v>
+      </c>
+      <c r="BI327">
+        <v>8</v>
+      </c>
+      <c r="BJ327">
+        <v>9</v>
+      </c>
+      <c r="BK327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:63">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>5557027</v>
+      </c>
+      <c r="C328" t="s">
+        <v>63</v>
+      </c>
+      <c r="D328" t="s">
+        <v>64</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45108.64583333334</v>
+      </c>
+      <c r="F328">
+        <v>11</v>
+      </c>
+      <c r="G328" t="s">
+        <v>101</v>
+      </c>
+      <c r="H328" t="s">
+        <v>112</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+      <c r="M328">
+        <v>1</v>
+      </c>
+      <c r="N328">
+        <v>1</v>
+      </c>
+      <c r="O328" t="s">
+        <v>135</v>
+      </c>
+      <c r="P328" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q328">
+        <v>7</v>
+      </c>
+      <c r="R328">
+        <v>9</v>
+      </c>
+      <c r="S328">
+        <v>16</v>
+      </c>
+      <c r="T328">
+        <v>0</v>
+      </c>
+      <c r="U328">
+        <v>0</v>
+      </c>
+      <c r="V328">
+        <v>0</v>
+      </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
+      <c r="AB328">
+        <v>0</v>
+      </c>
+      <c r="AC328">
+        <v>3.21</v>
+      </c>
+      <c r="AD328">
+        <v>3.83</v>
+      </c>
+      <c r="AE328">
+        <v>1.87</v>
+      </c>
+      <c r="AF328">
+        <v>0</v>
+      </c>
+      <c r="AG328">
+        <v>0</v>
+      </c>
+      <c r="AH328">
+        <v>0</v>
+      </c>
+      <c r="AI328">
+        <v>0</v>
+      </c>
+      <c r="AJ328">
+        <v>2.12</v>
+      </c>
+      <c r="AK328">
+        <v>1.57</v>
+      </c>
+      <c r="AL328">
+        <v>0</v>
+      </c>
+      <c r="AM328">
+        <v>0</v>
+      </c>
+      <c r="AN328">
+        <v>0</v>
+      </c>
+      <c r="AO328">
+        <v>0</v>
+      </c>
+      <c r="AP328">
+        <v>0</v>
+      </c>
+      <c r="AQ328">
+        <v>0.6</v>
+      </c>
+      <c r="AR328">
+        <v>2</v>
+      </c>
+      <c r="AS328">
+        <v>0.5</v>
+      </c>
+      <c r="AT328">
+        <v>2.17</v>
+      </c>
+      <c r="AU328">
+        <v>1.59</v>
+      </c>
+      <c r="AV328">
+        <v>1.37</v>
+      </c>
+      <c r="AW328">
+        <v>2.96</v>
+      </c>
+      <c r="AX328">
+        <v>0</v>
+      </c>
+      <c r="AY328">
+        <v>0</v>
+      </c>
+      <c r="AZ328">
+        <v>0</v>
+      </c>
+      <c r="BA328">
+        <v>0</v>
+      </c>
+      <c r="BB328">
+        <v>0</v>
+      </c>
+      <c r="BC328">
+        <v>0</v>
+      </c>
+      <c r="BD328">
+        <v>0</v>
+      </c>
+      <c r="BE328">
+        <v>0</v>
+      </c>
+      <c r="BF328">
+        <v>3</v>
+      </c>
+      <c r="BG328">
+        <v>5</v>
+      </c>
+      <c r="BH328">
+        <v>6</v>
+      </c>
+      <c r="BI328">
+        <v>14</v>
+      </c>
+      <c r="BJ328">
+        <v>9</v>
+      </c>
+      <c r="BK328">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="329" spans="1:63">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>5556859</v>
+      </c>
+      <c r="C329" t="s">
+        <v>63</v>
+      </c>
+      <c r="D329" t="s">
+        <v>64</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="F329">
+        <v>11</v>
+      </c>
+      <c r="G329" t="s">
+        <v>104</v>
+      </c>
+      <c r="H329" t="s">
+        <v>125</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <v>1</v>
+      </c>
+      <c r="K329">
+        <v>2</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329">
+        <v>2</v>
+      </c>
+      <c r="N329">
+        <v>3</v>
+      </c>
+      <c r="O329" t="s">
+        <v>267</v>
+      </c>
+      <c r="P329" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q329">
+        <v>6</v>
+      </c>
+      <c r="R329">
+        <v>4</v>
+      </c>
+      <c r="S329">
+        <v>10</v>
+      </c>
+      <c r="T329">
+        <v>2.6</v>
+      </c>
+      <c r="U329">
+        <v>2.05</v>
+      </c>
+      <c r="V329">
+        <v>4.33</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+      <c r="AB329">
+        <v>0</v>
+      </c>
+      <c r="AC329">
+        <v>2.82</v>
+      </c>
+      <c r="AD329">
+        <v>2.36</v>
+      </c>
+      <c r="AE329">
+        <v>3.04</v>
+      </c>
+      <c r="AF329">
+        <v>0</v>
+      </c>
+      <c r="AG329">
+        <v>0</v>
+      </c>
+      <c r="AH329">
+        <v>0</v>
+      </c>
+      <c r="AI329">
+        <v>0</v>
+      </c>
+      <c r="AJ329">
+        <v>2.1</v>
+      </c>
+      <c r="AK329">
+        <v>1.62</v>
+      </c>
+      <c r="AL329">
+        <v>0</v>
+      </c>
+      <c r="AM329">
+        <v>0</v>
+      </c>
+      <c r="AN329">
+        <v>0</v>
+      </c>
+      <c r="AO329">
+        <v>0</v>
+      </c>
+      <c r="AP329">
+        <v>0</v>
+      </c>
+      <c r="AQ329">
+        <v>2.4</v>
+      </c>
+      <c r="AR329">
+        <v>0.4</v>
+      </c>
+      <c r="AS329">
+        <v>2</v>
+      </c>
+      <c r="AT329">
+        <v>0.83</v>
+      </c>
+      <c r="AU329">
+        <v>2.27</v>
+      </c>
+      <c r="AV329">
+        <v>1.33</v>
+      </c>
+      <c r="AW329">
+        <v>3.6</v>
+      </c>
+      <c r="AX329">
+        <v>0</v>
+      </c>
+      <c r="AY329">
+        <v>0</v>
+      </c>
+      <c r="AZ329">
+        <v>0</v>
+      </c>
+      <c r="BA329">
+        <v>0</v>
+      </c>
+      <c r="BB329">
+        <v>0</v>
+      </c>
+      <c r="BC329">
+        <v>0</v>
+      </c>
+      <c r="BD329">
+        <v>0</v>
+      </c>
+      <c r="BE329">
+        <v>0</v>
+      </c>
+      <c r="BF329">
+        <v>10</v>
+      </c>
+      <c r="BG329">
+        <v>9</v>
+      </c>
+      <c r="BH329">
+        <v>14</v>
+      </c>
+      <c r="BI329">
+        <v>1</v>
+      </c>
+      <c r="BJ329">
+        <v>24</v>
+      </c>
+      <c r="BK329">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:63">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>5557082</v>
+      </c>
+      <c r="C330" t="s">
+        <v>63</v>
+      </c>
+      <c r="D330" t="s">
+        <v>64</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="F330">
+        <v>11</v>
+      </c>
+      <c r="G330" t="s">
+        <v>103</v>
+      </c>
+      <c r="H330" t="s">
+        <v>114</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+      <c r="M330">
+        <v>1</v>
+      </c>
+      <c r="N330">
+        <v>1</v>
+      </c>
+      <c r="O330" t="s">
+        <v>135</v>
+      </c>
+      <c r="P330" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q330">
+        <v>12</v>
+      </c>
+      <c r="R330">
+        <v>5</v>
+      </c>
+      <c r="S330">
+        <v>17</v>
+      </c>
+      <c r="T330">
+        <v>2.5</v>
+      </c>
+      <c r="U330">
+        <v>2</v>
+      </c>
+      <c r="V330">
+        <v>5</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+      <c r="AB330">
+        <v>0</v>
+      </c>
+      <c r="AC330">
+        <v>2.96</v>
+      </c>
+      <c r="AD330">
+        <v>2.25</v>
+      </c>
+      <c r="AE330">
+        <v>3.07</v>
+      </c>
+      <c r="AF330">
+        <v>0</v>
+      </c>
+      <c r="AG330">
+        <v>0</v>
+      </c>
+      <c r="AH330">
+        <v>0</v>
+      </c>
+      <c r="AI330">
+        <v>0</v>
+      </c>
+      <c r="AJ330">
+        <v>2.2</v>
+      </c>
+      <c r="AK330">
+        <v>1.53</v>
+      </c>
+      <c r="AL330">
+        <v>0</v>
+      </c>
+      <c r="AM330">
+        <v>0</v>
+      </c>
+      <c r="AN330">
+        <v>0</v>
+      </c>
+      <c r="AO330">
+        <v>0</v>
+      </c>
+      <c r="AP330">
+        <v>0</v>
+      </c>
+      <c r="AQ330">
+        <v>1.75</v>
+      </c>
+      <c r="AR330">
+        <v>2</v>
+      </c>
+      <c r="AS330">
+        <v>1.4</v>
+      </c>
+      <c r="AT330">
+        <v>2.17</v>
+      </c>
+      <c r="AU330">
+        <v>1.62</v>
+      </c>
+      <c r="AV330">
+        <v>1.26</v>
+      </c>
+      <c r="AW330">
+        <v>2.88</v>
+      </c>
+      <c r="AX330">
+        <v>0</v>
+      </c>
+      <c r="AY330">
+        <v>0</v>
+      </c>
+      <c r="AZ330">
+        <v>0</v>
+      </c>
+      <c r="BA330">
+        <v>0</v>
+      </c>
+      <c r="BB330">
+        <v>0</v>
+      </c>
+      <c r="BC330">
+        <v>0</v>
+      </c>
+      <c r="BD330">
+        <v>0</v>
+      </c>
+      <c r="BE330">
+        <v>0</v>
+      </c>
+      <c r="BF330">
+        <v>4</v>
+      </c>
+      <c r="BG330">
+        <v>3</v>
+      </c>
+      <c r="BH330">
+        <v>7</v>
+      </c>
+      <c r="BI330">
+        <v>5</v>
+      </c>
+      <c r="BJ330">
+        <v>11</v>
+      </c>
+      <c r="BK330">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:63">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>5556748</v>
+      </c>
+      <c r="C331" t="s">
+        <v>63</v>
+      </c>
+      <c r="D331" t="s">
+        <v>64</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="F331">
+        <v>11</v>
+      </c>
+      <c r="G331" t="s">
+        <v>90</v>
+      </c>
+      <c r="H331" t="s">
+        <v>69</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>1</v>
+      </c>
+      <c r="L331">
+        <v>2</v>
+      </c>
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>2</v>
+      </c>
+      <c r="O331" t="s">
+        <v>329</v>
+      </c>
+      <c r="P331" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q331">
+        <v>4</v>
+      </c>
+      <c r="R331">
+        <v>0</v>
+      </c>
+      <c r="S331">
+        <v>4</v>
+      </c>
+      <c r="T331">
+        <v>1.73</v>
+      </c>
+      <c r="U331">
+        <v>2.4</v>
+      </c>
+      <c r="V331">
+        <v>9</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+      <c r="AB331">
+        <v>0</v>
+      </c>
+      <c r="AC331">
+        <v>1.83</v>
+      </c>
+      <c r="AD331">
+        <v>2.71</v>
+      </c>
+      <c r="AE331">
+        <v>5.14</v>
+      </c>
+      <c r="AF331">
+        <v>0</v>
+      </c>
+      <c r="AG331">
+        <v>0</v>
+      </c>
+      <c r="AH331">
+        <v>0</v>
+      </c>
+      <c r="AI331">
+        <v>0</v>
+      </c>
+      <c r="AJ331">
+        <v>1.7</v>
+      </c>
+      <c r="AK331">
+        <v>1.98</v>
+      </c>
+      <c r="AL331">
+        <v>0</v>
+      </c>
+      <c r="AM331">
+        <v>0</v>
+      </c>
+      <c r="AN331">
+        <v>0</v>
+      </c>
+      <c r="AO331">
+        <v>0</v>
+      </c>
+      <c r="AP331">
+        <v>0</v>
+      </c>
+      <c r="AQ331">
+        <v>2.6</v>
+      </c>
+      <c r="AR331">
+        <v>0.2</v>
+      </c>
+      <c r="AS331">
+        <v>2.67</v>
+      </c>
+      <c r="AT331">
+        <v>0.17</v>
+      </c>
+      <c r="AU331">
+        <v>1.88</v>
+      </c>
+      <c r="AV331">
+        <v>1.48</v>
+      </c>
+      <c r="AW331">
+        <v>3.36</v>
+      </c>
+      <c r="AX331">
+        <v>0</v>
+      </c>
+      <c r="AY331">
+        <v>0</v>
+      </c>
+      <c r="AZ331">
+        <v>0</v>
+      </c>
+      <c r="BA331">
+        <v>0</v>
+      </c>
+      <c r="BB331">
+        <v>0</v>
+      </c>
+      <c r="BC331">
+        <v>2</v>
+      </c>
+      <c r="BD331">
+        <v>0</v>
+      </c>
+      <c r="BE331">
+        <v>0</v>
+      </c>
+      <c r="BF331">
+        <v>6</v>
+      </c>
+      <c r="BG331">
+        <v>0</v>
+      </c>
+      <c r="BH331">
+        <v>7</v>
+      </c>
+      <c r="BI331">
+        <v>4</v>
+      </c>
+      <c r="BJ331">
+        <v>13</v>
+      </c>
+      <c r="BK331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:63">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>5556971</v>
+      </c>
+      <c r="C332" t="s">
+        <v>63</v>
+      </c>
+      <c r="D332" t="s">
+        <v>64</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45108.66666666666</v>
+      </c>
+      <c r="F332">
+        <v>11</v>
+      </c>
+      <c r="G332" t="s">
+        <v>102</v>
+      </c>
+      <c r="H332" t="s">
+        <v>118</v>
+      </c>
+      <c r="I332">
+        <v>3</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>3</v>
+      </c>
+      <c r="L332">
+        <v>3</v>
+      </c>
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>3</v>
+      </c>
+      <c r="O332" t="s">
+        <v>330</v>
+      </c>
+      <c r="P332" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q332">
+        <v>3</v>
+      </c>
+      <c r="R332">
+        <v>1</v>
+      </c>
+      <c r="S332">
+        <v>4</v>
+      </c>
+      <c r="T332">
+        <v>2.2</v>
+      </c>
+      <c r="U332">
+        <v>2.1</v>
+      </c>
+      <c r="V332">
+        <v>5.5</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+      <c r="AB332">
+        <v>0</v>
+      </c>
+      <c r="AC332">
+        <v>2.31</v>
+      </c>
+      <c r="AD332">
+        <v>2.35</v>
+      </c>
+      <c r="AE332">
+        <v>4.01</v>
+      </c>
+      <c r="AF332">
+        <v>0</v>
+      </c>
+      <c r="AG332">
+        <v>0</v>
+      </c>
+      <c r="AH332">
+        <v>0</v>
+      </c>
+      <c r="AI332">
+        <v>0</v>
+      </c>
+      <c r="AJ332">
+        <v>2.12</v>
+      </c>
+      <c r="AK332">
+        <v>1.57</v>
+      </c>
+      <c r="AL332">
+        <v>0</v>
+      </c>
+      <c r="AM332">
+        <v>0</v>
+      </c>
+      <c r="AN332">
+        <v>0</v>
+      </c>
+      <c r="AO332">
+        <v>0</v>
+      </c>
+      <c r="AP332">
+        <v>0</v>
+      </c>
+      <c r="AQ332">
+        <v>2.2</v>
+      </c>
+      <c r="AR332">
+        <v>0.2</v>
+      </c>
+      <c r="AS332">
+        <v>2.33</v>
+      </c>
+      <c r="AT332">
+        <v>0.17</v>
+      </c>
+      <c r="AU332">
+        <v>2.09</v>
+      </c>
+      <c r="AV332">
+        <v>1.65</v>
+      </c>
+      <c r="AW332">
+        <v>3.74</v>
+      </c>
+      <c r="AX332">
+        <v>0</v>
+      </c>
+      <c r="AY332">
+        <v>0</v>
+      </c>
+      <c r="AZ332">
+        <v>0</v>
+      </c>
+      <c r="BA332">
+        <v>0</v>
+      </c>
+      <c r="BB332">
+        <v>0</v>
+      </c>
+      <c r="BC332">
+        <v>0</v>
+      </c>
+      <c r="BD332">
+        <v>0</v>
+      </c>
+      <c r="BE332">
+        <v>0</v>
+      </c>
+      <c r="BF332">
+        <v>9</v>
+      </c>
+      <c r="BG332">
+        <v>2</v>
+      </c>
+      <c r="BH332">
+        <v>8</v>
+      </c>
+      <c r="BI332">
+        <v>3</v>
+      </c>
+      <c r="BJ332">
+        <v>17</v>
+      </c>
+      <c r="BK332">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:63">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>5556747</v>
+      </c>
+      <c r="C333" t="s">
+        <v>63</v>
+      </c>
+      <c r="D333" t="s">
+        <v>64</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45108.70833333334</v>
+      </c>
+      <c r="F333">
+        <v>11</v>
+      </c>
+      <c r="G333" t="s">
+        <v>111</v>
+      </c>
+      <c r="H333" t="s">
+        <v>127</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333">
+        <v>1</v>
+      </c>
+      <c r="L333">
+        <v>1</v>
+      </c>
+      <c r="M333">
+        <v>1</v>
+      </c>
+      <c r="N333">
+        <v>2</v>
+      </c>
+      <c r="O333" t="s">
+        <v>275</v>
+      </c>
+      <c r="P333" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q333">
+        <v>3</v>
+      </c>
+      <c r="R333">
+        <v>4</v>
+      </c>
+      <c r="S333">
+        <v>7</v>
+      </c>
+      <c r="T333">
+        <v>2.4</v>
+      </c>
+      <c r="U333">
+        <v>2.2</v>
+      </c>
+      <c r="V333">
+        <v>4.33</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+      <c r="AB333">
+        <v>0</v>
+      </c>
+      <c r="AC333">
+        <v>1.14</v>
+      </c>
+      <c r="AD333">
+        <v>8.57</v>
+      </c>
+      <c r="AE333">
+        <v>8.1</v>
+      </c>
+      <c r="AF333">
+        <v>0</v>
+      </c>
+      <c r="AG333">
+        <v>0</v>
+      </c>
+      <c r="AH333">
+        <v>0</v>
+      </c>
+      <c r="AI333">
+        <v>0</v>
+      </c>
+      <c r="AJ333">
+        <v>1.86</v>
+      </c>
+      <c r="AK333">
+        <v>1.8</v>
+      </c>
+      <c r="AL333">
+        <v>0</v>
+      </c>
+      <c r="AM333">
+        <v>0</v>
+      </c>
+      <c r="AN333">
+        <v>0</v>
+      </c>
+      <c r="AO333">
+        <v>0</v>
+      </c>
+      <c r="AP333">
+        <v>0</v>
+      </c>
+      <c r="AQ333">
+        <v>2</v>
+      </c>
+      <c r="AR333">
+        <v>0.4</v>
+      </c>
+      <c r="AS333">
+        <v>1.83</v>
+      </c>
+      <c r="AT333">
+        <v>0.5</v>
+      </c>
+      <c r="AU333">
+        <v>1.86</v>
+      </c>
+      <c r="AV333">
+        <v>1.1</v>
+      </c>
+      <c r="AW333">
+        <v>2.96</v>
+      </c>
+      <c r="AX333">
+        <v>0</v>
+      </c>
+      <c r="AY333">
+        <v>0</v>
+      </c>
+      <c r="AZ333">
+        <v>0</v>
+      </c>
+      <c r="BA333">
+        <v>0</v>
+      </c>
+      <c r="BB333">
+        <v>0</v>
+      </c>
+      <c r="BC333">
+        <v>2</v>
+      </c>
+      <c r="BD333">
+        <v>0</v>
+      </c>
+      <c r="BE333">
+        <v>0</v>
+      </c>
+      <c r="BF333">
+        <v>8</v>
+      </c>
+      <c r="BG333">
+        <v>4</v>
+      </c>
+      <c r="BH333">
+        <v>8</v>
+      </c>
+      <c r="BI333">
+        <v>8</v>
+      </c>
+      <c r="BJ333">
+        <v>16</v>
+      </c>
+      <c r="BK333">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:63">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>5557083</v>
+      </c>
+      <c r="C334" t="s">
+        <v>63</v>
+      </c>
+      <c r="D334" t="s">
+        <v>64</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45108.70833333334</v>
+      </c>
+      <c r="F334">
+        <v>11</v>
+      </c>
+      <c r="G334" t="s">
+        <v>124</v>
+      </c>
+      <c r="H334" t="s">
+        <v>115</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+      <c r="M334">
+        <v>1</v>
+      </c>
+      <c r="N334">
+        <v>1</v>
+      </c>
+      <c r="O334" t="s">
+        <v>135</v>
+      </c>
+      <c r="P334" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q334">
+        <v>5</v>
+      </c>
+      <c r="R334">
+        <v>4</v>
+      </c>
+      <c r="S334">
+        <v>9</v>
+      </c>
+      <c r="T334">
+        <v>4.5</v>
+      </c>
+      <c r="U334">
+        <v>2.05</v>
+      </c>
+      <c r="V334">
+        <v>2.5</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
+      <c r="AB334">
+        <v>0</v>
+      </c>
+      <c r="AC334">
+        <v>1.7</v>
+      </c>
+      <c r="AD334">
+        <v>6</v>
+      </c>
+      <c r="AE334">
+        <v>2.81</v>
+      </c>
+      <c r="AF334">
+        <v>0</v>
+      </c>
+      <c r="AG334">
+        <v>0</v>
+      </c>
+      <c r="AH334">
+        <v>0</v>
+      </c>
+      <c r="AI334">
+        <v>0</v>
+      </c>
+      <c r="AJ334">
+        <v>2.15</v>
+      </c>
+      <c r="AK334">
+        <v>1.66</v>
+      </c>
+      <c r="AL334">
+        <v>0</v>
+      </c>
+      <c r="AM334">
+        <v>0</v>
+      </c>
+      <c r="AN334">
+        <v>0</v>
+      </c>
+      <c r="AO334">
+        <v>0</v>
+      </c>
+      <c r="AP334">
+        <v>0</v>
+      </c>
+      <c r="AQ334">
+        <v>1.2</v>
+      </c>
+      <c r="AR334">
+        <v>0.8</v>
+      </c>
+      <c r="AS334">
+        <v>1</v>
+      </c>
+      <c r="AT334">
+        <v>1.17</v>
+      </c>
+      <c r="AU334">
+        <v>1.44</v>
+      </c>
+      <c r="AV334">
+        <v>1.6</v>
+      </c>
+      <c r="AW334">
+        <v>3.04</v>
+      </c>
+      <c r="AX334">
+        <v>0</v>
+      </c>
+      <c r="AY334">
+        <v>0</v>
+      </c>
+      <c r="AZ334">
+        <v>0</v>
+      </c>
+      <c r="BA334">
+        <v>0</v>
+      </c>
+      <c r="BB334">
+        <v>0</v>
+      </c>
+      <c r="BC334">
+        <v>0</v>
+      </c>
+      <c r="BD334">
+        <v>0</v>
+      </c>
+      <c r="BE334">
+        <v>0</v>
+      </c>
+      <c r="BF334">
+        <v>2</v>
+      </c>
+      <c r="BG334">
+        <v>3</v>
+      </c>
+      <c r="BH334">
+        <v>5</v>
+      </c>
+      <c r="BI334">
+        <v>9</v>
+      </c>
+      <c r="BJ334">
+        <v>7</v>
+      </c>
+      <c r="BK334">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:63">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>5556972</v>
+      </c>
+      <c r="C335" t="s">
+        <v>63</v>
+      </c>
+      <c r="D335" t="s">
+        <v>64</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45108.70833333334</v>
+      </c>
+      <c r="F335">
+        <v>11</v>
+      </c>
+      <c r="G335" t="s">
+        <v>77</v>
+      </c>
+      <c r="H335" t="s">
+        <v>72</v>
+      </c>
+      <c r="I335">
+        <v>2</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>2</v>
+      </c>
+      <c r="L335">
+        <v>3</v>
+      </c>
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>3</v>
+      </c>
+      <c r="O335" t="s">
+        <v>331</v>
+      </c>
+      <c r="P335" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q335">
+        <v>4</v>
+      </c>
+      <c r="R335">
+        <v>4</v>
+      </c>
+      <c r="S335">
+        <v>8</v>
+      </c>
+      <c r="T335">
+        <v>2.88</v>
+      </c>
+      <c r="U335">
+        <v>2</v>
+      </c>
+      <c r="V335">
+        <v>3.75</v>
+      </c>
+      <c r="W335">
+        <v>0</v>
+      </c>
+      <c r="X335">
+        <v>0</v>
+      </c>
+      <c r="Y335">
+        <v>0</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>0</v>
+      </c>
+      <c r="AB335">
+        <v>0</v>
+      </c>
+      <c r="AC335">
+        <v>1.46</v>
+      </c>
+      <c r="AD335">
+        <v>6.22</v>
+      </c>
+      <c r="AE335">
+        <v>3.79</v>
+      </c>
+      <c r="AF335">
+        <v>0</v>
+      </c>
+      <c r="AG335">
+        <v>0</v>
+      </c>
+      <c r="AH335">
+        <v>0</v>
+      </c>
+      <c r="AI335">
+        <v>0</v>
+      </c>
+      <c r="AJ335">
+        <v>2.05</v>
+      </c>
+      <c r="AK335">
+        <v>1.6</v>
+      </c>
+      <c r="AL335">
+        <v>0</v>
+      </c>
+      <c r="AM335">
+        <v>0</v>
+      </c>
+      <c r="AN335">
+        <v>0</v>
+      </c>
+      <c r="AO335">
+        <v>0</v>
+      </c>
+      <c r="AP335">
+        <v>0</v>
+      </c>
+      <c r="AQ335">
+        <v>2.4</v>
+      </c>
+      <c r="AR335">
+        <v>2</v>
+      </c>
+      <c r="AS335">
+        <v>2.5</v>
+      </c>
+      <c r="AT335">
+        <v>1.67</v>
+      </c>
+      <c r="AU335">
+        <v>1.64</v>
+      </c>
+      <c r="AV335">
+        <v>1.31</v>
+      </c>
+      <c r="AW335">
+        <v>2.95</v>
+      </c>
+      <c r="AX335">
+        <v>0</v>
+      </c>
+      <c r="AY335">
+        <v>0</v>
+      </c>
+      <c r="AZ335">
+        <v>0</v>
+      </c>
+      <c r="BA335">
+        <v>0</v>
+      </c>
+      <c r="BB335">
+        <v>0</v>
+      </c>
+      <c r="BC335">
+        <v>0</v>
+      </c>
+      <c r="BD335">
+        <v>0</v>
+      </c>
+      <c r="BE335">
+        <v>0</v>
+      </c>
+      <c r="BF335">
+        <v>7</v>
+      </c>
+      <c r="BG335">
+        <v>3</v>
+      </c>
+      <c r="BH335">
+        <v>7</v>
+      </c>
+      <c r="BI335">
+        <v>3</v>
+      </c>
+      <c r="BJ335">
+        <v>14</v>
+      </c>
+      <c r="BK335">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:63">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>5557139</v>
+      </c>
+      <c r="C336" t="s">
+        <v>63</v>
+      </c>
+      <c r="D336" t="s">
+        <v>64</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45108.70833333334</v>
+      </c>
+      <c r="F336">
+        <v>11</v>
+      </c>
+      <c r="G336" t="s">
+        <v>110</v>
+      </c>
+      <c r="H336" t="s">
+        <v>98</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <v>1</v>
+      </c>
+      <c r="M336">
+        <v>1</v>
+      </c>
+      <c r="N336">
+        <v>2</v>
+      </c>
+      <c r="O336" t="s">
+        <v>161</v>
+      </c>
+      <c r="P336" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q336">
+        <v>4</v>
+      </c>
+      <c r="R336">
+        <v>2</v>
+      </c>
+      <c r="S336">
+        <v>6</v>
+      </c>
+      <c r="T336">
+        <v>3.4</v>
+      </c>
+      <c r="U336">
+        <v>1.91</v>
+      </c>
+      <c r="V336">
+        <v>3.4</v>
+      </c>
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>0</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
+        <v>0</v>
+      </c>
+      <c r="AB336">
+        <v>0</v>
+      </c>
+      <c r="AC336">
+        <v>1.36</v>
+      </c>
+      <c r="AD336">
+        <v>6.32</v>
+      </c>
+      <c r="AE336">
+        <v>4.58</v>
+      </c>
+      <c r="AF336">
+        <v>0</v>
+      </c>
+      <c r="AG336">
+        <v>0</v>
+      </c>
+      <c r="AH336">
+        <v>1.5</v>
+      </c>
+      <c r="AI336">
+        <v>2.38</v>
+      </c>
+      <c r="AJ336">
+        <v>2.5</v>
+      </c>
+      <c r="AK336">
+        <v>1.5</v>
+      </c>
+      <c r="AL336">
+        <v>0</v>
+      </c>
+      <c r="AM336">
+        <v>0</v>
+      </c>
+      <c r="AN336">
+        <v>0</v>
+      </c>
+      <c r="AO336">
+        <v>0</v>
+      </c>
+      <c r="AP336">
+        <v>0</v>
+      </c>
+      <c r="AQ336">
+        <v>2</v>
+      </c>
+      <c r="AR336">
+        <v>1.6</v>
+      </c>
+      <c r="AS336">
+        <v>1.83</v>
+      </c>
+      <c r="AT336">
+        <v>1.5</v>
+      </c>
+      <c r="AU336">
+        <v>1.78</v>
+      </c>
+      <c r="AV336">
+        <v>1.17</v>
+      </c>
+      <c r="AW336">
+        <v>2.95</v>
+      </c>
+      <c r="AX336">
+        <v>0</v>
+      </c>
+      <c r="AY336">
+        <v>0</v>
+      </c>
+      <c r="AZ336">
+        <v>0</v>
+      </c>
+      <c r="BA336">
+        <v>0</v>
+      </c>
+      <c r="BB336">
+        <v>0</v>
+      </c>
+      <c r="BC336">
+        <v>2.1</v>
+      </c>
+      <c r="BD336">
+        <v>0</v>
+      </c>
+      <c r="BE336">
+        <v>0</v>
+      </c>
+      <c r="BF336">
+        <v>2</v>
+      </c>
+      <c r="BG336">
+        <v>2</v>
+      </c>
+      <c r="BH336">
+        <v>6</v>
+      </c>
+      <c r="BI336">
+        <v>3</v>
+      </c>
+      <c r="BJ336">
+        <v>8</v>
+      </c>
+      <c r="BK336">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:63">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>5556915</v>
+      </c>
+      <c r="C337" t="s">
+        <v>63</v>
+      </c>
+      <c r="D337" t="s">
+        <v>64</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45108.70833333334</v>
+      </c>
+      <c r="F337">
+        <v>11</v>
+      </c>
+      <c r="G337" t="s">
+        <v>109</v>
+      </c>
+      <c r="H337" t="s">
+        <v>126</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337">
+        <v>1</v>
+      </c>
+      <c r="N337">
+        <v>2</v>
+      </c>
+      <c r="O337" t="s">
+        <v>332</v>
+      </c>
+      <c r="P337" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q337">
+        <v>6</v>
+      </c>
+      <c r="R337">
+        <v>6</v>
+      </c>
+      <c r="S337">
+        <v>12</v>
+      </c>
+      <c r="T337">
+        <v>3.4</v>
+      </c>
+      <c r="U337">
+        <v>1.91</v>
+      </c>
+      <c r="V337">
+        <v>3.4</v>
+      </c>
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>0</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
+      </c>
+      <c r="AB337">
+        <v>0</v>
+      </c>
+      <c r="AC337">
+        <v>1.3</v>
+      </c>
+      <c r="AD337">
+        <v>6.68</v>
+      </c>
+      <c r="AE337">
+        <v>5.17</v>
+      </c>
+      <c r="AF337">
+        <v>0</v>
+      </c>
+      <c r="AG337">
+        <v>0</v>
+      </c>
+      <c r="AH337">
+        <v>0</v>
+      </c>
+      <c r="AI337">
+        <v>0</v>
+      </c>
+      <c r="AJ337">
+        <v>2.4</v>
+      </c>
+      <c r="AK337">
+        <v>1.53</v>
+      </c>
+      <c r="AL337">
+        <v>0</v>
+      </c>
+      <c r="AM337">
+        <v>0</v>
+      </c>
+      <c r="AN337">
+        <v>0</v>
+      </c>
+      <c r="AO337">
+        <v>0</v>
+      </c>
+      <c r="AP337">
+        <v>0</v>
+      </c>
+      <c r="AQ337">
+        <v>1.2</v>
+      </c>
+      <c r="AR337">
+        <v>1.6</v>
+      </c>
+      <c r="AS337">
+        <v>1.17</v>
+      </c>
+      <c r="AT337">
+        <v>1.5</v>
+      </c>
+      <c r="AU337">
+        <v>1.87</v>
+      </c>
+      <c r="AV337">
+        <v>1.43</v>
+      </c>
+      <c r="AW337">
+        <v>3.3</v>
+      </c>
+      <c r="AX337">
+        <v>0</v>
+      </c>
+      <c r="AY337">
+        <v>0</v>
+      </c>
+      <c r="AZ337">
+        <v>0</v>
+      </c>
+      <c r="BA337">
+        <v>0</v>
+      </c>
+      <c r="BB337">
+        <v>0</v>
+      </c>
+      <c r="BC337">
+        <v>0</v>
+      </c>
+      <c r="BD337">
+        <v>0</v>
+      </c>
+      <c r="BE337">
+        <v>0</v>
+      </c>
+      <c r="BF337">
+        <v>5</v>
+      </c>
+      <c r="BG337">
+        <v>4</v>
+      </c>
+      <c r="BH337">
+        <v>9</v>
+      </c>
+      <c r="BI337">
+        <v>6</v>
+      </c>
+      <c r="BJ337">
+        <v>14</v>
+      </c>
+      <c r="BK337">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:63">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>5557081</v>
+      </c>
+      <c r="C338" t="s">
+        <v>63</v>
+      </c>
+      <c r="D338" t="s">
+        <v>64</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45108.70833333334</v>
+      </c>
+      <c r="F338">
+        <v>11</v>
+      </c>
+      <c r="G338" t="s">
+        <v>74</v>
+      </c>
+      <c r="H338" t="s">
+        <v>76</v>
+      </c>
+      <c r="I338">
+        <v>2</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>2</v>
+      </c>
+      <c r="L338">
+        <v>4</v>
+      </c>
+      <c r="M338">
+        <v>2</v>
+      </c>
+      <c r="N338">
+        <v>6</v>
+      </c>
+      <c r="O338" t="s">
+        <v>333</v>
+      </c>
+      <c r="P338" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q338">
+        <v>6</v>
+      </c>
+      <c r="R338">
+        <v>4</v>
+      </c>
+      <c r="S338">
+        <v>10</v>
+      </c>
+      <c r="T338">
+        <v>2.63</v>
+      </c>
+      <c r="U338">
+        <v>1.95</v>
+      </c>
+      <c r="V338">
+        <v>4.5</v>
+      </c>
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338">
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <v>0</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
+      </c>
+      <c r="AB338">
+        <v>0</v>
+      </c>
+      <c r="AC338">
+        <v>1.2</v>
+      </c>
+      <c r="AD338">
+        <v>7.37</v>
+      </c>
+      <c r="AE338">
+        <v>6.94</v>
+      </c>
+      <c r="AF338">
+        <v>0</v>
+      </c>
+      <c r="AG338">
+        <v>0</v>
+      </c>
+      <c r="AH338">
+        <v>0</v>
+      </c>
+      <c r="AI338">
+        <v>0</v>
+      </c>
+      <c r="AJ338">
+        <v>2.35</v>
+      </c>
+      <c r="AK338">
+        <v>1.46</v>
+      </c>
+      <c r="AL338">
+        <v>0</v>
+      </c>
+      <c r="AM338">
+        <v>0</v>
+      </c>
+      <c r="AN338">
+        <v>0</v>
+      </c>
+      <c r="AO338">
+        <v>0</v>
+      </c>
+      <c r="AP338">
+        <v>0</v>
+      </c>
+      <c r="AQ338">
+        <v>1.2</v>
+      </c>
+      <c r="AR338">
+        <v>1</v>
+      </c>
+      <c r="AS338">
+        <v>1.5</v>
+      </c>
+      <c r="AT338">
+        <v>0.8</v>
+      </c>
+      <c r="AU338">
+        <v>2.24</v>
+      </c>
+      <c r="AV338">
+        <v>1.2</v>
+      </c>
+      <c r="AW338">
+        <v>3.44</v>
+      </c>
+      <c r="AX338">
+        <v>0</v>
+      </c>
+      <c r="AY338">
+        <v>0</v>
+      </c>
+      <c r="AZ338">
+        <v>0</v>
+      </c>
+      <c r="BA338">
+        <v>0</v>
+      </c>
+      <c r="BB338">
+        <v>0</v>
+      </c>
+      <c r="BC338">
+        <v>2.1</v>
+      </c>
+      <c r="BD338">
+        <v>0</v>
+      </c>
+      <c r="BE338">
+        <v>0</v>
+      </c>
+      <c r="BF338">
+        <v>8</v>
+      </c>
+      <c r="BG338">
+        <v>5</v>
+      </c>
+      <c r="BH338">
+        <v>8</v>
+      </c>
+      <c r="BI338">
+        <v>7</v>
+      </c>
+      <c r="BJ338">
+        <v>16</v>
+      </c>
+      <c r="BK338">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:63">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>5557025</v>
+      </c>
+      <c r="C339" t="s">
+        <v>63</v>
+      </c>
+      <c r="D339" t="s">
+        <v>64</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45108.75</v>
+      </c>
+      <c r="F339">
+        <v>11</v>
+      </c>
+      <c r="G339" t="s">
+        <v>79</v>
+      </c>
+      <c r="H339" t="s">
+        <v>65</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>1</v>
+      </c>
+      <c r="L339">
+        <v>2</v>
+      </c>
+      <c r="M339">
+        <v>2</v>
+      </c>
+      <c r="N339">
+        <v>4</v>
+      </c>
+      <c r="O339" t="s">
+        <v>334</v>
+      </c>
+      <c r="P339" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q339">
+        <v>9</v>
+      </c>
+      <c r="R339">
+        <v>5</v>
+      </c>
+      <c r="S339">
+        <v>14</v>
+      </c>
+      <c r="T339">
+        <v>2.05</v>
+      </c>
+      <c r="U339">
+        <v>2.25</v>
+      </c>
+      <c r="V339">
+        <v>5.5</v>
+      </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>0</v>
+      </c>
+      <c r="AB339">
+        <v>0</v>
+      </c>
+      <c r="AC339">
+        <v>1.08</v>
+      </c>
+      <c r="AD339">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AE339">
+        <v>11.73</v>
+      </c>
+      <c r="AF339">
+        <v>0</v>
+      </c>
+      <c r="AG339">
+        <v>0</v>
+      </c>
+      <c r="AH339">
+        <v>0</v>
+      </c>
+      <c r="AI339">
+        <v>0</v>
+      </c>
+      <c r="AJ339">
+        <v>1.87</v>
+      </c>
+      <c r="AK339">
+        <v>1.74</v>
+      </c>
+      <c r="AL339">
+        <v>0</v>
+      </c>
+      <c r="AM339">
+        <v>0</v>
+      </c>
+      <c r="AN339">
+        <v>0</v>
+      </c>
+      <c r="AO339">
+        <v>0</v>
+      </c>
+      <c r="AP339">
+        <v>0</v>
+      </c>
+      <c r="AQ339">
+        <v>3</v>
+      </c>
+      <c r="AR339">
+        <v>0</v>
+      </c>
+      <c r="AS339">
+        <v>2.67</v>
+      </c>
+      <c r="AT339">
+        <v>0.2</v>
+      </c>
+      <c r="AU339">
+        <v>1.79</v>
+      </c>
+      <c r="AV339">
+        <v>1.21</v>
+      </c>
+      <c r="AW339">
+        <v>3</v>
+      </c>
+      <c r="AX339">
+        <v>0</v>
+      </c>
+      <c r="AY339">
+        <v>0</v>
+      </c>
+      <c r="AZ339">
+        <v>0</v>
+      </c>
+      <c r="BA339">
+        <v>0</v>
+      </c>
+      <c r="BB339">
+        <v>0</v>
+      </c>
+      <c r="BC339">
+        <v>0</v>
+      </c>
+      <c r="BD339">
+        <v>0</v>
+      </c>
+      <c r="BE339">
+        <v>0</v>
+      </c>
+      <c r="BF339">
+        <v>4</v>
+      </c>
+      <c r="BG339">
+        <v>5</v>
+      </c>
+      <c r="BH339">
+        <v>9</v>
+      </c>
+      <c r="BI339">
+        <v>3</v>
+      </c>
+      <c r="BJ339">
+        <v>13</v>
+      </c>
+      <c r="BK339">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:63">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>5556857</v>
+      </c>
+      <c r="C340" t="s">
+        <v>63</v>
+      </c>
+      <c r="D340" t="s">
+        <v>64</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45108.83333333334</v>
+      </c>
+      <c r="F340">
+        <v>11</v>
+      </c>
+      <c r="G340" t="s">
+        <v>95</v>
+      </c>
+      <c r="H340" t="s">
+        <v>88</v>
+      </c>
+      <c r="I340">
+        <v>2</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+      <c r="K340">
+        <v>3</v>
+      </c>
+      <c r="L340">
+        <v>2</v>
+      </c>
+      <c r="M340">
+        <v>2</v>
+      </c>
+      <c r="N340">
+        <v>4</v>
+      </c>
+      <c r="O340" t="s">
+        <v>335</v>
+      </c>
+      <c r="P340" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q340">
+        <v>14</v>
+      </c>
+      <c r="R340">
+        <v>0</v>
+      </c>
+      <c r="S340">
+        <v>14</v>
+      </c>
+      <c r="T340">
+        <v>2.3</v>
+      </c>
+      <c r="U340">
+        <v>2.1</v>
+      </c>
+      <c r="V340">
+        <v>5</v>
+      </c>
+      <c r="W340">
+        <v>0</v>
+      </c>
+      <c r="X340">
+        <v>0</v>
+      </c>
+      <c r="Y340">
+        <v>0</v>
+      </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
+      <c r="AA340">
+        <v>0</v>
+      </c>
+      <c r="AB340">
+        <v>0</v>
+      </c>
+      <c r="AC340">
+        <v>1.67</v>
+      </c>
+      <c r="AD340">
+        <v>3.3</v>
+      </c>
+      <c r="AE340">
+        <v>5.25</v>
+      </c>
+      <c r="AF340">
+        <v>0</v>
+      </c>
+      <c r="AG340">
+        <v>0</v>
+      </c>
+      <c r="AH340">
+        <v>0</v>
+      </c>
+      <c r="AI340">
+        <v>0</v>
+      </c>
+      <c r="AJ340">
+        <v>2.15</v>
+      </c>
+      <c r="AK340">
+        <v>1.67</v>
+      </c>
+      <c r="AL340">
+        <v>0</v>
+      </c>
+      <c r="AM340">
+        <v>0</v>
+      </c>
+      <c r="AN340">
+        <v>0</v>
+      </c>
+      <c r="AO340">
+        <v>0</v>
+      </c>
+      <c r="AP340">
+        <v>0</v>
+      </c>
+      <c r="AQ340">
+        <v>2.6</v>
+      </c>
+      <c r="AR340">
+        <v>0.75</v>
+      </c>
+      <c r="AS340">
+        <v>2.33</v>
+      </c>
+      <c r="AT340">
+        <v>0.8</v>
+      </c>
+      <c r="AU340">
+        <v>1.91</v>
+      </c>
+      <c r="AV340">
+        <v>1.2</v>
+      </c>
+      <c r="AW340">
+        <v>3.11</v>
+      </c>
+      <c r="AX340">
+        <v>0</v>
+      </c>
+      <c r="AY340">
+        <v>0</v>
+      </c>
+      <c r="AZ340">
+        <v>0</v>
+      </c>
+      <c r="BA340">
+        <v>0</v>
+      </c>
+      <c r="BB340">
+        <v>0</v>
+      </c>
+      <c r="BC340">
+        <v>2</v>
+      </c>
+      <c r="BD340">
+        <v>0</v>
+      </c>
+      <c r="BE340">
+        <v>0</v>
+      </c>
+      <c r="BF340">
+        <v>6</v>
+      </c>
+      <c r="BG340">
+        <v>5</v>
+      </c>
+      <c r="BH340">
+        <v>9</v>
+      </c>
+      <c r="BI340">
+        <v>13</v>
+      </c>
+      <c r="BJ340">
+        <v>15</v>
+      </c>
+      <c r="BK340">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341" spans="1:63">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>5557138</v>
+      </c>
+      <c r="C341" t="s">
+        <v>63</v>
+      </c>
+      <c r="D341" t="s">
+        <v>64</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45109.625</v>
+      </c>
+      <c r="F341">
+        <v>11</v>
+      </c>
+      <c r="G341" t="s">
+        <v>122</v>
+      </c>
+      <c r="H341" t="s">
+        <v>117</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>1</v>
+      </c>
+      <c r="K341">
+        <v>2</v>
+      </c>
+      <c r="L341">
+        <v>2</v>
+      </c>
+      <c r="M341">
+        <v>1</v>
+      </c>
+      <c r="N341">
+        <v>3</v>
+      </c>
+      <c r="O341" t="s">
+        <v>336</v>
+      </c>
+      <c r="P341" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q341">
+        <v>4</v>
+      </c>
+      <c r="R341">
+        <v>5</v>
+      </c>
+      <c r="S341">
+        <v>9</v>
+      </c>
+      <c r="T341">
+        <v>3.4</v>
+      </c>
+      <c r="U341">
+        <v>1.83</v>
+      </c>
+      <c r="V341">
+        <v>3.6</v>
+      </c>
+      <c r="W341">
+        <v>0</v>
+      </c>
+      <c r="X341">
+        <v>0</v>
+      </c>
+      <c r="Y341">
+        <v>0</v>
+      </c>
+      <c r="Z341">
+        <v>0</v>
+      </c>
+      <c r="AA341">
+        <v>0</v>
+      </c>
+      <c r="AB341">
+        <v>0</v>
+      </c>
+      <c r="AC341">
+        <v>2.72</v>
+      </c>
+      <c r="AD341">
+        <v>2.62</v>
+      </c>
+      <c r="AE341">
+        <v>2.77</v>
+      </c>
+      <c r="AF341">
+        <v>0</v>
+      </c>
+      <c r="AG341">
+        <v>0</v>
+      </c>
+      <c r="AH341">
+        <v>1.53</v>
+      </c>
+      <c r="AI341">
+        <v>2.35</v>
+      </c>
+      <c r="AJ341">
+        <v>2.71</v>
+      </c>
+      <c r="AK341">
+        <v>1.35</v>
+      </c>
+      <c r="AL341">
+        <v>0</v>
+      </c>
+      <c r="AM341">
+        <v>0</v>
+      </c>
+      <c r="AN341">
+        <v>0</v>
+      </c>
+      <c r="AO341">
+        <v>0</v>
+      </c>
+      <c r="AP341">
+        <v>0</v>
+      </c>
+      <c r="AQ341">
+        <v>1.5</v>
+      </c>
+      <c r="AR341">
+        <v>1</v>
+      </c>
+      <c r="AS341">
+        <v>1.8</v>
+      </c>
+      <c r="AT341">
+        <v>0.83</v>
+      </c>
+      <c r="AU341">
+        <v>1.78</v>
+      </c>
+      <c r="AV341">
+        <v>1.53</v>
+      </c>
+      <c r="AW341">
+        <v>3.31</v>
+      </c>
+      <c r="AX341">
+        <v>0</v>
+      </c>
+      <c r="AY341">
+        <v>0</v>
+      </c>
+      <c r="AZ341">
+        <v>0</v>
+      </c>
+      <c r="BA341">
+        <v>0</v>
+      </c>
+      <c r="BB341">
+        <v>0</v>
+      </c>
+      <c r="BC341">
+        <v>2.38</v>
+      </c>
+      <c r="BD341">
+        <v>0</v>
+      </c>
+      <c r="BE341">
+        <v>0</v>
+      </c>
+      <c r="BF341">
+        <v>6</v>
+      </c>
+      <c r="BG341">
+        <v>5</v>
+      </c>
+      <c r="BH341">
+        <v>8</v>
+      </c>
+      <c r="BI341">
+        <v>8</v>
+      </c>
+      <c r="BJ341">
+        <v>14</v>
+      </c>
+      <c r="BK341">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:63">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>5556969</v>
+      </c>
+      <c r="C342" t="s">
+        <v>63</v>
+      </c>
+      <c r="D342" t="s">
+        <v>64</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45109.64583333334</v>
+      </c>
+      <c r="F342">
+        <v>11</v>
+      </c>
+      <c r="G342" t="s">
+        <v>71</v>
+      </c>
+      <c r="H342" t="s">
+        <v>67</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>2</v>
+      </c>
+      <c r="N342">
+        <v>2</v>
+      </c>
+      <c r="O342" t="s">
+        <v>135</v>
+      </c>
+      <c r="P342" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q342">
+        <v>-1</v>
+      </c>
+      <c r="R342">
+        <v>-1</v>
+      </c>
+      <c r="S342">
+        <v>-1</v>
+      </c>
+      <c r="T342">
+        <v>0</v>
+      </c>
+      <c r="U342">
+        <v>0</v>
+      </c>
+      <c r="V342">
+        <v>0</v>
+      </c>
+      <c r="W342">
+        <v>0</v>
+      </c>
+      <c r="X342">
+        <v>0</v>
+      </c>
+      <c r="Y342">
+        <v>0</v>
+      </c>
+      <c r="Z342">
+        <v>0</v>
+      </c>
+      <c r="AA342">
+        <v>0</v>
+      </c>
+      <c r="AB342">
+        <v>0</v>
+      </c>
+      <c r="AC342">
+        <v>0</v>
+      </c>
+      <c r="AD342">
+        <v>0</v>
+      </c>
+      <c r="AE342">
+        <v>0</v>
+      </c>
+      <c r="AF342">
+        <v>0</v>
+      </c>
+      <c r="AG342">
+        <v>0</v>
+      </c>
+      <c r="AH342">
+        <v>0</v>
+      </c>
+      <c r="AI342">
+        <v>0</v>
+      </c>
+      <c r="AJ342">
+        <v>0</v>
+      </c>
+      <c r="AK342">
+        <v>0</v>
+      </c>
+      <c r="AL342">
+        <v>0</v>
+      </c>
+      <c r="AM342">
+        <v>0</v>
+      </c>
+      <c r="AN342">
+        <v>0</v>
+      </c>
+      <c r="AO342">
+        <v>0</v>
+      </c>
+      <c r="AP342">
+        <v>0</v>
+      </c>
+      <c r="AQ342">
+        <v>1</v>
+      </c>
+      <c r="AR342">
+        <v>1.5</v>
+      </c>
+      <c r="AS342">
+        <v>0.83</v>
+      </c>
+      <c r="AT342">
+        <v>1.8</v>
+      </c>
+      <c r="AU342">
+        <v>1.47</v>
+      </c>
+      <c r="AV342">
+        <v>1.24</v>
+      </c>
+      <c r="AW342">
+        <v>2.71</v>
+      </c>
+      <c r="AX342">
+        <v>0</v>
+      </c>
+      <c r="AY342">
+        <v>0</v>
+      </c>
+      <c r="AZ342">
+        <v>0</v>
+      </c>
+      <c r="BA342">
+        <v>0</v>
+      </c>
+      <c r="BB342">
+        <v>0</v>
+      </c>
+      <c r="BC342">
+        <v>0</v>
+      </c>
+      <c r="BD342">
+        <v>0</v>
+      </c>
+      <c r="BE342">
+        <v>0</v>
+      </c>
+      <c r="BF342">
+        <v>0</v>
+      </c>
+      <c r="BG342">
+        <v>3</v>
+      </c>
+      <c r="BH342">
+        <v>5</v>
+      </c>
+      <c r="BI342">
+        <v>8</v>
+      </c>
+      <c r="BJ342">
+        <v>5</v>
+      </c>
+      <c r="BK342">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" spans="1:63">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>5556860</v>
+      </c>
+      <c r="C343" t="s">
+        <v>63</v>
+      </c>
+      <c r="D343" t="s">
+        <v>64</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45109.64583333334</v>
+      </c>
+      <c r="F343">
+        <v>11</v>
+      </c>
+      <c r="G343" t="s">
+        <v>83</v>
+      </c>
+      <c r="H343" t="s">
+        <v>80</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>1</v>
+      </c>
+      <c r="K343">
+        <v>1</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+      <c r="M343">
+        <v>2</v>
+      </c>
+      <c r="N343">
+        <v>2</v>
+      </c>
+      <c r="O343" t="s">
+        <v>135</v>
+      </c>
+      <c r="P343" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q343">
+        <v>6</v>
+      </c>
+      <c r="R343">
+        <v>0</v>
+      </c>
+      <c r="S343">
+        <v>6</v>
+      </c>
+      <c r="T343">
+        <v>5.5</v>
+      </c>
+      <c r="U343">
+        <v>2.1</v>
+      </c>
+      <c r="V343">
+        <v>2.2</v>
+      </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
+      <c r="AA343">
+        <v>0</v>
+      </c>
+      <c r="AB343">
+        <v>0</v>
+      </c>
+      <c r="AC343">
+        <v>4.75</v>
+      </c>
+      <c r="AD343">
+        <v>3.45</v>
+      </c>
+      <c r="AE343">
+        <v>1.64</v>
+      </c>
+      <c r="AF343">
+        <v>0</v>
+      </c>
+      <c r="AG343">
+        <v>0</v>
+      </c>
+      <c r="AH343">
+        <v>0</v>
+      </c>
+      <c r="AI343">
+        <v>0</v>
+      </c>
+      <c r="AJ343">
+        <v>2.01</v>
+      </c>
+      <c r="AK343">
+        <v>1.63</v>
+      </c>
+      <c r="AL343">
+        <v>0</v>
+      </c>
+      <c r="AM343">
+        <v>0</v>
+      </c>
+      <c r="AN343">
+        <v>0</v>
+      </c>
+      <c r="AO343">
+        <v>0</v>
+      </c>
+      <c r="AP343">
+        <v>0</v>
+      </c>
+      <c r="AQ343">
+        <v>0.8</v>
+      </c>
+      <c r="AR343">
+        <v>0.8</v>
+      </c>
+      <c r="AS343">
+        <v>0.67</v>
+      </c>
+      <c r="AT343">
+        <v>1.17</v>
+      </c>
+      <c r="AU343">
+        <v>1.49</v>
+      </c>
+      <c r="AV343">
+        <v>1.69</v>
+      </c>
+      <c r="AW343">
+        <v>3.18</v>
+      </c>
+      <c r="AX343">
+        <v>0</v>
+      </c>
+      <c r="AY343">
+        <v>0</v>
+      </c>
+      <c r="AZ343">
+        <v>0</v>
+      </c>
+      <c r="BA343">
+        <v>0</v>
+      </c>
+      <c r="BB343">
+        <v>0</v>
+      </c>
+      <c r="BC343">
+        <v>2</v>
+      </c>
+      <c r="BD343">
+        <v>0</v>
+      </c>
+      <c r="BE343">
+        <v>0</v>
+      </c>
+      <c r="BF343">
+        <v>9</v>
+      </c>
+      <c r="BG343">
+        <v>6</v>
+      </c>
+      <c r="BH343">
+        <v>13</v>
+      </c>
+      <c r="BI343">
+        <v>11</v>
+      </c>
+      <c r="BJ343">
+        <v>22</v>
+      </c>
+      <c r="BK343">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344" spans="1:63">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>5556913</v>
+      </c>
+      <c r="C344" t="s">
+        <v>63</v>
+      </c>
+      <c r="D344" t="s">
+        <v>64</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45109.66666666666</v>
+      </c>
+      <c r="F344">
+        <v>11</v>
+      </c>
+      <c r="G344" t="s">
+        <v>84</v>
+      </c>
+      <c r="H344" t="s">
+        <v>75</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344">
+        <v>0</v>
+      </c>
+      <c r="O344" t="s">
+        <v>135</v>
+      </c>
+      <c r="P344" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q344">
+        <v>7</v>
+      </c>
+      <c r="R344">
+        <v>2</v>
+      </c>
+      <c r="S344">
+        <v>9</v>
+      </c>
+      <c r="T344">
+        <v>2.63</v>
+      </c>
+      <c r="U344">
+        <v>2</v>
+      </c>
+      <c r="V344">
+        <v>4.33</v>
+      </c>
+      <c r="W344">
+        <v>0</v>
+      </c>
+      <c r="X344">
+        <v>0</v>
+      </c>
+      <c r="Y344">
+        <v>0</v>
+      </c>
+      <c r="Z344">
+        <v>0</v>
+      </c>
+      <c r="AA344">
+        <v>0</v>
+      </c>
+      <c r="AB344">
+        <v>0</v>
+      </c>
+      <c r="AC344">
+        <v>2.07</v>
+      </c>
+      <c r="AD344">
+        <v>2.96</v>
+      </c>
+      <c r="AE344">
+        <v>3.45</v>
+      </c>
+      <c r="AF344">
+        <v>0</v>
+      </c>
+      <c r="AG344">
+        <v>0</v>
+      </c>
+      <c r="AH344">
+        <v>0</v>
+      </c>
+      <c r="AI344">
+        <v>0</v>
+      </c>
+      <c r="AJ344">
+        <v>2.16</v>
+      </c>
+      <c r="AK344">
+        <v>1.55</v>
+      </c>
+      <c r="AL344">
+        <v>0</v>
+      </c>
+      <c r="AM344">
+        <v>0</v>
+      </c>
+      <c r="AN344">
+        <v>0</v>
+      </c>
+      <c r="AO344">
+        <v>0</v>
+      </c>
+      <c r="AP344">
+        <v>0</v>
+      </c>
+      <c r="AQ344">
+        <v>1.4</v>
+      </c>
+      <c r="AR344">
+        <v>0.75</v>
+      </c>
+      <c r="AS344">
+        <v>1.33</v>
+      </c>
+      <c r="AT344">
+        <v>0.8</v>
+      </c>
+      <c r="AU344">
+        <v>1.48</v>
+      </c>
+      <c r="AV344">
+        <v>1.26</v>
+      </c>
+      <c r="AW344">
+        <v>2.74</v>
+      </c>
+      <c r="AX344">
+        <v>0</v>
+      </c>
+      <c r="AY344">
+        <v>0</v>
+      </c>
+      <c r="AZ344">
+        <v>0</v>
+      </c>
+      <c r="BA344">
+        <v>0</v>
+      </c>
+      <c r="BB344">
+        <v>0</v>
+      </c>
+      <c r="BC344">
+        <v>0</v>
+      </c>
+      <c r="BD344">
+        <v>0</v>
+      </c>
+      <c r="BE344">
+        <v>0</v>
+      </c>
+      <c r="BF344">
+        <v>5</v>
+      </c>
+      <c r="BG344">
+        <v>0</v>
+      </c>
+      <c r="BH344">
+        <v>7</v>
+      </c>
+      <c r="BI344">
+        <v>7</v>
+      </c>
+      <c r="BJ344">
+        <v>12</v>
+      </c>
+      <c r="BK344">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:63">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>5557084</v>
+      </c>
+      <c r="C345" t="s">
+        <v>63</v>
+      </c>
+      <c r="D345" t="s">
+        <v>64</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45109.66666666666</v>
+      </c>
+      <c r="F345">
+        <v>11</v>
+      </c>
+      <c r="G345" t="s">
+        <v>73</v>
+      </c>
+      <c r="H345" t="s">
+        <v>78</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+      <c r="K345">
+        <v>1</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345">
+        <v>1</v>
+      </c>
+      <c r="N345">
+        <v>2</v>
+      </c>
+      <c r="O345" t="s">
+        <v>282</v>
+      </c>
+      <c r="P345" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q345">
+        <v>7</v>
+      </c>
+      <c r="R345">
+        <v>2</v>
+      </c>
+      <c r="S345">
+        <v>9</v>
+      </c>
+      <c r="T345">
+        <v>2.88</v>
+      </c>
+      <c r="U345">
+        <v>1.95</v>
+      </c>
+      <c r="V345">
+        <v>4</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
+      <c r="AB345">
+        <v>0</v>
+      </c>
+      <c r="AC345">
+        <v>1.88</v>
+      </c>
+      <c r="AD345">
+        <v>3.05</v>
+      </c>
+      <c r="AE345">
+        <v>3.95</v>
+      </c>
+      <c r="AF345">
+        <v>0</v>
+      </c>
+      <c r="AG345">
+        <v>0</v>
+      </c>
+      <c r="AH345">
+        <v>1.47</v>
+      </c>
+      <c r="AI345">
+        <v>2.55</v>
+      </c>
+      <c r="AJ345">
+        <v>2.31</v>
+      </c>
+      <c r="AK345">
+        <v>1.48</v>
+      </c>
+      <c r="AL345">
+        <v>0</v>
+      </c>
+      <c r="AM345">
+        <v>0</v>
+      </c>
+      <c r="AN345">
+        <v>0</v>
+      </c>
+      <c r="AO345">
+        <v>0</v>
+      </c>
+      <c r="AP345">
+        <v>0</v>
+      </c>
+      <c r="AQ345">
+        <v>1</v>
+      </c>
+      <c r="AR345">
+        <v>1.2</v>
+      </c>
+      <c r="AS345">
+        <v>1</v>
+      </c>
+      <c r="AT345">
+        <v>1.17</v>
+      </c>
+      <c r="AU345">
+        <v>2.13</v>
+      </c>
+      <c r="AV345">
+        <v>1.19</v>
+      </c>
+      <c r="AW345">
+        <v>3.32</v>
+      </c>
+      <c r="AX345">
+        <v>0</v>
+      </c>
+      <c r="AY345">
+        <v>0</v>
+      </c>
+      <c r="AZ345">
+        <v>0</v>
+      </c>
+      <c r="BA345">
+        <v>0</v>
+      </c>
+      <c r="BB345">
+        <v>0</v>
+      </c>
+      <c r="BC345">
+        <v>1.91</v>
+      </c>
+      <c r="BD345">
+        <v>0</v>
+      </c>
+      <c r="BE345">
+        <v>0</v>
+      </c>
+      <c r="BF345">
+        <v>5</v>
+      </c>
+      <c r="BG345">
+        <v>6</v>
+      </c>
+      <c r="BH345">
+        <v>9</v>
+      </c>
+      <c r="BI345">
+        <v>1</v>
+      </c>
+      <c r="BJ345">
+        <v>14</v>
+      </c>
+      <c r="BK345">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:63">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>5556916</v>
+      </c>
+      <c r="C346" t="s">
+        <v>63</v>
+      </c>
+      <c r="D346" t="s">
+        <v>64</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45109.66666666666</v>
+      </c>
+      <c r="F346">
+        <v>11</v>
+      </c>
+      <c r="G346" t="s">
+        <v>70</v>
+      </c>
+      <c r="H346" t="s">
+        <v>85</v>
+      </c>
+      <c r="I346">
+        <v>2</v>
+      </c>
+      <c r="J346">
+        <v>1</v>
+      </c>
+      <c r="K346">
+        <v>3</v>
+      </c>
+      <c r="L346">
+        <v>4</v>
+      </c>
+      <c r="M346">
+        <v>1</v>
+      </c>
+      <c r="N346">
+        <v>5</v>
+      </c>
+      <c r="O346" t="s">
+        <v>337</v>
+      </c>
+      <c r="P346" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q346">
+        <v>5</v>
+      </c>
+      <c r="R346">
+        <v>2</v>
+      </c>
+      <c r="S346">
+        <v>7</v>
+      </c>
+      <c r="T346">
+        <v>2.6</v>
+      </c>
+      <c r="U346">
+        <v>2</v>
+      </c>
+      <c r="V346">
+        <v>4.5</v>
+      </c>
+      <c r="W346">
+        <v>0</v>
+      </c>
+      <c r="X346">
+        <v>0</v>
+      </c>
+      <c r="Y346">
+        <v>0</v>
+      </c>
+      <c r="Z346">
+        <v>0</v>
+      </c>
+      <c r="AA346">
+        <v>0</v>
+      </c>
+      <c r="AB346">
+        <v>0</v>
+      </c>
+      <c r="AC346">
+        <v>1.68</v>
+      </c>
+      <c r="AD346">
+        <v>3.25</v>
+      </c>
+      <c r="AE346">
+        <v>4.75</v>
+      </c>
+      <c r="AF346">
+        <v>0</v>
+      </c>
+      <c r="AG346">
+        <v>0</v>
+      </c>
+      <c r="AH346">
+        <v>0</v>
+      </c>
+      <c r="AI346">
+        <v>0</v>
+      </c>
+      <c r="AJ346">
+        <v>2.07</v>
+      </c>
+      <c r="AK346">
+        <v>1.6</v>
+      </c>
+      <c r="AL346">
+        <v>0</v>
+      </c>
+      <c r="AM346">
+        <v>0</v>
+      </c>
+      <c r="AN346">
+        <v>0</v>
+      </c>
+      <c r="AO346">
+        <v>0</v>
+      </c>
+      <c r="AP346">
+        <v>0</v>
+      </c>
+      <c r="AQ346">
+        <v>0.6</v>
+      </c>
+      <c r="AR346">
+        <v>0.8</v>
+      </c>
+      <c r="AS346">
+        <v>1</v>
+      </c>
+      <c r="AT346">
+        <v>0.67</v>
+      </c>
+      <c r="AU346">
+        <v>1.94</v>
+      </c>
+      <c r="AV346">
+        <v>1.17</v>
+      </c>
+      <c r="AW346">
+        <v>3.11</v>
+      </c>
+      <c r="AX346">
+        <v>0</v>
+      </c>
+      <c r="AY346">
+        <v>0</v>
+      </c>
+      <c r="AZ346">
+        <v>0</v>
+      </c>
+      <c r="BA346">
+        <v>0</v>
+      </c>
+      <c r="BB346">
+        <v>0</v>
+      </c>
+      <c r="BC346">
+        <v>2</v>
+      </c>
+      <c r="BD346">
+        <v>0</v>
+      </c>
+      <c r="BE346">
+        <v>0</v>
+      </c>
+      <c r="BF346">
+        <v>10</v>
+      </c>
+      <c r="BG346">
+        <v>6</v>
+      </c>
+      <c r="BH346">
+        <v>11</v>
+      </c>
+      <c r="BI346">
+        <v>7</v>
+      </c>
+      <c r="BJ346">
+        <v>21</v>
+      </c>
+      <c r="BK346">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:63">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>5556970</v>
+      </c>
+      <c r="C347" t="s">
+        <v>63</v>
+      </c>
+      <c r="D347" t="s">
+        <v>64</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45109.66666666666</v>
+      </c>
+      <c r="F347">
+        <v>11</v>
+      </c>
+      <c r="G347" t="s">
+        <v>108</v>
+      </c>
+      <c r="H347" t="s">
+        <v>123</v>
+      </c>
+      <c r="I347">
+        <v>2</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>2</v>
+      </c>
+      <c r="L347">
+        <v>5</v>
+      </c>
+      <c r="M347">
+        <v>1</v>
+      </c>
+      <c r="N347">
+        <v>6</v>
+      </c>
+      <c r="O347" t="s">
+        <v>338</v>
+      </c>
+      <c r="P347" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q347">
+        <v>-1</v>
+      </c>
+      <c r="R347">
+        <v>-1</v>
+      </c>
+      <c r="S347">
+        <v>-1</v>
+      </c>
+      <c r="T347">
+        <v>0</v>
+      </c>
+      <c r="U347">
+        <v>0</v>
+      </c>
+      <c r="V347">
+        <v>0</v>
+      </c>
+      <c r="W347">
+        <v>0</v>
+      </c>
+      <c r="X347">
+        <v>0</v>
+      </c>
+      <c r="Y347">
+        <v>0</v>
+      </c>
+      <c r="Z347">
+        <v>0</v>
+      </c>
+      <c r="AA347">
+        <v>0</v>
+      </c>
+      <c r="AB347">
+        <v>0</v>
+      </c>
+      <c r="AC347">
+        <v>1.08</v>
+      </c>
+      <c r="AD347">
+        <v>7.45</v>
+      </c>
+      <c r="AE347">
+        <v>19.9</v>
+      </c>
+      <c r="AF347">
+        <v>0</v>
+      </c>
+      <c r="AG347">
+        <v>0</v>
+      </c>
+      <c r="AH347">
+        <v>0</v>
+      </c>
+      <c r="AI347">
+        <v>0</v>
+      </c>
+      <c r="AJ347">
+        <v>1.48</v>
+      </c>
+      <c r="AK347">
+        <v>2.31</v>
+      </c>
+      <c r="AL347">
+        <v>0</v>
+      </c>
+      <c r="AM347">
+        <v>0</v>
+      </c>
+      <c r="AN347">
+        <v>0</v>
+      </c>
+      <c r="AO347">
+        <v>0</v>
+      </c>
+      <c r="AP347">
+        <v>0</v>
+      </c>
+      <c r="AQ347">
+        <v>1.5</v>
+      </c>
+      <c r="AR347">
+        <v>0.2</v>
+      </c>
+      <c r="AS347">
+        <v>1.8</v>
+      </c>
+      <c r="AT347">
+        <v>0.17</v>
+      </c>
+      <c r="AU347">
+        <v>1.62</v>
+      </c>
+      <c r="AV347">
+        <v>0.87</v>
+      </c>
+      <c r="AW347">
+        <v>2.49</v>
+      </c>
+      <c r="AX347">
+        <v>0</v>
+      </c>
+      <c r="AY347">
+        <v>0</v>
+      </c>
+      <c r="AZ347">
+        <v>0</v>
+      </c>
+      <c r="BA347">
+        <v>0</v>
+      </c>
+      <c r="BB347">
+        <v>0</v>
+      </c>
+      <c r="BC347">
+        <v>0</v>
+      </c>
+      <c r="BD347">
+        <v>0</v>
+      </c>
+      <c r="BE347">
+        <v>0</v>
+      </c>
+      <c r="BF347">
+        <v>-1</v>
+      </c>
+      <c r="BG347">
+        <v>-1</v>
+      </c>
+      <c r="BH347">
+        <v>-1</v>
+      </c>
+      <c r="BI347">
+        <v>-1</v>
+      </c>
+      <c r="BJ347">
+        <v>-1</v>
+      </c>
+      <c r="BK347">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:63">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>5556801</v>
+      </c>
+      <c r="C348" t="s">
+        <v>63</v>
+      </c>
+      <c r="D348" t="s">
+        <v>64</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45109.66666666666</v>
+      </c>
+      <c r="F348">
+        <v>11</v>
+      </c>
+      <c r="G348" t="s">
+        <v>81</v>
+      </c>
+      <c r="H348" t="s">
+        <v>91</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>1</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="L348">
+        <v>1</v>
+      </c>
+      <c r="M348">
+        <v>1</v>
+      </c>
+      <c r="N348">
+        <v>2</v>
+      </c>
+      <c r="O348" t="s">
+        <v>269</v>
+      </c>
+      <c r="P348" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q348">
+        <v>8</v>
+      </c>
+      <c r="R348">
+        <v>2</v>
+      </c>
+      <c r="S348">
+        <v>10</v>
+      </c>
+      <c r="T348">
+        <v>4</v>
+      </c>
+      <c r="U348">
+        <v>2.05</v>
+      </c>
+      <c r="V348">
+        <v>2.63</v>
+      </c>
+      <c r="W348">
+        <v>0</v>
+      </c>
+      <c r="X348">
+        <v>0</v>
+      </c>
+      <c r="Y348">
+        <v>0</v>
+      </c>
+      <c r="Z348">
+        <v>0</v>
+      </c>
+      <c r="AA348">
+        <v>0</v>
+      </c>
+      <c r="AB348">
+        <v>0</v>
+      </c>
+      <c r="AC348">
+        <v>5.95</v>
+      </c>
+      <c r="AD348">
+        <v>3.55</v>
+      </c>
+      <c r="AE348">
+        <v>1.51</v>
+      </c>
+      <c r="AF348">
+        <v>0</v>
+      </c>
+      <c r="AG348">
+        <v>0</v>
+      </c>
+      <c r="AH348">
+        <v>0</v>
+      </c>
+      <c r="AI348">
+        <v>0</v>
+      </c>
+      <c r="AJ348">
+        <v>1.94</v>
+      </c>
+      <c r="AK348">
+        <v>1.68</v>
+      </c>
+      <c r="AL348">
+        <v>0</v>
+      </c>
+      <c r="AM348">
+        <v>0</v>
+      </c>
+      <c r="AN348">
+        <v>0</v>
+      </c>
+      <c r="AO348">
+        <v>0</v>
+      </c>
+      <c r="AP348">
+        <v>0</v>
+      </c>
+      <c r="AQ348">
+        <v>1.2</v>
+      </c>
+      <c r="AR348">
+        <v>2.5</v>
+      </c>
+      <c r="AS348">
+        <v>1.17</v>
+      </c>
+      <c r="AT348">
+        <v>2.2</v>
+      </c>
+      <c r="AU348">
+        <v>1.82</v>
+      </c>
+      <c r="AV348">
+        <v>1.31</v>
+      </c>
+      <c r="AW348">
+        <v>3.13</v>
+      </c>
+      <c r="AX348">
+        <v>0</v>
+      </c>
+      <c r="AY348">
+        <v>0</v>
+      </c>
+      <c r="AZ348">
+        <v>0</v>
+      </c>
+      <c r="BA348">
+        <v>0</v>
+      </c>
+      <c r="BB348">
+        <v>0</v>
+      </c>
+      <c r="BC348">
+        <v>2</v>
+      </c>
+      <c r="BD348">
+        <v>0</v>
+      </c>
+      <c r="BE348">
+        <v>0</v>
+      </c>
+      <c r="BF348">
+        <v>7</v>
+      </c>
+      <c r="BG348">
+        <v>4</v>
+      </c>
+      <c r="BH348">
+        <v>9</v>
+      </c>
+      <c r="BI348">
+        <v>7</v>
+      </c>
+      <c r="BJ348">
+        <v>16</v>
+      </c>
+      <c r="BK348">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" spans="1:63">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>5556804</v>
+      </c>
+      <c r="C349" t="s">
+        <v>63</v>
+      </c>
+      <c r="D349" t="s">
+        <v>64</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45109.70833333334</v>
+      </c>
+      <c r="F349">
+        <v>11</v>
+      </c>
+      <c r="G349" t="s">
+        <v>92</v>
+      </c>
+      <c r="H349" t="s">
+        <v>86</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+      <c r="K349">
+        <v>1</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>3</v>
+      </c>
+      <c r="N349">
+        <v>3</v>
+      </c>
+      <c r="O349" t="s">
+        <v>135</v>
+      </c>
+      <c r="P349" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q349">
+        <v>6</v>
+      </c>
+      <c r="R349">
+        <v>10</v>
+      </c>
+      <c r="S349">
+        <v>16</v>
+      </c>
+      <c r="T349">
+        <v>3.6</v>
+      </c>
+      <c r="U349">
+        <v>2</v>
+      </c>
+      <c r="V349">
+        <v>3.1</v>
+      </c>
+      <c r="W349">
+        <v>0</v>
+      </c>
+      <c r="X349">
+        <v>0</v>
+      </c>
+      <c r="Y349">
+        <v>0</v>
+      </c>
+      <c r="Z349">
+        <v>0</v>
+      </c>
+      <c r="AA349">
+        <v>0</v>
+      </c>
+      <c r="AB349">
+        <v>0</v>
+      </c>
+      <c r="AC349">
+        <v>3.4</v>
+      </c>
+      <c r="AD349">
+        <v>2.98</v>
+      </c>
+      <c r="AE349">
+        <v>2.09</v>
+      </c>
+      <c r="AF349">
+        <v>0</v>
+      </c>
+      <c r="AG349">
+        <v>0</v>
+      </c>
+      <c r="AH349">
+        <v>0</v>
+      </c>
+      <c r="AI349">
+        <v>0</v>
+      </c>
+      <c r="AJ349">
+        <v>2.16</v>
+      </c>
+      <c r="AK349">
+        <v>1.54</v>
+      </c>
+      <c r="AL349">
+        <v>0</v>
+      </c>
+      <c r="AM349">
+        <v>0</v>
+      </c>
+      <c r="AN349">
+        <v>0</v>
+      </c>
+      <c r="AO349">
+        <v>0</v>
+      </c>
+      <c r="AP349">
+        <v>0</v>
+      </c>
+      <c r="AQ349">
+        <v>2</v>
+      </c>
+      <c r="AR349">
+        <v>0.6</v>
+      </c>
+      <c r="AS349">
+        <v>1.67</v>
+      </c>
+      <c r="AT349">
+        <v>1</v>
+      </c>
+      <c r="AU349">
+        <v>1.28</v>
+      </c>
+      <c r="AV349">
+        <v>2.22</v>
+      </c>
+      <c r="AW349">
+        <v>3.5</v>
+      </c>
+      <c r="AX349">
+        <v>0</v>
+      </c>
+      <c r="AY349">
+        <v>0</v>
+      </c>
+      <c r="AZ349">
+        <v>0</v>
+      </c>
+      <c r="BA349">
+        <v>0</v>
+      </c>
+      <c r="BB349">
+        <v>0</v>
+      </c>
+      <c r="BC349">
+        <v>1.91</v>
+      </c>
+      <c r="BD349">
+        <v>0</v>
+      </c>
+      <c r="BE349">
+        <v>0</v>
+      </c>
+      <c r="BF349">
+        <v>0</v>
+      </c>
+      <c r="BG349">
+        <v>4</v>
+      </c>
+      <c r="BH349">
+        <v>0</v>
+      </c>
+      <c r="BI349">
+        <v>0</v>
+      </c>
+      <c r="BJ349">
+        <v>0</v>
+      </c>
+      <c r="BK349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:63">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>5556745</v>
+      </c>
+      <c r="C350" t="s">
+        <v>63</v>
+      </c>
+      <c r="D350" t="s">
+        <v>64</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45109.75</v>
+      </c>
+      <c r="F350">
+        <v>11</v>
+      </c>
+      <c r="G350" t="s">
+        <v>94</v>
+      </c>
+      <c r="H350" t="s">
+        <v>89</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
+      <c r="N350">
+        <v>1</v>
+      </c>
+      <c r="O350" t="s">
+        <v>135</v>
+      </c>
+      <c r="P350" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q350">
+        <v>3</v>
+      </c>
+      <c r="R350">
+        <v>1</v>
+      </c>
+      <c r="S350">
+        <v>4</v>
+      </c>
+      <c r="T350">
+        <v>7.5</v>
+      </c>
+      <c r="U350">
+        <v>2.4</v>
+      </c>
+      <c r="V350">
+        <v>1.8</v>
+      </c>
+      <c r="W350">
+        <v>0</v>
+      </c>
+      <c r="X350">
+        <v>0</v>
+      </c>
+      <c r="Y350">
+        <v>0</v>
+      </c>
+      <c r="Z350">
+        <v>0</v>
+      </c>
+      <c r="AA350">
+        <v>0</v>
+      </c>
+      <c r="AB350">
+        <v>0</v>
+      </c>
+      <c r="AC350">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AD350">
+        <v>4.75</v>
+      </c>
+      <c r="AE350">
+        <v>1.28</v>
+      </c>
+      <c r="AF350">
+        <v>0</v>
+      </c>
+      <c r="AG350">
+        <v>0</v>
+      </c>
+      <c r="AH350">
+        <v>0</v>
+      </c>
+      <c r="AI350">
+        <v>0</v>
+      </c>
+      <c r="AJ350">
+        <v>1.68</v>
+      </c>
+      <c r="AK350">
+        <v>1.94</v>
+      </c>
+      <c r="AL350">
+        <v>0</v>
+      </c>
+      <c r="AM350">
+        <v>0</v>
+      </c>
+      <c r="AN350">
+        <v>0</v>
+      </c>
+      <c r="AO350">
+        <v>0</v>
+      </c>
+      <c r="AP350">
+        <v>0</v>
+      </c>
+      <c r="AQ350">
+        <v>1.2</v>
+      </c>
+      <c r="AR350">
+        <v>1.25</v>
+      </c>
+      <c r="AS350">
+        <v>1</v>
+      </c>
+      <c r="AT350">
+        <v>1.6</v>
+      </c>
+      <c r="AU350">
+        <v>1.73</v>
+      </c>
+      <c r="AV350">
+        <v>1.05</v>
+      </c>
+      <c r="AW350">
+        <v>2.78</v>
+      </c>
+      <c r="AX350">
+        <v>0</v>
+      </c>
+      <c r="AY350">
+        <v>0</v>
+      </c>
+      <c r="AZ350">
+        <v>0</v>
+      </c>
+      <c r="BA350">
+        <v>0</v>
+      </c>
+      <c r="BB350">
+        <v>0</v>
+      </c>
+      <c r="BC350">
+        <v>0</v>
+      </c>
+      <c r="BD350">
+        <v>0</v>
+      </c>
+      <c r="BE350">
+        <v>0</v>
+      </c>
+      <c r="BF350">
+        <v>0</v>
+      </c>
+      <c r="BG350">
+        <v>2</v>
+      </c>
+      <c r="BH350">
+        <v>0</v>
+      </c>
+      <c r="BI350">
+        <v>0</v>
+      </c>
+      <c r="BJ350">
+        <v>0</v>
+      </c>
+      <c r="BK350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:63">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>5557137</v>
+      </c>
+      <c r="C351" t="s">
+        <v>63</v>
+      </c>
+      <c r="D351" t="s">
+        <v>64</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45109.75</v>
+      </c>
+      <c r="F351">
+        <v>11</v>
+      </c>
+      <c r="G351" t="s">
+        <v>93</v>
+      </c>
+      <c r="H351" t="s">
+        <v>87</v>
+      </c>
+      <c r="I351">
+        <v>2</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+      <c r="K351">
+        <v>3</v>
+      </c>
+      <c r="L351">
+        <v>4</v>
+      </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
+      <c r="N351">
+        <v>5</v>
+      </c>
+      <c r="O351" t="s">
+        <v>339</v>
+      </c>
+      <c r="P351" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q351">
+        <v>0</v>
+      </c>
+      <c r="R351">
+        <v>8</v>
+      </c>
+      <c r="S351">
+        <v>8</v>
+      </c>
+      <c r="T351">
+        <v>3.25</v>
+      </c>
+      <c r="U351">
+        <v>1.83</v>
+      </c>
+      <c r="V351">
+        <v>3.75</v>
+      </c>
+      <c r="W351">
+        <v>0</v>
+      </c>
+      <c r="X351">
+        <v>0</v>
+      </c>
+      <c r="Y351">
+        <v>0</v>
+      </c>
+      <c r="Z351">
+        <v>0</v>
+      </c>
+      <c r="AA351">
+        <v>0</v>
+      </c>
+      <c r="AB351">
+        <v>0</v>
+      </c>
+      <c r="AC351">
+        <v>2.43</v>
+      </c>
+      <c r="AD351">
+        <v>2.68</v>
+      </c>
+      <c r="AE351">
+        <v>3.1</v>
+      </c>
+      <c r="AF351">
+        <v>0</v>
+      </c>
+      <c r="AG351">
+        <v>0</v>
+      </c>
+      <c r="AH351">
+        <v>1.53</v>
+      </c>
+      <c r="AI351">
+        <v>2.38</v>
+      </c>
+      <c r="AJ351">
+        <v>2.7</v>
+      </c>
+      <c r="AK351">
+        <v>1.35</v>
+      </c>
+      <c r="AL351">
+        <v>0</v>
+      </c>
+      <c r="AM351">
+        <v>0</v>
+      </c>
+      <c r="AN351">
+        <v>0</v>
+      </c>
+      <c r="AO351">
+        <v>0</v>
+      </c>
+      <c r="AP351">
+        <v>0</v>
+      </c>
+      <c r="AQ351">
+        <v>0.2</v>
+      </c>
+      <c r="AR351">
+        <v>0.5</v>
+      </c>
+      <c r="AS351">
+        <v>0.67</v>
+      </c>
+      <c r="AT351">
+        <v>0.4</v>
+      </c>
+      <c r="AU351">
+        <v>1.66</v>
+      </c>
+      <c r="AV351">
+        <v>1.22</v>
+      </c>
+      <c r="AW351">
+        <v>2.88</v>
+      </c>
+      <c r="AX351">
+        <v>0</v>
+      </c>
+      <c r="AY351">
+        <v>0</v>
+      </c>
+      <c r="AZ351">
+        <v>0</v>
+      </c>
+      <c r="BA351">
+        <v>0</v>
+      </c>
+      <c r="BB351">
+        <v>0</v>
+      </c>
+      <c r="BC351">
+        <v>2.1</v>
+      </c>
+      <c r="BD351">
+        <v>0</v>
+      </c>
+      <c r="BE351">
+        <v>0</v>
+      </c>
+      <c r="BF351">
+        <v>7</v>
+      </c>
+      <c r="BG351">
+        <v>6</v>
+      </c>
+      <c r="BH351">
+        <v>5</v>
+      </c>
+      <c r="BI351">
+        <v>18</v>
+      </c>
+      <c r="BJ351">
+        <v>12</v>
+      </c>
+      <c r="BK351">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="352" spans="1:63">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>5556858</v>
+      </c>
+      <c r="C352" t="s">
+        <v>63</v>
+      </c>
+      <c r="D352" t="s">
+        <v>64</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45110.83333333334</v>
+      </c>
+      <c r="F352">
+        <v>11</v>
+      </c>
+      <c r="G352" t="s">
+        <v>128</v>
+      </c>
+      <c r="H352" t="s">
+        <v>120</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352">
+        <v>2</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+      <c r="M352">
+        <v>2</v>
+      </c>
+      <c r="N352">
+        <v>3</v>
+      </c>
+      <c r="O352" t="s">
+        <v>158</v>
+      </c>
+      <c r="P352" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q352">
+        <v>11</v>
+      </c>
+      <c r="R352">
+        <v>4</v>
+      </c>
+      <c r="S352">
+        <v>15</v>
+      </c>
+      <c r="T352">
+        <v>2.63</v>
+      </c>
+      <c r="U352">
+        <v>2.05</v>
+      </c>
+      <c r="V352">
+        <v>4.33</v>
+      </c>
+      <c r="W352">
+        <v>0</v>
+      </c>
+      <c r="X352">
+        <v>0</v>
+      </c>
+      <c r="Y352">
+        <v>0</v>
+      </c>
+      <c r="Z352">
+        <v>0</v>
+      </c>
+      <c r="AA352">
+        <v>0</v>
+      </c>
+      <c r="AB352">
+        <v>0</v>
+      </c>
+      <c r="AC352">
+        <v>1.91</v>
+      </c>
+      <c r="AD352">
+        <v>3.4</v>
+      </c>
+      <c r="AE352">
+        <v>3.4</v>
+      </c>
+      <c r="AF352">
+        <v>0</v>
+      </c>
+      <c r="AG352">
+        <v>0</v>
+      </c>
+      <c r="AH352">
+        <v>0</v>
+      </c>
+      <c r="AI352">
+        <v>0</v>
+      </c>
+      <c r="AJ352">
+        <v>2.2</v>
+      </c>
+      <c r="AK352">
+        <v>1.65</v>
+      </c>
+      <c r="AL352">
+        <v>0</v>
+      </c>
+      <c r="AM352">
+        <v>0</v>
+      </c>
+      <c r="AN352">
+        <v>0</v>
+      </c>
+      <c r="AO352">
+        <v>0</v>
+      </c>
+      <c r="AP352">
+        <v>0</v>
+      </c>
+      <c r="AQ352">
+        <v>2.5</v>
+      </c>
+      <c r="AR352">
+        <v>0.6</v>
+      </c>
+      <c r="AS352">
+        <v>2</v>
+      </c>
+      <c r="AT352">
+        <v>1</v>
+      </c>
+      <c r="AU352">
+        <v>2.5</v>
+      </c>
+      <c r="AV352">
+        <v>1.64</v>
+      </c>
+      <c r="AW352">
+        <v>4.14</v>
+      </c>
+      <c r="AX352">
+        <v>0</v>
+      </c>
+      <c r="AY352">
+        <v>0</v>
+      </c>
+      <c r="AZ352">
+        <v>0</v>
+      </c>
+      <c r="BA352">
+        <v>0</v>
+      </c>
+      <c r="BB352">
+        <v>0</v>
+      </c>
+      <c r="BC352">
+        <v>2.2</v>
+      </c>
+      <c r="BD352">
+        <v>0</v>
+      </c>
+      <c r="BE352">
+        <v>0</v>
+      </c>
+      <c r="BF352">
+        <v>3</v>
+      </c>
+      <c r="BG352">
+        <v>8</v>
+      </c>
+      <c r="BH352">
+        <v>8</v>
+      </c>
+      <c r="BI352">
+        <v>8</v>
+      </c>
+      <c r="BJ352">
+        <v>11</v>
+      </c>
+      <c r="BK352">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353" spans="1:63">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>5557028</v>
+      </c>
+      <c r="C353" t="s">
+        <v>63</v>
+      </c>
+      <c r="D353" t="s">
+        <v>64</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45110.85416666666</v>
+      </c>
+      <c r="F353">
+        <v>11</v>
+      </c>
+      <c r="G353" t="s">
+        <v>96</v>
+      </c>
+      <c r="H353" t="s">
+        <v>66</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>4</v>
+      </c>
+      <c r="M353">
+        <v>2</v>
+      </c>
+      <c r="N353">
+        <v>6</v>
+      </c>
+      <c r="O353" t="s">
+        <v>340</v>
+      </c>
+      <c r="P353" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q353">
+        <v>5</v>
+      </c>
+      <c r="R353">
+        <v>2</v>
+      </c>
+      <c r="S353">
+        <v>7</v>
+      </c>
+      <c r="T353">
+        <v>2.5</v>
+      </c>
+      <c r="U353">
+        <v>2.1</v>
+      </c>
+      <c r="V353">
+        <v>4.33</v>
+      </c>
+      <c r="W353">
+        <v>0</v>
+      </c>
+      <c r="X353">
+        <v>0</v>
+      </c>
+      <c r="Y353">
+        <v>0</v>
+      </c>
+      <c r="Z353">
+        <v>0</v>
+      </c>
+      <c r="AA353">
+        <v>0</v>
+      </c>
+      <c r="AB353">
+        <v>0</v>
+      </c>
+      <c r="AC353">
+        <v>1.83</v>
+      </c>
+      <c r="AD353">
+        <v>3.5</v>
+      </c>
+      <c r="AE353">
+        <v>3.6</v>
+      </c>
+      <c r="AF353">
+        <v>0</v>
+      </c>
+      <c r="AG353">
+        <v>0</v>
+      </c>
+      <c r="AH353">
+        <v>0</v>
+      </c>
+      <c r="AI353">
+        <v>0</v>
+      </c>
+      <c r="AJ353">
+        <v>2</v>
+      </c>
+      <c r="AK353">
+        <v>1.8</v>
+      </c>
+      <c r="AL353">
+        <v>0</v>
+      </c>
+      <c r="AM353">
+        <v>0</v>
+      </c>
+      <c r="AN353">
+        <v>0</v>
+      </c>
+      <c r="AO353">
+        <v>0</v>
+      </c>
+      <c r="AP353">
+        <v>0</v>
+      </c>
+      <c r="AQ353">
+        <v>2.2</v>
+      </c>
+      <c r="AR353">
+        <v>0.8</v>
+      </c>
+      <c r="AS353">
+        <v>2.33</v>
+      </c>
+      <c r="AT353">
+        <v>0.67</v>
+      </c>
+      <c r="AU353">
+        <v>1.72</v>
+      </c>
+      <c r="AV353">
+        <v>1.52</v>
+      </c>
+      <c r="AW353">
+        <v>3.24</v>
+      </c>
+      <c r="AX353">
+        <v>0</v>
+      </c>
+      <c r="AY353">
+        <v>0</v>
+      </c>
+      <c r="AZ353">
+        <v>0</v>
+      </c>
+      <c r="BA353">
+        <v>0</v>
+      </c>
+      <c r="BB353">
+        <v>0</v>
+      </c>
+      <c r="BC353">
+        <v>0</v>
+      </c>
+      <c r="BD353">
+        <v>0</v>
+      </c>
+      <c r="BE353">
+        <v>0</v>
+      </c>
+      <c r="BF353">
+        <v>9</v>
+      </c>
+      <c r="BG353">
+        <v>4</v>
+      </c>
+      <c r="BH353">
+        <v>6</v>
+      </c>
+      <c r="BI353">
+        <v>8</v>
+      </c>
+      <c r="BJ353">
+        <v>15</v>
+      </c>
+      <c r="BK353">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
